--- a/Jogos_da_Semana_FlashScore_2025-04-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ87"/>
+  <dimension ref="A1:AJ88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -668,10 +668,10 @@
         <v>3.75</v>
       </c>
       <c r="N2" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="O2" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="P2" t="n">
         <v>1.4</v>
@@ -790,10 +790,10 @@
         <v>3.75</v>
       </c>
       <c r="N3" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="P3" t="n">
         <v>1.36</v>
@@ -832,7 +832,7 @@
         <v>7</v>
       </c>
       <c r="AB3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC3" t="n">
         <v>41</v>
@@ -1269,7 +1269,7 @@
         <v>1.04</v>
       </c>
       <c r="K7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L7" t="n">
         <v>1.25</v>
@@ -1501,10 +1501,10 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H9" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I9" t="n">
         <v>5</v>
@@ -1513,25 +1513,25 @@
         <v>1.03</v>
       </c>
       <c r="K9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L9" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="N9" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="O9" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="P9" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R9" t="n">
         <v>1.73</v>
@@ -1540,7 +1540,7 @@
         <v>2</v>
       </c>
       <c r="T9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U9" t="n">
         <v>8</v>
@@ -1552,16 +1552,16 @@
         <v>11</v>
       </c>
       <c r="X9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y9" t="n">
         <v>21</v>
       </c>
       <c r="Z9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA9" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB9" t="n">
         <v>17</v>
@@ -1623,13 +1623,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="H10" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="J10" t="n">
         <v>1.04</v>
@@ -1638,16 +1638,16 @@
         <v>13</v>
       </c>
       <c r="L10" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N10" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O10" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P10" t="n">
         <v>1.33</v>
@@ -1656,25 +1656,25 @@
         <v>3.25</v>
       </c>
       <c r="R10" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S10" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T10" t="n">
         <v>8.5</v>
       </c>
       <c r="U10" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V10" t="n">
         <v>8.5</v>
       </c>
       <c r="W10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y10" t="n">
         <v>23</v>
@@ -1695,19 +1695,19 @@
         <v>151</v>
       </c>
       <c r="AE10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH10" t="n">
         <v>41</v>
       </c>
       <c r="AI10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ10" t="n">
         <v>34</v>
@@ -1754,10 +1754,10 @@
         <v>6</v>
       </c>
       <c r="J11" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L11" t="n">
         <v>1.4</v>
@@ -1766,10 +1766,10 @@
         <v>2.75</v>
       </c>
       <c r="N11" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O11" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P11" t="n">
         <v>1.5</v>
@@ -1787,13 +1787,13 @@
         <v>5.5</v>
       </c>
       <c r="U11" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V11" t="n">
         <v>9</v>
       </c>
       <c r="W11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X11" t="n">
         <v>15</v>
@@ -2028,13 +2028,13 @@
         <v>1.7</v>
       </c>
       <c r="T13" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="U13" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="V13" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="W13" t="n">
         <v>24</v>
@@ -2061,13 +2061,13 @@
         <v>600</v>
       </c>
       <c r="AE13" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AF13" t="n">
         <v>17</v>
       </c>
       <c r="AG13" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH13" t="n">
         <v>50</v>
@@ -2111,19 +2111,19 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H14" t="n">
         <v>3.6</v>
       </c>
       <c r="I14" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J14" t="n">
         <v>1.03</v>
       </c>
       <c r="K14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L14" t="n">
         <v>1.17</v>
@@ -2162,13 +2162,13 @@
         <v>19</v>
       </c>
       <c r="X14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA14" t="n">
         <v>7</v>
@@ -2198,7 +2198,7 @@
         <v>26</v>
       </c>
       <c r="AJ14" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15">
@@ -3083,13 +3083,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H22" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I22" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J22" t="n">
         <v>1.08</v>
@@ -3116,10 +3116,10 @@
         <v>2.5</v>
       </c>
       <c r="R22" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S22" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T22" t="n">
         <v>6</v>
@@ -3146,7 +3146,7 @@
         <v>6.5</v>
       </c>
       <c r="AB22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC22" t="n">
         <v>67</v>
@@ -3164,7 +3164,7 @@
         <v>15</v>
       </c>
       <c r="AH22" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI22" t="n">
         <v>41</v>
@@ -3327,13 +3327,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="H24" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I24" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="J24" t="n">
         <v>1.06</v>
@@ -3354,7 +3354,7 @@
         <v>1.85</v>
       </c>
       <c r="P24" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="Q24" t="n">
         <v>2.75</v>
@@ -3366,7 +3366,7 @@
         <v>1.67</v>
       </c>
       <c r="T24" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U24" t="n">
         <v>6.5</v>
@@ -3375,7 +3375,7 @@
         <v>8.5</v>
       </c>
       <c r="W24" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X24" t="n">
         <v>13</v>
@@ -3408,7 +3408,7 @@
         <v>21</v>
       </c>
       <c r="AH24" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI24" t="n">
         <v>51</v>
@@ -3476,7 +3476,7 @@
         <v>1.8</v>
       </c>
       <c r="P25" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="Q25" t="n">
         <v>2.75</v>
@@ -3702,43 +3702,43 @@
         <v>2.95</v>
       </c>
       <c r="J27" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="K27" t="n">
-        <v>4.75</v>
+        <v>4.65</v>
       </c>
       <c r="L27" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="M27" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="N27" t="n">
-        <v>2.65</v>
+        <v>2.72</v>
       </c>
       <c r="O27" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="P27" t="n">
         <v>1.6</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="R27" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S27" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="T27" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="U27" t="n">
         <v>14</v>
       </c>
       <c r="V27" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="W27" t="n">
         <v>40</v>
@@ -3747,16 +3747,16 @@
         <v>32</v>
       </c>
       <c r="Y27" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Z27" t="n">
-        <v>4.75</v>
+        <v>4.65</v>
       </c>
       <c r="AA27" t="n">
         <v>5</v>
       </c>
       <c r="AB27" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC27" t="n">
         <v>100</v>
@@ -3765,13 +3765,13 @@
         <v>101</v>
       </c>
       <c r="AE27" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AF27" t="n">
         <v>14</v>
       </c>
       <c r="AG27" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AH27" t="n">
         <v>40</v>
@@ -3780,7 +3780,7 @@
         <v>32</v>
       </c>
       <c r="AJ27" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28">
@@ -4086,7 +4086,7 @@
         <v>2.2</v>
       </c>
       <c r="P30" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="Q30" t="n">
         <v>3.4</v>
@@ -4181,13 +4181,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H31" t="n">
         <v>3.4</v>
       </c>
       <c r="I31" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
         <v>1.04</v>
@@ -4208,16 +4208,16 @@
         <v>2.1</v>
       </c>
       <c r="P31" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q31" t="n">
         <v>3.25</v>
       </c>
       <c r="R31" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S31" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T31" t="n">
         <v>13</v>
@@ -4229,10 +4229,10 @@
         <v>12</v>
       </c>
       <c r="W31" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X31" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y31" t="n">
         <v>29</v>
@@ -4306,10 +4306,10 @@
         <v>3.25</v>
       </c>
       <c r="H32" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I32" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
         <v>1.05</v>
@@ -4324,25 +4324,25 @@
         <v>3.5</v>
       </c>
       <c r="N32" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="O32" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="P32" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.62</v>
+        <v>2.75</v>
       </c>
       <c r="R32" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="S32" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="T32" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U32" t="n">
         <v>17</v>
@@ -4354,16 +4354,16 @@
         <v>41</v>
       </c>
       <c r="X32" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y32" t="n">
         <v>34</v>
       </c>
       <c r="Z32" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AA32" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB32" t="n">
         <v>15</v>
@@ -4372,10 +4372,10 @@
         <v>51</v>
       </c>
       <c r="AD32" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE32" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF32" t="n">
         <v>10</v>
@@ -4390,7 +4390,7 @@
         <v>17</v>
       </c>
       <c r="AJ32" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33">
@@ -4452,7 +4452,7 @@
         <v>2.08</v>
       </c>
       <c r="P33" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q33" t="n">
         <v>3.25</v>
@@ -4574,7 +4574,7 @@
         <v>1.93</v>
       </c>
       <c r="P34" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="Q34" t="n">
         <v>2.75</v>
@@ -4696,10 +4696,10 @@
         <v>1.7</v>
       </c>
       <c r="P35" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="R35" t="n">
         <v>1.83</v>
@@ -5070,7 +5070,7 @@
         <v>1.82</v>
       </c>
       <c r="T38" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="U38" t="n">
         <v>12.5</v>
@@ -5103,7 +5103,7 @@
         <v>600</v>
       </c>
       <c r="AE38" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AF38" t="n">
         <v>13.5</v>
@@ -5153,18 +5153,18 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="H39" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I39" t="n">
-        <v>2.62</v>
+        <v>2.67</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M39" t="n">
         <v>2.82</v>
@@ -5179,37 +5179,37 @@
         <v>1.44</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="R39" t="n">
         <v>1.72</v>
       </c>
       <c r="S39" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="T39" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="U39" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="V39" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="W39" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="X39" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y39" t="n">
         <v>32</v>
       </c>
       <c r="Z39" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AA39" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AB39" t="n">
         <v>13.5</v>
@@ -5230,10 +5230,10 @@
         <v>9.75</v>
       </c>
       <c r="AH39" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AI39" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ39" t="n">
         <v>32</v>
@@ -5306,10 +5306,10 @@
         <v>1.7</v>
       </c>
       <c r="T40" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="U40" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="V40" t="n">
         <v>8.25</v>
@@ -5330,22 +5330,22 @@
         <v>8.25</v>
       </c>
       <c r="AB40" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AC40" t="n">
         <v>100</v>
       </c>
       <c r="AD40" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AE40" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AF40" t="n">
         <v>40</v>
       </c>
       <c r="AG40" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH40" t="n">
         <v>150</v>
@@ -5354,7 +5354,7 @@
         <v>75</v>
       </c>
       <c r="AJ40" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41">
@@ -5424,10 +5424,10 @@
         <v>1.82</v>
       </c>
       <c r="T41" t="n">
-        <v>7.7</v>
+        <v>8.25</v>
       </c>
       <c r="U41" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="V41" t="n">
         <v>10.25</v>
@@ -5436,10 +5436,10 @@
         <v>35</v>
       </c>
       <c r="X41" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Y41" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Z41" t="n">
         <v>7.5</v>
@@ -5454,25 +5454,25 @@
         <v>75</v>
       </c>
       <c r="AD41" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AE41" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AF41" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AG41" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AH41" t="n">
         <v>29</v>
       </c>
       <c r="AI41" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ41" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42">
@@ -5510,10 +5510,10 @@
         <v>2.27</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="I42" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>1.53</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="R42" t="n">
         <v>1.93</v>
@@ -5542,31 +5542,31 @@
         <v>1.7</v>
       </c>
       <c r="T42" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="U42" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="V42" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="W42" t="n">
         <v>23</v>
       </c>
       <c r="X42" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y42" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z42" t="n">
         <v>6.9</v>
       </c>
       <c r="AA42" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AB42" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC42" t="n">
         <v>100</v>
@@ -5575,22 +5575,22 @@
         <v>1000</v>
       </c>
       <c r="AE42" t="n">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="AF42" t="n">
         <v>15.5</v>
       </c>
       <c r="AG42" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH42" t="n">
         <v>45</v>
       </c>
       <c r="AI42" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AJ42" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43">
@@ -5625,10 +5625,10 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="H43" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="I43" t="n">
         <v>3.25</v>
@@ -5654,19 +5654,19 @@
         <v>2.2</v>
       </c>
       <c r="R43" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="S43" t="n">
         <v>1.7</v>
       </c>
       <c r="T43" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="U43" t="n">
         <v>10</v>
       </c>
       <c r="V43" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="W43" t="n">
         <v>23</v>
@@ -5675,7 +5675,7 @@
         <v>22</v>
       </c>
       <c r="Y43" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z43" t="n">
         <v>6.9</v>
@@ -5693,19 +5693,19 @@
         <v>900</v>
       </c>
       <c r="AE43" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AF43" t="n">
         <v>16</v>
       </c>
       <c r="AG43" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AH43" t="n">
         <v>45</v>
       </c>
       <c r="AI43" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AJ43" t="n">
         <v>45</v>
@@ -5772,7 +5772,7 @@
         <v>2.18</v>
       </c>
       <c r="R44" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="S44" t="n">
         <v>1.78</v>
@@ -6010,7 +6010,7 @@
         <v>1.98</v>
       </c>
       <c r="P46" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q46" t="n">
         <v>3</v>
@@ -6132,7 +6132,7 @@
         <v>2.35</v>
       </c>
       <c r="P47" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Q47" t="n">
         <v>3.5</v>
@@ -6703,10 +6703,10 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H52" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I52" t="n">
         <v>5.25</v>
@@ -6724,10 +6724,10 @@
         <v>2.5</v>
       </c>
       <c r="N52" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O52" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P52" t="n">
         <v>1.57</v>
@@ -6760,7 +6760,7 @@
         <v>41</v>
       </c>
       <c r="Z52" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA52" t="n">
         <v>7</v>
@@ -6974,10 +6974,10 @@
         <v>1.73</v>
       </c>
       <c r="P54" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="R54" t="n">
         <v>2.25</v>
@@ -7096,7 +7096,7 @@
         <v>1.67</v>
       </c>
       <c r="P55" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q55" t="n">
         <v>2.5</v>
@@ -7191,10 +7191,10 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H56" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I56" t="n">
         <v>1.9</v>
@@ -7203,7 +7203,7 @@
         <v>1.1</v>
       </c>
       <c r="K56" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="L56" t="n">
         <v>1.45</v>
@@ -7218,7 +7218,7 @@
         <v>1.53</v>
       </c>
       <c r="P56" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="Q56" t="n">
         <v>2.32</v>
@@ -7233,7 +7233,7 @@
         <v>8.75</v>
       </c>
       <c r="U56" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="V56" t="n">
         <v>14</v>
@@ -7248,13 +7248,13 @@
         <v>60</v>
       </c>
       <c r="Z56" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AA56" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AB56" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AC56" t="n">
         <v>120</v>
@@ -7435,70 +7435,70 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="H58" t="n">
-        <v>2.92</v>
+        <v>2.8</v>
       </c>
       <c r="I58" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J58" t="n">
         <v>1.11</v>
       </c>
       <c r="K58" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="L58" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="M58" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="N58" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="O58" t="n">
         <v>1.5</v>
       </c>
       <c r="P58" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="R58" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="S58" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="T58" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="U58" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="V58" t="n">
         <v>10.25</v>
       </c>
       <c r="W58" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="X58" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Y58" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Z58" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="AA58" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="AB58" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AC58" t="n">
         <v>100</v>
@@ -7507,22 +7507,22 @@
         <v>101</v>
       </c>
       <c r="AE58" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="AF58" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG58" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AH58" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AI58" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ58" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59">
@@ -7557,13 +7557,13 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H59" t="n">
         <v>3.1</v>
       </c>
       <c r="I59" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J59" t="n">
         <v>1.08</v>
@@ -7605,7 +7605,7 @@
         <v>11</v>
       </c>
       <c r="W59" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="X59" t="n">
         <v>26</v>
@@ -7807,7 +7807,7 @@
         <v>4.15</v>
       </c>
       <c r="I61" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -7825,7 +7825,7 @@
         <v>1.6</v>
       </c>
       <c r="S61" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="T61" t="n">
         <v>9</v>
@@ -7837,7 +7837,7 @@
         <v>8</v>
       </c>
       <c r="W61" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="X61" t="n">
         <v>11</v>
@@ -7867,7 +7867,7 @@
         <v>37</v>
       </c>
       <c r="AG61" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AH61" t="n">
         <v>110</v>
@@ -7911,13 +7911,13 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="H62" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="I62" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
@@ -7936,19 +7936,19 @@
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="S62" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="T62" t="n">
         <v>8.5</v>
       </c>
       <c r="U62" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="V62" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="W62" t="n">
         <v>8.5</v>
@@ -7963,10 +7963,10 @@
         <v>16</v>
       </c>
       <c r="AA62" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AB62" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AC62" t="n">
         <v>80</v>
@@ -7975,13 +7975,13 @@
         <v>600</v>
       </c>
       <c r="AE62" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF62" t="n">
         <v>55</v>
       </c>
       <c r="AG62" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH62" t="n">
         <v>175</v>
@@ -7990,7 +7990,7 @@
         <v>80</v>
       </c>
       <c r="AJ62" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63">
@@ -8024,36 +8024,96 @@
           <t>Olympique de Safi</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="inlineStr"/>
-      <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr"/>
-      <c r="W63" t="inlineStr"/>
-      <c r="X63" t="inlineStr"/>
-      <c r="Y63" t="inlineStr"/>
-      <c r="Z63" t="inlineStr"/>
-      <c r="AA63" t="inlineStr"/>
-      <c r="AB63" t="inlineStr"/>
-      <c r="AC63" t="inlineStr"/>
-      <c r="AD63" t="inlineStr"/>
-      <c r="AE63" t="inlineStr"/>
-      <c r="AF63" t="inlineStr"/>
-      <c r="AG63" t="inlineStr"/>
-      <c r="AH63" t="inlineStr"/>
-      <c r="AI63" t="inlineStr"/>
-      <c r="AJ63" t="inlineStr"/>
+      <c r="G63" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H63" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I63" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="K63" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L63" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M63" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N63" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O63" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P63" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R63" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S63" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T63" t="n">
+        <v>7</v>
+      </c>
+      <c r="U63" t="n">
+        <v>13</v>
+      </c>
+      <c r="V63" t="n">
+        <v>12</v>
+      </c>
+      <c r="W63" t="n">
+        <v>34</v>
+      </c>
+      <c r="X63" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -8086,36 +8146,96 @@
           <t>Renaissance Zemamra</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr"/>
-      <c r="T64" t="inlineStr"/>
-      <c r="U64" t="inlineStr"/>
-      <c r="V64" t="inlineStr"/>
-      <c r="W64" t="inlineStr"/>
-      <c r="X64" t="inlineStr"/>
-      <c r="Y64" t="inlineStr"/>
-      <c r="Z64" t="inlineStr"/>
-      <c r="AA64" t="inlineStr"/>
-      <c r="AB64" t="inlineStr"/>
-      <c r="AC64" t="inlineStr"/>
-      <c r="AD64" t="inlineStr"/>
-      <c r="AE64" t="inlineStr"/>
-      <c r="AF64" t="inlineStr"/>
-      <c r="AG64" t="inlineStr"/>
-      <c r="AH64" t="inlineStr"/>
-      <c r="AI64" t="inlineStr"/>
-      <c r="AJ64" t="inlineStr"/>
+      <c r="G64" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H64" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="K64" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L64" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M64" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="N64" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="O64" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P64" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R64" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S64" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T64" t="n">
+        <v>7</v>
+      </c>
+      <c r="U64" t="n">
+        <v>15</v>
+      </c>
+      <c r="V64" t="n">
+        <v>13</v>
+      </c>
+      <c r="W64" t="n">
+        <v>41</v>
+      </c>
+      <c r="X64" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>81</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -8176,7 +8296,7 @@
         <v>1.6</v>
       </c>
       <c r="P65" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q65" t="n">
         <v>2.5</v>
@@ -8271,19 +8391,19 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="H66" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I66" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="J66" t="n">
         <v>1.07</v>
       </c>
       <c r="K66" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L66" t="n">
         <v>1.4</v>
@@ -8298,7 +8418,7 @@
         <v>1.65</v>
       </c>
       <c r="P66" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q66" t="n">
         <v>2.5</v>
@@ -8310,19 +8430,19 @@
         <v>1.73</v>
       </c>
       <c r="T66" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U66" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V66" t="n">
         <v>9</v>
       </c>
       <c r="W66" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X66" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y66" t="n">
         <v>34</v>
@@ -8343,19 +8463,19 @@
         <v>900</v>
       </c>
       <c r="AE66" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF66" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG66" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH66" t="n">
         <v>41</v>
       </c>
       <c r="AI66" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ66" t="n">
         <v>41</v>
@@ -8420,7 +8540,7 @@
         <v>1.85</v>
       </c>
       <c r="P67" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="Q67" t="n">
         <v>2.75</v>
@@ -8542,7 +8662,7 @@
         <v>1.95</v>
       </c>
       <c r="P68" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="Q68" t="n">
         <v>2.75</v>
@@ -8646,10 +8766,10 @@
         <v>3.3</v>
       </c>
       <c r="J69" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K69" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L69" t="n">
         <v>1.33</v>
@@ -8658,16 +8778,16 @@
         <v>3.25</v>
       </c>
       <c r="N69" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O69" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="P69" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Q69" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="R69" t="n">
         <v>1.8</v>
@@ -8786,10 +8906,10 @@
         <v>1.53</v>
       </c>
       <c r="P70" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q70" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="R70" t="n">
         <v>2.1</v>
@@ -8852,7 +8972,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>xvw5a2Gc</t>
+          <t>l2tiewv9</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -8862,32 +8982,32 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Feirense</t>
+          <t>Gil Vicente</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Leiria</t>
+          <t>Vitoria Guimaraes</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I71" t="n">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="J71" t="n">
         <v>1.08</v>
@@ -8896,76 +9016,76 @@
         <v>8</v>
       </c>
       <c r="L71" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="M71" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="N71" t="n">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="O71" t="n">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="P71" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R71" t="n">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="S71" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="T71" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U71" t="n">
+        <v>17</v>
+      </c>
+      <c r="V71" t="n">
         <v>13</v>
       </c>
-      <c r="V71" t="n">
-        <v>11</v>
-      </c>
       <c r="W71" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="X71" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="Y71" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z71" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA71" t="n">
         <v>6</v>
       </c>
       <c r="AB71" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC71" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD71" t="n">
-        <v>301</v>
+        <v>451</v>
       </c>
       <c r="AE71" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AF71" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AG71" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH71" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AI71" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AJ71" t="n">
         <v>34</v>
@@ -8974,7 +9094,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>URpI0aKH</t>
+          <t>xvw5a2Gc</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -8984,38 +9104,38 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>ROMANIA - SUPERLIGA</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Gloria Buzau</t>
+          <t>Feirense</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Poli Iasi</t>
+          <t>Leiria</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H72" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="I72" t="n">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="J72" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K72" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L72" t="n">
         <v>1.36</v>
@@ -9024,10 +9144,10 @@
         <v>3</v>
       </c>
       <c r="N72" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O72" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P72" t="n">
         <v>1.5</v>
@@ -9036,22 +9156,22 @@
         <v>2.5</v>
       </c>
       <c r="R72" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S72" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T72" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U72" t="n">
+        <v>13</v>
+      </c>
+      <c r="V72" t="n">
         <v>11</v>
       </c>
-      <c r="V72" t="n">
-        <v>10</v>
-      </c>
       <c r="W72" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="X72" t="n">
         <v>23</v>
@@ -9063,28 +9183,28 @@
         <v>8</v>
       </c>
       <c r="AA72" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB72" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC72" t="n">
         <v>51</v>
       </c>
       <c r="AD72" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE72" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF72" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG72" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH72" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI72" t="n">
         <v>23</v>
@@ -9096,7 +9216,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>hMkg63jt</t>
+          <t>URpI0aKH</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -9106,7 +9226,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -9116,109 +9236,109 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>FC Hermannstadt</t>
+          <t>Gloria Buzau</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Petrolul</t>
+          <t>Poli Iasi</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="H73" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I73" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K73" t="n">
+        <v>9</v>
+      </c>
+      <c r="L73" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M73" t="n">
         <v>3</v>
       </c>
-      <c r="I73" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="K73" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="L73" t="n">
+      <c r="N73" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O73" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P73" t="n">
         <v>1.5</v>
       </c>
-      <c r="M73" t="n">
+      <c r="Q73" t="n">
         <v>2.5</v>
       </c>
-      <c r="N73" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="O73" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="P73" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Q73" t="n">
-        <v>2.25</v>
-      </c>
       <c r="R73" t="n">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="S73" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="T73" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="U73" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="V73" t="n">
         <v>10</v>
       </c>
       <c r="W73" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="X73" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y73" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z73" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA73" t="n">
         <v>6.5</v>
       </c>
-      <c r="AA73" t="n">
-        <v>6</v>
-      </c>
       <c r="AB73" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC73" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AD73" t="n">
-        <v>1250</v>
+        <v>351</v>
       </c>
       <c r="AE73" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF73" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AG73" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AH73" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AI73" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AJ73" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>6VKUJKgD</t>
+          <t>hMkg63jt</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -9228,119 +9348,119 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>12:55</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>ROMANIA - SUPERLIGA</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Al Okhdood</t>
+          <t>FC Hermannstadt</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Al Taawon</t>
+          <t>Petrolul</t>
         </is>
       </c>
       <c r="G74" t="n">
         <v>2.1</v>
       </c>
       <c r="H74" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I74" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="J74" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="K74" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="L74" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="M74" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N74" t="n">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="O74" t="n">
-        <v>1.67</v>
+        <v>1.48</v>
       </c>
       <c r="P74" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="Q74" t="n">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="R74" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="S74" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="T74" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="U74" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V74" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W74" t="n">
         <v>19</v>
       </c>
       <c r="X74" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB74" t="n">
         <v>19</v>
       </c>
-      <c r="Y74" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z74" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA74" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB74" t="n">
+      <c r="AC74" t="n">
+        <v>81</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF74" t="n">
         <v>17</v>
       </c>
-      <c r="AC74" t="n">
+      <c r="AG74" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ74" t="n">
         <v>51</v>
-      </c>
-      <c r="AD74" t="n">
-        <v>800</v>
-      </c>
-      <c r="AE74" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AF74" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG74" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH74" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI74" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ74" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>KYnsTOWQ</t>
+          <t>6VKUJKgD</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -9350,7 +9470,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:55</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -9360,109 +9480,109 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Al Okhdood</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Al Taawon</t>
         </is>
       </c>
       <c r="G75" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H75" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I75" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K75" t="n">
+        <v>8</v>
+      </c>
+      <c r="L75" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3</v>
+      </c>
+      <c r="N75" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="O75" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P75" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R75" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S75" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T75" t="n">
         <v>7</v>
       </c>
-      <c r="H75" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="J75" t="n">
+      <c r="U75" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W75" t="n">
         <v>19</v>
       </c>
-      <c r="K75" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="L75" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="M75" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="N75" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="O75" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="P75" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q75" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="R75" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S75" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="T75" t="n">
-        <v>23</v>
-      </c>
-      <c r="U75" t="n">
-        <v>41</v>
-      </c>
-      <c r="V75" t="n">
-        <v>23</v>
-      </c>
-      <c r="W75" t="n">
-        <v>81</v>
-      </c>
       <c r="X75" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="Y75" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z75" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="AA75" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AB75" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AC75" t="n">
         <v>51</v>
       </c>
       <c r="AD75" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="AE75" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AF75" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="AG75" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AH75" t="n">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="AI75" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AJ75" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>E1Rn93ue</t>
+          <t>KYnsTOWQ</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -9472,7 +9592,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -9482,28 +9602,28 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Al Ettifaq</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Al Ahli SC</t>
         </is>
       </c>
       <c r="G76" t="n">
+        <v>7</v>
+      </c>
+      <c r="H76" t="n">
         <v>5.5</v>
       </c>
-      <c r="H76" t="n">
-        <v>5</v>
-      </c>
       <c r="I76" t="n">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="J76" t="n">
-        <v>1.02</v>
+        <v>19</v>
       </c>
       <c r="K76" t="n">
-        <v>12</v>
+        <v>1.03</v>
       </c>
       <c r="L76" t="n">
         <v>1.13</v>
@@ -9512,10 +9632,10 @@
         <v>5.5</v>
       </c>
       <c r="N76" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="O76" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="P76" t="n">
         <v>1.25</v>
@@ -9524,67 +9644,67 @@
         <v>3.75</v>
       </c>
       <c r="R76" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="S76" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="T76" t="n">
+        <v>23</v>
+      </c>
+      <c r="U76" t="n">
+        <v>41</v>
+      </c>
+      <c r="V76" t="n">
+        <v>23</v>
+      </c>
+      <c r="W76" t="n">
+        <v>81</v>
+      </c>
+      <c r="X76" t="n">
+        <v>51</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB76" t="n">
         <v>21</v>
       </c>
-      <c r="U76" t="n">
-        <v>34</v>
-      </c>
-      <c r="V76" t="n">
-        <v>19</v>
-      </c>
-      <c r="W76" t="n">
-        <v>67</v>
-      </c>
-      <c r="X76" t="n">
-        <v>41</v>
-      </c>
-      <c r="Y76" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z76" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA76" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB76" t="n">
-        <v>17</v>
-      </c>
       <c r="AC76" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD76" t="n">
-        <v>151</v>
+        <v>600</v>
       </c>
       <c r="AE76" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF76" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH76" t="n">
         <v>9</v>
-      </c>
-      <c r="AG76" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH76" t="n">
-        <v>11</v>
       </c>
       <c r="AI76" t="n">
         <v>11</v>
       </c>
       <c r="AJ76" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>OE3n6wfA</t>
+          <t>E1Rn93ue</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -9594,119 +9714,119 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>SCOTLAND - CHAMPIONSHIP</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Ayr</t>
+          <t>Al Ettifaq</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="H77" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="I77" t="n">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="J77" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="K77" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="L77" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="M77" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="N77" t="n">
-        <v>1.93</v>
+        <v>1.4</v>
       </c>
       <c r="O77" t="n">
-        <v>1.93</v>
+        <v>2.75</v>
       </c>
       <c r="P77" t="n">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="Q77" t="n">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="R77" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S77" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T77" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="U77" t="n">
+        <v>34</v>
+      </c>
+      <c r="V77" t="n">
         <v>19</v>
       </c>
-      <c r="V77" t="n">
-        <v>12</v>
-      </c>
       <c r="W77" t="n">
+        <v>67</v>
+      </c>
+      <c r="X77" t="n">
         <v>41</v>
-      </c>
-      <c r="X77" t="n">
-        <v>29</v>
       </c>
       <c r="Y77" t="n">
         <v>34</v>
       </c>
       <c r="Z77" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA77" t="n">
         <v>11</v>
       </c>
-      <c r="AA77" t="n">
-        <v>7</v>
-      </c>
       <c r="AB77" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC77" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD77" t="n">
         <v>151</v>
       </c>
       <c r="AE77" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AF77" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG77" t="n">
         <v>9</v>
       </c>
       <c r="AH77" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AI77" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AJ77" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>dzYr9fNs</t>
+          <t>OE3n6wfA</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -9716,38 +9836,38 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SCOTLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Ayr</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.45</v>
+        <v>3.4</v>
       </c>
       <c r="H78" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="I78" t="n">
-        <v>2.88</v>
+        <v>1.95</v>
       </c>
       <c r="J78" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K78" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="L78" t="n">
         <v>1.29</v>
@@ -9756,13 +9876,13 @@
         <v>3.5</v>
       </c>
       <c r="N78" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="O78" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="P78" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="Q78" t="n">
         <v>2.75</v>
@@ -9774,61 +9894,61 @@
         <v>2</v>
       </c>
       <c r="T78" t="n">
+        <v>11</v>
+      </c>
+      <c r="U78" t="n">
+        <v>19</v>
+      </c>
+      <c r="V78" t="n">
+        <v>12</v>
+      </c>
+      <c r="W78" t="n">
+        <v>41</v>
+      </c>
+      <c r="X78" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>151</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF78" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG78" t="n">
         <v>9</v>
       </c>
-      <c r="U78" t="n">
-        <v>12</v>
-      </c>
-      <c r="V78" t="n">
-        <v>10</v>
-      </c>
-      <c r="W78" t="n">
-        <v>23</v>
-      </c>
-      <c r="X78" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y78" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z78" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA78" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB78" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC78" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD78" t="n">
-        <v>201</v>
-      </c>
-      <c r="AE78" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF78" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG78" t="n">
-        <v>11</v>
-      </c>
       <c r="AH78" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AI78" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AJ78" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>z9RP6UjT</t>
+          <t>dzYr9fNs</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -9843,114 +9963,114 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>SPAIN - PRIMERA RFEF</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Sevilla FC B</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Recreativo Huelva</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I79" t="n">
-        <v>3.3</v>
+        <v>2.88</v>
       </c>
       <c r="J79" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="K79" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L79" t="n">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="M79" t="n">
-        <v>2.63</v>
+        <v>3.5</v>
       </c>
       <c r="N79" t="n">
-        <v>2.38</v>
+        <v>1.98</v>
       </c>
       <c r="O79" t="n">
-        <v>1.53</v>
+        <v>1.88</v>
       </c>
       <c r="P79" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="Q79" t="n">
-        <v>2.37</v>
+        <v>2.75</v>
       </c>
       <c r="R79" t="n">
-        <v>2.1</v>
+        <v>1.73</v>
       </c>
       <c r="S79" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="T79" t="n">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="U79" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="V79" t="n">
         <v>10</v>
       </c>
       <c r="W79" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X79" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y79" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="Z79" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AA79" t="n">
         <v>6</v>
       </c>
       <c r="AB79" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AC79" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AD79" t="n">
-        <v>800</v>
+        <v>201</v>
       </c>
       <c r="AE79" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AF79" t="n">
         <v>15</v>
       </c>
       <c r="AG79" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH79" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI79" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AJ79" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>CtwNbekt</t>
+          <t>z9RP6UjT</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -9960,119 +10080,119 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+          <t>SPAIN - PRIMERA RFEF</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Schaffhausen</t>
+          <t>Sevilla FC B</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Lausanne Ouchy</t>
+          <t>Recreativo Huelva</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="H80" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="I80" t="n">
-        <v>1.87</v>
+        <v>3.3</v>
       </c>
       <c r="J80" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K80" t="n">
-        <v>7.9</v>
+        <v>7</v>
       </c>
       <c r="L80" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="M80" t="n">
-        <v>3.6</v>
+        <v>2.63</v>
       </c>
       <c r="N80" t="n">
-        <v>1.72</v>
+        <v>2.38</v>
       </c>
       <c r="O80" t="n">
-        <v>2</v>
+        <v>1.53</v>
       </c>
       <c r="P80" t="n">
-        <v>1.37</v>
+        <v>1.53</v>
       </c>
       <c r="Q80" t="n">
-        <v>2.85</v>
+        <v>2.38</v>
       </c>
       <c r="R80" t="n">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="S80" t="n">
-        <v>2.1</v>
+        <v>1.67</v>
       </c>
       <c r="T80" t="n">
-        <v>12</v>
+        <v>6.5</v>
       </c>
       <c r="U80" t="n">
-        <v>22</v>
+        <v>9.5</v>
       </c>
       <c r="V80" t="n">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="W80" t="n">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="X80" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Y80" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="Z80" t="n">
-        <v>7.9</v>
+        <v>7</v>
       </c>
       <c r="AA80" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB80" t="n">
-        <v>13.5</v>
+        <v>19</v>
       </c>
       <c r="AC80" t="n">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="AD80" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="AE80" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AF80" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="AG80" t="n">
-        <v>8.25</v>
+        <v>13</v>
       </c>
       <c r="AH80" t="n">
-        <v>16.5</v>
+        <v>34</v>
       </c>
       <c r="AI80" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="AJ80" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>K6tVdZJh</t>
+          <t>CtwNbekt</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -10092,109 +10212,109 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Stade Nyonnais</t>
+          <t>Schaffhausen</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Thun</t>
+          <t>Lausanne Ouchy</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>4.15</v>
+        <v>3.75</v>
       </c>
       <c r="H81" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I81" t="n">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="J81" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K81" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="L81" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M81" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="N81" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="O81" t="n">
+        <v>2</v>
+      </c>
+      <c r="P81" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="R81" t="n">
         <v>1.65</v>
       </c>
-      <c r="O81" t="n">
+      <c r="S81" t="n">
         <v>2.1</v>
       </c>
-      <c r="P81" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="Q81" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="R81" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S81" t="n">
-        <v>2.15</v>
-      </c>
       <c r="T81" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="U81" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="V81" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="W81" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="X81" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Y81" t="n">
         <v>35</v>
       </c>
       <c r="Z81" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AA81" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="AB81" t="n">
         <v>13.5</v>
       </c>
       <c r="AC81" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AD81" t="n">
         <v>350</v>
       </c>
       <c r="AE81" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AF81" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AG81" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AH81" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI81" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ81" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>dvz9vZtP</t>
+          <t>K6tVdZJh</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -10204,7 +10324,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -10214,109 +10334,109 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Xamax</t>
+          <t>Stade Nyonnais</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Aarau</t>
+          <t>Thun</t>
         </is>
       </c>
       <c r="G82" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="H82" t="n">
         <v>3.7</v>
       </c>
-      <c r="H82" t="n">
-        <v>3.65</v>
-      </c>
       <c r="I82" t="n">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="J82" t="n">
         <v>1.04</v>
       </c>
       <c r="K82" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="L82" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M82" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="N82" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="O82" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="P82" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="Q82" t="n">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="R82" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="S82" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="T82" t="n">
         <v>14</v>
       </c>
       <c r="U82" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="V82" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="W82" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="X82" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="Y82" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="Z82" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AA82" t="n">
         <v>7.3</v>
       </c>
       <c r="AB82" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AC82" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AD82" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="AE82" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AF82" t="n">
-        <v>10.5</v>
+        <v>9.25</v>
       </c>
       <c r="AG82" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AH82" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AI82" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AJ82" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>EkDzDMIG</t>
+          <t>dvz9vZtP</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -10326,119 +10446,119 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Xamax</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Aarau</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="H83" t="n">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="I83" t="n">
-        <v>1.65</v>
+        <v>1.88</v>
       </c>
       <c r="J83" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="K83" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="L83" t="n">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="M83" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="N83" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="O83" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="P83" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="Q83" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="R83" t="n">
-        <v>1.73</v>
+        <v>1.55</v>
       </c>
       <c r="S83" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="T83" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U83" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="V83" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="W83" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="X83" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="Y83" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="Z83" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="AA83" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AB83" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AC83" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AD83" t="n">
-        <v>201</v>
+        <v>250</v>
       </c>
       <c r="AE83" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AF83" t="n">
-        <v>8.5</v>
+        <v>10.5</v>
       </c>
       <c r="AG83" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AH83" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AI83" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AJ83" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Qmio7RDM</t>
+          <t>EkDzDMIG</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -10448,115 +10568,119 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>LNZ Cherkasy</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Shakhtar Donetsk</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H84" t="n">
-        <v>4.9</v>
+        <v>4</v>
       </c>
       <c r="I84" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K84" t="n">
+        <v>13</v>
+      </c>
+      <c r="L84" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="N84" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O84" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="P84" t="n">
         <v>1.33</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M84" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="N84" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="O84" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="P84" t="n">
-        <v>1.32</v>
-      </c>
       <c r="Q84" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="R84" t="n">
-        <v>2.24</v>
+        <v>1.73</v>
       </c>
       <c r="S84" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="T84" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U84" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="V84" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="W84" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="X84" t="n">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="Y84" t="n">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="Z84" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AA84" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC84" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE84" t="n">
         <v>8</v>
       </c>
-      <c r="AB84" t="n">
+      <c r="AF84" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH84" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI84" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ84" t="n">
         <v>23</v>
-      </c>
-      <c r="AC84" t="n">
-        <v>101</v>
-      </c>
-      <c r="AD84" t="n">
-        <v>101</v>
-      </c>
-      <c r="AE84" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AF84" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AG84" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AH84" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AI84" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ84" t="n">
-        <v>30</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2spLnTLO</t>
+          <t>Qmio7RDM</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -10566,115 +10690,115 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
+          <t>UKRAINE - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Portuguesa</t>
+          <t>LNZ Cherkasy</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Estudiantes Merida</t>
+          <t>Shakhtar Donetsk</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.12</v>
+        <v>7.2</v>
       </c>
       <c r="H85" t="n">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="I85" t="n">
-        <v>3.35</v>
+        <v>1.42</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="M85" t="n">
-        <v>2.75</v>
+        <v>2.95</v>
       </c>
       <c r="N85" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="O85" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="P85" t="n">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="Q85" t="n">
-        <v>2.37</v>
+        <v>2.6</v>
       </c>
       <c r="R85" t="n">
-        <v>1.78</v>
+        <v>2.15</v>
       </c>
       <c r="S85" t="n">
-        <v>1.83</v>
+        <v>1.55</v>
       </c>
       <c r="T85" t="n">
-        <v>6.7</v>
+        <v>16</v>
       </c>
       <c r="U85" t="n">
-        <v>9.75</v>
+        <v>45</v>
       </c>
       <c r="V85" t="n">
+        <v>24</v>
+      </c>
+      <c r="W85" t="n">
+        <v>175</v>
+      </c>
+      <c r="X85" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>150</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE85" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AF85" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH85" t="n">
         <v>8.75</v>
       </c>
-      <c r="W85" t="n">
-        <v>20</v>
-      </c>
-      <c r="X85" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Y85" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z85" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AA85" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB85" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC85" t="n">
-        <v>70</v>
-      </c>
-      <c r="AD85" t="n">
-        <v>600</v>
-      </c>
-      <c r="AE85" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AF85" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG85" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH85" t="n">
-        <v>50</v>
-      </c>
       <c r="AI85" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="AJ85" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>4ApJvyXr</t>
+          <t>2spLnTLO</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -10684,235 +10808,353 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>WALES - CYMRU PREMIER</t>
+          <t>VENEZUELA - LIGA FUTVE</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Portuguesa</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Estudiantes Merida</t>
         </is>
       </c>
       <c r="G86" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H86" t="n">
         <v>3.1</v>
       </c>
-      <c r="H86" t="n">
-        <v>3.2</v>
-      </c>
       <c r="I86" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="K86" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M86" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="N86" t="n">
+        <v>2</v>
+      </c>
+      <c r="O86" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P86" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="R86" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S86" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T86" t="n">
         <v>6.7</v>
       </c>
-      <c r="L86" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M86" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="N86" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="O86" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="P86" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Q86" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="R86" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S86" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="T86" t="n">
+      <c r="U86" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="V86" t="n">
         <v>8.75</v>
       </c>
-      <c r="U86" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="V86" t="n">
-        <v>11.25</v>
-      </c>
       <c r="W86" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="X86" t="n">
-        <v>29</v>
+        <v>18.5</v>
       </c>
       <c r="Y86" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="Z86" t="n">
-        <v>6.7</v>
+        <v>8.25</v>
       </c>
       <c r="AA86" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="AB86" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC86" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AD86" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AE86" t="n">
-        <v>6.9</v>
+        <v>9.5</v>
       </c>
       <c r="AF86" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AG86" t="n">
-        <v>9</v>
+        <v>11.5</v>
       </c>
       <c r="AH86" t="n">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="AI86" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="AJ86" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
+          <t>4ApJvyXr</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>11/04/2025</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>15:45</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>WALES - CYMRU PREMIER</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Cardiff Metropolitan</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Haverfordwest</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H87" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I87" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J87" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K87" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="L87" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M87" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="N87" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O87" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="P87" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="R87" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S87" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="T87" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="U87" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="W87" t="n">
+        <v>40</v>
+      </c>
+      <c r="X87" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AB87" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC87" t="n">
+        <v>80</v>
+      </c>
+      <c r="AD87" t="n">
+        <v>700</v>
+      </c>
+      <c r="AE87" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AF87" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG87" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH87" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI87" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ87" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
           <t>0xvSxF1e</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t>11/04/2025</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>15:45</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="D88" t="inlineStr">
         <is>
           <t>WALES - CYMRU PREMIER</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>TNS</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>Bala</t>
         </is>
       </c>
-      <c r="G87" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="H87" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="I87" t="n">
-        <v>12</v>
-      </c>
-      <c r="J87" t="n">
+      <c r="G88" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="H88" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I88" t="n">
+        <v>13</v>
+      </c>
+      <c r="J88" t="n">
         <v>1.02</v>
       </c>
-      <c r="K87" t="n">
+      <c r="K88" t="n">
         <v>10</v>
       </c>
-      <c r="L87" t="n">
+      <c r="L88" t="n">
         <v>1.12</v>
       </c>
-      <c r="M87" t="n">
+      <c r="M88" t="n">
         <v>5.3</v>
       </c>
-      <c r="N87" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="O87" t="n">
+      <c r="N88" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="O88" t="n">
         <v>2.75</v>
       </c>
-      <c r="P87" t="n">
+      <c r="P88" t="n">
         <v>1.24</v>
       </c>
-      <c r="Q87" t="n">
+      <c r="Q88" t="n">
         <v>3.7</v>
       </c>
-      <c r="R87" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S87" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="T87" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="U87" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="V87" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="W87" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="X87" t="n">
+      <c r="R88" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S88" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T88" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="U88" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="V88" t="n">
         <v>10.5</v>
       </c>
-      <c r="Y87" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z87" t="n">
+      <c r="W88" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="X88" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z88" t="n">
         <v>10</v>
       </c>
-      <c r="AA87" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AB87" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC87" t="n">
+      <c r="AA88" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB88" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC88" t="n">
+        <v>150</v>
+      </c>
+      <c r="AD88" t="n">
+        <v>900</v>
+      </c>
+      <c r="AE88" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF88" t="n">
         <v>120</v>
       </c>
-      <c r="AD87" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE87" t="n">
-        <v>37</v>
-      </c>
-      <c r="AF87" t="n">
-        <v>110</v>
-      </c>
-      <c r="AG87" t="n">
-        <v>40</v>
-      </c>
-      <c r="AH87" t="n">
-        <v>450</v>
-      </c>
-      <c r="AI87" t="n">
-        <v>175</v>
-      </c>
-      <c r="AJ87" t="n">
-        <v>120</v>
+      <c r="AG88" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH88" t="n">
+        <v>500</v>
+      </c>
+      <c r="AI88" t="n">
+        <v>200</v>
+      </c>
+      <c r="AJ88" t="n">
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-04-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-11.xlsx
@@ -790,10 +790,10 @@
         <v>3.75</v>
       </c>
       <c r="N3" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="O3" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="P3" t="n">
         <v>1.36</v>
@@ -960,19 +960,19 @@
         <v>51</v>
       </c>
       <c r="AD4" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AE4" t="n">
         <v>9</v>
       </c>
       <c r="AF4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG4" t="n">
         <v>13</v>
       </c>
       <c r="AH4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI4" t="n">
         <v>29</v>
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="H5" t="n">
         <v>2.88</v>
       </c>
       <c r="I5" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J5" t="n">
         <v>1.14</v>
@@ -1034,10 +1034,10 @@
         <v>2.2</v>
       </c>
       <c r="N5" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="O5" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P5" t="n">
         <v>1.67</v>
@@ -1046,10 +1046,10 @@
         <v>2.1</v>
       </c>
       <c r="R5" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="S5" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T5" t="n">
         <v>5.5</v>
@@ -1144,10 +1144,10 @@
         <v>2.15</v>
       </c>
       <c r="J6" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L6" t="n">
         <v>1.5</v>
@@ -1257,7 +1257,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
         <v>3.8</v>
@@ -1272,19 +1272,19 @@
         <v>13</v>
       </c>
       <c r="L7" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M7" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N7" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="O7" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="P7" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q7" t="n">
         <v>3</v>
@@ -1296,7 +1296,7 @@
         <v>2.1</v>
       </c>
       <c r="T7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U7" t="n">
         <v>17</v>
@@ -1314,10 +1314,10 @@
         <v>29</v>
       </c>
       <c r="Z7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB7" t="n">
         <v>15</v>
@@ -1326,10 +1326,10 @@
         <v>41</v>
       </c>
       <c r="AD7" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF7" t="n">
         <v>11</v>
@@ -1344,7 +1344,7 @@
         <v>17</v>
       </c>
       <c r="AJ7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
@@ -1379,19 +1379,19 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="H8" t="n">
         <v>5.5</v>
       </c>
       <c r="I8" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="J8" t="n">
         <v>1.03</v>
       </c>
       <c r="K8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L8" t="n">
         <v>1.17</v>
@@ -1418,7 +1418,7 @@
         <v>1.8</v>
       </c>
       <c r="T8" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U8" t="n">
         <v>7</v>
@@ -1427,7 +1427,7 @@
         <v>9</v>
       </c>
       <c r="W8" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X8" t="n">
         <v>11</v>
@@ -1436,7 +1436,7 @@
         <v>26</v>
       </c>
       <c r="Z8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA8" t="n">
         <v>11</v>
@@ -1445,22 +1445,22 @@
         <v>21</v>
       </c>
       <c r="AC8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD8" t="n">
         <v>301</v>
       </c>
       <c r="AE8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF8" t="n">
         <v>41</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH8" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AI8" t="n">
         <v>51</v>
@@ -1516,16 +1516,16 @@
         <v>15</v>
       </c>
       <c r="L9" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M9" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N9" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O9" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="P9" t="n">
         <v>1.3</v>
@@ -1745,13 +1745,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="H11" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I11" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="J11" t="n">
         <v>1.08</v>
@@ -1778,10 +1778,10 @@
         <v>2.5</v>
       </c>
       <c r="R11" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="S11" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T11" t="n">
         <v>5.5</v>
@@ -1799,7 +1799,7 @@
         <v>15</v>
       </c>
       <c r="Y11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z11" t="n">
         <v>8</v>
@@ -1817,13 +1817,13 @@
         <v>1250</v>
       </c>
       <c r="AE11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF11" t="n">
         <v>29</v>
       </c>
       <c r="AG11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH11" t="n">
         <v>67</v>
@@ -1989,31 +1989,31 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.27</v>
+        <v>2.5</v>
       </c>
       <c r="H13" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>3.35</v>
+        <v>2.95</v>
       </c>
       <c r="J13" t="n">
         <v>1.11</v>
       </c>
       <c r="K13" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="L13" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="M13" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="N13" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="O13" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="P13" t="n">
         <v>1.57</v>
@@ -2022,37 +2022,37 @@
         <v>2.3</v>
       </c>
       <c r="R13" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S13" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="T13" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U13" t="n">
-        <v>10.25</v>
+        <v>11.75</v>
       </c>
       <c r="V13" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="W13" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="X13" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Y13" t="n">
         <v>45</v>
       </c>
       <c r="Z13" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AA13" t="n">
         <v>6.2</v>
       </c>
       <c r="AB13" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AC13" t="n">
         <v>120</v>
@@ -2061,22 +2061,22 @@
         <v>600</v>
       </c>
       <c r="AE13" t="n">
-        <v>7.7</v>
+        <v>7.3</v>
       </c>
       <c r="AF13" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>11.75</v>
       </c>
       <c r="AH13" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>50</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>60</v>
       </c>
     </row>
     <row r="14">
@@ -2111,13 +2111,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H14" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I14" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="J14" t="n">
         <v>1.03</v>
@@ -2153,13 +2153,13 @@
         <v>11</v>
       </c>
       <c r="U14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V14" t="n">
         <v>9</v>
       </c>
       <c r="W14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X14" t="n">
         <v>13</v>
@@ -2171,7 +2171,7 @@
         <v>17</v>
       </c>
       <c r="AA14" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB14" t="n">
         <v>11</v>
@@ -2183,10 +2183,10 @@
         <v>101</v>
       </c>
       <c r="AE14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG14" t="n">
         <v>13</v>
@@ -2254,34 +2254,34 @@
         <v>5.5</v>
       </c>
       <c r="N15" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="O15" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="P15" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q15" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R15" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="S15" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="U15" t="n">
         <v>8.5</v>
-      </c>
-      <c r="U15" t="n">
-        <v>8</v>
       </c>
       <c r="V15" t="n">
         <v>8.5</v>
       </c>
       <c r="W15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X15" t="n">
         <v>11</v>
@@ -2290,22 +2290,22 @@
         <v>21</v>
       </c>
       <c r="Z15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA15" t="n">
         <v>9.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD15" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF15" t="n">
         <v>34</v>
@@ -2370,16 +2370,16 @@
         <v>17</v>
       </c>
       <c r="L16" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M16" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N16" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O16" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="P16" t="n">
         <v>1.29</v>
@@ -2843,90 +2843,90 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="H20" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="I20" t="n">
-        <v>5.8</v>
+        <v>5.1</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="M20" t="n">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="N20" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O20" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="P20" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="R20" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="S20" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="T20" t="n">
         <v>5.5</v>
       </c>
       <c r="U20" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="V20" t="n">
         <v>8.5</v>
       </c>
       <c r="W20" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="X20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y20" t="n">
         <v>37</v>
       </c>
       <c r="Z20" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AA20" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AB20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC20" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AD20" t="n">
         <v>101</v>
       </c>
       <c r="AE20" t="n">
-        <v>12.5</v>
+        <v>11.25</v>
       </c>
       <c r="AF20" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AG20" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AI20" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>75</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>80</v>
       </c>
     </row>
     <row r="21">
@@ -2973,7 +2973,7 @@
         <v>1.06</v>
       </c>
       <c r="K21" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L21" t="n">
         <v>1.3</v>
@@ -2988,16 +2988,16 @@
         <v>1.8</v>
       </c>
       <c r="P21" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R21" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S21" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T21" t="n">
         <v>11</v>
@@ -3012,7 +3012,7 @@
         <v>41</v>
       </c>
       <c r="X21" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y21" t="n">
         <v>41</v>
@@ -3033,7 +3033,7 @@
         <v>251</v>
       </c>
       <c r="AE21" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF21" t="n">
         <v>9</v>
@@ -3232,10 +3232,10 @@
         <v>1.98</v>
       </c>
       <c r="P23" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R23" t="n">
         <v>1.67</v>
@@ -3244,7 +3244,7 @@
         <v>2.1</v>
       </c>
       <c r="T23" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U23" t="n">
         <v>13</v>
@@ -3327,19 +3327,19 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="H24" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I24" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J24" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L24" t="n">
         <v>1.29</v>
@@ -3348,13 +3348,13 @@
         <v>3.5</v>
       </c>
       <c r="N24" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="O24" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="P24" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="Q24" t="n">
         <v>2.75</v>
@@ -3375,7 +3375,7 @@
         <v>8.5</v>
       </c>
       <c r="W24" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X24" t="n">
         <v>13</v>
@@ -3387,7 +3387,7 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB24" t="n">
         <v>21</v>
@@ -3399,13 +3399,13 @@
         <v>800</v>
       </c>
       <c r="AE24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF24" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH24" t="n">
         <v>81</v>
@@ -3476,7 +3476,7 @@
         <v>1.8</v>
       </c>
       <c r="P25" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="Q25" t="n">
         <v>2.75</v>
@@ -3836,10 +3836,10 @@
         <v>3.4</v>
       </c>
       <c r="N28" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="O28" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P28" t="n">
         <v>1.4</v>
@@ -4080,10 +4080,10 @@
         <v>4.33</v>
       </c>
       <c r="N30" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="O30" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="P30" t="n">
         <v>1.3</v>
@@ -4181,7 +4181,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H31" t="n">
         <v>3.4</v>
@@ -4431,7 +4431,7 @@
         <v>4.75</v>
       </c>
       <c r="I33" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="J33" t="n">
         <v>1.03</v>
@@ -4467,7 +4467,7 @@
         <v>17</v>
       </c>
       <c r="U33" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="V33" t="n">
         <v>21</v>
@@ -4482,10 +4482,10 @@
         <v>51</v>
       </c>
       <c r="Z33" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA33" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB33" t="n">
         <v>21</v>
@@ -4494,7 +4494,7 @@
         <v>67</v>
       </c>
       <c r="AD33" t="n">
-        <v>800</v>
+        <v>351</v>
       </c>
       <c r="AE33" t="n">
         <v>7</v>
@@ -4512,7 +4512,7 @@
         <v>12</v>
       </c>
       <c r="AJ33" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34">
@@ -4547,13 +4547,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H34" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I34" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J34" t="n">
         <v>1.05</v>
@@ -4568,10 +4568,10 @@
         <v>3.75</v>
       </c>
       <c r="N34" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="O34" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="P34" t="n">
         <v>1.4</v>
@@ -4625,13 +4625,13 @@
         <v>19</v>
       </c>
       <c r="AG34" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH34" t="n">
         <v>41</v>
       </c>
       <c r="AI34" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ34" t="n">
         <v>34</v>
@@ -4690,10 +4690,10 @@
         <v>3.25</v>
       </c>
       <c r="N35" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="O35" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="P35" t="n">
         <v>1.44</v>
@@ -4913,19 +4913,19 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H37" t="n">
         <v>3.25</v>
       </c>
       <c r="I37" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J37" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K37" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L37" t="n">
         <v>1.5</v>
@@ -4946,13 +4946,13 @@
         <v>2.25</v>
       </c>
       <c r="R37" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="S37" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T37" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="U37" t="n">
         <v>7.5</v>
@@ -4991,7 +4991,7 @@
         <v>21</v>
       </c>
       <c r="AG37" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH37" t="n">
         <v>51</v>
@@ -5035,10 +5035,10 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="H38" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="I38" t="n">
         <v>2.8</v>
@@ -5070,7 +5070,7 @@
         <v>1.82</v>
       </c>
       <c r="T38" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="U38" t="n">
         <v>12.5</v>
@@ -5103,22 +5103,22 @@
         <v>600</v>
       </c>
       <c r="AE38" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AF38" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AG38" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AH38" t="n">
         <v>35</v>
       </c>
       <c r="AI38" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ38" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39">
@@ -5164,7 +5164,7 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M39" t="n">
         <v>2.82</v>
@@ -5179,7 +5179,7 @@
         <v>1.44</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="R39" t="n">
         <v>1.72</v>
@@ -5188,7 +5188,7 @@
         <v>1.88</v>
       </c>
       <c r="T39" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="U39" t="n">
         <v>12.5</v>
@@ -5227,7 +5227,7 @@
         <v>13.5</v>
       </c>
       <c r="AG39" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AH39" t="n">
         <v>32</v>
@@ -5507,13 +5507,13 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="H42" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="I42" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -5542,7 +5542,7 @@
         <v>1.7</v>
       </c>
       <c r="T42" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="U42" t="n">
         <v>10</v>
@@ -5560,7 +5560,7 @@
         <v>37</v>
       </c>
       <c r="Z42" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AA42" t="n">
         <v>5.8</v>
@@ -5575,10 +5575,10 @@
         <v>1000</v>
       </c>
       <c r="AE42" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AF42" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AG42" t="n">
         <v>12</v>
@@ -5743,10 +5743,10 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="H44" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="I44" t="n">
         <v>2.75</v>
@@ -5763,7 +5763,7 @@
         <v>2.2</v>
       </c>
       <c r="O44" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="P44" t="n">
         <v>1.53</v>
@@ -5772,7 +5772,7 @@
         <v>2.18</v>
       </c>
       <c r="R44" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="S44" t="n">
         <v>1.78</v>
@@ -5790,7 +5790,7 @@
         <v>35</v>
       </c>
       <c r="X44" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Y44" t="n">
         <v>37</v>
@@ -5802,22 +5802,22 @@
         <v>5.4</v>
       </c>
       <c r="AB44" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC44" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AD44" t="n">
         <v>700</v>
       </c>
       <c r="AE44" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AF44" t="n">
         <v>13.5</v>
       </c>
       <c r="AG44" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AH44" t="n">
         <v>35</v>
@@ -5870,10 +5870,10 @@
         <v>2.05</v>
       </c>
       <c r="J45" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K45" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L45" t="n">
         <v>1.3</v>
@@ -6004,10 +6004,10 @@
         <v>3.75</v>
       </c>
       <c r="N46" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="O46" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P46" t="n">
         <v>1.36</v>
@@ -6837,13 +6837,13 @@
         <v>1.08</v>
       </c>
       <c r="K53" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L53" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M53" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N53" t="n">
         <v>2.35</v>
@@ -6885,7 +6885,7 @@
         <v>7.5</v>
       </c>
       <c r="AA53" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB53" t="n">
         <v>17</v>
@@ -7191,19 +7191,19 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3.9</v>
+        <v>4.05</v>
       </c>
       <c r="H56" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="I56" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="J56" t="n">
         <v>1.1</v>
       </c>
       <c r="K56" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="L56" t="n">
         <v>1.45</v>
@@ -7218,43 +7218,43 @@
         <v>1.53</v>
       </c>
       <c r="P56" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="Q56" t="n">
         <v>2.32</v>
       </c>
       <c r="R56" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="S56" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="T56" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="U56" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="V56" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W56" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="X56" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Y56" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="Z56" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AA56" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="AB56" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AC56" t="n">
         <v>120</v>
@@ -7263,19 +7263,19 @@
         <v>101</v>
       </c>
       <c r="AE56" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="AF56" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AG56" t="n">
         <v>9</v>
       </c>
       <c r="AH56" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AI56" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AJ56" t="n">
         <v>40</v>
@@ -7313,25 +7313,25 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="H57" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I57" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="J57" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K57" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="L57" t="n">
         <v>1.36</v>
       </c>
       <c r="M57" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="N57" t="n">
         <v>2.05</v>
@@ -7343,13 +7343,13 @@
         <v>1.47</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="R57" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="S57" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="T57" t="n">
         <v>6.6</v>
@@ -7358,49 +7358,49 @@
         <v>8.75</v>
       </c>
       <c r="V57" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="W57" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="X57" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y57" t="n">
         <v>30</v>
       </c>
       <c r="Z57" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AA57" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AB57" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC57" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AD57" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AE57" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AF57" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AG57" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH57" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ57" t="n">
         <v>50</v>
-      </c>
-      <c r="AI57" t="n">
-        <v>35</v>
-      </c>
-      <c r="AJ57" t="n">
-        <v>45</v>
       </c>
     </row>
     <row r="58">
@@ -7435,19 +7435,19 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="H58" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="I58" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="J58" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="K58" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="L58" t="n">
         <v>1.5</v>
@@ -7465,64 +7465,64 @@
         <v>1.6</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R58" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S58" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="T58" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="U58" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="V58" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="W58" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X58" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y58" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Z58" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AA58" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="AB58" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC58" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AD58" t="n">
-        <v>101</v>
+        <v>900</v>
       </c>
       <c r="AE58" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AF58" t="n">
         <v>13.5</v>
       </c>
       <c r="AG58" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AH58" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AI58" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AJ58" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59">
@@ -7691,7 +7691,7 @@
         <v>1.03</v>
       </c>
       <c r="K60" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L60" t="n">
         <v>1.17</v>
@@ -7801,13 +7801,13 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="H61" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="I61" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -7828,7 +7828,7 @@
         <v>2.07</v>
       </c>
       <c r="T61" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="U61" t="n">
         <v>8.5</v>
@@ -7840,7 +7840,7 @@
         <v>11.75</v>
       </c>
       <c r="X61" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="Y61" t="n">
         <v>20</v>
@@ -7852,16 +7852,16 @@
         <v>8.5</v>
       </c>
       <c r="AB61" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC61" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AD61" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AE61" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AF61" t="n">
         <v>37</v>
@@ -7870,13 +7870,13 @@
         <v>17</v>
       </c>
       <c r="AH61" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AI61" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AJ61" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62">
@@ -7911,13 +7911,13 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="H62" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="I62" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
@@ -7925,7 +7925,7 @@
         <v>1.15</v>
       </c>
       <c r="M62" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="N62" t="n">
         <v>1.47</v>
@@ -7936,61 +7936,61 @@
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S62" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="T62" t="n">
         <v>8.5</v>
       </c>
       <c r="U62" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="V62" t="n">
         <v>8.5</v>
       </c>
       <c r="W62" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X62" t="n">
         <v>10.5</v>
       </c>
       <c r="Y62" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z62" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AA62" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AB62" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AC62" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AD62" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AE62" t="n">
         <v>23</v>
       </c>
       <c r="AF62" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG62" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH62" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AI62" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AJ62" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63">
@@ -8460,7 +8460,7 @@
         <v>67</v>
       </c>
       <c r="AD66" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AE66" t="n">
         <v>9</v>
@@ -8656,10 +8656,10 @@
         <v>3.75</v>
       </c>
       <c r="N68" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="O68" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P68" t="n">
         <v>1.4</v>
@@ -8757,13 +8757,13 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H69" t="n">
         <v>3.2</v>
       </c>
       <c r="I69" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J69" t="n">
         <v>1.07</v>
@@ -8790,10 +8790,10 @@
         <v>2.63</v>
       </c>
       <c r="R69" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S69" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T69" t="n">
         <v>7.5</v>
@@ -8814,7 +8814,7 @@
         <v>29</v>
       </c>
       <c r="Z69" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA69" t="n">
         <v>6</v>
@@ -8826,13 +8826,13 @@
         <v>51</v>
       </c>
       <c r="AD69" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE69" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF69" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG69" t="n">
         <v>12</v>
@@ -8841,7 +8841,7 @@
         <v>34</v>
       </c>
       <c r="AI69" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ69" t="n">
         <v>41</v>
@@ -8888,10 +8888,10 @@
         <v>2.88</v>
       </c>
       <c r="J70" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K70" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L70" t="n">
         <v>1.44</v>
@@ -9001,19 +9001,19 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H71" t="n">
         <v>3.1</v>
       </c>
       <c r="I71" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J71" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K71" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L71" t="n">
         <v>1.44</v>
@@ -9022,10 +9022,10 @@
         <v>2.63</v>
       </c>
       <c r="N71" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="O71" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P71" t="n">
         <v>1.53</v>
@@ -9043,10 +9043,10 @@
         <v>9</v>
       </c>
       <c r="U71" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V71" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="W71" t="n">
         <v>41</v>
@@ -9070,13 +9070,13 @@
         <v>67</v>
       </c>
       <c r="AD71" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AE71" t="n">
         <v>6</v>
       </c>
       <c r="AF71" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG71" t="n">
         <v>9.5</v>
@@ -9132,10 +9132,10 @@
         <v>2.55</v>
       </c>
       <c r="J72" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K72" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L72" t="n">
         <v>1.36</v>
@@ -9260,10 +9260,10 @@
         <v>9</v>
       </c>
       <c r="L73" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M73" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N73" t="n">
         <v>2.2</v>
@@ -9376,10 +9376,10 @@
         <v>3.7</v>
       </c>
       <c r="J74" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K74" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L74" t="n">
         <v>1.5</v>
@@ -9611,7 +9611,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="H76" t="n">
         <v>5.5</v>
@@ -9620,10 +9620,10 @@
         <v>1.29</v>
       </c>
       <c r="J76" t="n">
-        <v>19</v>
+        <v>1.02</v>
       </c>
       <c r="K76" t="n">
-        <v>1.03</v>
+        <v>11</v>
       </c>
       <c r="L76" t="n">
         <v>1.13</v>
@@ -9644,10 +9644,10 @@
         <v>3.75</v>
       </c>
       <c r="R76" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S76" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T76" t="n">
         <v>23</v>
@@ -9977,7 +9977,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H79" t="n">
         <v>3.2</v>
@@ -10028,7 +10028,7 @@
         <v>23</v>
       </c>
       <c r="X79" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y79" t="n">
         <v>29</v>
@@ -10049,7 +10049,7 @@
         <v>201</v>
       </c>
       <c r="AE79" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF79" t="n">
         <v>15</v>
@@ -10343,25 +10343,25 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>4.15</v>
+        <v>4.4</v>
       </c>
       <c r="H82" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="I82" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="J82" t="n">
         <v>1.04</v>
       </c>
       <c r="K82" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="L82" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="M82" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="N82" t="n">
         <v>1.65</v>
@@ -10370,67 +10370,67 @@
         <v>2.1</v>
       </c>
       <c r="P82" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="Q82" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="R82" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S82" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="T82" t="n">
+        <v>15</v>
+      </c>
+      <c r="U82" t="n">
+        <v>27</v>
+      </c>
+      <c r="V82" t="n">
         <v>14</v>
       </c>
-      <c r="U82" t="n">
-        <v>25</v>
-      </c>
-      <c r="V82" t="n">
-        <v>13.5</v>
-      </c>
       <c r="W82" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="X82" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y82" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z82" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AA82" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="AB82" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC82" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AD82" t="n">
         <v>350</v>
       </c>
       <c r="AE82" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AF82" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AG82" t="n">
         <v>8</v>
       </c>
       <c r="AH82" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AI82" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AJ82" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83">
@@ -10596,10 +10596,10 @@
         <v>1.65</v>
       </c>
       <c r="J84" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K84" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L84" t="n">
         <v>1.2</v>
@@ -10608,10 +10608,10 @@
         <v>4.33</v>
       </c>
       <c r="N84" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O84" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P84" t="n">
         <v>1.33</v>
@@ -10862,22 +10862,22 @@
         <v>1.83</v>
       </c>
       <c r="T86" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="U86" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="V86" t="n">
         <v>8.75</v>
       </c>
       <c r="W86" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X86" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y86" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z86" t="n">
         <v>8.25</v>
@@ -10889,28 +10889,28 @@
         <v>14.5</v>
       </c>
       <c r="AC86" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AD86" t="n">
         <v>600</v>
       </c>
       <c r="AE86" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF86" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AG86" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AH86" t="n">
         <v>50</v>
       </c>
       <c r="AI86" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ86" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="87">
@@ -11073,7 +11073,7 @@
         <v>6.5</v>
       </c>
       <c r="I88" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="J88" t="n">
         <v>1.02</v>
@@ -11109,13 +11109,13 @@
         <v>9.25</v>
       </c>
       <c r="U88" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="V88" t="n">
         <v>10.5</v>
       </c>
       <c r="W88" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="X88" t="n">
         <v>10.75</v>
@@ -11136,7 +11136,7 @@
         <v>150</v>
       </c>
       <c r="AD88" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AE88" t="n">
         <v>40</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-11.xlsx
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H2" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I2" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J2" t="n">
         <v>1.05</v>
@@ -662,31 +662,31 @@
         <v>11</v>
       </c>
       <c r="L2" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M2" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N2" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S2" t="n">
         <v>1.95</v>
       </c>
-      <c r="O2" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.8</v>
-      </c>
       <c r="T2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U2" t="n">
         <v>7.5</v>
@@ -704,10 +704,10 @@
         <v>26</v>
       </c>
       <c r="Z2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB2" t="n">
         <v>17</v>
@@ -716,7 +716,7 @@
         <v>51</v>
       </c>
       <c r="AD2" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE2" t="n">
         <v>15</v>
@@ -769,10 +769,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H3" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I3" t="n">
         <v>1.95</v>
@@ -790,10 +790,10 @@
         <v>3.75</v>
       </c>
       <c r="N3" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="P3" t="n">
         <v>1.36</v>
@@ -811,7 +811,7 @@
         <v>12</v>
       </c>
       <c r="U3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V3" t="n">
         <v>13</v>
@@ -832,7 +832,7 @@
         <v>7</v>
       </c>
       <c r="AB3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC3" t="n">
         <v>41</v>
@@ -900,40 +900,40 @@
         <v>3.5</v>
       </c>
       <c r="J4" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L4" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M4" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N4" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="O4" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P4" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R4" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S4" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T4" t="n">
         <v>6.5</v>
       </c>
       <c r="U4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V4" t="n">
         <v>9.5</v>
@@ -948,13 +948,13 @@
         <v>34</v>
       </c>
       <c r="Z4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA4" t="n">
         <v>6</v>
       </c>
       <c r="AB4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC4" t="n">
         <v>51</v>
@@ -963,7 +963,7 @@
         <v>401</v>
       </c>
       <c r="AE4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF4" t="n">
         <v>17</v>
@@ -975,7 +975,7 @@
         <v>41</v>
       </c>
       <c r="AI4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ4" t="n">
         <v>41</v>
@@ -1034,10 +1034,10 @@
         <v>2.2</v>
       </c>
       <c r="N5" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="O5" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P5" t="n">
         <v>1.67</v>
@@ -1144,10 +1144,10 @@
         <v>2.15</v>
       </c>
       <c r="J6" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L6" t="n">
         <v>1.5</v>
@@ -1207,7 +1207,7 @@
         <v>501</v>
       </c>
       <c r="AE6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AF6" t="n">
         <v>9</v>
@@ -1216,7 +1216,7 @@
         <v>10</v>
       </c>
       <c r="AH6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI6" t="n">
         <v>21</v>
@@ -1278,13 +1278,13 @@
         <v>4</v>
       </c>
       <c r="N7" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O7" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P7" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q7" t="n">
         <v>3</v>
@@ -1504,7 +1504,7 @@
         <v>1.5</v>
       </c>
       <c r="H9" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I9" t="n">
         <v>5</v>
@@ -1513,7 +1513,7 @@
         <v>1.03</v>
       </c>
       <c r="K9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L9" t="n">
         <v>1.18</v>
@@ -1555,7 +1555,7 @@
         <v>12</v>
       </c>
       <c r="Y9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z9" t="n">
         <v>15</v>
@@ -1573,7 +1573,7 @@
         <v>201</v>
       </c>
       <c r="AE9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF9" t="n">
         <v>29</v>
@@ -1644,10 +1644,10 @@
         <v>4.33</v>
       </c>
       <c r="N10" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O10" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P10" t="n">
         <v>1.33</v>
@@ -2111,13 +2111,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H14" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I14" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J14" t="n">
         <v>1.03</v>
@@ -2156,7 +2156,7 @@
         <v>11</v>
       </c>
       <c r="V14" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W14" t="n">
         <v>17</v>
@@ -2254,10 +2254,10 @@
         <v>5.5</v>
       </c>
       <c r="N15" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="O15" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="P15" t="n">
         <v>1.25</v>
@@ -2477,19 +2477,19 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H17" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I17" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J17" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K17" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L17" t="n">
         <v>1.44</v>
@@ -2510,10 +2510,10 @@
         <v>2.25</v>
       </c>
       <c r="R17" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S17" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="T17" t="n">
         <v>6.5</v>
@@ -2525,10 +2525,10 @@
         <v>10</v>
       </c>
       <c r="W17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y17" t="n">
         <v>41</v>
@@ -2843,13 +2843,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H20" t="n">
         <v>3.6</v>
       </c>
       <c r="I20" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -2872,34 +2872,34 @@
         <v>2.37</v>
       </c>
       <c r="R20" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="S20" t="n">
         <v>1.6</v>
       </c>
       <c r="T20" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="U20" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="V20" t="n">
         <v>8.5</v>
       </c>
       <c r="W20" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="X20" t="n">
         <v>15</v>
       </c>
       <c r="Y20" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Z20" t="n">
         <v>8.25</v>
       </c>
       <c r="AA20" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AB20" t="n">
         <v>21</v>
@@ -2911,22 +2911,22 @@
         <v>101</v>
       </c>
       <c r="AE20" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AF20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG20" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AH20" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AI20" t="n">
         <v>60</v>
       </c>
       <c r="AJ20" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21">
@@ -3693,10 +3693,10 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="H27" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="I27" t="n">
         <v>2.95</v>
@@ -3705,34 +3705,34 @@
         <v>1.16</v>
       </c>
       <c r="K27" t="n">
-        <v>4.65</v>
+        <v>4.55</v>
       </c>
       <c r="L27" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="M27" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="N27" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="O27" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="P27" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="R27" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S27" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="T27" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="U27" t="n">
         <v>14</v>
@@ -3744,31 +3744,31 @@
         <v>40</v>
       </c>
       <c r="X27" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Y27" t="n">
         <v>50</v>
       </c>
       <c r="Z27" t="n">
-        <v>4.65</v>
+        <v>4.55</v>
       </c>
       <c r="AA27" t="n">
         <v>5</v>
       </c>
       <c r="AB27" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AD27" t="n">
         <v>101</v>
       </c>
       <c r="AE27" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AF27" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG27" t="n">
         <v>11</v>
@@ -3777,7 +3777,7 @@
         <v>40</v>
       </c>
       <c r="AI27" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AJ27" t="n">
         <v>50</v>
@@ -3815,10 +3815,10 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H28" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I28" t="n">
         <v>5.75</v>
@@ -3836,28 +3836,28 @@
         <v>3.4</v>
       </c>
       <c r="N28" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O28" t="n">
         <v>1.8</v>
       </c>
       <c r="P28" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R28" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S28" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T28" t="n">
         <v>6</v>
       </c>
       <c r="U28" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="V28" t="n">
         <v>8.5</v>
@@ -3872,7 +3872,7 @@
         <v>29</v>
       </c>
       <c r="Z28" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA28" t="n">
         <v>7.5</v>
@@ -3884,7 +3884,7 @@
         <v>67</v>
       </c>
       <c r="AD28" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AE28" t="n">
         <v>13</v>
@@ -3899,7 +3899,7 @@
         <v>67</v>
       </c>
       <c r="AI28" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ28" t="n">
         <v>51</v>
@@ -4181,13 +4181,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H31" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="J31" t="n">
         <v>1.04</v>
@@ -4223,10 +4223,10 @@
         <v>13</v>
       </c>
       <c r="U31" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="V31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W31" t="n">
         <v>41</v>
@@ -4244,7 +4244,7 @@
         <v>7</v>
       </c>
       <c r="AB31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC31" t="n">
         <v>41</v>
@@ -4253,16 +4253,16 @@
         <v>151</v>
       </c>
       <c r="AE31" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG31" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI31" t="n">
         <v>15</v>
@@ -4303,13 +4303,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H32" t="n">
         <v>3.4</v>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J32" t="n">
         <v>1.05</v>
@@ -4342,7 +4342,7 @@
         <v>2</v>
       </c>
       <c r="T32" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U32" t="n">
         <v>17</v>
@@ -4351,7 +4351,7 @@
         <v>12</v>
       </c>
       <c r="W32" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X32" t="n">
         <v>26</v>
@@ -4547,13 +4547,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H34" t="n">
         <v>3.4</v>
       </c>
       <c r="I34" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J34" t="n">
         <v>1.05</v>
@@ -4568,16 +4568,16 @@
         <v>3.75</v>
       </c>
       <c r="N34" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="O34" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="P34" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R34" t="n">
         <v>1.73</v>
@@ -4595,10 +4595,10 @@
         <v>9</v>
       </c>
       <c r="W34" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X34" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y34" t="n">
         <v>26</v>
@@ -4619,7 +4619,7 @@
         <v>201</v>
       </c>
       <c r="AE34" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF34" t="n">
         <v>19</v>
@@ -4690,10 +4690,10 @@
         <v>3.25</v>
       </c>
       <c r="N35" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O35" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="P35" t="n">
         <v>1.44</v>
@@ -4812,10 +4812,10 @@
         <v>4</v>
       </c>
       <c r="N36" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O36" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P36" t="n">
         <v>1.36</v>
@@ -4922,10 +4922,10 @@
         <v>4.33</v>
       </c>
       <c r="J37" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K37" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L37" t="n">
         <v>1.5</v>
@@ -5153,7 +5153,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="H39" t="n">
         <v>3.1</v>
@@ -5179,7 +5179,7 @@
         <v>1.44</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="R39" t="n">
         <v>1.72</v>
@@ -5188,7 +5188,7 @@
         <v>1.88</v>
       </c>
       <c r="T39" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="U39" t="n">
         <v>12.5</v>
@@ -5200,10 +5200,10 @@
         <v>28</v>
       </c>
       <c r="X39" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y39" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z39" t="n">
         <v>8.75</v>
@@ -5212,7 +5212,7 @@
         <v>6</v>
       </c>
       <c r="AB39" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC39" t="n">
         <v>65</v>
@@ -5221,22 +5221,22 @@
         <v>500</v>
       </c>
       <c r="AE39" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AF39" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG39" t="n">
         <v>10</v>
       </c>
       <c r="AH39" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AI39" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ39" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40">
@@ -5743,13 +5743,13 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.75</v>
+        <v>2.82</v>
       </c>
       <c r="H44" t="n">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="I44" t="n">
-        <v>2.75</v>
+        <v>2.82</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -5763,31 +5763,31 @@
         <v>2.2</v>
       </c>
       <c r="O44" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="P44" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="R44" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S44" t="n">
         <v>1.82</v>
       </c>
-      <c r="S44" t="n">
-        <v>1.78</v>
-      </c>
       <c r="T44" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="U44" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="V44" t="n">
         <v>10</v>
       </c>
       <c r="W44" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X44" t="n">
         <v>27</v>
@@ -5796,34 +5796,34 @@
         <v>37</v>
       </c>
       <c r="Z44" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="AA44" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="AB44" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC44" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AD44" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AE44" t="n">
         <v>7.4</v>
       </c>
       <c r="AF44" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AG44" t="n">
         <v>10</v>
       </c>
       <c r="AH44" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AI44" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ44" t="n">
         <v>37</v>
@@ -5983,13 +5983,13 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="H46" t="n">
         <v>3.2</v>
       </c>
       <c r="I46" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="J46" t="n">
         <v>1.05</v>
@@ -6016,22 +6016,22 @@
         <v>3</v>
       </c>
       <c r="R46" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S46" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T46" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U46" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V46" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W46" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X46" t="n">
         <v>19</v>
@@ -6046,7 +6046,7 @@
         <v>6.5</v>
       </c>
       <c r="AB46" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC46" t="n">
         <v>41</v>
@@ -6055,7 +6055,7 @@
         <v>151</v>
       </c>
       <c r="AE46" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF46" t="n">
         <v>15</v>
@@ -6067,7 +6067,7 @@
         <v>29</v>
       </c>
       <c r="AI46" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ46" t="n">
         <v>29</v>
@@ -6463,13 +6463,13 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="H50" t="n">
-        <v>2.75</v>
+        <v>2.82</v>
       </c>
       <c r="I50" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -6486,31 +6486,31 @@
         <v>1.78</v>
       </c>
       <c r="P50" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Q50" t="n">
         <v>2.4</v>
       </c>
       <c r="R50" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="S50" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="T50" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="U50" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="V50" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W50" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="X50" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="Y50" t="n">
         <v>24</v>
@@ -6519,34 +6519,34 @@
         <v>8.75</v>
       </c>
       <c r="AA50" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="AB50" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC50" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AD50" t="n">
         <v>300</v>
       </c>
       <c r="AE50" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="AF50" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AG50" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="AH50" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AI50" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AJ50" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51">
@@ -6953,13 +6953,13 @@
         <v>3.7</v>
       </c>
       <c r="I54" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J54" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K54" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="L54" t="n">
         <v>1.33</v>
@@ -6968,10 +6968,10 @@
         <v>3.25</v>
       </c>
       <c r="N54" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O54" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P54" t="n">
         <v>1.44</v>
@@ -6980,10 +6980,10 @@
         <v>2.63</v>
       </c>
       <c r="R54" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S54" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T54" t="n">
         <v>5.5</v>
@@ -6998,19 +6998,19 @@
         <v>9.5</v>
       </c>
       <c r="X54" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y54" t="n">
         <v>34</v>
       </c>
       <c r="Z54" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA54" t="n">
         <v>7.5</v>
       </c>
       <c r="AB54" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC54" t="n">
         <v>81</v>
@@ -7028,10 +7028,10 @@
         <v>23</v>
       </c>
       <c r="AH54" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AI54" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AJ54" t="n">
         <v>67</v>
@@ -7072,16 +7072,16 @@
         <v>2.88</v>
       </c>
       <c r="H55" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I55" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J55" t="n">
         <v>1.07</v>
       </c>
       <c r="K55" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L55" t="n">
         <v>1.36</v>
@@ -7096,10 +7096,10 @@
         <v>1.67</v>
       </c>
       <c r="P55" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R55" t="n">
         <v>1.91</v>
@@ -7108,7 +7108,7 @@
         <v>1.91</v>
       </c>
       <c r="T55" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U55" t="n">
         <v>13</v>
@@ -7126,7 +7126,7 @@
         <v>34</v>
       </c>
       <c r="Z55" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA55" t="n">
         <v>6</v>
@@ -7141,7 +7141,7 @@
         <v>301</v>
       </c>
       <c r="AE55" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF55" t="n">
         <v>12</v>
@@ -7153,7 +7153,7 @@
         <v>26</v>
       </c>
       <c r="AI55" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ55" t="n">
         <v>34</v>
@@ -7569,7 +7569,7 @@
         <v>1.08</v>
       </c>
       <c r="K59" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L59" t="n">
         <v>1.4</v>
@@ -7814,10 +7814,10 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="O61" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
@@ -7828,7 +7828,7 @@
         <v>2.07</v>
       </c>
       <c r="T61" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="U61" t="n">
         <v>8.5</v>
@@ -7840,10 +7840,10 @@
         <v>11.75</v>
       </c>
       <c r="X61" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="Y61" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Z61" t="n">
         <v>15</v>
@@ -7861,7 +7861,7 @@
         <v>300</v>
       </c>
       <c r="AE61" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AF61" t="n">
         <v>37</v>
@@ -8147,13 +8147,13 @@
         </is>
       </c>
       <c r="G64" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H64" t="n">
         <v>3.2</v>
       </c>
-      <c r="H64" t="n">
-        <v>3.1</v>
-      </c>
       <c r="I64" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="J64" t="n">
         <v>1.11</v>
@@ -8174,10 +8174,10 @@
         <v>1.48</v>
       </c>
       <c r="P64" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Q64" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R64" t="n">
         <v>2.25</v>
@@ -8186,7 +8186,7 @@
         <v>1.57</v>
       </c>
       <c r="T64" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U64" t="n">
         <v>15</v>
@@ -8222,16 +8222,16 @@
         <v>5.5</v>
       </c>
       <c r="AF64" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG64" t="n">
         <v>10</v>
       </c>
       <c r="AH64" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI64" t="n">
         <v>21</v>
-      </c>
-      <c r="AI64" t="n">
-        <v>23</v>
       </c>
       <c r="AJ64" t="n">
         <v>41</v>
@@ -8522,10 +8522,10 @@
         <v>3.1</v>
       </c>
       <c r="J67" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K67" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L67" t="n">
         <v>1.29</v>
@@ -8534,10 +8534,10 @@
         <v>3.5</v>
       </c>
       <c r="N67" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O67" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P67" t="n">
         <v>1.4</v>
@@ -8635,13 +8635,13 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="H68" t="n">
         <v>3.3</v>
       </c>
       <c r="I68" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J68" t="n">
         <v>1.05</v>
@@ -9489,13 +9489,13 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H75" t="n">
         <v>3.5</v>
       </c>
       <c r="I75" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J75" t="n">
         <v>1.06</v>
@@ -9510,10 +9510,10 @@
         <v>3</v>
       </c>
       <c r="N75" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O75" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P75" t="n">
         <v>1.44</v>
@@ -9561,7 +9561,7 @@
         <v>800</v>
       </c>
       <c r="AE75" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF75" t="n">
         <v>15</v>
@@ -9611,7 +9611,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="H76" t="n">
         <v>5.5</v>
@@ -9620,10 +9620,10 @@
         <v>1.29</v>
       </c>
       <c r="J76" t="n">
-        <v>1.02</v>
+        <v>19</v>
       </c>
       <c r="K76" t="n">
-        <v>11</v>
+        <v>1.03</v>
       </c>
       <c r="L76" t="n">
         <v>1.13</v>
@@ -9644,10 +9644,10 @@
         <v>3.75</v>
       </c>
       <c r="R76" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S76" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T76" t="n">
         <v>23</v>
@@ -10108,10 +10108,10 @@
         <v>3.3</v>
       </c>
       <c r="J80" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K80" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L80" t="n">
         <v>1.44</v>
@@ -10221,25 +10221,25 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="H81" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I81" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="J81" t="n">
         <v>1.05</v>
       </c>
       <c r="K81" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="L81" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="M81" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="N81" t="n">
         <v>1.72</v>
@@ -10248,46 +10248,46 @@
         <v>2</v>
       </c>
       <c r="P81" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="Q81" t="n">
-        <v>2.85</v>
+        <v>2.92</v>
       </c>
       <c r="R81" t="n">
         <v>1.65</v>
       </c>
       <c r="S81" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="T81" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="U81" t="n">
+        <v>21</v>
+      </c>
+      <c r="V81" t="n">
         <v>12</v>
-      </c>
-      <c r="U81" t="n">
-        <v>22</v>
-      </c>
-      <c r="V81" t="n">
-        <v>12.5</v>
       </c>
       <c r="W81" t="n">
         <v>55</v>
       </c>
       <c r="X81" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y81" t="n">
         <v>32</v>
       </c>
-      <c r="Y81" t="n">
-        <v>35</v>
-      </c>
       <c r="Z81" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AA81" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AB81" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC81" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AD81" t="n">
         <v>350</v>
@@ -10296,16 +10296,16 @@
         <v>8.25</v>
       </c>
       <c r="AF81" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AG81" t="n">
         <v>8.25</v>
       </c>
       <c r="AH81" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI81" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AJ81" t="n">
         <v>23</v>
@@ -10709,27 +10709,27 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="H85" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="I85" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M85" t="n">
         <v>2.95</v>
       </c>
       <c r="N85" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="O85" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="P85" t="n">
         <v>1.38</v>
@@ -10744,16 +10744,16 @@
         <v>1.55</v>
       </c>
       <c r="T85" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="U85" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="V85" t="n">
         <v>24</v>
       </c>
       <c r="W85" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="X85" t="n">
         <v>100</v>
@@ -10786,7 +10786,7 @@
         <v>8.5</v>
       </c>
       <c r="AH85" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AI85" t="n">
         <v>13</v>
@@ -10862,7 +10862,7 @@
         <v>1.83</v>
       </c>
       <c r="T86" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="U86" t="n">
         <v>10</v>
@@ -10880,7 +10880,7 @@
         <v>30</v>
       </c>
       <c r="Z86" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AA86" t="n">
         <v>6</v>
@@ -10957,7 +10957,7 @@
         <v>1.08</v>
       </c>
       <c r="K87" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="L87" t="n">
         <v>1.36</v>
@@ -10975,7 +10975,7 @@
         <v>1.42</v>
       </c>
       <c r="Q87" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="R87" t="n">
         <v>1.85</v>
@@ -11002,13 +11002,13 @@
         <v>40</v>
       </c>
       <c r="Z87" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AA87" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AB87" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC87" t="n">
         <v>80</v>
@@ -11017,7 +11017,7 @@
         <v>700</v>
       </c>
       <c r="AE87" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AF87" t="n">
         <v>10</v>
@@ -11029,7 +11029,7 @@
         <v>21</v>
       </c>
       <c r="AI87" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AJ87" t="n">
         <v>32</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ88"/>
+  <dimension ref="A1:AJ89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H2" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="J2" t="n">
         <v>1.05</v>
@@ -668,10 +668,10 @@
         <v>4</v>
       </c>
       <c r="N2" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="O2" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="P2" t="n">
         <v>1.36</v>
@@ -680,10 +680,10 @@
         <v>3</v>
       </c>
       <c r="R2" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S2" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T2" t="n">
         <v>7</v>
@@ -695,7 +695,7 @@
         <v>8.5</v>
       </c>
       <c r="W2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X2" t="n">
         <v>13</v>
@@ -728,7 +728,7 @@
         <v>17</v>
       </c>
       <c r="AH2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI2" t="n">
         <v>41</v>
@@ -790,10 +790,10 @@
         <v>3.75</v>
       </c>
       <c r="N3" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="O3" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="P3" t="n">
         <v>1.36</v>
@@ -802,16 +802,16 @@
         <v>3</v>
       </c>
       <c r="R3" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S3" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T3" t="n">
         <v>12</v>
       </c>
       <c r="U3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="V3" t="n">
         <v>13</v>
@@ -829,7 +829,7 @@
         <v>11</v>
       </c>
       <c r="AA3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB3" t="n">
         <v>13</v>
@@ -844,7 +844,7 @@
         <v>8</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG3" t="n">
         <v>8.5</v>
@@ -897,7 +897,7 @@
         <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J4" t="n">
         <v>1.1</v>
@@ -957,10 +957,10 @@
         <v>17</v>
       </c>
       <c r="AC4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD4" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AE4" t="n">
         <v>8.5</v>
@@ -1013,19 +1013,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H5" t="n">
         <v>2.88</v>
       </c>
       <c r="I5" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J5" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="K5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="L5" t="n">
         <v>1.62</v>
@@ -1034,10 +1034,10 @@
         <v>2.2</v>
       </c>
       <c r="N5" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="O5" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P5" t="n">
         <v>1.67</v>
@@ -1091,7 +1091,7 @@
         <v>15</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH5" t="n">
         <v>41</v>
@@ -1144,10 +1144,10 @@
         <v>2.15</v>
       </c>
       <c r="J6" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L6" t="n">
         <v>1.5</v>
@@ -1257,13 +1257,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H7" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I7" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J7" t="n">
         <v>1.04</v>
@@ -1284,10 +1284,10 @@
         <v>2.08</v>
       </c>
       <c r="P7" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q7" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R7" t="n">
         <v>1.67</v>
@@ -1308,10 +1308,10 @@
         <v>34</v>
       </c>
       <c r="X7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z7" t="n">
         <v>13</v>
@@ -1338,7 +1338,7 @@
         <v>9</v>
       </c>
       <c r="AH7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI7" t="n">
         <v>17</v>
@@ -1516,10 +1516,10 @@
         <v>17</v>
       </c>
       <c r="L9" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M9" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N9" t="n">
         <v>1.62</v>
@@ -1867,13 +1867,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="H12" t="n">
         <v>3.1</v>
       </c>
       <c r="I12" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J12" t="n">
         <v>1.08</v>
@@ -1912,10 +1912,10 @@
         <v>12</v>
       </c>
       <c r="V12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X12" t="n">
         <v>23</v>
@@ -1951,7 +1951,7 @@
         <v>29</v>
       </c>
       <c r="AI12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ12" t="n">
         <v>41</v>
@@ -2028,7 +2028,7 @@
         <v>1.72</v>
       </c>
       <c r="T13" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="U13" t="n">
         <v>11.75</v>
@@ -2061,7 +2061,7 @@
         <v>600</v>
       </c>
       <c r="AE13" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AF13" t="n">
         <v>14.5</v>
@@ -2111,13 +2111,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H14" t="n">
         <v>3.8</v>
       </c>
       <c r="I14" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J14" t="n">
         <v>1.03</v>
@@ -2156,7 +2156,7 @@
         <v>11</v>
       </c>
       <c r="V14" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W14" t="n">
         <v>17</v>
@@ -2174,7 +2174,7 @@
         <v>7.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC14" t="n">
         <v>34</v>
@@ -2183,10 +2183,10 @@
         <v>101</v>
       </c>
       <c r="AE14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG14" t="n">
         <v>13</v>
@@ -2198,7 +2198,7 @@
         <v>26</v>
       </c>
       <c r="AJ14" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
@@ -2233,7 +2233,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="H15" t="n">
         <v>4.75</v>
@@ -2254,10 +2254,10 @@
         <v>5.5</v>
       </c>
       <c r="N15" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="O15" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="P15" t="n">
         <v>1.25</v>
@@ -2272,7 +2272,7 @@
         <v>2.1</v>
       </c>
       <c r="T15" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U15" t="n">
         <v>8.5</v>
@@ -2308,7 +2308,7 @@
         <v>21</v>
       </c>
       <c r="AF15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG15" t="n">
         <v>19</v>
@@ -2721,13 +2721,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="H19" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="I19" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="J19" t="n">
         <v>1.1</v>
@@ -2739,7 +2739,7 @@
         <v>1.47</v>
       </c>
       <c r="M19" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="N19" t="n">
         <v>2.35</v>
@@ -2754,37 +2754,37 @@
         <v>2.15</v>
       </c>
       <c r="R19" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="S19" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="T19" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="U19" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="V19" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="W19" t="n">
+        <v>60</v>
+      </c>
+      <c r="X19" t="n">
+        <v>45</v>
+      </c>
+      <c r="Y19" t="n">
         <v>55</v>
-      </c>
-      <c r="X19" t="n">
-        <v>40</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>50</v>
       </c>
       <c r="Z19" t="n">
         <v>6.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AB19" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC19" t="n">
         <v>110</v>
@@ -2793,16 +2793,16 @@
         <v>101</v>
       </c>
       <c r="AE19" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AF19" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG19" t="n">
         <v>9.25</v>
       </c>
       <c r="AH19" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AI19" t="n">
         <v>21</v>
@@ -2854,34 +2854,34 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M20" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="N20" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="O20" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P20" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="R20" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="S20" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="T20" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="U20" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="V20" t="n">
         <v>8.5</v>
@@ -2890,19 +2890,19 @@
         <v>11.75</v>
       </c>
       <c r="X20" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y20" t="n">
         <v>35</v>
       </c>
       <c r="Z20" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AA20" t="n">
         <v>7.1</v>
       </c>
       <c r="AB20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC20" t="n">
         <v>120</v>
@@ -2911,10 +2911,10 @@
         <v>101</v>
       </c>
       <c r="AE20" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AF20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG20" t="n">
         <v>17</v>
@@ -2923,7 +2923,7 @@
         <v>90</v>
       </c>
       <c r="AI20" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ20" t="n">
         <v>70</v>
@@ -2961,31 +2961,31 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="H21" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I21" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="J21" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K21" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="L21" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M21" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N21" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O21" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P21" t="n">
         <v>1.4</v>
@@ -2994,16 +2994,16 @@
         <v>2.75</v>
       </c>
       <c r="R21" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S21" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T21" t="n">
         <v>11</v>
       </c>
       <c r="U21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="V21" t="n">
         <v>13</v>
@@ -3012,7 +3012,7 @@
         <v>41</v>
       </c>
       <c r="X21" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y21" t="n">
         <v>41</v>
@@ -3033,7 +3033,7 @@
         <v>251</v>
       </c>
       <c r="AE21" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF21" t="n">
         <v>9</v>
@@ -3042,10 +3042,10 @@
         <v>9</v>
       </c>
       <c r="AH21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ21" t="n">
         <v>29</v>
@@ -3083,7 +3083,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="H22" t="n">
         <v>3.3</v>
@@ -3205,13 +3205,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="H23" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I23" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
         <v>1.05</v>
@@ -3226,10 +3226,10 @@
         <v>3.75</v>
       </c>
       <c r="N23" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="O23" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="P23" t="n">
         <v>1.36</v>
@@ -3244,19 +3244,19 @@
         <v>2.1</v>
       </c>
       <c r="T23" t="n">
+        <v>9</v>
+      </c>
+      <c r="U23" t="n">
+        <v>12</v>
+      </c>
+      <c r="V23" t="n">
         <v>9.5</v>
       </c>
-      <c r="U23" t="n">
-        <v>13</v>
-      </c>
-      <c r="V23" t="n">
-        <v>10</v>
-      </c>
       <c r="W23" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y23" t="n">
         <v>26</v>
@@ -3277,19 +3277,19 @@
         <v>151</v>
       </c>
       <c r="AE23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG23" t="n">
         <v>11</v>
       </c>
       <c r="AH23" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI23" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ23" t="n">
         <v>29</v>
@@ -3327,7 +3327,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="H24" t="n">
         <v>4.2</v>
@@ -3348,10 +3348,10 @@
         <v>3.5</v>
       </c>
       <c r="N24" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="O24" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="P24" t="n">
         <v>1.4</v>
@@ -3473,7 +3473,7 @@
         <v>2</v>
       </c>
       <c r="O25" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="P25" t="n">
         <v>1.4</v>
@@ -3494,7 +3494,7 @@
         <v>9</v>
       </c>
       <c r="V25" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W25" t="n">
         <v>15</v>
@@ -3503,7 +3503,7 @@
         <v>15</v>
       </c>
       <c r="Y25" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z25" t="n">
         <v>10</v>
@@ -3512,13 +3512,13 @@
         <v>7</v>
       </c>
       <c r="AB25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC25" t="n">
         <v>51</v>
       </c>
       <c r="AD25" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE25" t="n">
         <v>11</v>
@@ -3693,10 +3693,10 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="H27" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="I27" t="n">
         <v>2.95</v>
@@ -3708,16 +3708,16 @@
         <v>4.55</v>
       </c>
       <c r="L27" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="M27" t="n">
         <v>2.18</v>
       </c>
       <c r="N27" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="O27" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P27" t="n">
         <v>1.62</v>
@@ -3732,7 +3732,7 @@
         <v>1.65</v>
       </c>
       <c r="T27" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="U27" t="n">
         <v>14</v>
@@ -3744,7 +3744,7 @@
         <v>40</v>
       </c>
       <c r="X27" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Y27" t="n">
         <v>50</v>
@@ -3815,13 +3815,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="H28" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I28" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J28" t="n">
         <v>1.06</v>
@@ -3836,16 +3836,16 @@
         <v>3.4</v>
       </c>
       <c r="N28" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="O28" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P28" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R28" t="n">
         <v>2.1</v>
@@ -3875,7 +3875,7 @@
         <v>9.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB28" t="n">
         <v>21</v>
@@ -4080,10 +4080,10 @@
         <v>4.33</v>
       </c>
       <c r="N30" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="O30" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="P30" t="n">
         <v>1.3</v>
@@ -4446,10 +4446,10 @@
         <v>4</v>
       </c>
       <c r="N33" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O33" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P33" t="n">
         <v>1.33</v>
@@ -4562,16 +4562,16 @@
         <v>11</v>
       </c>
       <c r="L34" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M34" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N34" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="O34" t="n">
         <v>1.9</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.95</v>
       </c>
       <c r="P34" t="n">
         <v>1.36</v>
@@ -4580,7 +4580,7 @@
         <v>3</v>
       </c>
       <c r="R34" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="S34" t="n">
         <v>2</v>
@@ -4693,7 +4693,7 @@
         <v>2.1</v>
       </c>
       <c r="O35" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P35" t="n">
         <v>1.44</v>
@@ -4702,10 +4702,10 @@
         <v>2.63</v>
       </c>
       <c r="R35" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S35" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T35" t="n">
         <v>7.5</v>
@@ -4791,13 +4791,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H36" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I36" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J36" t="n">
         <v>1.04</v>
@@ -4812,19 +4812,19 @@
         <v>4</v>
       </c>
       <c r="N36" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="O36" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="P36" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q36" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R36" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S36" t="n">
         <v>2.1</v>
@@ -4848,7 +4848,7 @@
         <v>23</v>
       </c>
       <c r="Z36" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA36" t="n">
         <v>7</v>
@@ -4937,7 +4937,7 @@
         <v>2.6</v>
       </c>
       <c r="O37" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="P37" t="n">
         <v>1.57</v>
@@ -4949,7 +4949,7 @@
         <v>2.25</v>
       </c>
       <c r="S37" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="T37" t="n">
         <v>5.5</v>
@@ -5035,13 +5035,13 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="H38" t="n">
-        <v>2.87</v>
+        <v>2.95</v>
       </c>
       <c r="I38" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -5061,61 +5061,61 @@
         <v>1.5</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="R38" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="S38" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="T38" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="U38" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="V38" t="n">
-        <v>9.75</v>
+        <v>10.75</v>
       </c>
       <c r="W38" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="X38" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Y38" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Z38" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AA38" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="AB38" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC38" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AD38" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AE38" t="n">
-        <v>7.9</v>
+        <v>6.9</v>
       </c>
       <c r="AF38" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AG38" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH38" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="AI38" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AJ38" t="n">
         <v>35</v>
@@ -5153,7 +5153,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="H39" t="n">
         <v>3.1</v>
@@ -5179,7 +5179,7 @@
         <v>1.44</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="R39" t="n">
         <v>1.72</v>
@@ -5188,7 +5188,7 @@
         <v>1.88</v>
       </c>
       <c r="T39" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="U39" t="n">
         <v>12.5</v>
@@ -5200,10 +5200,10 @@
         <v>28</v>
       </c>
       <c r="X39" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y39" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z39" t="n">
         <v>8.75</v>
@@ -5212,7 +5212,7 @@
         <v>6</v>
       </c>
       <c r="AB39" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC39" t="n">
         <v>65</v>
@@ -5221,22 +5221,22 @@
         <v>500</v>
       </c>
       <c r="AE39" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AF39" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AG39" t="n">
         <v>10</v>
       </c>
       <c r="AH39" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AI39" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ39" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40">
@@ -5271,27 +5271,27 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.45</v>
+        <v>1.34</v>
       </c>
       <c r="H40" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="I40" t="n">
-        <v>6.4</v>
+        <v>8</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M40" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="N40" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="O40" t="n">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="P40" t="n">
         <v>1.38</v>
@@ -5300,61 +5300,61 @@
         <v>2.6</v>
       </c>
       <c r="R40" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="S40" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="T40" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="U40" t="n">
-        <v>6.6</v>
+        <v>6.1</v>
       </c>
       <c r="V40" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W40" t="n">
         <v>8.25</v>
       </c>
-      <c r="W40" t="n">
-        <v>9.5</v>
-      </c>
       <c r="X40" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="Y40" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z40" t="n">
-        <v>10.75</v>
+        <v>11.75</v>
       </c>
       <c r="AA40" t="n">
-        <v>8.25</v>
+        <v>9.25</v>
       </c>
       <c r="AB40" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AC40" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AD40" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AE40" t="n">
-        <v>16</v>
+        <v>19.5</v>
       </c>
       <c r="AF40" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AG40" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AH40" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AI40" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AJ40" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41">
@@ -5424,10 +5424,10 @@
         <v>1.82</v>
       </c>
       <c r="T41" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="U41" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="V41" t="n">
         <v>10.25</v>
@@ -5436,16 +5436,16 @@
         <v>35</v>
       </c>
       <c r="X41" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Y41" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z41" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AA41" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AB41" t="n">
         <v>14</v>
@@ -5457,22 +5457,22 @@
         <v>600</v>
       </c>
       <c r="AE41" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AF41" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AG41" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AH41" t="n">
         <v>29</v>
       </c>
       <c r="AI41" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ41" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42">
@@ -5551,7 +5551,7 @@
         <v>9.25</v>
       </c>
       <c r="W42" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X42" t="n">
         <v>21</v>
@@ -5625,13 +5625,13 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.27</v>
+        <v>2.12</v>
       </c>
       <c r="H43" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="I43" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -5654,25 +5654,25 @@
         <v>2.2</v>
       </c>
       <c r="R43" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="S43" t="n">
         <v>1.7</v>
       </c>
       <c r="T43" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="U43" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="V43" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="W43" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="X43" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="Y43" t="n">
         <v>37</v>
@@ -5681,34 +5681,34 @@
         <v>6.9</v>
       </c>
       <c r="AA43" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="AB43" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AC43" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AD43" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AE43" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AF43" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG43" t="n">
-        <v>11.75</v>
+        <v>13</v>
       </c>
       <c r="AH43" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AI43" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AJ43" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44">
@@ -5743,13 +5743,13 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.82</v>
+        <v>2.72</v>
       </c>
       <c r="H44" t="n">
-        <v>2.62</v>
+        <v>2.75</v>
       </c>
       <c r="I44" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -5766,61 +5766,61 @@
         <v>1.52</v>
       </c>
       <c r="P44" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="R44" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="S44" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="T44" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="U44" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="V44" t="n">
         <v>10</v>
       </c>
       <c r="W44" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X44" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y44" t="n">
         <v>37</v>
       </c>
       <c r="Z44" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="AA44" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="AB44" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC44" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AD44" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AE44" t="n">
         <v>7.4</v>
       </c>
       <c r="AF44" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG44" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AH44" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AI44" t="n">
         <v>27</v>
@@ -5870,13 +5870,13 @@
         <v>2.05</v>
       </c>
       <c r="J45" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K45" t="n">
         <v>10</v>
       </c>
       <c r="L45" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="M45" t="n">
         <v>3.4</v>
@@ -6004,10 +6004,10 @@
         <v>3.75</v>
       </c>
       <c r="N46" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="O46" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="P46" t="n">
         <v>1.36</v>
@@ -6230,10 +6230,10 @@
         <v>1.7</v>
       </c>
       <c r="H48" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I48" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -6247,7 +6247,7 @@
         <v>1.75</v>
       </c>
       <c r="O48" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="P48" t="n">
         <v>1.39</v>
@@ -6262,7 +6262,7 @@
         <v>1.9</v>
       </c>
       <c r="T48" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="U48" t="n">
         <v>8</v>
@@ -6271,19 +6271,19 @@
         <v>8</v>
       </c>
       <c r="W48" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="X48" t="n">
         <v>13</v>
       </c>
       <c r="Y48" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z48" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AA48" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AB48" t="n">
         <v>14.5</v>
@@ -6295,19 +6295,19 @@
         <v>500</v>
       </c>
       <c r="AE48" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AF48" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AG48" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH48" t="n">
         <v>80</v>
       </c>
       <c r="AI48" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ48" t="n">
         <v>45</v>
@@ -6351,7 +6351,7 @@
         <v>3.15</v>
       </c>
       <c r="I49" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -6371,7 +6371,7 @@
         <v>1.4</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="R49" t="n">
         <v>1.65</v>
@@ -6410,7 +6410,7 @@
         <v>55</v>
       </c>
       <c r="AD49" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AE49" t="n">
         <v>8.75</v>
@@ -6419,7 +6419,7 @@
         <v>14</v>
       </c>
       <c r="AG49" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AH49" t="n">
         <v>32</v>
@@ -6590,13 +6590,13 @@
         <v>1.57</v>
       </c>
       <c r="J51" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K51" t="n">
         <v>12</v>
       </c>
       <c r="L51" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
@@ -6712,13 +6712,13 @@
         <v>5.25</v>
       </c>
       <c r="J52" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="K52" t="n">
         <v>7</v>
       </c>
       <c r="L52" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="M52" t="n">
         <v>2.5</v>
@@ -6840,10 +6840,10 @@
         <v>8</v>
       </c>
       <c r="L53" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="M53" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="N53" t="n">
         <v>2.35</v>
@@ -7352,7 +7352,7 @@
         <v>1.83</v>
       </c>
       <c r="T57" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="U57" t="n">
         <v>8.75</v>
@@ -7361,10 +7361,10 @@
         <v>8.5</v>
       </c>
       <c r="W57" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="X57" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y57" t="n">
         <v>30</v>
@@ -7385,10 +7385,10 @@
         <v>700</v>
       </c>
       <c r="AE57" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AF57" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AG57" t="n">
         <v>13</v>
@@ -7397,10 +7397,10 @@
         <v>60</v>
       </c>
       <c r="AI57" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AJ57" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58">
@@ -7450,13 +7450,13 @@
         <v>5.4</v>
       </c>
       <c r="L58" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="M58" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="N58" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="O58" t="n">
         <v>1.5</v>
@@ -7578,10 +7578,10 @@
         <v>2.75</v>
       </c>
       <c r="N59" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="O59" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P59" t="n">
         <v>1.53</v>
@@ -7650,17 +7650,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>zHRBlXa3</t>
+          <t>ABwth66e</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>11/04/2025</t>
+          <t>10/04/2025</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>23:05</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -7670,100 +7670,100 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Necaxa</t>
+          <t>Club Tijuana</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Pachuca</t>
+          <t>Atl. San Luis</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.63</v>
+        <v>1.8</v>
       </c>
       <c r="H60" t="n">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="I60" t="n">
-        <v>2.55</v>
+        <v>3.3</v>
       </c>
       <c r="J60" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="K60" t="n">
+        <v>23</v>
+      </c>
+      <c r="L60" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="M60" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="N60" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="O60" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="P60" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T60" t="n">
         <v>15</v>
       </c>
-      <c r="L60" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="M60" t="n">
-        <v>5</v>
-      </c>
-      <c r="N60" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="O60" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="P60" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R60" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S60" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="T60" t="n">
+      <c r="U60" t="n">
         <v>13</v>
       </c>
-      <c r="U60" t="n">
+      <c r="V60" t="n">
+        <v>9</v>
+      </c>
+      <c r="W60" t="n">
+        <v>19</v>
+      </c>
+      <c r="X60" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y60" t="n">
         <v>17</v>
       </c>
-      <c r="V60" t="n">
+      <c r="Z60" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA60" t="n">
         <v>10</v>
       </c>
-      <c r="W60" t="n">
-        <v>26</v>
-      </c>
-      <c r="X60" t="n">
+      <c r="AB60" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE60" t="n">
         <v>19</v>
       </c>
-      <c r="Y60" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z60" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA60" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB60" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC60" t="n">
-        <v>34</v>
-      </c>
-      <c r="AD60" t="n">
-        <v>101</v>
-      </c>
-      <c r="AE60" t="n">
-        <v>13</v>
-      </c>
       <c r="AF60" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AG60" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AH60" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AI60" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AJ60" t="n">
         <v>21</v>
@@ -7772,7 +7772,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>zgumLljD</t>
+          <t>zHRBlXa3</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -7787,102 +7787,114 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Tapatio</t>
+          <t>Necaxa</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Correcaminos</t>
+          <t>Pachuca</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.52</v>
+        <v>2.63</v>
       </c>
       <c r="H61" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="I61" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
+        <v>2.55</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K61" t="n">
+        <v>17</v>
+      </c>
+      <c r="L61" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
       <c r="N61" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="O61" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R61" t="n">
         <v>1.5</v>
       </c>
-      <c r="O61" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="n">
-        <v>1.6</v>
-      </c>
       <c r="S61" t="n">
-        <v>2.07</v>
+        <v>2.5</v>
       </c>
       <c r="T61" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="U61" t="n">
-        <v>8.5</v>
+        <v>17</v>
       </c>
       <c r="V61" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="W61" t="n">
-        <v>11.75</v>
+        <v>26</v>
       </c>
       <c r="X61" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB61" t="n">
         <v>11</v>
       </c>
-      <c r="Y61" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="Z61" t="n">
+      <c r="AC61" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF61" t="n">
         <v>15</v>
       </c>
-      <c r="AA61" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AB61" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC61" t="n">
-        <v>50</v>
-      </c>
-      <c r="AD61" t="n">
-        <v>300</v>
-      </c>
-      <c r="AE61" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF61" t="n">
-        <v>37</v>
-      </c>
       <c r="AG61" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI61" t="n">
         <v>17</v>
       </c>
-      <c r="AH61" t="n">
-        <v>100</v>
-      </c>
-      <c r="AI61" t="n">
-        <v>45</v>
-      </c>
       <c r="AJ61" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>GlIZrhrK</t>
+          <t>zgumLljD</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -7902,101 +7914,97 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Tepatitlan de Morelos</t>
+          <t>Tapatio</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Alebrijes Oaxaca</t>
+          <t>Correcaminos</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.34</v>
+        <v>1.52</v>
       </c>
       <c r="H62" t="n">
-        <v>4.9</v>
+        <v>4.1</v>
       </c>
       <c r="I62" t="n">
-        <v>7.1</v>
+        <v>5.4</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="M62" t="n">
-        <v>4.9</v>
-      </c>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
       <c r="N62" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="O62" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="S62" t="n">
-        <v>1.85</v>
+        <v>2.07</v>
       </c>
       <c r="T62" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="U62" t="n">
         <v>8.5</v>
       </c>
-      <c r="U62" t="n">
-        <v>7.3</v>
-      </c>
       <c r="V62" t="n">
+        <v>8</v>
+      </c>
+      <c r="W62" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="X62" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA62" t="n">
         <v>8.5</v>
       </c>
-      <c r="W62" t="n">
-        <v>9</v>
-      </c>
-      <c r="X62" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Y62" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z62" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AA62" t="n">
-        <v>10</v>
-      </c>
       <c r="AB62" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AC62" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="AD62" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="AE62" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AF62" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG62" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AH62" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="AI62" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="AJ62" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>l2Q6PhiM</t>
+          <t>GlIZrhrK</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -8006,119 +8014,111 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>COD Meknes</t>
+          <t>Tepatitlan de Morelos</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Olympique de Safi</t>
+          <t>Alebrijes Oaxaca</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.9</v>
+        <v>1.34</v>
       </c>
       <c r="H63" t="n">
-        <v>2.9</v>
+        <v>4.9</v>
       </c>
       <c r="I63" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="K63" t="n">
-        <v>6.5</v>
-      </c>
+        <v>7.1</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
-        <v>1.5</v>
+        <v>1.15</v>
       </c>
       <c r="M63" t="n">
-        <v>2.5</v>
+        <v>4.9</v>
       </c>
       <c r="N63" t="n">
-        <v>2.5</v>
+        <v>1.47</v>
       </c>
       <c r="O63" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P63" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>2.25</v>
-      </c>
+        <v>2.32</v>
+      </c>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
       <c r="R63" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="S63" t="n">
-        <v>1.67</v>
+        <v>1.85</v>
       </c>
       <c r="T63" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="U63" t="n">
-        <v>13</v>
+        <v>7.3</v>
       </c>
       <c r="V63" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="W63" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="X63" t="n">
-        <v>29</v>
+        <v>10.5</v>
       </c>
       <c r="Y63" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="Z63" t="n">
-        <v>6.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA63" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AB63" t="n">
         <v>19</v>
       </c>
       <c r="AC63" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="AD63" t="n">
-        <v>101</v>
+        <v>500</v>
       </c>
       <c r="AE63" t="n">
-        <v>6.5</v>
+        <v>23</v>
       </c>
       <c r="AF63" t="n">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="AG63" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="AH63" t="n">
-        <v>23</v>
+        <v>150</v>
       </c>
       <c r="AI63" t="n">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="AJ63" t="n">
-        <v>41</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>KMYkTzhc</t>
+          <t>l2Q6PhiM</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -8128,7 +8128,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -8138,22 +8138,22 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Jeunesse Sportive Soualem</t>
+          <t>COD Meknes</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Renaissance Zemamra</t>
+          <t>Olympique de Safi</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="H64" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="I64" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="J64" t="n">
         <v>1.11</v>
@@ -8162,16 +8162,16 @@
         <v>6.5</v>
       </c>
       <c r="L64" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="M64" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="N64" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O64" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="P64" t="n">
         <v>1.57</v>
@@ -8180,25 +8180,25 @@
         <v>2.25</v>
       </c>
       <c r="R64" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="S64" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="T64" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U64" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V64" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W64" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X64" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y64" t="n">
         <v>41</v>
@@ -8207,31 +8207,31 @@
         <v>6.5</v>
       </c>
       <c r="AA64" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB64" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC64" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD64" t="n">
         <v>101</v>
       </c>
       <c r="AE64" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AF64" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AG64" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH64" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AI64" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ64" t="n">
         <v>41</v>
@@ -8240,7 +8240,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>QZk4s0UG</t>
+          <t>KMYkTzhc</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -8250,110 +8250,110 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>PARAGUAY - COPA DE PRIMERA</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Libertad Asuncion</t>
+          <t>Jeunesse Sportive Soualem</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Nacional Asuncion</t>
+          <t>Renaissance Zemamra</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.85</v>
+        <v>3.5</v>
       </c>
       <c r="H65" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I65" t="n">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="J65" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="K65" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="L65" t="n">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="M65" t="n">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="N65" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="O65" t="n">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="P65" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="Q65" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="R65" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="S65" t="n">
-        <v>1.73</v>
+        <v>1.54</v>
       </c>
       <c r="T65" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="U65" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="V65" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="W65" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="X65" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="Y65" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="Z65" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AA65" t="n">
         <v>6.5</v>
       </c>
       <c r="AB65" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AC65" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD65" t="n">
-        <v>1250</v>
+        <v>101</v>
       </c>
       <c r="AE65" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG65" t="n">
         <v>10</v>
       </c>
-      <c r="AF65" t="n">
+      <c r="AH65" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI65" t="n">
         <v>21</v>
-      </c>
-      <c r="AG65" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH65" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI65" t="n">
-        <v>41</v>
       </c>
       <c r="AJ65" t="n">
         <v>41</v>
@@ -8362,7 +8362,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2gAscbYG</t>
+          <t>QZk4s0UG</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -8372,38 +8372,38 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>PARAGUAY - COPA DE PRIMERA</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Ayacucho</t>
+          <t>Libertad Asuncion</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Cajamarca</t>
+          <t>Nacional Asuncion</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="H66" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="I66" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="J66" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K66" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L66" t="n">
         <v>1.4</v>
@@ -8412,10 +8412,10 @@
         <v>2.75</v>
       </c>
       <c r="N66" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O66" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="P66" t="n">
         <v>1.5</v>
@@ -8427,19 +8427,19 @@
         <v>2</v>
       </c>
       <c r="S66" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="T66" t="n">
         <v>6</v>
       </c>
       <c r="U66" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V66" t="n">
         <v>9</v>
       </c>
       <c r="W66" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X66" t="n">
         <v>17</v>
@@ -8448,34 +8448,34 @@
         <v>34</v>
       </c>
       <c r="Z66" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA66" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB66" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC66" t="n">
         <v>67</v>
       </c>
       <c r="AD66" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AE66" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF66" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG66" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH66" t="n">
         <v>41</v>
       </c>
       <c r="AI66" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ66" t="n">
         <v>41</v>
@@ -8484,7 +8484,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>AJDkex3T</t>
+          <t>2gAscbYG</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -8494,7 +8494,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -8504,109 +8504,109 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Los Chankas</t>
+          <t>Ayacucho</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Sport Huancayo</t>
+          <t>Cajamarca</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.25</v>
+        <v>1.91</v>
       </c>
       <c r="H67" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="I67" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="J67" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K67" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L67" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="M67" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N67" t="n">
-        <v>1.98</v>
+        <v>2.15</v>
       </c>
       <c r="O67" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="P67" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="Q67" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="R67" t="n">
-        <v>1.73</v>
+        <v>2</v>
       </c>
       <c r="S67" t="n">
-        <v>2</v>
+        <v>1.69</v>
       </c>
       <c r="T67" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U67" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="V67" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W67" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="X67" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB67" t="n">
         <v>19</v>
       </c>
-      <c r="Y67" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z67" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA67" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB67" t="n">
+      <c r="AC67" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>700</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG67" t="n">
         <v>13</v>
       </c>
-      <c r="AC67" t="n">
+      <c r="AH67" t="n">
         <v>41</v>
       </c>
-      <c r="AD67" t="n">
-        <v>201</v>
-      </c>
-      <c r="AE67" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF67" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG67" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH67" t="n">
+      <c r="AI67" t="n">
         <v>34</v>
       </c>
-      <c r="AI67" t="n">
-        <v>26</v>
-      </c>
       <c r="AJ67" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>tnOYp7HO</t>
+          <t>AJDkex3T</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -8616,32 +8616,32 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Zaglebie</t>
+          <t>Los Chankas</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Gornik Zabrze</t>
+          <t>Sport Huancayo</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="H68" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I68" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="J68" t="n">
         <v>1.05</v>
@@ -8650,16 +8650,16 @@
         <v>11</v>
       </c>
       <c r="L68" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M68" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N68" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="O68" t="n">
         <v>1.88</v>
-      </c>
-      <c r="O68" t="n">
-        <v>1.98</v>
       </c>
       <c r="P68" t="n">
         <v>1.4</v>
@@ -8668,34 +8668,34 @@
         <v>2.75</v>
       </c>
       <c r="R68" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="S68" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T68" t="n">
+        <v>8</v>
+      </c>
+      <c r="U68" t="n">
+        <v>11</v>
+      </c>
+      <c r="V68" t="n">
         <v>9.5</v>
       </c>
-      <c r="U68" t="n">
-        <v>13</v>
-      </c>
-      <c r="V68" t="n">
-        <v>10</v>
-      </c>
       <c r="W68" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="X68" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y68" t="n">
         <v>29</v>
       </c>
       <c r="Z68" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA68" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB68" t="n">
         <v>13</v>
@@ -8704,31 +8704,31 @@
         <v>41</v>
       </c>
       <c r="AD68" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE68" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF68" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG68" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AH68" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI68" t="n">
         <v>26</v>
       </c>
-      <c r="AI68" t="n">
-        <v>21</v>
-      </c>
       <c r="AJ68" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A1br5A2t</t>
+          <t>tnOYp7HO</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -8738,7 +8738,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -8748,109 +8748,109 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Korona Kielce</t>
+          <t>Zaglebie</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Widzew Lodz</t>
+          <t>Gornik Zabrze</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="H69" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I69" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="J69" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K69" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L69" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="M69" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="N69" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="O69" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="P69" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R69" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="S69" t="n">
         <v>2.1</v>
       </c>
-      <c r="O69" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="P69" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R69" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S69" t="n">
-        <v>1.91</v>
-      </c>
       <c r="T69" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="U69" t="n">
+        <v>13</v>
+      </c>
+      <c r="V69" t="n">
         <v>10</v>
       </c>
-      <c r="V69" t="n">
-        <v>9.5</v>
-      </c>
       <c r="W69" t="n">
+        <v>26</v>
+      </c>
+      <c r="X69" t="n">
         <v>21</v>
-      </c>
-      <c r="X69" t="n">
-        <v>19</v>
       </c>
       <c r="Y69" t="n">
         <v>29</v>
       </c>
       <c r="Z69" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AA69" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB69" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC69" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD69" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="AE69" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF69" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG69" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH69" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AI69" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AJ69" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>6NzRpBHt</t>
+          <t>A1br5A2t</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -8865,96 +8865,96 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Warta Poznan</t>
+          <t>Korona Kielce</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Leczna</t>
+          <t>Widzew Lodz</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="H70" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I70" t="n">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="J70" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K70" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L70" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="N70" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O70" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="P70" t="n">
         <v>1.44</v>
       </c>
-      <c r="M70" t="n">
+      <c r="Q70" t="n">
         <v>2.63</v>
       </c>
-      <c r="N70" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="O70" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P70" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>2.38</v>
-      </c>
       <c r="R70" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="S70" t="n">
-        <v>1.67</v>
+        <v>1.91</v>
       </c>
       <c r="T70" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="U70" t="n">
         <v>10</v>
       </c>
       <c r="V70" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W70" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X70" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Y70" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="Z70" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AA70" t="n">
         <v>6</v>
       </c>
       <c r="AB70" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AC70" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD70" t="n">
-        <v>800</v>
+        <v>301</v>
       </c>
       <c r="AE70" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AF70" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG70" t="n">
         <v>12</v>
@@ -8963,7 +8963,7 @@
         <v>34</v>
       </c>
       <c r="AI70" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ70" t="n">
         <v>41</v>
@@ -8972,7 +8972,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>l2tiewv9</t>
+          <t>6NzRpBHt</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -8982,38 +8982,38 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Gil Vicente</t>
+          <t>Warta Poznan</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Vitoria Guimaraes</t>
+          <t>Leczna</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3.9</v>
+        <v>2.3</v>
       </c>
       <c r="H71" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I71" t="n">
-        <v>2.05</v>
+        <v>2.9</v>
       </c>
       <c r="J71" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K71" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L71" t="n">
         <v>1.44</v>
@@ -9022,10 +9022,10 @@
         <v>2.63</v>
       </c>
       <c r="N71" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O71" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P71" t="n">
         <v>1.53</v>
@@ -9034,67 +9034,67 @@
         <v>2.38</v>
       </c>
       <c r="R71" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S71" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T71" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="U71" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="V71" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="W71" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="X71" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="Y71" t="n">
         <v>41</v>
       </c>
       <c r="Z71" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA71" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB71" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC71" t="n">
         <v>67</v>
       </c>
       <c r="AD71" t="n">
-        <v>501</v>
+        <v>800</v>
       </c>
       <c r="AE71" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AF71" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AG71" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AH71" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AI71" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AJ71" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>xvw5a2Gc</t>
+          <t>l2tiewv9</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -9104,110 +9104,110 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Feirense</t>
+          <t>Gil Vicente</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Leiria</t>
+          <t>Vitoria Guimaraes</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.7</v>
+        <v>3.9</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I72" t="n">
-        <v>2.55</v>
+        <v>2.05</v>
       </c>
       <c r="J72" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="K72" t="n">
+        <v>7</v>
+      </c>
+      <c r="L72" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M72" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="N72" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="O72" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P72" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R72" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S72" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T72" t="n">
         <v>9</v>
       </c>
-      <c r="L72" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M72" t="n">
-        <v>3</v>
-      </c>
-      <c r="N72" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="O72" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P72" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q72" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R72" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S72" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="T72" t="n">
-        <v>8</v>
-      </c>
       <c r="U72" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="V72" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="W72" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="X72" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="Y72" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z72" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA72" t="n">
         <v>6</v>
       </c>
       <c r="AB72" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC72" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD72" t="n">
-        <v>301</v>
+        <v>501</v>
       </c>
       <c r="AE72" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AF72" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="AG72" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH72" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AI72" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AJ72" t="n">
         <v>34</v>
@@ -9216,7 +9216,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>URpI0aKH</t>
+          <t>xvw5a2Gc</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -9226,32 +9226,32 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>ROMANIA - SUPERLIGA</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Gloria Buzau</t>
+          <t>Feirense</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Poli Iasi</t>
+          <t>Leiria</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H73" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="I73" t="n">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="J73" t="n">
         <v>1.07</v>
@@ -9260,16 +9260,16 @@
         <v>9</v>
       </c>
       <c r="L73" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M73" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N73" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O73" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P73" t="n">
         <v>1.5</v>
@@ -9278,22 +9278,22 @@
         <v>2.5</v>
       </c>
       <c r="R73" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S73" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T73" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U73" t="n">
+        <v>13</v>
+      </c>
+      <c r="V73" t="n">
         <v>11</v>
       </c>
-      <c r="V73" t="n">
-        <v>10</v>
-      </c>
       <c r="W73" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="X73" t="n">
         <v>23</v>
@@ -9305,28 +9305,28 @@
         <v>8</v>
       </c>
       <c r="AA73" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB73" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC73" t="n">
         <v>51</v>
       </c>
       <c r="AD73" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE73" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF73" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG73" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH73" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI73" t="n">
         <v>23</v>
@@ -9338,7 +9338,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>hMkg63jt</t>
+          <t>URpI0aKH</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -9348,7 +9348,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -9358,109 +9358,109 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>FC Hermannstadt</t>
+          <t>Gloria Buzau</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Petrolul</t>
+          <t>Poli Iasi</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="I74" t="n">
-        <v>3.7</v>
+        <v>2.75</v>
       </c>
       <c r="J74" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="K74" t="n">
+        <v>9</v>
+      </c>
+      <c r="L74" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M74" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="N74" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O74" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P74" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S74" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T74" t="n">
         <v>7</v>
       </c>
-      <c r="L74" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M74" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="N74" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="O74" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="P74" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Q74" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R74" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S74" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T74" t="n">
-        <v>5.5</v>
-      </c>
       <c r="U74" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="V74" t="n">
         <v>10</v>
       </c>
       <c r="W74" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="X74" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y74" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z74" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA74" t="n">
         <v>6.5</v>
       </c>
-      <c r="AA74" t="n">
-        <v>6</v>
-      </c>
       <c r="AB74" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC74" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AD74" t="n">
-        <v>1250</v>
+        <v>351</v>
       </c>
       <c r="AE74" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF74" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AG74" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AH74" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AI74" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AJ74" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>6VKUJKgD</t>
+          <t>hMkg63jt</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -9470,119 +9470,119 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>12:55</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>ROMANIA - SUPERLIGA</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Al Okhdood</t>
+          <t>FC Hermannstadt</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Al Taawon</t>
+          <t>Petrolul</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H75" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I75" t="n">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="J75" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="K75" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L75" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="M75" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N75" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="O75" t="n">
-        <v>1.7</v>
+        <v>1.48</v>
       </c>
       <c r="P75" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="Q75" t="n">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="R75" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="S75" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="T75" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="U75" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V75" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W75" t="n">
         <v>19</v>
       </c>
       <c r="X75" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB75" t="n">
         <v>19</v>
       </c>
-      <c r="Y75" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z75" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA75" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB75" t="n">
+      <c r="AC75" t="n">
+        <v>81</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF75" t="n">
         <v>17</v>
       </c>
-      <c r="AC75" t="n">
+      <c r="AG75" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ75" t="n">
         <v>51</v>
-      </c>
-      <c r="AD75" t="n">
-        <v>800</v>
-      </c>
-      <c r="AE75" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF75" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG75" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH75" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI75" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ75" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>KYnsTOWQ</t>
+          <t>6VKUJKgD</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:55</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -9602,109 +9602,109 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Al Okhdood</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Al Taawon</t>
         </is>
       </c>
       <c r="G76" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H76" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I76" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K76" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L76" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M76" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="N76" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O76" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P76" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R76" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S76" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T76" t="n">
         <v>7</v>
       </c>
-      <c r="H76" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="I76" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="J76" t="n">
+      <c r="U76" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W76" t="n">
         <v>19</v>
       </c>
-      <c r="K76" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="L76" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="M76" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="N76" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="O76" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="P76" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q76" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="R76" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S76" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="T76" t="n">
-        <v>23</v>
-      </c>
-      <c r="U76" t="n">
-        <v>41</v>
-      </c>
-      <c r="V76" t="n">
-        <v>23</v>
-      </c>
-      <c r="W76" t="n">
-        <v>81</v>
-      </c>
       <c r="X76" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="Y76" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z76" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="AA76" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AB76" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AC76" t="n">
         <v>51</v>
       </c>
       <c r="AD76" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="AE76" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF76" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="AG76" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AH76" t="n">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="AI76" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AJ76" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>E1Rn93ue</t>
+          <t>KYnsTOWQ</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -9714,7 +9714,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -9724,22 +9724,22 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Al Ettifaq</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Al Ahli SC</t>
         </is>
       </c>
       <c r="G77" t="n">
+        <v>7</v>
+      </c>
+      <c r="H77" t="n">
         <v>5.5</v>
       </c>
-      <c r="H77" t="n">
-        <v>5</v>
-      </c>
       <c r="I77" t="n">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="J77" t="n">
         <v>1.02</v>
@@ -9748,16 +9748,16 @@
         <v>12</v>
       </c>
       <c r="L77" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="M77" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N77" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="O77" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="P77" t="n">
         <v>1.25</v>
@@ -9766,67 +9766,67 @@
         <v>3.75</v>
       </c>
       <c r="R77" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="S77" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="T77" t="n">
+        <v>23</v>
+      </c>
+      <c r="U77" t="n">
+        <v>41</v>
+      </c>
+      <c r="V77" t="n">
+        <v>23</v>
+      </c>
+      <c r="W77" t="n">
+        <v>81</v>
+      </c>
+      <c r="X77" t="n">
+        <v>51</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB77" t="n">
         <v>21</v>
       </c>
-      <c r="U77" t="n">
-        <v>34</v>
-      </c>
-      <c r="V77" t="n">
-        <v>19</v>
-      </c>
-      <c r="W77" t="n">
-        <v>67</v>
-      </c>
-      <c r="X77" t="n">
-        <v>41</v>
-      </c>
-      <c r="Y77" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z77" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA77" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB77" t="n">
-        <v>17</v>
-      </c>
       <c r="AC77" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD77" t="n">
-        <v>151</v>
+        <v>600</v>
       </c>
       <c r="AE77" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF77" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG77" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH77" t="n">
         <v>9</v>
-      </c>
-      <c r="AG77" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH77" t="n">
-        <v>11</v>
       </c>
       <c r="AI77" t="n">
         <v>11</v>
       </c>
       <c r="AJ77" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>OE3n6wfA</t>
+          <t>E1Rn93ue</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -9836,119 +9836,119 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>SCOTLAND - CHAMPIONSHIP</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Ayr</t>
+          <t>Al Ettifaq</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="H78" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="I78" t="n">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="J78" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="K78" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="L78" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="M78" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="N78" t="n">
-        <v>1.93</v>
+        <v>1.44</v>
       </c>
       <c r="O78" t="n">
-        <v>1.93</v>
+        <v>2.63</v>
       </c>
       <c r="P78" t="n">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="Q78" t="n">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="R78" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S78" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T78" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="U78" t="n">
+        <v>34</v>
+      </c>
+      <c r="V78" t="n">
         <v>19</v>
       </c>
-      <c r="V78" t="n">
-        <v>12</v>
-      </c>
       <c r="W78" t="n">
+        <v>67</v>
+      </c>
+      <c r="X78" t="n">
         <v>41</v>
-      </c>
-      <c r="X78" t="n">
-        <v>29</v>
       </c>
       <c r="Y78" t="n">
         <v>34</v>
       </c>
       <c r="Z78" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA78" t="n">
         <v>11</v>
       </c>
-      <c r="AA78" t="n">
-        <v>7</v>
-      </c>
       <c r="AB78" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC78" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD78" t="n">
         <v>151</v>
       </c>
       <c r="AE78" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AF78" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG78" t="n">
         <v>9</v>
       </c>
       <c r="AH78" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AI78" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AJ78" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>dzYr9fNs</t>
+          <t>OE3n6wfA</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -9958,38 +9958,38 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SCOTLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Ayr</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="H79" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="I79" t="n">
-        <v>2.88</v>
+        <v>1.95</v>
       </c>
       <c r="J79" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K79" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="L79" t="n">
         <v>1.29</v>
@@ -9998,10 +9998,10 @@
         <v>3.5</v>
       </c>
       <c r="N79" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="O79" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="P79" t="n">
         <v>1.4</v>
@@ -10016,61 +10016,61 @@
         <v>2</v>
       </c>
       <c r="T79" t="n">
+        <v>11</v>
+      </c>
+      <c r="U79" t="n">
+        <v>19</v>
+      </c>
+      <c r="V79" t="n">
+        <v>12</v>
+      </c>
+      <c r="W79" t="n">
+        <v>41</v>
+      </c>
+      <c r="X79" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>151</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG79" t="n">
         <v>9</v>
       </c>
-      <c r="U79" t="n">
-        <v>12</v>
-      </c>
-      <c r="V79" t="n">
-        <v>10</v>
-      </c>
-      <c r="W79" t="n">
-        <v>23</v>
-      </c>
-      <c r="X79" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y79" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z79" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA79" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB79" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC79" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD79" t="n">
-        <v>201</v>
-      </c>
-      <c r="AE79" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AF79" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG79" t="n">
-        <v>11</v>
-      </c>
       <c r="AH79" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AI79" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AJ79" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>z9RP6UjT</t>
+          <t>dzYr9fNs</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -10085,114 +10085,114 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>SPAIN - PRIMERA RFEF</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Sevilla FC B</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Recreativo Huelva</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I80" t="n">
-        <v>3.3</v>
+        <v>2.88</v>
       </c>
       <c r="J80" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="K80" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="L80" t="n">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="M80" t="n">
-        <v>2.63</v>
+        <v>3.5</v>
       </c>
       <c r="N80" t="n">
-        <v>2.38</v>
+        <v>1.98</v>
       </c>
       <c r="O80" t="n">
-        <v>1.53</v>
+        <v>1.88</v>
       </c>
       <c r="P80" t="n">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="Q80" t="n">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="R80" t="n">
-        <v>2.1</v>
+        <v>1.73</v>
       </c>
       <c r="S80" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="T80" t="n">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="U80" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="V80" t="n">
         <v>10</v>
       </c>
       <c r="W80" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X80" t="n">
         <v>21</v>
       </c>
       <c r="Y80" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="Z80" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AA80" t="n">
         <v>6</v>
       </c>
       <c r="AB80" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AC80" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AD80" t="n">
-        <v>800</v>
+        <v>201</v>
       </c>
       <c r="AE80" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AF80" t="n">
         <v>15</v>
       </c>
       <c r="AG80" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH80" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI80" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AJ80" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>CtwNbekt</t>
+          <t>z9RP6UjT</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -10202,119 +10202,119 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+          <t>SPAIN - PRIMERA RFEF</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Schaffhausen</t>
+          <t>Sevilla FC B</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Lausanne Ouchy</t>
+          <t>Recreativo Huelva</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3.65</v>
+        <v>2.15</v>
       </c>
       <c r="H81" t="n">
-        <v>3.55</v>
+        <v>3</v>
       </c>
       <c r="I81" t="n">
-        <v>1.91</v>
+        <v>3.3</v>
       </c>
       <c r="J81" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="K81" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="L81" t="n">
-        <v>1.24</v>
+        <v>1.44</v>
       </c>
       <c r="M81" t="n">
-        <v>3.65</v>
+        <v>2.63</v>
       </c>
       <c r="N81" t="n">
-        <v>1.72</v>
+        <v>2.38</v>
       </c>
       <c r="O81" t="n">
-        <v>2</v>
+        <v>1.53</v>
       </c>
       <c r="P81" t="n">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="Q81" t="n">
-        <v>2.92</v>
+        <v>2.38</v>
       </c>
       <c r="R81" t="n">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="S81" t="n">
-        <v>2.12</v>
+        <v>1.67</v>
       </c>
       <c r="T81" t="n">
-        <v>12.5</v>
+        <v>6.5</v>
       </c>
       <c r="U81" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>10</v>
+      </c>
+      <c r="W81" t="n">
         <v>21</v>
       </c>
-      <c r="V81" t="n">
-        <v>12</v>
-      </c>
-      <c r="W81" t="n">
-        <v>55</v>
-      </c>
       <c r="X81" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Y81" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="Z81" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA81" t="n">
-        <v>6.9</v>
+        <v>6</v>
       </c>
       <c r="AB81" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>800</v>
+      </c>
+      <c r="AE81" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF81" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG81" t="n">
         <v>13</v>
       </c>
-      <c r="AC81" t="n">
-        <v>50</v>
-      </c>
-      <c r="AD81" t="n">
-        <v>350</v>
-      </c>
-      <c r="AE81" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AF81" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AG81" t="n">
-        <v>8.25</v>
-      </c>
       <c r="AH81" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AI81" t="n">
-        <v>14.5</v>
+        <v>34</v>
       </c>
       <c r="AJ81" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>K6tVdZJh</t>
+          <t>CtwNbekt</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -10334,82 +10334,82 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Stade Nyonnais</t>
+          <t>Schaffhausen</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Thun</t>
+          <t>Lausanne Ouchy</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>4.4</v>
+        <v>3.65</v>
       </c>
       <c r="H82" t="n">
-        <v>3.85</v>
+        <v>3.55</v>
       </c>
       <c r="I82" t="n">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="J82" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K82" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="L82" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="M82" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="N82" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="O82" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="P82" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q82" t="n">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="R82" t="n">
         <v>1.65</v>
       </c>
       <c r="S82" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="T82" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="U82" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="V82" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="W82" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="X82" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="Y82" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="Z82" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA82" t="n">
-        <v>7.6</v>
+        <v>6.9</v>
       </c>
       <c r="AB82" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC82" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AD82" t="n">
         <v>350</v>
@@ -10418,25 +10418,25 @@
         <v>8.25</v>
       </c>
       <c r="AF82" t="n">
-        <v>8.75</v>
+        <v>9.75</v>
       </c>
       <c r="AG82" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AH82" t="n">
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="AI82" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AJ82" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>dvz9vZtP</t>
+          <t>K6tVdZJh</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -10446,7 +10446,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -10456,22 +10456,22 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Xamax</t>
+          <t>Stade Nyonnais</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Aarau</t>
+          <t>Thun</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="H83" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="I83" t="n">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="J83" t="n">
         <v>1.04</v>
@@ -10480,85 +10480,85 @@
         <v>8.5</v>
       </c>
       <c r="L83" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="M83" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="N83" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="O83" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="P83" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="Q83" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="R83" t="n">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="S83" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="T83" t="n">
+        <v>15</v>
+      </c>
+      <c r="U83" t="n">
+        <v>27</v>
+      </c>
+      <c r="V83" t="n">
         <v>14</v>
       </c>
-      <c r="U83" t="n">
-        <v>23</v>
-      </c>
-      <c r="V83" t="n">
-        <v>12</v>
-      </c>
       <c r="W83" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="X83" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Y83" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Z83" t="n">
         <v>8.5</v>
       </c>
       <c r="AA83" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="AB83" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AC83" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AD83" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="AE83" t="n">
-        <v>9.5</v>
+        <v>8.25</v>
       </c>
       <c r="AF83" t="n">
-        <v>10.5</v>
+        <v>8.75</v>
       </c>
       <c r="AG83" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AH83" t="n">
-        <v>17</v>
+        <v>13.5</v>
       </c>
       <c r="AI83" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AJ83" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>EkDzDMIG</t>
+          <t>dvz9vZtP</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -10568,119 +10568,119 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Xamax</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Aarau</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="H84" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="I84" t="n">
-        <v>1.65</v>
+        <v>1.87</v>
       </c>
       <c r="J84" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K84" t="n">
-        <v>15</v>
+        <v>8.5</v>
       </c>
       <c r="L84" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="M84" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="N84" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="O84" t="n">
-        <v>2.15</v>
+        <v>2.22</v>
       </c>
       <c r="P84" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="Q84" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="R84" t="n">
-        <v>1.73</v>
+        <v>1.53</v>
       </c>
       <c r="S84" t="n">
-        <v>2</v>
+        <v>2.32</v>
       </c>
       <c r="T84" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U84" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="V84" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="W84" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="X84" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="Y84" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="Z84" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="AA84" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AB84" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AC84" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AD84" t="n">
-        <v>201</v>
+        <v>250</v>
       </c>
       <c r="AE84" t="n">
-        <v>8</v>
+        <v>9.75</v>
       </c>
       <c r="AF84" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AG84" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AH84" t="n">
-        <v>13</v>
+        <v>17.5</v>
       </c>
       <c r="AI84" t="n">
         <v>13</v>
       </c>
       <c r="AJ84" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Qmio7RDM</t>
+          <t>EkDzDMIG</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -10690,115 +10690,119 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>LNZ Cherkasy</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Shakhtar Donetsk</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="G85" t="n">
+        <v>5</v>
+      </c>
+      <c r="H85" t="n">
+        <v>4</v>
+      </c>
+      <c r="I85" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K85" t="n">
+        <v>15</v>
+      </c>
+      <c r="L85" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="N85" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="O85" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="P85" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R85" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S85" t="n">
+        <v>2</v>
+      </c>
+      <c r="T85" t="n">
+        <v>15</v>
+      </c>
+      <c r="U85" t="n">
+        <v>26</v>
+      </c>
+      <c r="V85" t="n">
+        <v>15</v>
+      </c>
+      <c r="W85" t="n">
+        <v>51</v>
+      </c>
+      <c r="X85" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA85" t="n">
         <v>7.5</v>
       </c>
-      <c r="H85" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="I85" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M85" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="N85" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="O85" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="P85" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="Q85" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R85" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S85" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="T85" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="U85" t="n">
-        <v>50</v>
-      </c>
-      <c r="V85" t="n">
-        <v>24</v>
-      </c>
-      <c r="W85" t="n">
-        <v>200</v>
-      </c>
-      <c r="X85" t="n">
-        <v>100</v>
-      </c>
-      <c r="Y85" t="n">
-        <v>100</v>
-      </c>
-      <c r="Z85" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA85" t="n">
-        <v>8.25</v>
-      </c>
       <c r="AB85" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AC85" t="n">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="AD85" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="AE85" t="n">
-        <v>5.6</v>
+        <v>8</v>
       </c>
       <c r="AF85" t="n">
-        <v>5.8</v>
+        <v>8.5</v>
       </c>
       <c r="AG85" t="n">
         <v>8.5</v>
       </c>
       <c r="AH85" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AI85" t="n">
         <v>13</v>
       </c>
       <c r="AJ85" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2spLnTLO</t>
+          <t>Qmio7RDM</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -10808,115 +10812,115 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
+          <t>UKRAINE - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Portuguesa</t>
+          <t>LNZ Cherkasy</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Estudiantes Merida</t>
+          <t>Shakhtar Donetsk</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.12</v>
+        <v>8</v>
       </c>
       <c r="H86" t="n">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="I86" t="n">
-        <v>3.35</v>
+        <v>1.38</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="M86" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N86" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="O86" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="P86" t="n">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="Q86" t="n">
-        <v>2.37</v>
+        <v>2.55</v>
       </c>
       <c r="R86" t="n">
-        <v>1.78</v>
+        <v>2.15</v>
       </c>
       <c r="S86" t="n">
-        <v>1.83</v>
+        <v>1.55</v>
       </c>
       <c r="T86" t="n">
-        <v>7</v>
+        <v>17.5</v>
       </c>
       <c r="U86" t="n">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="V86" t="n">
-        <v>8.75</v>
+        <v>26</v>
       </c>
       <c r="W86" t="n">
-        <v>21</v>
+        <v>250</v>
       </c>
       <c r="X86" t="n">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="Y86" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="Z86" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AA86" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="AB86" t="n">
-        <v>14.5</v>
+        <v>24</v>
       </c>
       <c r="AC86" t="n">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="AD86" t="n">
-        <v>600</v>
+        <v>101</v>
       </c>
       <c r="AE86" t="n">
-        <v>9</v>
+        <v>5.7</v>
       </c>
       <c r="AF86" t="n">
-        <v>17.5</v>
+        <v>5.7</v>
       </c>
       <c r="AG86" t="n">
-        <v>11.75</v>
+        <v>8.5</v>
       </c>
       <c r="AH86" t="n">
-        <v>50</v>
+        <v>8.25</v>
       </c>
       <c r="AI86" t="n">
-        <v>32</v>
+        <v>12.5</v>
       </c>
       <c r="AJ86" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>4ApJvyXr</t>
+          <t>2spLnTLO</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -10926,234 +10930,352 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>WALES - CYMRU PREMIER</t>
+          <t>VENEZUELA - LIGA FUTVE</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Portuguesa</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Estudiantes Merida</t>
         </is>
       </c>
       <c r="G87" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H87" t="n">
         <v>3.1</v>
       </c>
-      <c r="H87" t="n">
-        <v>3.2</v>
-      </c>
       <c r="I87" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="J87" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="K87" t="n">
-        <v>6.6</v>
-      </c>
+        <v>3.35</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="M87" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="N87" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O87" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="P87" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="Q87" t="n">
-        <v>2.65</v>
+        <v>2.37</v>
       </c>
       <c r="R87" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="S87" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="T87" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="U87" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="V87" t="n">
         <v>8.75</v>
       </c>
-      <c r="U87" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="V87" t="n">
-        <v>11.25</v>
-      </c>
       <c r="W87" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="X87" t="n">
-        <v>29</v>
+        <v>18.5</v>
       </c>
       <c r="Y87" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="Z87" t="n">
-        <v>6.6</v>
+        <v>8.25</v>
       </c>
       <c r="AA87" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AB87" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC87" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AD87" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AE87" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="AF87" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AG87" t="n">
-        <v>9</v>
+        <v>11.5</v>
       </c>
       <c r="AH87" t="n">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="AI87" t="n">
-        <v>18.5</v>
+        <v>30</v>
       </c>
       <c r="AJ87" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
+          <t>4ApJvyXr</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>11/04/2025</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>15:45</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>WALES - CYMRU PREMIER</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Cardiff Metropolitan</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Haverfordwest</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H88" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I88" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K88" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="L88" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M88" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="N88" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O88" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="P88" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="R88" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S88" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="T88" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="U88" t="n">
+        <v>16</v>
+      </c>
+      <c r="V88" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="W88" t="n">
+        <v>40</v>
+      </c>
+      <c r="X88" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB88" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC88" t="n">
+        <v>80</v>
+      </c>
+      <c r="AD88" t="n">
+        <v>700</v>
+      </c>
+      <c r="AE88" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AF88" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG88" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH88" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI88" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ88" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
           <t>0xvSxF1e</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B89" t="inlineStr">
         <is>
           <t>11/04/2025</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t>15:45</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="D89" t="inlineStr">
         <is>
           <t>WALES - CYMRU PREMIER</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>TNS</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>Bala</t>
         </is>
       </c>
-      <c r="G88" t="n">
+      <c r="G89" t="n">
         <v>1.15</v>
       </c>
-      <c r="H88" t="n">
+      <c r="H89" t="n">
         <v>6.5</v>
       </c>
-      <c r="I88" t="n">
+      <c r="I89" t="n">
         <v>12.5</v>
       </c>
-      <c r="J88" t="n">
+      <c r="J89" t="n">
         <v>1.02</v>
       </c>
-      <c r="K88" t="n">
+      <c r="K89" t="n">
         <v>10</v>
       </c>
-      <c r="L88" t="n">
+      <c r="L89" t="n">
         <v>1.12</v>
       </c>
-      <c r="M88" t="n">
+      <c r="M89" t="n">
         <v>5.3</v>
       </c>
-      <c r="N88" t="n">
+      <c r="N89" t="n">
         <v>1.39</v>
       </c>
-      <c r="O88" t="n">
+      <c r="O89" t="n">
         <v>2.75</v>
       </c>
-      <c r="P88" t="n">
+      <c r="P89" t="n">
         <v>1.24</v>
       </c>
-      <c r="Q88" t="n">
+      <c r="Q89" t="n">
         <v>3.7</v>
       </c>
-      <c r="R88" t="n">
+      <c r="R89" t="n">
         <v>2.15</v>
       </c>
-      <c r="S88" t="n">
+      <c r="S89" t="n">
         <v>1.62</v>
       </c>
-      <c r="T88" t="n">
+      <c r="T89" t="n">
         <v>9.25</v>
       </c>
-      <c r="U88" t="n">
+      <c r="U89" t="n">
         <v>6.6</v>
       </c>
-      <c r="V88" t="n">
+      <c r="V89" t="n">
         <v>10.5</v>
       </c>
-      <c r="W88" t="n">
+      <c r="W89" t="n">
         <v>6.7</v>
       </c>
-      <c r="X88" t="n">
+      <c r="X89" t="n">
         <v>10.75</v>
       </c>
-      <c r="Y88" t="n">
+      <c r="Y89" t="n">
         <v>32</v>
       </c>
-      <c r="Z88" t="n">
+      <c r="Z89" t="n">
         <v>10</v>
       </c>
-      <c r="AA88" t="n">
+      <c r="AA89" t="n">
         <v>15</v>
       </c>
-      <c r="AB88" t="n">
+      <c r="AB89" t="n">
         <v>32</v>
       </c>
-      <c r="AC88" t="n">
+      <c r="AC89" t="n">
         <v>150</v>
       </c>
-      <c r="AD88" t="n">
+      <c r="AD89" t="n">
         <v>1000</v>
       </c>
-      <c r="AE88" t="n">
+      <c r="AE89" t="n">
         <v>40</v>
       </c>
-      <c r="AF88" t="n">
+      <c r="AF89" t="n">
         <v>120</v>
       </c>
-      <c r="AG88" t="n">
+      <c r="AG89" t="n">
         <v>45</v>
       </c>
-      <c r="AH88" t="n">
+      <c r="AH89" t="n">
         <v>500</v>
       </c>
-      <c r="AI88" t="n">
+      <c r="AI89" t="n">
         <v>200</v>
       </c>
-      <c r="AJ88" t="n">
+      <c r="AJ89" t="n">
         <v>150</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2025-04-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ89"/>
+  <dimension ref="A1:AJ88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="J2" t="n">
         <v>1.05</v>
@@ -668,16 +668,16 @@
         <v>4</v>
       </c>
       <c r="N2" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O2" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P2" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q2" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R2" t="n">
         <v>1.91</v>
@@ -698,16 +698,16 @@
         <v>11</v>
       </c>
       <c r="X2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y2" t="n">
         <v>26</v>
       </c>
       <c r="Z2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB2" t="n">
         <v>17</v>
@@ -719,13 +719,13 @@
         <v>251</v>
       </c>
       <c r="AE2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH2" t="n">
         <v>67</v>
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="H3" t="n">
         <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
         <v>1.05</v>
@@ -784,16 +784,16 @@
         <v>11</v>
       </c>
       <c r="L3" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M3" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N3" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="O3" t="n">
-        <v>1.99</v>
+        <v>2.01</v>
       </c>
       <c r="P3" t="n">
         <v>1.36</v>
@@ -838,7 +838,7 @@
         <v>41</v>
       </c>
       <c r="AD3" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE3" t="n">
         <v>8</v>
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H4" t="n">
         <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J4" t="n">
         <v>1.1</v>
@@ -963,7 +963,7 @@
         <v>451</v>
       </c>
       <c r="AE4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF4" t="n">
         <v>17</v>
@@ -1022,10 +1022,10 @@
         <v>3.5</v>
       </c>
       <c r="J5" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="K5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L5" t="n">
         <v>1.62</v>
@@ -1034,10 +1034,10 @@
         <v>2.2</v>
       </c>
       <c r="N5" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="O5" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P5" t="n">
         <v>1.67</v>
@@ -1135,88 +1135,88 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.7</v>
+        <v>4.33</v>
       </c>
       <c r="H6" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="K6" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="L6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S6" t="n">
         <v>1.5</v>
-      </c>
-      <c r="M6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.62</v>
       </c>
       <c r="T6" t="n">
         <v>8</v>
       </c>
       <c r="U6" t="n">
+        <v>19</v>
+      </c>
+      <c r="V6" t="n">
         <v>17</v>
       </c>
-      <c r="V6" t="n">
-        <v>13</v>
-      </c>
       <c r="W6" t="n">
+        <v>51</v>
+      </c>
+      <c r="X6" t="n">
         <v>41</v>
-      </c>
-      <c r="X6" t="n">
-        <v>34</v>
       </c>
       <c r="Y6" t="n">
         <v>51</v>
       </c>
       <c r="Z6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AA6" t="n">
         <v>6.5</v>
       </c>
-      <c r="AA6" t="n">
-        <v>6</v>
-      </c>
       <c r="AB6" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AC6" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AD6" t="n">
         <v>501</v>
       </c>
       <c r="AE6" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AF6" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AG6" t="n">
         <v>10</v>
       </c>
       <c r="AH6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI6" t="n">
         <v>21</v>
@@ -1266,10 +1266,10 @@
         <v>2.15</v>
       </c>
       <c r="J7" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L7" t="n">
         <v>1.22</v>
@@ -1501,19 +1501,19 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="H9" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J9" t="n">
         <v>1.03</v>
       </c>
       <c r="K9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L9" t="n">
         <v>1.2</v>
@@ -1522,16 +1522,16 @@
         <v>4.33</v>
       </c>
       <c r="N9" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="O9" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="P9" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R9" t="n">
         <v>1.73</v>
@@ -1540,7 +1540,7 @@
         <v>2</v>
       </c>
       <c r="T9" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U9" t="n">
         <v>8</v>
@@ -1549,7 +1549,7 @@
         <v>8.5</v>
       </c>
       <c r="W9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X9" t="n">
         <v>12</v>
@@ -1561,7 +1561,7 @@
         <v>15</v>
       </c>
       <c r="AA9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB9" t="n">
         <v>17</v>
@@ -1579,7 +1579,7 @@
         <v>29</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH9" t="n">
         <v>51</v>
@@ -1629,7 +1629,7 @@
         <v>3.6</v>
       </c>
       <c r="I10" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J10" t="n">
         <v>1.04</v>
@@ -1656,13 +1656,13 @@
         <v>3.25</v>
       </c>
       <c r="R10" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S10" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U10" t="n">
         <v>9.5</v>
@@ -1677,7 +1677,7 @@
         <v>13</v>
       </c>
       <c r="Y10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z10" t="n">
         <v>13</v>
@@ -1745,13 +1745,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H11" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I11" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J11" t="n">
         <v>1.08</v>
@@ -1766,10 +1766,10 @@
         <v>2.75</v>
       </c>
       <c r="N11" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O11" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P11" t="n">
         <v>1.5</v>
@@ -1817,7 +1817,7 @@
         <v>1250</v>
       </c>
       <c r="AE11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF11" t="n">
         <v>29</v>
@@ -1989,13 +1989,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I13" t="n">
-        <v>2.95</v>
+        <v>2.82</v>
       </c>
       <c r="J13" t="n">
         <v>1.11</v>
@@ -2019,7 +2019,7 @@
         <v>1.57</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R13" t="n">
         <v>2</v>
@@ -2028,16 +2028,16 @@
         <v>1.72</v>
       </c>
       <c r="T13" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="U13" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="V13" t="n">
         <v>10.75</v>
       </c>
       <c r="W13" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X13" t="n">
         <v>27</v>
@@ -2052,7 +2052,7 @@
         <v>6.2</v>
       </c>
       <c r="AB13" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AC13" t="n">
         <v>120</v>
@@ -2061,16 +2061,16 @@
         <v>600</v>
       </c>
       <c r="AE13" t="n">
-        <v>7.4</v>
+        <v>6.9</v>
       </c>
       <c r="AF13" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG13" t="n">
         <v>11.75</v>
       </c>
       <c r="AH13" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AI13" t="n">
         <v>32</v>
@@ -2111,79 +2111,79 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H14" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="I14" t="n">
         <v>3.7</v>
       </c>
       <c r="J14" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K14" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L14" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="N14" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R14" t="n">
         <v>1.57</v>
       </c>
-      <c r="O14" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.5</v>
-      </c>
       <c r="S14" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T14" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="U14" t="n">
         <v>11</v>
       </c>
       <c r="V14" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA14" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB14" t="n">
         <v>12</v>
       </c>
       <c r="AC14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AD14" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AE14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF14" t="n">
         <v>21</v>
@@ -2198,7 +2198,7 @@
         <v>26</v>
       </c>
       <c r="AJ14" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15">
@@ -2233,13 +2233,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H15" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I15" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J15" t="n">
         <v>1.02</v>
@@ -2272,7 +2272,7 @@
         <v>2.1</v>
       </c>
       <c r="T15" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U15" t="n">
         <v>8.5</v>
@@ -2281,7 +2281,7 @@
         <v>8.5</v>
       </c>
       <c r="W15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X15" t="n">
         <v>11</v>
@@ -2296,7 +2296,7 @@
         <v>9.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC15" t="n">
         <v>41</v>
@@ -2305,13 +2305,13 @@
         <v>151</v>
       </c>
       <c r="AE15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF15" t="n">
         <v>41</v>
       </c>
       <c r="AG15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH15" t="n">
         <v>67</v>
@@ -2486,10 +2486,10 @@
         <v>3.4</v>
       </c>
       <c r="J17" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K17" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L17" t="n">
         <v>1.44</v>
@@ -2967,25 +2967,25 @@
         <v>3.5</v>
       </c>
       <c r="I21" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="J21" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L21" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M21" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N21" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O21" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P21" t="n">
         <v>1.4</v>
@@ -3083,7 +3083,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="H22" t="n">
         <v>3.3</v>
@@ -3095,7 +3095,7 @@
         <v>1.08</v>
       </c>
       <c r="K22" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L22" t="n">
         <v>1.4</v>
@@ -3104,10 +3104,10 @@
         <v>2.75</v>
       </c>
       <c r="N22" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O22" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P22" t="n">
         <v>1.5</v>
@@ -3327,13 +3327,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="H24" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="I24" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J24" t="n">
         <v>1.05</v>
@@ -3348,10 +3348,10 @@
         <v>3.5</v>
       </c>
       <c r="N24" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="O24" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="P24" t="n">
         <v>1.4</v>
@@ -3366,16 +3366,16 @@
         <v>1.67</v>
       </c>
       <c r="T24" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U24" t="n">
         <v>6.5</v>
       </c>
       <c r="V24" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W24" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X24" t="n">
         <v>13</v>
@@ -3387,7 +3387,7 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB24" t="n">
         <v>21</v>
@@ -3399,13 +3399,13 @@
         <v>800</v>
       </c>
       <c r="AE24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF24" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH24" t="n">
         <v>81</v>
@@ -3452,34 +3452,34 @@
         <v>1.9</v>
       </c>
       <c r="H25" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I25" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J25" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L25" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M25" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N25" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="O25" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="P25" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R25" t="n">
         <v>1.83</v>
@@ -3491,7 +3491,7 @@
         <v>7</v>
       </c>
       <c r="U25" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V25" t="n">
         <v>9</v>
@@ -3500,13 +3500,13 @@
         <v>15</v>
       </c>
       <c r="X25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y25" t="n">
         <v>29</v>
       </c>
       <c r="Z25" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA25" t="n">
         <v>7</v>
@@ -3571,94 +3571,94 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.88</v>
+        <v>2.18</v>
       </c>
       <c r="H26" t="n">
-        <v>2.87</v>
+        <v>2.67</v>
       </c>
       <c r="I26" t="n">
-        <v>5</v>
+        <v>4.05</v>
       </c>
       <c r="J26" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="K26" t="n">
-        <v>4.8</v>
+        <v>4.35</v>
       </c>
       <c r="L26" t="n">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="M26" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="N26" t="n">
-        <v>2.77</v>
+        <v>3.1</v>
       </c>
       <c r="O26" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="P26" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.18</v>
+        <v>2.05</v>
       </c>
       <c r="R26" t="n">
-        <v>2.37</v>
+        <v>2.5</v>
       </c>
       <c r="S26" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="T26" t="n">
-        <v>4.7</v>
+        <v>4.75</v>
       </c>
       <c r="U26" t="n">
-        <v>7.2</v>
+        <v>8.5</v>
       </c>
       <c r="V26" t="n">
-        <v>9.25</v>
+        <v>10.25</v>
       </c>
       <c r="W26" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="X26" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="Y26" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="Z26" t="n">
-        <v>4.8</v>
+        <v>4.35</v>
       </c>
       <c r="AA26" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AB26" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC26" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AD26" t="n">
         <v>101</v>
       </c>
       <c r="AE26" t="n">
-        <v>9</v>
+        <v>7.1</v>
       </c>
       <c r="AF26" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AG26" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AH26" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AI26" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AJ26" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27">
@@ -3693,13 +3693,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="H27" t="n">
         <v>2.47</v>
       </c>
       <c r="I27" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="J27" t="n">
         <v>1.16</v>
@@ -3708,7 +3708,7 @@
         <v>4.55</v>
       </c>
       <c r="L27" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="M27" t="n">
         <v>2.18</v>
@@ -3723,7 +3723,7 @@
         <v>1.62</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="R27" t="n">
         <v>2.1</v>
@@ -3732,10 +3732,10 @@
         <v>1.65</v>
       </c>
       <c r="T27" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="U27" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="V27" t="n">
         <v>11</v>
@@ -3765,16 +3765,16 @@
         <v>101</v>
       </c>
       <c r="AE27" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AF27" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AG27" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AH27" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AI27" t="n">
         <v>35</v>
@@ -3815,7 +3815,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H28" t="n">
         <v>4.1</v>
@@ -3836,10 +3836,10 @@
         <v>3.4</v>
       </c>
       <c r="N28" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="O28" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P28" t="n">
         <v>1.4</v>
@@ -3875,7 +3875,7 @@
         <v>9.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB28" t="n">
         <v>21</v>
@@ -3946,22 +3946,22 @@
         <v>4</v>
       </c>
       <c r="J29" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K29" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L29" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M29" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N29" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="O29" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="P29" t="n">
         <v>1.36</v>
@@ -4062,7 +4062,7 @@
         <v>3.1</v>
       </c>
       <c r="H30" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I30" t="n">
         <v>1.95</v>
@@ -4080,28 +4080,28 @@
         <v>4.33</v>
       </c>
       <c r="N30" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="O30" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S30" t="n">
         <v>2.2</v>
       </c>
-      <c r="P30" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S30" t="n">
-        <v>2.25</v>
-      </c>
       <c r="T30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V30" t="n">
         <v>12</v>
@@ -4113,13 +4113,13 @@
         <v>23</v>
       </c>
       <c r="Y30" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z30" t="n">
         <v>15</v>
       </c>
       <c r="AA30" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB30" t="n">
         <v>13</v>
@@ -4128,10 +4128,10 @@
         <v>41</v>
       </c>
       <c r="AD30" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE30" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF30" t="n">
         <v>11</v>
@@ -4181,13 +4181,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="H31" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I31" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="J31" t="n">
         <v>1.04</v>
@@ -4214,25 +4214,25 @@
         <v>3.25</v>
       </c>
       <c r="R31" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S31" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U31" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="V31" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="W31" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X31" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y31" t="n">
         <v>29</v>
@@ -4241,34 +4241,34 @@
         <v>13</v>
       </c>
       <c r="AA31" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC31" t="n">
         <v>41</v>
       </c>
       <c r="AD31" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE31" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG31" t="n">
         <v>9</v>
       </c>
-      <c r="AF31" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AH31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI31" t="n">
         <v>17</v>
       </c>
-      <c r="AI31" t="n">
-        <v>15</v>
-      </c>
       <c r="AJ31" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32">
@@ -4303,13 +4303,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="H32" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I32" t="n">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="J32" t="n">
         <v>1.05</v>
@@ -4324,10 +4324,10 @@
         <v>3.5</v>
       </c>
       <c r="N32" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="O32" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="P32" t="n">
         <v>1.4</v>
@@ -4336,31 +4336,31 @@
         <v>2.75</v>
       </c>
       <c r="R32" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S32" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T32" t="n">
+        <v>11</v>
+      </c>
+      <c r="U32" t="n">
+        <v>19</v>
+      </c>
+      <c r="V32" t="n">
+        <v>13</v>
+      </c>
+      <c r="W32" t="n">
+        <v>41</v>
+      </c>
+      <c r="X32" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z32" t="n">
         <v>10</v>
-      </c>
-      <c r="U32" t="n">
-        <v>17</v>
-      </c>
-      <c r="V32" t="n">
-        <v>12</v>
-      </c>
-      <c r="W32" t="n">
-        <v>34</v>
-      </c>
-      <c r="X32" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>11</v>
       </c>
       <c r="AA32" t="n">
         <v>7</v>
@@ -4372,22 +4372,22 @@
         <v>51</v>
       </c>
       <c r="AD32" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE32" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF32" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG32" t="n">
         <v>9</v>
       </c>
       <c r="AH32" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI32" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ32" t="n">
         <v>26</v>
@@ -4446,10 +4446,10 @@
         <v>4</v>
       </c>
       <c r="N33" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="O33" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="P33" t="n">
         <v>1.33</v>
@@ -4547,13 +4547,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H34" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I34" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J34" t="n">
         <v>1.05</v>
@@ -4568,19 +4568,19 @@
         <v>3.5</v>
       </c>
       <c r="N34" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O34" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="P34" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q34" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R34" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="S34" t="n">
         <v>2</v>
@@ -4595,16 +4595,16 @@
         <v>9</v>
       </c>
       <c r="W34" t="n">
+        <v>19</v>
+      </c>
+      <c r="X34" t="n">
         <v>17</v>
-      </c>
-      <c r="X34" t="n">
-        <v>15</v>
       </c>
       <c r="Y34" t="n">
         <v>26</v>
       </c>
       <c r="Z34" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA34" t="n">
         <v>6.5</v>
@@ -4619,7 +4619,7 @@
         <v>201</v>
       </c>
       <c r="AE34" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF34" t="n">
         <v>19</v>
@@ -4669,13 +4669,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H35" t="n">
         <v>3.1</v>
       </c>
       <c r="I35" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J35" t="n">
         <v>1.07</v>
@@ -4693,7 +4693,7 @@
         <v>2.1</v>
       </c>
       <c r="O35" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P35" t="n">
         <v>1.44</v>
@@ -4702,22 +4702,22 @@
         <v>2.63</v>
       </c>
       <c r="R35" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S35" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T35" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U35" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V35" t="n">
         <v>9.5</v>
       </c>
       <c r="W35" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X35" t="n">
         <v>19</v>
@@ -4726,7 +4726,7 @@
         <v>29</v>
       </c>
       <c r="Z35" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA35" t="n">
         <v>6</v>
@@ -4738,7 +4738,7 @@
         <v>51</v>
       </c>
       <c r="AD35" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE35" t="n">
         <v>10</v>
@@ -4753,7 +4753,7 @@
         <v>41</v>
       </c>
       <c r="AI35" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ35" t="n">
         <v>41</v>
@@ -4812,10 +4812,10 @@
         <v>4</v>
       </c>
       <c r="N36" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="O36" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="P36" t="n">
         <v>1.33</v>
@@ -4824,7 +4824,7 @@
         <v>3.25</v>
       </c>
       <c r="R36" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S36" t="n">
         <v>2.1</v>
@@ -4913,13 +4913,13 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H37" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I37" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J37" t="n">
         <v>1.1</v>
@@ -4934,10 +4934,10 @@
         <v>2.5</v>
       </c>
       <c r="N37" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O37" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P37" t="n">
         <v>1.57</v>
@@ -4949,7 +4949,7 @@
         <v>2.25</v>
       </c>
       <c r="S37" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="T37" t="n">
         <v>5.5</v>
@@ -4970,7 +4970,7 @@
         <v>41</v>
       </c>
       <c r="Z37" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA37" t="n">
         <v>6.5</v>
@@ -5035,10 +5035,10 @@
         </is>
       </c>
       <c r="G38" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="H38" t="n">
         <v>3</v>
-      </c>
-      <c r="H38" t="n">
-        <v>2.95</v>
       </c>
       <c r="I38" t="n">
         <v>2.4</v>
@@ -5067,19 +5067,19 @@
         <v>1.82</v>
       </c>
       <c r="S38" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="T38" t="n">
         <v>8</v>
       </c>
       <c r="U38" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="V38" t="n">
         <v>10.75</v>
       </c>
       <c r="W38" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="X38" t="n">
         <v>28</v>
@@ -5094,7 +5094,7 @@
         <v>5.8</v>
       </c>
       <c r="AB38" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC38" t="n">
         <v>80</v>
@@ -5112,7 +5112,7 @@
         <v>9.5</v>
       </c>
       <c r="AH38" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI38" t="n">
         <v>22</v>
@@ -5271,27 +5271,27 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="H40" t="n">
-        <v>4.6</v>
+        <v>4.85</v>
       </c>
       <c r="I40" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="M40" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="N40" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O40" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="P40" t="n">
         <v>1.38</v>
@@ -5300,22 +5300,22 @@
         <v>2.6</v>
       </c>
       <c r="R40" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="S40" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="T40" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="U40" t="n">
         <v>6.1</v>
       </c>
       <c r="V40" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="W40" t="n">
-        <v>8.25</v>
+        <v>7.8</v>
       </c>
       <c r="X40" t="n">
         <v>11.25</v>
@@ -5324,13 +5324,13 @@
         <v>30</v>
       </c>
       <c r="Z40" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AA40" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AB40" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC40" t="n">
         <v>120</v>
@@ -5339,22 +5339,22 @@
         <v>1000</v>
       </c>
       <c r="AE40" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AF40" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG40" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AH40" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AI40" t="n">
         <v>110</v>
       </c>
       <c r="AJ40" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41">
@@ -5389,10 +5389,10 @@
         </is>
       </c>
       <c r="G41" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="H41" t="n">
         <v>2.85</v>
-      </c>
-      <c r="H41" t="n">
-        <v>2.9</v>
       </c>
       <c r="I41" t="n">
         <v>2.55</v>
@@ -5415,31 +5415,31 @@
         <v>1.5</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="R41" t="n">
         <v>1.78</v>
       </c>
       <c r="S41" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="T41" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="U41" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="V41" t="n">
         <v>10.25</v>
       </c>
       <c r="W41" t="n">
+        <v>37</v>
+      </c>
+      <c r="X41" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y41" t="n">
         <v>35</v>
-      </c>
-      <c r="X41" t="n">
-        <v>27</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>37</v>
       </c>
       <c r="Z41" t="n">
         <v>7.4</v>
@@ -5451,25 +5451,25 @@
         <v>14</v>
       </c>
       <c r="AC41" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AD41" t="n">
         <v>600</v>
       </c>
       <c r="AE41" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AF41" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG41" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AH41" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI41" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ41" t="n">
         <v>35</v>
@@ -5743,13 +5743,13 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="H44" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="I44" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -5763,16 +5763,16 @@
         <v>2.2</v>
       </c>
       <c r="O44" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="P44" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="R44" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="S44" t="n">
         <v>1.8</v>
@@ -5781,7 +5781,7 @@
         <v>7.2</v>
       </c>
       <c r="U44" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="V44" t="n">
         <v>10</v>
@@ -5790,19 +5790,19 @@
         <v>35</v>
       </c>
       <c r="X44" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Y44" t="n">
         <v>37</v>
       </c>
       <c r="Z44" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AA44" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AB44" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC44" t="n">
         <v>75</v>
@@ -5811,16 +5811,16 @@
         <v>700</v>
       </c>
       <c r="AE44" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AF44" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AG44" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AH44" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AI44" t="n">
         <v>27</v>
@@ -5870,22 +5870,22 @@
         <v>2.05</v>
       </c>
       <c r="J45" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K45" t="n">
         <v>10</v>
       </c>
       <c r="L45" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="M45" t="n">
         <v>3.4</v>
       </c>
       <c r="N45" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="O45" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P45" t="n">
         <v>1.4</v>
@@ -5983,13 +5983,13 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H46" t="n">
         <v>3.2</v>
       </c>
       <c r="I46" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="J46" t="n">
         <v>1.05</v>
@@ -6004,10 +6004,10 @@
         <v>3.75</v>
       </c>
       <c r="N46" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="O46" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="P46" t="n">
         <v>1.36</v>
@@ -6016,10 +6016,10 @@
         <v>3</v>
       </c>
       <c r="R46" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S46" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T46" t="n">
         <v>9.5</v>
@@ -6031,7 +6031,7 @@
         <v>10</v>
       </c>
       <c r="W46" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X46" t="n">
         <v>19</v>
@@ -6061,10 +6061,10 @@
         <v>15</v>
       </c>
       <c r="AG46" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH46" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI46" t="n">
         <v>21</v>
@@ -6227,13 +6227,13 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H48" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="I48" t="n">
-        <v>4.6</v>
+        <v>4.15</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -6241,7 +6241,7 @@
         <v>1.25</v>
       </c>
       <c r="M48" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N48" t="n">
         <v>1.75</v>
@@ -6253,28 +6253,28 @@
         <v>1.39</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="R48" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="S48" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="T48" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="U48" t="n">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="V48" t="n">
         <v>8</v>
       </c>
       <c r="W48" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X48" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y48" t="n">
         <v>24</v>
@@ -6283,34 +6283,34 @@
         <v>10.75</v>
       </c>
       <c r="AA48" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="AB48" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC48" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AD48" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AE48" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF48" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AG48" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AH48" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AI48" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AJ48" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49">
@@ -6348,42 +6348,42 @@
         <v>2.47</v>
       </c>
       <c r="H49" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I49" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="M49" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N49" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O49" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="P49" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="R49" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S49" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="T49" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="U49" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="V49" t="n">
         <v>9.25</v>
@@ -6395,40 +6395,40 @@
         <v>20</v>
       </c>
       <c r="Y49" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z49" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA49" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AB49" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC49" t="n">
         <v>55</v>
       </c>
       <c r="AD49" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AE49" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AF49" t="n">
         <v>14</v>
       </c>
       <c r="AG49" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AH49" t="n">
         <v>32</v>
       </c>
       <c r="AI49" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ49" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50">
@@ -6466,7 +6466,7 @@
         <v>2.3</v>
       </c>
       <c r="H50" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="I50" t="n">
         <v>3.3</v>
@@ -6474,31 +6474,31 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="M50" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="N50" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="O50" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="P50" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="R50" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="S50" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="T50" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="U50" t="n">
         <v>12.5</v>
@@ -6510,19 +6510,19 @@
         <v>26</v>
       </c>
       <c r="X50" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y50" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z50" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AA50" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AB50" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AC50" t="n">
         <v>45</v>
@@ -6531,7 +6531,7 @@
         <v>300</v>
       </c>
       <c r="AE50" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AF50" t="n">
         <v>20</v>
@@ -6543,10 +6543,10 @@
         <v>50</v>
       </c>
       <c r="AI50" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ50" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51">
@@ -6590,22 +6590,22 @@
         <v>1.57</v>
       </c>
       <c r="J51" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K51" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L51" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O51" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P51" t="n">
         <v>1.36</v>
@@ -6650,7 +6650,7 @@
         <v>51</v>
       </c>
       <c r="AD51" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE51" t="n">
         <v>7.5</v>
@@ -6712,13 +6712,13 @@
         <v>5.25</v>
       </c>
       <c r="J52" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="K52" t="n">
         <v>7</v>
       </c>
       <c r="L52" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="M52" t="n">
         <v>2.5</v>
@@ -6840,10 +6840,10 @@
         <v>8</v>
       </c>
       <c r="L53" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="M53" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="N53" t="n">
         <v>2.35</v>
@@ -6947,19 +6947,19 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="H54" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="I54" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J54" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K54" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="L54" t="n">
         <v>1.33</v>
@@ -6980,10 +6980,10 @@
         <v>2.63</v>
       </c>
       <c r="R54" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S54" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T54" t="n">
         <v>5.5</v>
@@ -6995,7 +6995,7 @@
         <v>9</v>
       </c>
       <c r="W54" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X54" t="n">
         <v>13</v>
@@ -7007,10 +7007,10 @@
         <v>8.5</v>
       </c>
       <c r="AA54" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB54" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC54" t="n">
         <v>81</v>
@@ -7019,19 +7019,19 @@
         <v>501</v>
       </c>
       <c r="AE54" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF54" t="n">
         <v>41</v>
       </c>
       <c r="AG54" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH54" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI54" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AJ54" t="n">
         <v>67</v>
@@ -7084,16 +7084,16 @@
         <v>8.5</v>
       </c>
       <c r="L55" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M55" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N55" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="O55" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P55" t="n">
         <v>1.44</v>
@@ -7102,13 +7102,13 @@
         <v>2.63</v>
       </c>
       <c r="R55" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="S55" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T55" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U55" t="n">
         <v>13</v>
@@ -7129,19 +7129,19 @@
         <v>8.5</v>
       </c>
       <c r="AA55" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB55" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC55" t="n">
         <v>51</v>
       </c>
       <c r="AD55" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE55" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF55" t="n">
         <v>12</v>
@@ -7200,61 +7200,61 @@
         <v>1.83</v>
       </c>
       <c r="J56" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="K56" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="L56" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M56" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="N56" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="O56" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="P56" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="R56" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S56" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="T56" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="U56" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V56" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="W56" t="n">
         <v>65</v>
       </c>
       <c r="X56" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Y56" t="n">
         <v>65</v>
       </c>
       <c r="Z56" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AA56" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AB56" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AC56" t="n">
         <v>120</v>
@@ -7263,22 +7263,22 @@
         <v>101</v>
       </c>
       <c r="AE56" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="AF56" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AG56" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AH56" t="n">
         <v>14.5</v>
       </c>
       <c r="AI56" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AJ56" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57">
@@ -7319,7 +7319,7 @@
         <v>3.2</v>
       </c>
       <c r="I57" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J57" t="n">
         <v>1.08</v>
@@ -7435,28 +7435,28 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.62</v>
+        <v>2.67</v>
       </c>
       <c r="H58" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="I58" t="n">
-        <v>2.85</v>
+        <v>2.77</v>
       </c>
       <c r="J58" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="K58" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="L58" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="M58" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="N58" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="O58" t="n">
         <v>1.5</v>
@@ -7465,37 +7465,37 @@
         <v>1.6</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R58" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S58" t="n">
         <v>1.75</v>
       </c>
       <c r="T58" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="U58" t="n">
         <v>12.5</v>
       </c>
       <c r="V58" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="W58" t="n">
         <v>32</v>
       </c>
       <c r="X58" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Y58" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Z58" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AA58" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AB58" t="n">
         <v>15.5</v>
@@ -7507,22 +7507,22 @@
         <v>900</v>
       </c>
       <c r="AE58" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AF58" t="n">
         <v>13.5</v>
       </c>
       <c r="AG58" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AH58" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AI58" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AJ58" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59">
@@ -7560,61 +7560,61 @@
         <v>2.9</v>
       </c>
       <c r="H59" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I59" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J59" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K59" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L59" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M59" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N59" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="O59" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="P59" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R59" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S59" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="T59" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U59" t="n">
         <v>13</v>
       </c>
       <c r="V59" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W59" t="n">
         <v>29</v>
       </c>
       <c r="X59" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y59" t="n">
         <v>41</v>
       </c>
       <c r="Z59" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA59" t="n">
         <v>6</v>
@@ -7623,44 +7623,44 @@
         <v>17</v>
       </c>
       <c r="AC59" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD59" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="AE59" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF59" t="n">
         <v>11</v>
       </c>
       <c r="AG59" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH59" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI59" t="n">
         <v>23</v>
       </c>
       <c r="AJ59" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ABwth66e</t>
+          <t>zHRBlXa3</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>10/04/2025</t>
+          <t>11/04/2025</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>23:05</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -7670,100 +7670,100 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Club Tijuana</t>
+          <t>Necaxa</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Atl. San Luis</t>
+          <t>Pachuca</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="H60" t="n">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="I60" t="n">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="J60" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="K60" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="L60" t="n">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="M60" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="N60" t="n">
-        <v>1.36</v>
+        <v>1.57</v>
       </c>
       <c r="O60" t="n">
-        <v>3.1</v>
+        <v>2.35</v>
       </c>
       <c r="P60" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="Q60" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="R60" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="S60" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T60" t="n">
+        <v>13</v>
+      </c>
+      <c r="U60" t="n">
         <v>15</v>
       </c>
-      <c r="U60" t="n">
-        <v>13</v>
-      </c>
       <c r="V60" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W60" t="n">
+        <v>26</v>
+      </c>
+      <c r="X60" t="n">
         <v>19</v>
       </c>
-      <c r="X60" t="n">
-        <v>13</v>
-      </c>
       <c r="Y60" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z60" t="n">
         <v>17</v>
       </c>
-      <c r="Z60" t="n">
-        <v>29</v>
-      </c>
       <c r="AA60" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AB60" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC60" t="n">
         <v>29</v>
       </c>
       <c r="AD60" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AE60" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI60" t="n">
         <v>19</v>
-      </c>
-      <c r="AF60" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG60" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH60" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI60" t="n">
-        <v>23</v>
       </c>
       <c r="AJ60" t="n">
         <v>21</v>
@@ -7772,7 +7772,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>zHRBlXa3</t>
+          <t>zgumLljD</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -7787,114 +7787,106 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Necaxa</t>
+          <t>Tapatio</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Pachuca</t>
+          <t>Correcaminos</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.63</v>
+        <v>1.53</v>
       </c>
       <c r="H61" t="n">
-        <v>3.5</v>
+        <v>4.05</v>
       </c>
       <c r="I61" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K61" t="n">
-        <v>17</v>
-      </c>
+        <v>5.2</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1.17</v>
       </c>
       <c r="M61" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="N61" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="O61" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="n">
         <v>1.57</v>
       </c>
-      <c r="O61" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="P61" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R61" t="n">
-        <v>1.5</v>
-      </c>
       <c r="S61" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="T61" t="n">
-        <v>13</v>
+        <v>9.25</v>
       </c>
       <c r="U61" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="V61" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="W61" t="n">
-        <v>26</v>
+        <v>12.5</v>
       </c>
       <c r="X61" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y61" t="n">
         <v>19</v>
       </c>
-      <c r="Y61" t="n">
-        <v>21</v>
-      </c>
       <c r="Z61" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AA61" t="n">
-        <v>7</v>
+        <v>8.25</v>
       </c>
       <c r="AB61" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AC61" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="AD61" t="n">
-        <v>101</v>
+        <v>300</v>
       </c>
       <c r="AE61" t="n">
-        <v>13</v>
+        <v>17.5</v>
       </c>
       <c r="AF61" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="AG61" t="n">
-        <v>10</v>
+        <v>16.5</v>
       </c>
       <c r="AH61" t="n">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="AI61" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="AJ61" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>zgumLljD</t>
+          <t>GlIZrhrK</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -7914,97 +7906,101 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Tapatio</t>
+          <t>Tepatitlan de Morelos</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Correcaminos</t>
+          <t>Alebrijes Oaxaca</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.52</v>
+        <v>1.34</v>
       </c>
       <c r="H62" t="n">
-        <v>4.1</v>
+        <v>4.9</v>
       </c>
       <c r="I62" t="n">
-        <v>5.4</v>
+        <v>7.1</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4.9</v>
+      </c>
       <c r="N62" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="O62" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="n">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="S62" t="n">
-        <v>2.07</v>
+        <v>1.85</v>
       </c>
       <c r="T62" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="U62" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="V62" t="n">
         <v>8.5</v>
       </c>
-      <c r="V62" t="n">
-        <v>8</v>
-      </c>
       <c r="W62" t="n">
-        <v>11.75</v>
+        <v>9</v>
       </c>
       <c r="X62" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="Y62" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Z62" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA62" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AB62" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AC62" t="n">
+        <v>75</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF62" t="n">
         <v>50</v>
       </c>
-      <c r="AD62" t="n">
-        <v>300</v>
-      </c>
-      <c r="AE62" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF62" t="n">
-        <v>40</v>
-      </c>
       <c r="AG62" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AH62" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AI62" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="AJ62" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>GlIZrhrK</t>
+          <t>l2Q6PhiM</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -8014,111 +8010,119 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Tepatitlan de Morelos</t>
+          <t>COD Meknes</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Alebrijes Oaxaca</t>
+          <t>Olympique de Safi</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.34</v>
+        <v>2.9</v>
       </c>
       <c r="H63" t="n">
-        <v>4.9</v>
+        <v>2.9</v>
       </c>
       <c r="I63" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+        <v>2.4</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K63" t="n">
+        <v>7</v>
+      </c>
       <c r="L63" t="n">
-        <v>1.15</v>
+        <v>1.5</v>
       </c>
       <c r="M63" t="n">
-        <v>4.9</v>
+        <v>2.5</v>
       </c>
       <c r="N63" t="n">
-        <v>1.47</v>
+        <v>2.5</v>
       </c>
       <c r="O63" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
+        <v>1.5</v>
+      </c>
+      <c r="P63" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>2.25</v>
+      </c>
       <c r="R63" t="n">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="S63" t="n">
-        <v>1.85</v>
+        <v>1.67</v>
       </c>
       <c r="T63" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="U63" t="n">
-        <v>7.3</v>
+        <v>13</v>
       </c>
       <c r="V63" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="W63" t="n">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="X63" t="n">
-        <v>10.5</v>
+        <v>29</v>
       </c>
       <c r="Y63" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="Z63" t="n">
-        <v>16.5</v>
+        <v>6.5</v>
       </c>
       <c r="AA63" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AB63" t="n">
         <v>19</v>
       </c>
       <c r="AC63" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="AD63" t="n">
-        <v>500</v>
+        <v>101</v>
       </c>
       <c r="AE63" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH63" t="n">
         <v>23</v>
       </c>
-      <c r="AF63" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG63" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH63" t="n">
-        <v>150</v>
-      </c>
       <c r="AI63" t="n">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="AJ63" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>l2Q6PhiM</t>
+          <t>KMYkTzhc</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -8128,7 +8132,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -8138,40 +8142,40 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>COD Meknes</t>
+          <t>Jeunesse Sportive Soualem</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Olympique de Safi</t>
+          <t>Renaissance Zemamra</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="H64" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="I64" t="n">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="J64" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K64" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L64" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M64" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="N64" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O64" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P64" t="n">
         <v>1.57</v>
@@ -8180,58 +8184,58 @@
         <v>2.25</v>
       </c>
       <c r="R64" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="S64" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="T64" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U64" t="n">
+        <v>17</v>
+      </c>
+      <c r="V64" t="n">
         <v>13</v>
       </c>
-      <c r="V64" t="n">
-        <v>12</v>
-      </c>
       <c r="W64" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X64" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="Y64" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z64" t="n">
         <v>6.5</v>
       </c>
       <c r="AA64" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB64" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC64" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD64" t="n">
         <v>101</v>
       </c>
       <c r="AE64" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AF64" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AG64" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH64" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AI64" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ64" t="n">
         <v>41</v>
@@ -8240,7 +8244,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>KMYkTzhc</t>
+          <t>QZk4s0UG</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -8250,110 +8254,110 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>PARAGUAY - COPA DE PRIMERA</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Jeunesse Sportive Soualem</t>
+          <t>Libertad Asuncion</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Renaissance Zemamra</t>
+          <t>Nacional Asuncion</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="H65" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I65" t="n">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="J65" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="K65" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="L65" t="n">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="M65" t="n">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="N65" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="O65" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="P65" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="Q65" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="R65" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="S65" t="n">
-        <v>1.54</v>
+        <v>1.73</v>
       </c>
       <c r="T65" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="U65" t="n">
+        <v>8</v>
+      </c>
+      <c r="V65" t="n">
+        <v>9</v>
+      </c>
+      <c r="W65" t="n">
+        <v>15</v>
+      </c>
+      <c r="X65" t="n">
         <v>17</v>
       </c>
-      <c r="V65" t="n">
-        <v>13</v>
-      </c>
-      <c r="W65" t="n">
-        <v>41</v>
-      </c>
-      <c r="X65" t="n">
-        <v>41</v>
-      </c>
       <c r="Y65" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="Z65" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AA65" t="n">
         <v>6.5</v>
       </c>
       <c r="AB65" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF65" t="n">
         <v>21</v>
       </c>
-      <c r="AC65" t="n">
-        <v>81</v>
-      </c>
-      <c r="AD65" t="n">
-        <v>101</v>
-      </c>
-      <c r="AE65" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AF65" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AG65" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AH65" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AI65" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AJ65" t="n">
         <v>41</v>
@@ -8362,7 +8366,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>QZk4s0UG</t>
+          <t>2gAscbYG</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -8372,68 +8376,68 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>PARAGUAY - COPA DE PRIMERA</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Libertad Asuncion</t>
+          <t>Ayacucho</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Nacional Asuncion</t>
+          <t>Cajamarca</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H66" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="I66" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="J66" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="K66" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L66" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="M66" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="N66" t="n">
-        <v>2.3</v>
+        <v>2.08</v>
       </c>
       <c r="O66" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="P66" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q66" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R66" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S66" t="n">
-        <v>1.69</v>
+        <v>1.8</v>
       </c>
       <c r="T66" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U66" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V66" t="n">
         <v>9</v>
@@ -8445,37 +8449,37 @@
         <v>17</v>
       </c>
       <c r="Y66" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z66" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AA66" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB66" t="n">
         <v>17</v>
       </c>
       <c r="AC66" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD66" t="n">
-        <v>1250</v>
+        <v>351</v>
       </c>
       <c r="AE66" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF66" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG66" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH66" t="n">
         <v>41</v>
       </c>
       <c r="AI66" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ66" t="n">
         <v>41</v>
@@ -8484,7 +8488,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2gAscbYG</t>
+          <t>AJDkex3T</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -8494,7 +8498,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -8504,22 +8508,22 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Ayacucho</t>
+          <t>Los Chankas</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Cajamarca</t>
+          <t>Sport Huancayo</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.91</v>
+        <v>2.35</v>
       </c>
       <c r="H67" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="I67" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="J67" t="n">
         <v>1.06</v>
@@ -8528,85 +8532,85 @@
         <v>10</v>
       </c>
       <c r="L67" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="M67" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N67" t="n">
-        <v>2.15</v>
+        <v>2.03</v>
       </c>
       <c r="O67" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="P67" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="Q67" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="R67" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S67" t="n">
         <v>2</v>
       </c>
-      <c r="S67" t="n">
-        <v>1.69</v>
-      </c>
       <c r="T67" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U67" t="n">
+        <v>12</v>
+      </c>
+      <c r="V67" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W67" t="n">
+        <v>23</v>
+      </c>
+      <c r="X67" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA67" t="n">
         <v>6</v>
       </c>
-      <c r="U67" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="V67" t="n">
-        <v>9</v>
-      </c>
-      <c r="W67" t="n">
-        <v>17</v>
-      </c>
-      <c r="X67" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y67" t="n">
+      <c r="AB67" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ67" t="n">
         <v>34</v>
-      </c>
-      <c r="Z67" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA67" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB67" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC67" t="n">
-        <v>67</v>
-      </c>
-      <c r="AD67" t="n">
-        <v>700</v>
-      </c>
-      <c r="AE67" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF67" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG67" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH67" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI67" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ67" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>AJDkex3T</t>
+          <t>tnOYp7HO</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -8616,32 +8620,32 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Los Chankas</t>
+          <t>Zaglebie</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Sport Huancayo</t>
+          <t>Gornik Zabrze</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="H68" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I68" t="n">
-        <v>3.1</v>
+        <v>2.63</v>
       </c>
       <c r="J68" t="n">
         <v>1.05</v>
@@ -8650,16 +8654,16 @@
         <v>11</v>
       </c>
       <c r="L68" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M68" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N68" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="O68" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="P68" t="n">
         <v>1.4</v>
@@ -8668,34 +8672,34 @@
         <v>2.75</v>
       </c>
       <c r="R68" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="S68" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T68" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="U68" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="V68" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W68" t="n">
+        <v>26</v>
+      </c>
+      <c r="X68" t="n">
         <v>21</v>
-      </c>
-      <c r="X68" t="n">
-        <v>19</v>
       </c>
       <c r="Y68" t="n">
         <v>29</v>
       </c>
       <c r="Z68" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA68" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB68" t="n">
         <v>13</v>
@@ -8704,31 +8708,31 @@
         <v>41</v>
       </c>
       <c r="AD68" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE68" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG68" t="n">
         <v>10</v>
       </c>
-      <c r="AF68" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG68" t="n">
-        <v>12</v>
-      </c>
       <c r="AH68" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AI68" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AJ68" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>tnOYp7HO</t>
+          <t>A1br5A2t</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -8738,7 +8742,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -8748,109 +8752,109 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Zaglebie</t>
+          <t>Korona Kielce</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Gornik Zabrze</t>
+          <t>Widzew Lodz</t>
         </is>
       </c>
       <c r="G69" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H69" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I69" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K69" t="n">
+        <v>9</v>
+      </c>
+      <c r="L69" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="N69" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O69" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="P69" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q69" t="n">
         <v>2.63</v>
       </c>
-      <c r="H69" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I69" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K69" t="n">
-        <v>11</v>
-      </c>
-      <c r="L69" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M69" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="N69" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="O69" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="P69" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>2.75</v>
-      </c>
       <c r="R69" t="n">
-        <v>1.63</v>
+        <v>1.91</v>
       </c>
       <c r="S69" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="T69" t="n">
+        <v>7</v>
+      </c>
+      <c r="U69" t="n">
+        <v>10</v>
+      </c>
+      <c r="V69" t="n">
         <v>9.5</v>
       </c>
-      <c r="U69" t="n">
-        <v>13</v>
-      </c>
-      <c r="V69" t="n">
-        <v>10</v>
-      </c>
       <c r="W69" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="X69" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y69" t="n">
         <v>29</v>
       </c>
       <c r="Z69" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AA69" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB69" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC69" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD69" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="AE69" t="n">
         <v>9.5</v>
       </c>
       <c r="AF69" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AG69" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AH69" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AI69" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AJ69" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A1br5A2t</t>
+          <t>6NzRpBHt</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -8865,17 +8869,17 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Korona Kielce</t>
+          <t>Warta Poznan</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Widzew Lodz</t>
+          <t>Leczna</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -8885,73 +8889,73 @@
         <v>3.2</v>
       </c>
       <c r="I70" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="J70" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="K70" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L70" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="M70" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="N70" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O70" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P70" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R70" t="n">
         <v>2.1</v>
       </c>
-      <c r="O70" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="P70" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R70" t="n">
-        <v>1.91</v>
-      </c>
       <c r="S70" t="n">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="T70" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="U70" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="V70" t="n">
         <v>10</v>
-      </c>
-      <c r="V70" t="n">
-        <v>9.5</v>
       </c>
       <c r="W70" t="n">
         <v>21</v>
       </c>
       <c r="X70" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB70" t="n">
         <v>19</v>
       </c>
-      <c r="Y70" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z70" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA70" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB70" t="n">
-        <v>15</v>
-      </c>
       <c r="AC70" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD70" t="n">
-        <v>301</v>
+        <v>800</v>
       </c>
       <c r="AE70" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AF70" t="n">
         <v>15</v>
@@ -8963,7 +8967,7 @@
         <v>34</v>
       </c>
       <c r="AI70" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ70" t="n">
         <v>41</v>
@@ -8972,7 +8976,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>6NzRpBHt</t>
+          <t>l2tiewv9</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -8982,32 +8986,32 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Warta Poznan</t>
+          <t>Gil Vicente</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Leczna</t>
+          <t>Vitoria Guimaraes</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="H71" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I71" t="n">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="J71" t="n">
         <v>1.08</v>
@@ -9022,10 +9026,10 @@
         <v>2.63</v>
       </c>
       <c r="N71" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="O71" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P71" t="n">
         <v>1.53</v>
@@ -9034,34 +9038,34 @@
         <v>2.38</v>
       </c>
       <c r="R71" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S71" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="T71" t="n">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="U71" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="V71" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="W71" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="X71" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="Y71" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z71" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA71" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB71" t="n">
         <v>19</v>
@@ -9070,31 +9074,31 @@
         <v>67</v>
       </c>
       <c r="AD71" t="n">
-        <v>800</v>
+        <v>501</v>
       </c>
       <c r="AE71" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AF71" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="AG71" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AH71" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI71" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ71" t="n">
         <v>34</v>
-      </c>
-      <c r="AI71" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ71" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>l2tiewv9</t>
+          <t>xvw5a2Gc</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -9104,110 +9108,110 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Gil Vicente</t>
+          <t>Feirense</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Vitoria Guimaraes</t>
+          <t>Leiria</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3.9</v>
+        <v>2.63</v>
       </c>
       <c r="H72" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I72" t="n">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="J72" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="K72" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L72" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="M72" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="N72" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="O72" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="P72" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q72" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R72" t="n">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="S72" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="T72" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U72" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="V72" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="W72" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="X72" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y72" t="n">
         <v>34</v>
       </c>
-      <c r="Y72" t="n">
-        <v>41</v>
-      </c>
       <c r="Z72" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA72" t="n">
         <v>6</v>
       </c>
       <c r="AB72" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC72" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD72" t="n">
-        <v>501</v>
+        <v>301</v>
       </c>
       <c r="AE72" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF72" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AG72" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AH72" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AI72" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AJ72" t="n">
         <v>34</v>
@@ -9216,7 +9220,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>xvw5a2Gc</t>
+          <t>URpI0aKH</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -9226,32 +9230,32 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>ROMANIA - SUPERLIGA</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Feirense</t>
+          <t>Gloria Buzau</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Leiria</t>
+          <t>Poli Iasi</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="I73" t="n">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="J73" t="n">
         <v>1.07</v>
@@ -9260,16 +9264,16 @@
         <v>9</v>
       </c>
       <c r="L73" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M73" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N73" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O73" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P73" t="n">
         <v>1.5</v>
@@ -9278,22 +9282,22 @@
         <v>2.5</v>
       </c>
       <c r="R73" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S73" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T73" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U73" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="V73" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W73" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="X73" t="n">
         <v>23</v>
@@ -9305,28 +9309,28 @@
         <v>8</v>
       </c>
       <c r="AA73" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB73" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC73" t="n">
         <v>51</v>
       </c>
       <c r="AD73" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE73" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF73" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG73" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH73" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI73" t="n">
         <v>23</v>
@@ -9338,7 +9342,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>URpI0aKH</t>
+          <t>hMkg63jt</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -9348,7 +9352,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -9358,109 +9362,109 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Gloria Buzau</t>
+          <t>FC Hermannstadt</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Poli Iasi</t>
+          <t>Petrolul</t>
         </is>
       </c>
       <c r="G74" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+      <c r="I74" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K74" t="n">
+        <v>7</v>
+      </c>
+      <c r="L74" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M74" t="n">
         <v>2.5</v>
       </c>
-      <c r="H74" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I74" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K74" t="n">
+      <c r="N74" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="O74" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P74" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R74" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S74" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T74" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U74" t="n">
         <v>9</v>
-      </c>
-      <c r="L74" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M74" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="N74" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="O74" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="P74" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q74" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R74" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S74" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T74" t="n">
-        <v>7</v>
-      </c>
-      <c r="U74" t="n">
-        <v>11</v>
       </c>
       <c r="V74" t="n">
         <v>10</v>
       </c>
       <c r="W74" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="X74" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y74" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z74" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>81</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AE74" t="n">
         <v>8</v>
       </c>
-      <c r="AA74" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB74" t="n">
+      <c r="AF74" t="n">
         <v>17</v>
       </c>
-      <c r="AC74" t="n">
+      <c r="AG74" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ74" t="n">
         <v>51</v>
-      </c>
-      <c r="AD74" t="n">
-        <v>351</v>
-      </c>
-      <c r="AE74" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AF74" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG74" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH74" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI74" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ74" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>hMkg63jt</t>
+          <t>6VKUJKgD</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -9470,119 +9474,119 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>12:55</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>ROMANIA - SUPERLIGA</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>FC Hermannstadt</t>
+          <t>Al Okhdood</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Petrolul</t>
+          <t>Al Taawon</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="I75" t="n">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="J75" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="K75" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L75" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M75" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="N75" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O75" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P75" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R75" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S75" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T75" t="n">
         <v>7</v>
       </c>
-      <c r="L75" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M75" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="N75" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="O75" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="P75" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Q75" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R75" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S75" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T75" t="n">
-        <v>5.5</v>
-      </c>
       <c r="U75" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V75" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W75" t="n">
         <v>19</v>
       </c>
       <c r="X75" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y75" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>900</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ75" t="n">
         <v>41</v>
-      </c>
-      <c r="Z75" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AA75" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB75" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC75" t="n">
-        <v>81</v>
-      </c>
-      <c r="AD75" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AE75" t="n">
-        <v>8</v>
-      </c>
-      <c r="AF75" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG75" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH75" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI75" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ75" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>6VKUJKgD</t>
+          <t>KYnsTOWQ</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -9592,7 +9596,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>12:55</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -9602,109 +9606,109 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Al Okhdood</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Al Taawon</t>
+          <t>Al Ahli SC</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.05</v>
+        <v>7</v>
       </c>
       <c r="H76" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="I76" t="n">
-        <v>3.25</v>
+        <v>1.29</v>
       </c>
       <c r="J76" t="n">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="K76" t="n">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="L76" t="n">
-        <v>1.4</v>
+        <v>1.14</v>
       </c>
       <c r="M76" t="n">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="N76" t="n">
-        <v>2.2</v>
+        <v>1.44</v>
       </c>
       <c r="O76" t="n">
-        <v>1.65</v>
+        <v>2.63</v>
       </c>
       <c r="P76" t="n">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="Q76" t="n">
-        <v>2.63</v>
+        <v>3.75</v>
       </c>
       <c r="R76" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S76" t="n">
         <v>1.91</v>
       </c>
-      <c r="S76" t="n">
-        <v>1.8</v>
-      </c>
       <c r="T76" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="U76" t="n">
-        <v>9.5</v>
+        <v>41</v>
       </c>
       <c r="V76" t="n">
-        <v>9.5</v>
+        <v>23</v>
       </c>
       <c r="W76" t="n">
+        <v>81</v>
+      </c>
+      <c r="X76" t="n">
+        <v>51</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z76" t="n">
         <v>19</v>
       </c>
-      <c r="X76" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y76" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z76" t="n">
-        <v>9</v>
-      </c>
       <c r="AA76" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AB76" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AC76" t="n">
         <v>51</v>
       </c>
       <c r="AD76" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AE76" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH76" t="n">
         <v>9</v>
       </c>
-      <c r="AF76" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG76" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH76" t="n">
-        <v>34</v>
-      </c>
       <c r="AI76" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="AJ76" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>KYnsTOWQ</t>
+          <t>E1Rn93ue</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -9714,7 +9718,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -9724,22 +9728,22 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Al Ettifaq</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="H77" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="I77" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="J77" t="n">
         <v>1.02</v>
@@ -9748,16 +9752,16 @@
         <v>12</v>
       </c>
       <c r="L77" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="M77" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N77" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="O77" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="P77" t="n">
         <v>1.25</v>
@@ -9766,67 +9770,67 @@
         <v>3.75</v>
       </c>
       <c r="R77" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="S77" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="T77" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="U77" t="n">
+        <v>34</v>
+      </c>
+      <c r="V77" t="n">
+        <v>19</v>
+      </c>
+      <c r="W77" t="n">
+        <v>67</v>
+      </c>
+      <c r="X77" t="n">
         <v>41</v>
       </c>
-      <c r="V77" t="n">
-        <v>23</v>
-      </c>
-      <c r="W77" t="n">
-        <v>81</v>
-      </c>
-      <c r="X77" t="n">
-        <v>51</v>
-      </c>
       <c r="Y77" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC77" t="n">
         <v>41</v>
       </c>
-      <c r="Z77" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA77" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB77" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC77" t="n">
-        <v>51</v>
-      </c>
       <c r="AD77" t="n">
-        <v>600</v>
+        <v>151</v>
       </c>
       <c r="AE77" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF77" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AG77" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH77" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI77" t="n">
         <v>11</v>
       </c>
       <c r="AJ77" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>E1Rn93ue</t>
+          <t>OE3n6wfA</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -9836,119 +9840,119 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>SCOTLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Al Ettifaq</t>
+          <t>Ayr</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="H78" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="I78" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K78" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="L78" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M78" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N78" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="O78" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="P78" t="n">
         <v>1.4</v>
       </c>
-      <c r="J78" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K78" t="n">
+      <c r="Q78" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R78" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S78" t="n">
+        <v>2</v>
+      </c>
+      <c r="T78" t="n">
+        <v>11</v>
+      </c>
+      <c r="U78" t="n">
+        <v>19</v>
+      </c>
+      <c r="V78" t="n">
         <v>12</v>
       </c>
-      <c r="L78" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="M78" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="N78" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="O78" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="P78" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q78" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="R78" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S78" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T78" t="n">
-        <v>21</v>
-      </c>
-      <c r="U78" t="n">
-        <v>34</v>
-      </c>
-      <c r="V78" t="n">
-        <v>19</v>
-      </c>
       <c r="W78" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="X78" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="Y78" t="n">
         <v>34</v>
       </c>
       <c r="Z78" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AA78" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AB78" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC78" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD78" t="n">
         <v>151</v>
       </c>
       <c r="AE78" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF78" t="n">
         <v>10</v>
-      </c>
-      <c r="AF78" t="n">
-        <v>9</v>
       </c>
       <c r="AG78" t="n">
         <v>9</v>
       </c>
       <c r="AH78" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AI78" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AJ78" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>OE3n6wfA</t>
+          <t>dzYr9fNs</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -9958,38 +9962,38 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>SCOTLAND - CHAMPIONSHIP</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Ayr</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3.4</v>
+        <v>2.15</v>
       </c>
       <c r="H79" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="I79" t="n">
-        <v>1.95</v>
+        <v>3.3</v>
       </c>
       <c r="J79" t="n">
         <v>1.05</v>
       </c>
       <c r="K79" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="L79" t="n">
         <v>1.29</v>
@@ -9998,10 +10002,10 @@
         <v>3.5</v>
       </c>
       <c r="N79" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="O79" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="P79" t="n">
         <v>1.4</v>
@@ -10016,61 +10020,61 @@
         <v>2</v>
       </c>
       <c r="T79" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U79" t="n">
         <v>11</v>
       </c>
-      <c r="U79" t="n">
-        <v>19</v>
-      </c>
       <c r="V79" t="n">
+        <v>9</v>
+      </c>
+      <c r="W79" t="n">
+        <v>21</v>
+      </c>
+      <c r="X79" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG79" t="n">
         <v>12</v>
       </c>
-      <c r="W79" t="n">
-        <v>41</v>
-      </c>
-      <c r="X79" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y79" t="n">
+      <c r="AH79" t="n">
         <v>34</v>
       </c>
-      <c r="Z79" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA79" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB79" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC79" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD79" t="n">
-        <v>151</v>
-      </c>
-      <c r="AE79" t="n">
-        <v>8</v>
-      </c>
-      <c r="AF79" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG79" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH79" t="n">
-        <v>17</v>
-      </c>
       <c r="AI79" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AJ79" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>dzYr9fNs</t>
+          <t>z9RP6UjT</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -10085,114 +10089,114 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SPAIN - PRIMERA RFEF</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Sevilla FC B</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Recreativo Huelva</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="H80" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I80" t="n">
-        <v>2.88</v>
+        <v>3.3</v>
       </c>
       <c r="J80" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="K80" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="L80" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="M80" t="n">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="N80" t="n">
-        <v>1.98</v>
+        <v>2.38</v>
       </c>
       <c r="O80" t="n">
-        <v>1.88</v>
+        <v>1.53</v>
       </c>
       <c r="P80" t="n">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="Q80" t="n">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="R80" t="n">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
       <c r="S80" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="T80" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="U80" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="V80" t="n">
         <v>10</v>
       </c>
       <c r="W80" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X80" t="n">
         <v>21</v>
       </c>
       <c r="Y80" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="Z80" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AA80" t="n">
         <v>6</v>
       </c>
       <c r="AB80" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AC80" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AD80" t="n">
-        <v>201</v>
+        <v>800</v>
       </c>
       <c r="AE80" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AF80" t="n">
         <v>15</v>
       </c>
       <c r="AG80" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH80" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI80" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AJ80" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>z9RP6UjT</t>
+          <t>CtwNbekt</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -10202,119 +10206,119 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>SPAIN - PRIMERA RFEF</t>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Sevilla FC B</t>
+          <t>Schaffhausen</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Recreativo Huelva</t>
+          <t>Lausanne Ouchy</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.15</v>
+        <v>3.65</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>3.55</v>
       </c>
       <c r="I81" t="n">
-        <v>3.3</v>
+        <v>1.91</v>
       </c>
       <c r="J81" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="K81" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="L81" t="n">
-        <v>1.44</v>
+        <v>1.24</v>
       </c>
       <c r="M81" t="n">
-        <v>2.63</v>
+        <v>3.65</v>
       </c>
       <c r="N81" t="n">
-        <v>2.38</v>
+        <v>1.72</v>
       </c>
       <c r="O81" t="n">
-        <v>1.53</v>
+        <v>2</v>
       </c>
       <c r="P81" t="n">
-        <v>1.53</v>
+        <v>1.36</v>
       </c>
       <c r="Q81" t="n">
-        <v>2.38</v>
+        <v>2.92</v>
       </c>
       <c r="R81" t="n">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="S81" t="n">
-        <v>1.67</v>
+        <v>2.12</v>
       </c>
       <c r="T81" t="n">
-        <v>6.5</v>
+        <v>12.5</v>
       </c>
       <c r="U81" t="n">
-        <v>9.5</v>
+        <v>21</v>
       </c>
       <c r="V81" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="W81" t="n">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="X81" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Y81" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="Z81" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA81" t="n">
-        <v>6</v>
+        <v>6.9</v>
       </c>
       <c r="AB81" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AC81" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="AD81" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="AE81" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AF81" t="n">
-        <v>15</v>
+        <v>9.75</v>
       </c>
       <c r="AG81" t="n">
-        <v>13</v>
+        <v>8.25</v>
       </c>
       <c r="AH81" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AI81" t="n">
-        <v>34</v>
+        <v>14.5</v>
       </c>
       <c r="AJ81" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>CtwNbekt</t>
+          <t>K6tVdZJh</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -10334,82 +10338,82 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Schaffhausen</t>
+          <t>Stade Nyonnais</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Lausanne Ouchy</t>
+          <t>Thun</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3.65</v>
+        <v>4.4</v>
       </c>
       <c r="H82" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="I82" t="n">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="J82" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K82" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="L82" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="M82" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="N82" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="O82" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="P82" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q82" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="R82" t="n">
         <v>1.65</v>
       </c>
       <c r="S82" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="T82" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="U82" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="V82" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="W82" t="n">
+        <v>70</v>
+      </c>
+      <c r="X82" t="n">
+        <v>37</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>37</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC82" t="n">
         <v>55</v>
-      </c>
-      <c r="X82" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y82" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z82" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA82" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AB82" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC82" t="n">
-        <v>50</v>
       </c>
       <c r="AD82" t="n">
         <v>350</v>
@@ -10418,25 +10422,25 @@
         <v>8.25</v>
       </c>
       <c r="AF82" t="n">
-        <v>9.75</v>
+        <v>8.75</v>
       </c>
       <c r="AG82" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AH82" t="n">
-        <v>17</v>
+        <v>13.5</v>
       </c>
       <c r="AI82" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AJ82" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>K6tVdZJh</t>
+          <t>dvz9vZtP</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -10446,7 +10450,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -10456,22 +10460,22 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Stade Nyonnais</t>
+          <t>Xamax</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Thun</t>
+          <t>Aarau</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>4.4</v>
+        <v>3.75</v>
       </c>
       <c r="H83" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="I83" t="n">
-        <v>1.7</v>
+        <v>1.87</v>
       </c>
       <c r="J83" t="n">
         <v>1.04</v>
@@ -10480,85 +10484,85 @@
         <v>8.5</v>
       </c>
       <c r="L83" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="M83" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="N83" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="O83" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="P83" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="Q83" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="R83" t="n">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="S83" t="n">
-        <v>2.1</v>
+        <v>2.32</v>
       </c>
       <c r="T83" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U83" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="V83" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="W83" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="X83" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="Y83" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="Z83" t="n">
         <v>8.5</v>
       </c>
       <c r="AA83" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="AB83" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AC83" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AD83" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="AE83" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AF83" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG83" t="n">
         <v>8.25</v>
       </c>
-      <c r="AF83" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AG83" t="n">
-        <v>8</v>
-      </c>
       <c r="AH83" t="n">
-        <v>13.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI83" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AJ83" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>dvz9vZtP</t>
+          <t>EkDzDMIG</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -10568,119 +10572,119 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Xamax</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Aarau</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="H84" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="I84" t="n">
-        <v>1.87</v>
+        <v>1.65</v>
       </c>
       <c r="J84" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K84" t="n">
+        <v>15</v>
+      </c>
+      <c r="L84" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="N84" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="O84" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="P84" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R84" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S84" t="n">
+        <v>2</v>
+      </c>
+      <c r="T84" t="n">
+        <v>15</v>
+      </c>
+      <c r="U84" t="n">
+        <v>26</v>
+      </c>
+      <c r="V84" t="n">
+        <v>15</v>
+      </c>
+      <c r="W84" t="n">
+        <v>51</v>
+      </c>
+      <c r="X84" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC84" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE84" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF84" t="n">
         <v>8.5</v>
       </c>
-      <c r="L84" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="M84" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="N84" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="O84" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="P84" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="Q84" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="R84" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S84" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="T84" t="n">
-        <v>14</v>
-      </c>
-      <c r="U84" t="n">
-        <v>23</v>
-      </c>
-      <c r="V84" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="W84" t="n">
-        <v>55</v>
-      </c>
-      <c r="X84" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y84" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z84" t="n">
+      <c r="AG84" t="n">
         <v>8.5</v>
       </c>
-      <c r="AA84" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AB84" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC84" t="n">
-        <v>40</v>
-      </c>
-      <c r="AD84" t="n">
-        <v>250</v>
-      </c>
-      <c r="AE84" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AF84" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG84" t="n">
-        <v>8.25</v>
-      </c>
       <c r="AH84" t="n">
-        <v>17.5</v>
+        <v>13</v>
       </c>
       <c r="AI84" t="n">
         <v>13</v>
       </c>
       <c r="AJ84" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>EkDzDMIG</t>
+          <t>Qmio7RDM</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -10690,119 +10694,115 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>UKRAINE - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>LNZ Cherkasy</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Shakhtar Donetsk</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H85" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I85" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K85" t="n">
-        <v>15</v>
-      </c>
+        <v>1.38</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="M85" t="n">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="N85" t="n">
-        <v>1.67</v>
+        <v>1.85</v>
       </c>
       <c r="O85" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P85" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="R85" t="n">
         <v>2.15</v>
       </c>
-      <c r="P85" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q85" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R85" t="n">
-        <v>1.73</v>
-      </c>
       <c r="S85" t="n">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="T85" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="U85" t="n">
+        <v>55</v>
+      </c>
+      <c r="V85" t="n">
         <v>26</v>
       </c>
-      <c r="V85" t="n">
-        <v>15</v>
-      </c>
       <c r="W85" t="n">
-        <v>51</v>
+        <v>250</v>
       </c>
       <c r="X85" t="n">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="Y85" t="n">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="Z85" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AA85" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AB85" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="AC85" t="n">
-        <v>41</v>
+        <v>150</v>
       </c>
       <c r="AD85" t="n">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="AE85" t="n">
-        <v>8</v>
+        <v>5.7</v>
       </c>
       <c r="AF85" t="n">
-        <v>8.5</v>
+        <v>5.7</v>
       </c>
       <c r="AG85" t="n">
         <v>8.5</v>
       </c>
       <c r="AH85" t="n">
-        <v>13</v>
+        <v>8.25</v>
       </c>
       <c r="AI85" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AJ85" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Qmio7RDM</t>
+          <t>2spLnTLO</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -10812,115 +10812,115 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>VENEZUELA - LIGA FUTVE</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>LNZ Cherkasy</t>
+          <t>Portuguesa</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Shakhtar Donetsk</t>
+          <t>Estudiantes Merida</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>8</v>
+        <v>2.12</v>
       </c>
       <c r="H86" t="n">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="I86" t="n">
-        <v>1.38</v>
+        <v>3.35</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="M86" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N86" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="O86" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="P86" t="n">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="Q86" t="n">
-        <v>2.55</v>
+        <v>2.37</v>
       </c>
       <c r="R86" t="n">
-        <v>2.15</v>
+        <v>1.78</v>
       </c>
       <c r="S86" t="n">
-        <v>1.55</v>
+        <v>1.82</v>
       </c>
       <c r="T86" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="U86" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="V86" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="W86" t="n">
+        <v>20</v>
+      </c>
+      <c r="X86" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB86" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC86" t="n">
+        <v>75</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>600</v>
+      </c>
+      <c r="AE86" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AF86" t="n">
         <v>17.5</v>
       </c>
-      <c r="U86" t="n">
-        <v>55</v>
-      </c>
-      <c r="V86" t="n">
-        <v>26</v>
-      </c>
-      <c r="W86" t="n">
-        <v>250</v>
-      </c>
-      <c r="X86" t="n">
-        <v>120</v>
-      </c>
-      <c r="Y86" t="n">
-        <v>110</v>
-      </c>
-      <c r="Z86" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA86" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AB86" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC86" t="n">
-        <v>150</v>
-      </c>
-      <c r="AD86" t="n">
-        <v>101</v>
-      </c>
-      <c r="AE86" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AF86" t="n">
-        <v>5.7</v>
-      </c>
       <c r="AG86" t="n">
-        <v>8.5</v>
+        <v>11.75</v>
       </c>
       <c r="AH86" t="n">
-        <v>8.25</v>
+        <v>45</v>
       </c>
       <c r="AI86" t="n">
-        <v>12.5</v>
+        <v>32</v>
       </c>
       <c r="AJ86" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2spLnTLO</t>
+          <t>4ApJvyXr</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -10930,115 +10930,119 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
+          <t>WALES - CYMRU PREMIER</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Portuguesa</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Estudiantes Merida</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.12</v>
+        <v>3.2</v>
       </c>
       <c r="H87" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I87" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+        <v>2.18</v>
+      </c>
+      <c r="J87" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="K87" t="n">
+        <v>6.2</v>
+      </c>
       <c r="L87" t="n">
-        <v>1.34</v>
+        <v>1.42</v>
       </c>
       <c r="M87" t="n">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
       <c r="N87" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="O87" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="P87" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="Q87" t="n">
-        <v>2.37</v>
+        <v>2.52</v>
       </c>
       <c r="R87" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S87" t="n">
         <v>1.78</v>
       </c>
-      <c r="S87" t="n">
-        <v>1.83</v>
-      </c>
       <c r="T87" t="n">
-        <v>6.8</v>
+        <v>8.5</v>
       </c>
       <c r="U87" t="n">
-        <v>9.75</v>
+        <v>16.5</v>
       </c>
       <c r="V87" t="n">
-        <v>8.75</v>
+        <v>11.5</v>
       </c>
       <c r="W87" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="X87" t="n">
-        <v>18.5</v>
+        <v>32</v>
       </c>
       <c r="Y87" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="Z87" t="n">
-        <v>8.25</v>
+        <v>6.2</v>
       </c>
       <c r="AA87" t="n">
         <v>6</v>
       </c>
       <c r="AB87" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC87" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AD87" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="AE87" t="n">
-        <v>9.5</v>
+        <v>6.4</v>
       </c>
       <c r="AF87" t="n">
-        <v>18</v>
+        <v>9.75</v>
       </c>
       <c r="AG87" t="n">
-        <v>11.5</v>
+        <v>9.25</v>
       </c>
       <c r="AH87" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="AI87" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AJ87" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>4ApJvyXr</t>
+          <t>0xvSxF1e</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -11058,224 +11062,102 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>TNS</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Bala</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3.1</v>
+        <v>1.16</v>
       </c>
       <c r="H88" t="n">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="I88" t="n">
-        <v>2.15</v>
+        <v>12.5</v>
       </c>
       <c r="J88" t="n">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="K88" t="n">
+        <v>10</v>
+      </c>
+      <c r="L88" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="N88" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="O88" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="P88" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="R88" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="S88" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="T88" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="U88" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="V88" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="W88" t="n">
         <v>6.7</v>
       </c>
-      <c r="L88" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M88" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="N88" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="O88" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="P88" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Q88" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="R88" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S88" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="T88" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="U88" t="n">
-        <v>16</v>
-      </c>
-      <c r="V88" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="W88" t="n">
+      <c r="X88" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB88" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC88" t="n">
+        <v>150</v>
+      </c>
+      <c r="AD88" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE88" t="n">
         <v>40</v>
       </c>
-      <c r="X88" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y88" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z88" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AA88" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AB88" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC88" t="n">
-        <v>80</v>
-      </c>
-      <c r="AD88" t="n">
-        <v>700</v>
-      </c>
-      <c r="AE88" t="n">
-        <v>6.9</v>
-      </c>
       <c r="AF88" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="AG88" t="n">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="AH88" t="n">
-        <v>21</v>
+        <v>500</v>
       </c>
       <c r="AI88" t="n">
-        <v>19</v>
+        <v>200</v>
       </c>
       <c r="AJ88" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>0xvSxF1e</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>11/04/2025</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>15:45</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>WALES - CYMRU PREMIER</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>TNS</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Bala</t>
-        </is>
-      </c>
-      <c r="G89" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="H89" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="I89" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K89" t="n">
-        <v>10</v>
-      </c>
-      <c r="L89" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="M89" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="N89" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="O89" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="P89" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q89" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="R89" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S89" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T89" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="U89" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="V89" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="W89" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="X89" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="Y89" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z89" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA89" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB89" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC89" t="n">
-        <v>150</v>
-      </c>
-      <c r="AD89" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE89" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF89" t="n">
-        <v>120</v>
-      </c>
-      <c r="AG89" t="n">
-        <v>45</v>
-      </c>
-      <c r="AH89" t="n">
-        <v>500</v>
-      </c>
-      <c r="AI89" t="n">
-        <v>200</v>
-      </c>
-      <c r="AJ89" t="n">
         <v>150</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2025-04-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-11.xlsx
@@ -656,10 +656,10 @@
         <v>6.5</v>
       </c>
       <c r="J2" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L2" t="n">
         <v>1.25</v>
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H3" t="n">
         <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="J3" t="n">
         <v>1.05</v>
@@ -784,16 +784,16 @@
         <v>11</v>
       </c>
       <c r="L3" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N3" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="O3" t="n">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="P3" t="n">
         <v>1.36</v>
@@ -838,13 +838,13 @@
         <v>41</v>
       </c>
       <c r="AD3" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE3" t="n">
         <v>8</v>
       </c>
       <c r="AF3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG3" t="n">
         <v>8.5</v>
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H4" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="J4" t="n">
         <v>1.1</v>
@@ -933,7 +933,7 @@
         <v>6.5</v>
       </c>
       <c r="U4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V4" t="n">
         <v>9.5</v>
@@ -957,13 +957,13 @@
         <v>17</v>
       </c>
       <c r="AC4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD4" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AE4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF4" t="n">
         <v>17</v>
@@ -1016,10 +1016,10 @@
         <v>2.4</v>
       </c>
       <c r="H5" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I5" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J5" t="n">
         <v>1.14</v>
@@ -1046,10 +1046,10 @@
         <v>2.1</v>
       </c>
       <c r="R5" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="S5" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T5" t="n">
         <v>5.5</v>
@@ -1070,10 +1070,10 @@
         <v>41</v>
       </c>
       <c r="Z5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA5" t="n">
         <v>5.5</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>6</v>
       </c>
       <c r="AB5" t="n">
         <v>21</v>
@@ -1091,7 +1091,7 @@
         <v>15</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH5" t="n">
         <v>41</v>
@@ -1135,19 +1135,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>4.33</v>
+        <v>3.8</v>
       </c>
       <c r="H6" t="n">
         <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="J6" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="K6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="L6" t="n">
         <v>1.62</v>
@@ -1168,22 +1168,22 @@
         <v>2.1</v>
       </c>
       <c r="R6" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="S6" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="X6" t="n">
         <v>41</v>
@@ -1195,10 +1195,10 @@
         <v>5.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC6" t="n">
         <v>101</v>
@@ -1210,16 +1210,16 @@
         <v>5</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AG6" t="n">
         <v>10</v>
       </c>
       <c r="AH6" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AI6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ6" t="n">
         <v>41</v>
@@ -1257,37 +1257,37 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I7" t="n">
         <v>2.15</v>
       </c>
       <c r="J7" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K7" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L7" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M7" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N7" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="O7" t="n">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="P7" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R7" t="n">
         <v>1.67</v>
@@ -1296,10 +1296,10 @@
         <v>2.1</v>
       </c>
       <c r="T7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V7" t="n">
         <v>11</v>
@@ -1308,16 +1308,16 @@
         <v>34</v>
       </c>
       <c r="X7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB7" t="n">
         <v>15</v>
@@ -1326,10 +1326,10 @@
         <v>41</v>
       </c>
       <c r="AD7" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF7" t="n">
         <v>11</v>
@@ -1344,7 +1344,7 @@
         <v>17</v>
       </c>
       <c r="AJ7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
@@ -1379,13 +1379,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="H8" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="I8" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="J8" t="n">
         <v>1.03</v>
@@ -1400,10 +1400,10 @@
         <v>5</v>
       </c>
       <c r="N8" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O8" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="P8" t="n">
         <v>1.29</v>
@@ -1412,22 +1412,22 @@
         <v>3.5</v>
       </c>
       <c r="R8" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S8" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="V8" t="n">
         <v>9</v>
       </c>
       <c r="W8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X8" t="n">
         <v>11</v>
@@ -1442,25 +1442,25 @@
         <v>11</v>
       </c>
       <c r="AB8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD8" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF8" t="n">
         <v>41</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AH8" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI8" t="n">
         <v>51</v>
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="H9" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I9" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="J9" t="n">
         <v>1.03</v>
@@ -1540,34 +1540,34 @@
         <v>2</v>
       </c>
       <c r="T9" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U9" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V9" t="n">
         <v>8.5</v>
       </c>
       <c r="W9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z9" t="n">
         <v>15</v>
       </c>
       <c r="AA9" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD9" t="n">
         <v>201</v>
@@ -1576,7 +1576,7 @@
         <v>15</v>
       </c>
       <c r="AF9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG9" t="n">
         <v>15</v>
@@ -1585,10 +1585,10 @@
         <v>51</v>
       </c>
       <c r="AI9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10">
@@ -1989,31 +1989,31 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="H13" t="n">
         <v>3.05</v>
       </c>
       <c r="I13" t="n">
-        <v>2.82</v>
+        <v>3.25</v>
       </c>
       <c r="J13" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="K13" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="L13" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="O13" t="n">
         <v>1.47</v>
-      </c>
-      <c r="M13" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="N13" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.53</v>
       </c>
       <c r="P13" t="n">
         <v>1.57</v>
@@ -2022,61 +2022,61 @@
         <v>2.32</v>
       </c>
       <c r="R13" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="S13" t="n">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="T13" t="n">
-        <v>6.8</v>
+        <v>5.8</v>
       </c>
       <c r="U13" t="n">
-        <v>12.5</v>
+        <v>10.25</v>
       </c>
       <c r="V13" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="W13" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="X13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y13" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Z13" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="AA13" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AB13" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AC13" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AD13" t="n">
         <v>600</v>
       </c>
       <c r="AE13" t="n">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
       <c r="AF13" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG13" t="n">
         <v>13.5</v>
       </c>
-      <c r="AG13" t="n">
-        <v>11.75</v>
-      </c>
       <c r="AH13" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="AI13" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AJ13" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14">
@@ -2111,13 +2111,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H14" t="n">
         <v>3.6</v>
       </c>
       <c r="I14" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J14" t="n">
         <v>1.04</v>
@@ -2132,22 +2132,22 @@
         <v>4.33</v>
       </c>
       <c r="N14" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O14" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P14" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R14" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S14" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T14" t="n">
         <v>9.5</v>
@@ -2159,7 +2159,7 @@
         <v>8.5</v>
       </c>
       <c r="W14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X14" t="n">
         <v>15</v>
@@ -2168,7 +2168,7 @@
         <v>21</v>
       </c>
       <c r="Z14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA14" t="n">
         <v>7</v>
@@ -2180,7 +2180,7 @@
         <v>41</v>
       </c>
       <c r="AD14" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE14" t="n">
         <v>13</v>
@@ -2233,13 +2233,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="H15" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I15" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J15" t="n">
         <v>1.02</v>
@@ -2254,10 +2254,10 @@
         <v>5.5</v>
       </c>
       <c r="N15" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="O15" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="P15" t="n">
         <v>1.25</v>
@@ -2266,16 +2266,16 @@
         <v>3.75</v>
       </c>
       <c r="R15" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S15" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T15" t="n">
         <v>9.5</v>
       </c>
       <c r="U15" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V15" t="n">
         <v>8.5</v>
@@ -2290,7 +2290,7 @@
         <v>21</v>
       </c>
       <c r="Z15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA15" t="n">
         <v>9.5</v>
@@ -2305,13 +2305,13 @@
         <v>151</v>
       </c>
       <c r="AE15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF15" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH15" t="n">
         <v>67</v>
@@ -2358,16 +2358,16 @@
         <v>1.44</v>
       </c>
       <c r="H16" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I16" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J16" t="n">
         <v>1.03</v>
       </c>
       <c r="K16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L16" t="n">
         <v>1.17</v>
@@ -2394,7 +2394,7 @@
         <v>2</v>
       </c>
       <c r="T16" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U16" t="n">
         <v>8</v>
@@ -2403,7 +2403,7 @@
         <v>8.5</v>
       </c>
       <c r="W16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X16" t="n">
         <v>11</v>
@@ -2412,28 +2412,28 @@
         <v>21</v>
       </c>
       <c r="Z16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA16" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC16" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD16" t="n">
         <v>201</v>
       </c>
       <c r="AE16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH16" t="n">
         <v>67</v>
@@ -2599,19 +2599,19 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H18" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I18" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J18" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K18" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L18" t="n">
         <v>1.5</v>
@@ -2641,13 +2641,13 @@
         <v>5.5</v>
       </c>
       <c r="U18" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V18" t="n">
         <v>9.5</v>
       </c>
       <c r="W18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X18" t="n">
         <v>19</v>
@@ -2659,10 +2659,10 @@
         <v>6.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC18" t="n">
         <v>81</v>
@@ -2721,13 +2721,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.85</v>
+        <v>3.3</v>
       </c>
       <c r="H19" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="I19" t="n">
-        <v>2.05</v>
+        <v>2.27</v>
       </c>
       <c r="J19" t="n">
         <v>1.1</v>
@@ -2742,10 +2742,10 @@
         <v>2.32</v>
       </c>
       <c r="N19" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="O19" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="P19" t="n">
         <v>1.55</v>
@@ -2754,37 +2754,37 @@
         <v>2.15</v>
       </c>
       <c r="R19" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="S19" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="T19" t="n">
-        <v>8.75</v>
+        <v>7.8</v>
       </c>
       <c r="U19" t="n">
-        <v>19.5</v>
+        <v>16</v>
       </c>
       <c r="V19" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="W19" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="X19" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="Y19" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Z19" t="n">
         <v>6.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AB19" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC19" t="n">
         <v>110</v>
@@ -2793,22 +2793,22 @@
         <v>101</v>
       </c>
       <c r="AE19" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="AF19" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AH19" t="n">
-        <v>18.5</v>
+        <v>23</v>
       </c>
       <c r="AI19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ19" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20">
@@ -2961,13 +2961,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="H21" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I21" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
         <v>1.06</v>
@@ -2994,16 +2994,16 @@
         <v>2.75</v>
       </c>
       <c r="R21" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S21" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T21" t="n">
         <v>11</v>
       </c>
       <c r="U21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V21" t="n">
         <v>13</v>
@@ -3012,7 +3012,7 @@
         <v>41</v>
       </c>
       <c r="X21" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y21" t="n">
         <v>41</v>
@@ -3033,19 +3033,19 @@
         <v>251</v>
       </c>
       <c r="AE21" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF21" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AG21" t="n">
         <v>9</v>
       </c>
       <c r="AH21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ21" t="n">
         <v>29</v>
@@ -3205,13 +3205,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H23" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="J23" t="n">
         <v>1.05</v>
@@ -3232,10 +3232,10 @@
         <v>1.95</v>
       </c>
       <c r="P23" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R23" t="n">
         <v>1.67</v>
@@ -3253,10 +3253,10 @@
         <v>9.5</v>
       </c>
       <c r="W23" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y23" t="n">
         <v>26</v>
@@ -3277,16 +3277,16 @@
         <v>151</v>
       </c>
       <c r="AE23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF23" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG23" t="n">
         <v>11</v>
       </c>
       <c r="AH23" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI23" t="n">
         <v>23</v>
@@ -3327,31 +3327,31 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="H24" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I24" t="n">
         <v>6.5</v>
       </c>
       <c r="J24" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K24" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="L24" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M24" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N24" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="O24" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="P24" t="n">
         <v>1.4</v>
@@ -3366,7 +3366,7 @@
         <v>1.67</v>
       </c>
       <c r="T24" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U24" t="n">
         <v>6.5</v>
@@ -3381,10 +3381,10 @@
         <v>13</v>
       </c>
       <c r="Y24" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z24" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA24" t="n">
         <v>8</v>
@@ -3470,10 +3470,10 @@
         <v>3.25</v>
       </c>
       <c r="N25" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O25" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P25" t="n">
         <v>1.44</v>
@@ -3571,94 +3571,94 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="H26" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="K26" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="N26" t="n">
         <v>2.67</v>
       </c>
-      <c r="I26" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="K26" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="M26" t="n">
-        <v>2</v>
-      </c>
-      <c r="N26" t="n">
-        <v>3.1</v>
-      </c>
       <c r="O26" t="n">
-        <v>1.32</v>
+        <v>1.42</v>
       </c>
       <c r="P26" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="R26" t="n">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="S26" t="n">
-        <v>1.47</v>
+        <v>1.62</v>
       </c>
       <c r="T26" t="n">
-        <v>4.75</v>
+        <v>5.4</v>
       </c>
       <c r="U26" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="V26" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="W26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="X26" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Y26" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="Z26" t="n">
-        <v>4.35</v>
+        <v>4.9</v>
       </c>
       <c r="AA26" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="AB26" t="n">
-        <v>24</v>
+        <v>18.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="AD26" t="n">
         <v>101</v>
       </c>
       <c r="AE26" t="n">
-        <v>7.1</v>
+        <v>7.7</v>
       </c>
       <c r="AF26" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AI26" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AJ26" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27">
@@ -3815,13 +3815,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="H28" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="I28" t="n">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="J28" t="n">
         <v>1.06</v>
@@ -3836,16 +3836,16 @@
         <v>3.4</v>
       </c>
       <c r="N28" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O28" t="n">
         <v>1.8</v>
       </c>
       <c r="P28" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R28" t="n">
         <v>2.1</v>
@@ -3857,22 +3857,22 @@
         <v>6</v>
       </c>
       <c r="U28" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V28" t="n">
         <v>8.5</v>
       </c>
       <c r="W28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y28" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z28" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA28" t="n">
         <v>7.5</v>
@@ -3887,19 +3887,19 @@
         <v>501</v>
       </c>
       <c r="AE28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF28" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG28" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH28" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI28" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ28" t="n">
         <v>51</v>
@@ -4059,13 +4059,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H30" t="n">
         <v>3.5</v>
       </c>
       <c r="I30" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="J30" t="n">
         <v>1.03</v>
@@ -4080,10 +4080,10 @@
         <v>4.33</v>
       </c>
       <c r="N30" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O30" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="P30" t="n">
         <v>1.33</v>
@@ -4104,7 +4104,7 @@
         <v>17</v>
       </c>
       <c r="V30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W30" t="n">
         <v>34</v>
@@ -4113,13 +4113,13 @@
         <v>23</v>
       </c>
       <c r="Y30" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z30" t="n">
         <v>15</v>
       </c>
       <c r="AA30" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB30" t="n">
         <v>13</v>
@@ -4181,13 +4181,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H31" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I31" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J31" t="n">
         <v>1.04</v>
@@ -4196,16 +4196,16 @@
         <v>13</v>
       </c>
       <c r="L31" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M31" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N31" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="O31" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="P31" t="n">
         <v>1.33</v>
@@ -4214,10 +4214,10 @@
         <v>3.25</v>
       </c>
       <c r="R31" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S31" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T31" t="n">
         <v>12</v>
@@ -4226,7 +4226,7 @@
         <v>17</v>
       </c>
       <c r="V31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W31" t="n">
         <v>34</v>
@@ -4241,7 +4241,7 @@
         <v>13</v>
       </c>
       <c r="AA31" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB31" t="n">
         <v>12</v>
@@ -4250,10 +4250,10 @@
         <v>41</v>
       </c>
       <c r="AD31" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE31" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF31" t="n">
         <v>12</v>
@@ -4303,13 +4303,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="H32" t="n">
         <v>3.5</v>
       </c>
       <c r="I32" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="J32" t="n">
         <v>1.05</v>
@@ -4336,16 +4336,16 @@
         <v>2.75</v>
       </c>
       <c r="R32" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S32" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T32" t="n">
         <v>11</v>
       </c>
       <c r="U32" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="V32" t="n">
         <v>13</v>
@@ -4354,7 +4354,7 @@
         <v>41</v>
       </c>
       <c r="X32" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y32" t="n">
         <v>41</v>
@@ -4375,16 +4375,16 @@
         <v>251</v>
       </c>
       <c r="AE32" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF32" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG32" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI32" t="n">
         <v>15</v>
@@ -4428,10 +4428,10 @@
         <v>7</v>
       </c>
       <c r="H33" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I33" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="J33" t="n">
         <v>1.03</v>
@@ -4446,10 +4446,10 @@
         <v>4</v>
       </c>
       <c r="N33" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O33" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P33" t="n">
         <v>1.33</v>
@@ -4458,10 +4458,10 @@
         <v>3.25</v>
       </c>
       <c r="R33" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S33" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T33" t="n">
         <v>17</v>
@@ -4491,16 +4491,16 @@
         <v>21</v>
       </c>
       <c r="AC33" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD33" t="n">
         <v>351</v>
       </c>
       <c r="AE33" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF33" t="n">
         <v>7</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>6.5</v>
       </c>
       <c r="AG33" t="n">
         <v>8.5</v>
@@ -4550,7 +4550,7 @@
         <v>2</v>
       </c>
       <c r="H34" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I34" t="n">
         <v>3.6</v>
@@ -4604,7 +4604,7 @@
         <v>26</v>
       </c>
       <c r="Z34" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA34" t="n">
         <v>6.5</v>
@@ -4669,19 +4669,19 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H35" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I35" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="J35" t="n">
         <v>1.07</v>
       </c>
       <c r="K35" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L35" t="n">
         <v>1.33</v>
@@ -4711,22 +4711,22 @@
         <v>7</v>
       </c>
       <c r="U35" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V35" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W35" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X35" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y35" t="n">
         <v>29</v>
       </c>
       <c r="Z35" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA35" t="n">
         <v>6</v>
@@ -4744,7 +4744,7 @@
         <v>10</v>
       </c>
       <c r="AF35" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG35" t="n">
         <v>13</v>
@@ -5035,13 +5035,13 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="H38" t="n">
         <v>3</v>
       </c>
       <c r="I38" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -5049,10 +5049,10 @@
         <v>1.38</v>
       </c>
       <c r="M38" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="N38" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="O38" t="n">
         <v>1.57</v>
@@ -5070,10 +5070,10 @@
         <v>1.78</v>
       </c>
       <c r="T38" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="U38" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="V38" t="n">
         <v>10.75</v>
@@ -5082,7 +5082,7 @@
         <v>37</v>
       </c>
       <c r="X38" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Y38" t="n">
         <v>40</v>
@@ -5103,19 +5103,19 @@
         <v>700</v>
       </c>
       <c r="AE38" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="AF38" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG38" t="n">
         <v>9.5</v>
       </c>
       <c r="AH38" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI38" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ38" t="n">
         <v>35</v>
@@ -5271,27 +5271,27 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.31</v>
+        <v>1.39</v>
       </c>
       <c r="H40" t="n">
-        <v>4.85</v>
+        <v>4.4</v>
       </c>
       <c r="I40" t="n">
-        <v>8.5</v>
+        <v>6.9</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="M40" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="N40" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="O40" t="n">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
       <c r="P40" t="n">
         <v>1.38</v>
@@ -5300,61 +5300,61 @@
         <v>2.6</v>
       </c>
       <c r="R40" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="S40" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="T40" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="U40" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="V40" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W40" t="n">
         <v>8.75</v>
       </c>
-      <c r="W40" t="n">
-        <v>7.8</v>
-      </c>
       <c r="X40" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="Y40" t="n">
         <v>30</v>
       </c>
       <c r="Z40" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AA40" t="n">
-        <v>9.75</v>
+        <v>8.75</v>
       </c>
       <c r="AB40" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AC40" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AD40" t="n">
         <v>1000</v>
       </c>
       <c r="AE40" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG40" t="n">
         <v>22</v>
       </c>
-      <c r="AF40" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>28</v>
-      </c>
       <c r="AH40" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="AI40" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="AJ40" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41">
@@ -5389,10 +5389,10 @@
         </is>
       </c>
       <c r="G41" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="H41" t="n">
         <v>2.87</v>
-      </c>
-      <c r="H41" t="n">
-        <v>2.85</v>
       </c>
       <c r="I41" t="n">
         <v>2.55</v>
@@ -5415,16 +5415,16 @@
         <v>1.5</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="R41" t="n">
         <v>1.78</v>
       </c>
       <c r="S41" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="T41" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="U41" t="n">
         <v>14.5</v>
@@ -5436,13 +5436,13 @@
         <v>37</v>
       </c>
       <c r="X41" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y41" t="n">
         <v>35</v>
       </c>
       <c r="Z41" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AA41" t="n">
         <v>5.6</v>
@@ -5457,22 +5457,22 @@
         <v>600</v>
       </c>
       <c r="AE41" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AF41" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AG41" t="n">
         <v>9.75</v>
       </c>
       <c r="AH41" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI41" t="n">
         <v>24</v>
       </c>
       <c r="AJ41" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42">
@@ -5625,13 +5625,13 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.12</v>
+        <v>2.42</v>
       </c>
       <c r="H43" t="n">
         <v>3</v>
       </c>
       <c r="I43" t="n">
-        <v>3.55</v>
+        <v>2.9</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -5648,10 +5648,10 @@
         <v>1.5</v>
       </c>
       <c r="P43" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R43" t="n">
         <v>1.93</v>
@@ -5660,25 +5660,25 @@
         <v>1.7</v>
       </c>
       <c r="T43" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="U43" t="n">
-        <v>9.25</v>
+        <v>10.5</v>
       </c>
       <c r="V43" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="W43" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="X43" t="n">
-        <v>19.5</v>
+        <v>24</v>
       </c>
       <c r="Y43" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Z43" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="AA43" t="n">
         <v>5.9</v>
@@ -5693,22 +5693,22 @@
         <v>1000</v>
       </c>
       <c r="AE43" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AF43" t="n">
-        <v>17</v>
+        <v>13.5</v>
       </c>
       <c r="AG43" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH43" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AI43" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AJ43" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44">
@@ -5743,10 +5743,10 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="H44" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="I44" t="n">
         <v>2.82</v>
@@ -5763,7 +5763,7 @@
         <v>2.2</v>
       </c>
       <c r="O44" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="P44" t="n">
         <v>1.55</v>
@@ -5778,10 +5778,10 @@
         <v>1.8</v>
       </c>
       <c r="T44" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="U44" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="V44" t="n">
         <v>10</v>
@@ -5790,16 +5790,16 @@
         <v>35</v>
       </c>
       <c r="X44" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y44" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Z44" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AA44" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AB44" t="n">
         <v>13.5</v>
@@ -5811,19 +5811,19 @@
         <v>700</v>
       </c>
       <c r="AE44" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="AF44" t="n">
         <v>14</v>
       </c>
       <c r="AG44" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AH44" t="n">
         <v>37</v>
       </c>
       <c r="AI44" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ44" t="n">
         <v>37</v>
@@ -5867,40 +5867,40 @@
         <v>3.3</v>
       </c>
       <c r="I45" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J45" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="K45" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L45" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="M45" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N45" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O45" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="P45" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R45" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="S45" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="T45" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U45" t="n">
         <v>17</v>
@@ -5918,7 +5918,7 @@
         <v>34</v>
       </c>
       <c r="Z45" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA45" t="n">
         <v>6.5</v>
@@ -5942,10 +5942,10 @@
         <v>9</v>
       </c>
       <c r="AH45" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI45" t="n">
         <v>19</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>17</v>
       </c>
       <c r="AJ45" t="n">
         <v>29</v>
@@ -5983,13 +5983,13 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="H46" t="n">
         <v>3.2</v>
       </c>
       <c r="I46" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="J46" t="n">
         <v>1.05</v>
@@ -6004,16 +6004,16 @@
         <v>3.75</v>
       </c>
       <c r="N46" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="O46" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="P46" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q46" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R46" t="n">
         <v>1.67</v>
@@ -6022,16 +6022,16 @@
         <v>2.1</v>
       </c>
       <c r="T46" t="n">
+        <v>9</v>
+      </c>
+      <c r="U46" t="n">
+        <v>12</v>
+      </c>
+      <c r="V46" t="n">
         <v>9.5</v>
       </c>
-      <c r="U46" t="n">
-        <v>13</v>
-      </c>
-      <c r="V46" t="n">
-        <v>10</v>
-      </c>
       <c r="W46" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X46" t="n">
         <v>19</v>
@@ -6043,7 +6043,7 @@
         <v>11</v>
       </c>
       <c r="AA46" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB46" t="n">
         <v>12</v>
@@ -6055,19 +6055,19 @@
         <v>151</v>
       </c>
       <c r="AE46" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF46" t="n">
         <v>15</v>
       </c>
       <c r="AG46" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH46" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI46" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ46" t="n">
         <v>29</v>
@@ -6227,27 +6227,27 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="H48" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="I48" t="n">
-        <v>4.15</v>
+        <v>6</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="M48" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N48" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="O48" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="P48" t="n">
         <v>1.39</v>
@@ -6256,61 +6256,61 @@
         <v>2.55</v>
       </c>
       <c r="R48" t="n">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="S48" t="n">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="T48" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="U48" t="n">
         <v>7.3</v>
       </c>
-      <c r="U48" t="n">
-        <v>8.75</v>
-      </c>
       <c r="V48" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="W48" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="X48" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>80</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>700</v>
+      </c>
+      <c r="AE48" t="n">
         <v>15</v>
       </c>
-      <c r="X48" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y48" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z48" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AA48" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>55</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>400</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>13</v>
-      </c>
       <c r="AF48" t="n">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="AG48" t="n">
-        <v>13.5</v>
+        <v>19</v>
       </c>
       <c r="AH48" t="n">
+        <v>150</v>
+      </c>
+      <c r="AI48" t="n">
         <v>70</v>
       </c>
-      <c r="AI48" t="n">
-        <v>37</v>
-      </c>
       <c r="AJ48" t="n">
-        <v>37</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49">
@@ -6345,13 +6345,13 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.47</v>
+        <v>2.42</v>
       </c>
       <c r="H49" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I49" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -6365,7 +6365,7 @@
         <v>1.8</v>
       </c>
       <c r="O49" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="P49" t="n">
         <v>1.39</v>
@@ -6383,28 +6383,28 @@
         <v>8.75</v>
       </c>
       <c r="U49" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="V49" t="n">
         <v>9.25</v>
       </c>
       <c r="W49" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="X49" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y49" t="n">
         <v>27</v>
       </c>
       <c r="Z49" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AA49" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AB49" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC49" t="n">
         <v>55</v>
@@ -6413,13 +6413,13 @@
         <v>400</v>
       </c>
       <c r="AE49" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AF49" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AG49" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AH49" t="n">
         <v>32</v>
@@ -6584,7 +6584,7 @@
         <v>5.25</v>
       </c>
       <c r="H51" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I51" t="n">
         <v>1.57</v>
@@ -6608,19 +6608,19 @@
         <v>2.05</v>
       </c>
       <c r="P51" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q51" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R51" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S51" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T51" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="U51" t="n">
         <v>29</v>
@@ -6706,40 +6706,40 @@
         <v>1.65</v>
       </c>
       <c r="H52" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I52" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J52" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K52" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L52" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M52" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="N52" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="O52" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="P52" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R52" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S52" t="n">
         <v>1.57</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R52" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="S52" t="n">
-        <v>1.53</v>
       </c>
       <c r="T52" t="n">
         <v>5</v>
@@ -6748,7 +6748,7 @@
         <v>6.5</v>
       </c>
       <c r="V52" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W52" t="n">
         <v>12</v>
@@ -6760,22 +6760,22 @@
         <v>41</v>
       </c>
       <c r="Z52" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA52" t="n">
         <v>7</v>
       </c>
       <c r="AB52" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC52" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AD52" t="n">
         <v>501</v>
       </c>
       <c r="AE52" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF52" t="n">
         <v>26</v>
@@ -6790,7 +6790,7 @@
         <v>51</v>
       </c>
       <c r="AJ52" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53">
@@ -6825,19 +6825,19 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="H53" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I53" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="J53" t="n">
         <v>1.08</v>
       </c>
       <c r="K53" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L53" t="n">
         <v>1.44</v>
@@ -6867,19 +6867,19 @@
         <v>6.5</v>
       </c>
       <c r="U53" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V53" t="n">
         <v>10</v>
       </c>
       <c r="W53" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X53" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y53" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z53" t="n">
         <v>7.5</v>
@@ -6897,13 +6897,13 @@
         <v>451</v>
       </c>
       <c r="AE53" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF53" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG53" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH53" t="n">
         <v>34</v>
@@ -6947,37 +6947,37 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="H54" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="I54" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J54" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K54" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L54" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="M54" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N54" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="O54" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="P54" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R54" t="n">
         <v>2.25</v>
@@ -6989,13 +6989,13 @@
         <v>5.5</v>
       </c>
       <c r="U54" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="V54" t="n">
         <v>9</v>
       </c>
       <c r="W54" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X54" t="n">
         <v>13</v>
@@ -7004,10 +7004,10 @@
         <v>34</v>
       </c>
       <c r="Z54" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA54" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AA54" t="n">
-        <v>8</v>
       </c>
       <c r="AB54" t="n">
         <v>23</v>
@@ -7019,22 +7019,22 @@
         <v>501</v>
       </c>
       <c r="AE54" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF54" t="n">
         <v>41</v>
       </c>
       <c r="AG54" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH54" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AI54" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AJ54" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55">
@@ -7078,22 +7078,22 @@
         <v>2.6</v>
       </c>
       <c r="J55" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K55" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="L55" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="M55" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N55" t="n">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="O55" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="P55" t="n">
         <v>1.44</v>
@@ -7102,16 +7102,16 @@
         <v>2.63</v>
       </c>
       <c r="R55" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S55" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T55" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U55" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V55" t="n">
         <v>11</v>
@@ -7126,25 +7126,25 @@
         <v>34</v>
       </c>
       <c r="Z55" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA55" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB55" t="n">
         <v>13</v>
       </c>
       <c r="AC55" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD55" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE55" t="n">
         <v>8.5</v>
       </c>
       <c r="AF55" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG55" t="n">
         <v>10</v>
@@ -7156,7 +7156,7 @@
         <v>21</v>
       </c>
       <c r="AJ55" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56">
@@ -7191,37 +7191,37 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>4.05</v>
+        <v>3.5</v>
       </c>
       <c r="H56" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="I56" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="J56" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="K56" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="L56" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M56" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="N56" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="O56" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="P56" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="R56" t="n">
         <v>2.1</v>
@@ -7230,31 +7230,31 @@
         <v>1.65</v>
       </c>
       <c r="T56" t="n">
-        <v>9.25</v>
+        <v>8.25</v>
       </c>
       <c r="U56" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="V56" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="W56" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="X56" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Y56" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Z56" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AA56" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AB56" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AC56" t="n">
         <v>120</v>
@@ -7263,22 +7263,22 @@
         <v>101</v>
       </c>
       <c r="AE56" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="AF56" t="n">
-        <v>7.5</v>
+        <v>8.25</v>
       </c>
       <c r="AG56" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AH56" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI56" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AJ56" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57">
@@ -7313,31 +7313,31 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.91</v>
+        <v>2.15</v>
       </c>
       <c r="H57" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I57" t="n">
         <v>3.2</v>
-      </c>
-      <c r="I57" t="n">
-        <v>3.8</v>
       </c>
       <c r="J57" t="n">
         <v>1.08</v>
       </c>
       <c r="K57" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="L57" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M57" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="N57" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O57" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="P57" t="n">
         <v>1.47</v>
@@ -7346,37 +7346,37 @@
         <v>2.5</v>
       </c>
       <c r="R57" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="S57" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="T57" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U57" t="n">
-        <v>8.75</v>
+        <v>10.25</v>
       </c>
       <c r="V57" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W57" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="X57" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y57" t="n">
         <v>30</v>
       </c>
       <c r="Z57" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AA57" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="AB57" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC57" t="n">
         <v>80</v>
@@ -7385,22 +7385,22 @@
         <v>700</v>
       </c>
       <c r="AE57" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AF57" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AG57" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AH57" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AI57" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AJ57" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58">
@@ -7557,13 +7557,13 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I59" t="n">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="J59" t="n">
         <v>1.1</v>
@@ -7584,10 +7584,10 @@
         <v>1.53</v>
       </c>
       <c r="P59" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="R59" t="n">
         <v>2.05</v>
@@ -7596,19 +7596,19 @@
         <v>1.7</v>
       </c>
       <c r="T59" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U59" t="n">
+        <v>15</v>
+      </c>
+      <c r="V59" t="n">
         <v>13</v>
       </c>
-      <c r="V59" t="n">
-        <v>12</v>
-      </c>
       <c r="W59" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="X59" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y59" t="n">
         <v>41</v>
@@ -7629,19 +7629,19 @@
         <v>501</v>
       </c>
       <c r="AE59" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF59" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AG59" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH59" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AI59" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ59" t="n">
         <v>41</v>
@@ -7679,37 +7679,37 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="H60" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I60" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="J60" t="n">
         <v>1.03</v>
       </c>
       <c r="K60" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L60" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M60" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N60" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="O60" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="P60" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Q60" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R60" t="n">
         <v>1.5</v>
@@ -7718,7 +7718,7 @@
         <v>2.5</v>
       </c>
       <c r="T60" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U60" t="n">
         <v>15</v>
@@ -7733,10 +7733,10 @@
         <v>19</v>
       </c>
       <c r="Y60" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z60" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA60" t="n">
         <v>7</v>
@@ -7745,13 +7745,13 @@
         <v>11</v>
       </c>
       <c r="AC60" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD60" t="n">
         <v>101</v>
       </c>
       <c r="AE60" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF60" t="n">
         <v>15</v>
@@ -7766,7 +7766,7 @@
         <v>19</v>
       </c>
       <c r="AJ60" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61">
@@ -7801,13 +7801,13 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="H61" t="n">
         <v>4.05</v>
       </c>
       <c r="I61" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -7844,13 +7844,13 @@
         <v>12.5</v>
       </c>
       <c r="X61" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="Y61" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Z61" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AA61" t="n">
         <v>8.25</v>
@@ -7865,19 +7865,19 @@
         <v>300</v>
       </c>
       <c r="AE61" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AF61" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AG61" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH61" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AI61" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AJ61" t="n">
         <v>40</v>
@@ -8050,10 +8050,10 @@
         <v>2.5</v>
       </c>
       <c r="N63" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O63" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P63" t="n">
         <v>1.57</v>
@@ -8166,16 +8166,16 @@
         <v>7</v>
       </c>
       <c r="L64" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="M64" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="N64" t="n">
         <v>2.6</v>
       </c>
       <c r="O64" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="P64" t="n">
         <v>1.57</v>
@@ -8273,19 +8273,19 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="H65" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I65" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="J65" t="n">
         <v>1.08</v>
       </c>
       <c r="K65" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L65" t="n">
         <v>1.4</v>
@@ -8306,16 +8306,16 @@
         <v>2.5</v>
       </c>
       <c r="R65" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S65" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T65" t="n">
         <v>6</v>
       </c>
       <c r="U65" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V65" t="n">
         <v>9</v>
@@ -8330,13 +8330,13 @@
         <v>34</v>
       </c>
       <c r="Z65" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA65" t="n">
         <v>6.5</v>
       </c>
       <c r="AB65" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC65" t="n">
         <v>67</v>
@@ -8354,13 +8354,13 @@
         <v>15</v>
       </c>
       <c r="AH65" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI65" t="n">
         <v>41</v>
       </c>
       <c r="AJ65" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="66">
@@ -8395,13 +8395,13 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="H66" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I66" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="J66" t="n">
         <v>1.06</v>
@@ -8410,16 +8410,16 @@
         <v>10</v>
       </c>
       <c r="L66" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M66" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N66" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O66" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="P66" t="n">
         <v>1.44</v>
@@ -8434,16 +8434,16 @@
         <v>1.8</v>
       </c>
       <c r="T66" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U66" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V66" t="n">
         <v>9</v>
       </c>
       <c r="W66" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="X66" t="n">
         <v>17</v>
@@ -8467,19 +8467,19 @@
         <v>351</v>
       </c>
       <c r="AE66" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF66" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG66" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH66" t="n">
         <v>41</v>
       </c>
       <c r="AI66" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ66" t="n">
         <v>41</v>
@@ -8526,22 +8526,22 @@
         <v>3</v>
       </c>
       <c r="J67" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K67" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L67" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M67" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N67" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="O67" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="P67" t="n">
         <v>1.4</v>
@@ -8639,13 +8639,13 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="H68" t="n">
         <v>3.3</v>
       </c>
       <c r="I68" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J68" t="n">
         <v>1.05</v>
@@ -8654,16 +8654,16 @@
         <v>11</v>
       </c>
       <c r="L68" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M68" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N68" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="O68" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="P68" t="n">
         <v>1.4</v>
@@ -8672,13 +8672,13 @@
         <v>2.75</v>
       </c>
       <c r="R68" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S68" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T68" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U68" t="n">
         <v>13</v>
@@ -8708,7 +8708,7 @@
         <v>41</v>
       </c>
       <c r="AD68" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE68" t="n">
         <v>9.5</v>
@@ -8761,13 +8761,13 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H69" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I69" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="J69" t="n">
         <v>1.07</v>
@@ -8776,22 +8776,22 @@
         <v>9</v>
       </c>
       <c r="L69" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M69" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N69" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O69" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P69" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="Q69" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="R69" t="n">
         <v>1.91</v>
@@ -8800,10 +8800,10 @@
         <v>1.91</v>
       </c>
       <c r="T69" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U69" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V69" t="n">
         <v>9.5</v>
@@ -8812,7 +8812,7 @@
         <v>21</v>
       </c>
       <c r="X69" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y69" t="n">
         <v>29</v>
@@ -8833,10 +8833,10 @@
         <v>301</v>
       </c>
       <c r="AE69" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF69" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG69" t="n">
         <v>12</v>
@@ -8845,10 +8845,10 @@
         <v>34</v>
       </c>
       <c r="AI69" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ69" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70">
@@ -8892,10 +8892,10 @@
         <v>3</v>
       </c>
       <c r="J70" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K70" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="L70" t="n">
         <v>1.44</v>
@@ -8904,28 +8904,28 @@
         <v>2.63</v>
       </c>
       <c r="N70" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="O70" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P70" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q70" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="R70" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S70" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="T70" t="n">
         <v>6.5</v>
       </c>
       <c r="U70" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V70" t="n">
         <v>10</v>
@@ -8937,16 +8937,16 @@
         <v>21</v>
       </c>
       <c r="Y70" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z70" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA70" t="n">
         <v>6.5</v>
       </c>
       <c r="AB70" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC70" t="n">
         <v>67</v>
@@ -8955,7 +8955,7 @@
         <v>800</v>
       </c>
       <c r="AE70" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF70" t="n">
         <v>15</v>
@@ -9005,13 +9005,13 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="H71" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I71" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="J71" t="n">
         <v>1.08</v>
@@ -9032,10 +9032,10 @@
         <v>1.57</v>
       </c>
       <c r="P71" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="R71" t="n">
         <v>2.05</v>
@@ -9047,13 +9047,13 @@
         <v>9.5</v>
       </c>
       <c r="U71" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="V71" t="n">
         <v>15</v>
       </c>
       <c r="W71" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="X71" t="n">
         <v>41</v>
@@ -9080,7 +9080,7 @@
         <v>6</v>
       </c>
       <c r="AF71" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG71" t="n">
         <v>9</v>
@@ -9154,7 +9154,7 @@
         <v>1.65</v>
       </c>
       <c r="P72" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Q72" t="n">
         <v>2.5</v>
@@ -9371,19 +9371,19 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H74" t="n">
         <v>3</v>
       </c>
       <c r="I74" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="J74" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K74" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L74" t="n">
         <v>1.5</v>
@@ -9392,10 +9392,10 @@
         <v>2.5</v>
       </c>
       <c r="N74" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O74" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="P74" t="n">
         <v>1.57</v>
@@ -9413,10 +9413,10 @@
         <v>5.5</v>
       </c>
       <c r="U74" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V74" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W74" t="n">
         <v>19</v>
@@ -9437,16 +9437,16 @@
         <v>19</v>
       </c>
       <c r="AC74" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD74" t="n">
         <v>1250</v>
       </c>
       <c r="AE74" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF74" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG74" t="n">
         <v>15</v>
@@ -9493,37 +9493,37 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.05</v>
+        <v>2.35</v>
       </c>
       <c r="H75" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I75" t="n">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="J75" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K75" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="L75" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M75" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N75" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O75" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P75" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q75" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R75" t="n">
         <v>1.91</v>
@@ -9535,25 +9535,25 @@
         <v>7</v>
       </c>
       <c r="U75" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="V75" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W75" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X75" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y75" t="n">
         <v>34</v>
       </c>
       <c r="Z75" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA75" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB75" t="n">
         <v>17</v>
@@ -9562,25 +9562,25 @@
         <v>51</v>
       </c>
       <c r="AD75" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AE75" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF75" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG75" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH75" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ75" t="n">
         <v>34</v>
-      </c>
-      <c r="AI75" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ75" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="76">
@@ -9618,16 +9618,16 @@
         <v>7</v>
       </c>
       <c r="H76" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="I76" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="J76" t="n">
-        <v>1.02</v>
+        <v>19</v>
       </c>
       <c r="K76" t="n">
-        <v>12</v>
+        <v>1.03</v>
       </c>
       <c r="L76" t="n">
         <v>1.14</v>
@@ -9660,7 +9660,7 @@
         <v>41</v>
       </c>
       <c r="V76" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="W76" t="n">
         <v>81</v>
@@ -9675,7 +9675,7 @@
         <v>19</v>
       </c>
       <c r="AA76" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB76" t="n">
         <v>21</v>
@@ -9684,7 +9684,7 @@
         <v>51</v>
       </c>
       <c r="AD76" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AE76" t="n">
         <v>9.5</v>
@@ -9693,7 +9693,7 @@
         <v>7.5</v>
       </c>
       <c r="AG76" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH76" t="n">
         <v>9</v>
@@ -9737,19 +9737,19 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="H77" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I77" t="n">
         <v>1.4</v>
       </c>
       <c r="J77" t="n">
-        <v>1.02</v>
+        <v>23</v>
       </c>
       <c r="K77" t="n">
-        <v>12</v>
+        <v>1.03</v>
       </c>
       <c r="L77" t="n">
         <v>1.11</v>
@@ -9764,16 +9764,16 @@
         <v>2.75</v>
       </c>
       <c r="P77" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Q77" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="R77" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S77" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T77" t="n">
         <v>21</v>
@@ -9782,10 +9782,10 @@
         <v>34</v>
       </c>
       <c r="V77" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="W77" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="X77" t="n">
         <v>41</v>
@@ -9794,7 +9794,7 @@
         <v>34</v>
       </c>
       <c r="Z77" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA77" t="n">
         <v>11</v>
@@ -9806,10 +9806,10 @@
         <v>41</v>
       </c>
       <c r="AD77" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE77" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF77" t="n">
         <v>9</v>
@@ -9824,7 +9824,7 @@
         <v>11</v>
       </c>
       <c r="AJ77" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78">
@@ -9859,70 +9859,70 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H78" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="I78" t="n">
         <v>1.95</v>
       </c>
       <c r="J78" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K78" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="L78" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="M78" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="N78" t="n">
-        <v>1.93</v>
+        <v>2.2</v>
       </c>
       <c r="O78" t="n">
-        <v>1.93</v>
+        <v>1.65</v>
       </c>
       <c r="P78" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q78" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R78" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="S78" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T78" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="U78" t="n">
         <v>19</v>
       </c>
       <c r="V78" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W78" t="n">
         <v>41</v>
       </c>
       <c r="X78" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y78" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z78" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AA78" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB78" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC78" t="n">
         <v>51</v>
@@ -9931,13 +9931,13 @@
         <v>151</v>
       </c>
       <c r="AE78" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AF78" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG78" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH78" t="n">
         <v>17</v>
@@ -9946,7 +9946,7 @@
         <v>17</v>
       </c>
       <c r="AJ78" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79">
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H79" t="n">
         <v>3.25</v>
@@ -9996,16 +9996,16 @@
         <v>11</v>
       </c>
       <c r="L79" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M79" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N79" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O79" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="P79" t="n">
         <v>1.4</v>
@@ -10103,13 +10103,13 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H80" t="n">
         <v>3</v>
       </c>
       <c r="I80" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J80" t="n">
         <v>1.1</v>
@@ -10175,7 +10175,7 @@
         <v>800</v>
       </c>
       <c r="AE80" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF80" t="n">
         <v>15</v>
@@ -10347,7 +10347,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="H82" t="n">
         <v>3.85</v>
@@ -10359,13 +10359,13 @@
         <v>1.04</v>
       </c>
       <c r="K82" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="L82" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="M82" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="N82" t="n">
         <v>1.65</v>
@@ -10386,10 +10386,10 @@
         <v>2.1</v>
       </c>
       <c r="T82" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U82" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="V82" t="n">
         <v>14</v>
@@ -10404,7 +10404,7 @@
         <v>37</v>
       </c>
       <c r="Z82" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AA82" t="n">
         <v>7.6</v>
@@ -10419,22 +10419,22 @@
         <v>350</v>
       </c>
       <c r="AE82" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AF82" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AG82" t="n">
         <v>8</v>
       </c>
       <c r="AH82" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AI82" t="n">
         <v>12.5</v>
       </c>
       <c r="AJ82" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83">
@@ -10600,10 +10600,10 @@
         <v>1.65</v>
       </c>
       <c r="J84" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K84" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L84" t="n">
         <v>1.2</v>
@@ -10612,13 +10612,13 @@
         <v>4.33</v>
       </c>
       <c r="N84" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O84" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="P84" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q84" t="n">
         <v>3.25</v>
@@ -10713,90 +10713,90 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="H85" t="n">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="I85" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="M85" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N85" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O85" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="P85" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="Q85" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="R85" t="n">
-        <v>2.15</v>
+        <v>2.02</v>
       </c>
       <c r="S85" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="T85" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="U85" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="V85" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="W85" t="n">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="X85" t="n">
+        <v>90</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>90</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC85" t="n">
         <v>120</v>
-      </c>
-      <c r="Y85" t="n">
-        <v>110</v>
-      </c>
-      <c r="Z85" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA85" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AB85" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC85" t="n">
-        <v>150</v>
       </c>
       <c r="AD85" t="n">
         <v>101</v>
       </c>
       <c r="AE85" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="AF85" t="n">
-        <v>5.7</v>
+        <v>6.1</v>
       </c>
       <c r="AG85" t="n">
         <v>8.5</v>
       </c>
       <c r="AH85" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AI85" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AJ85" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="86">
@@ -10831,10 +10831,10 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H86" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I86" t="n">
         <v>3.35</v>
@@ -10842,79 +10842,79 @@
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="M86" t="n">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="N86" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O86" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P86" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="R86" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S86" t="n">
         <v>2</v>
       </c>
-      <c r="O86" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="P86" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="Q86" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="R86" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="S86" t="n">
-        <v>1.82</v>
-      </c>
       <c r="T86" t="n">
-        <v>6.9</v>
+        <v>8.25</v>
       </c>
       <c r="U86" t="n">
+        <v>11</v>
+      </c>
+      <c r="V86" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W86" t="n">
+        <v>21</v>
+      </c>
+      <c r="X86" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z86" t="n">
         <v>9.75</v>
       </c>
-      <c r="V86" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="W86" t="n">
-        <v>20</v>
-      </c>
-      <c r="X86" t="n">
+      <c r="AA86" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AB86" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC86" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE86" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF86" t="n">
         <v>18</v>
       </c>
-      <c r="Y86" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z86" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AA86" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB86" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC86" t="n">
-        <v>75</v>
-      </c>
-      <c r="AD86" t="n">
-        <v>600</v>
-      </c>
-      <c r="AE86" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AF86" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AG86" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AH86" t="n">
         <v>45</v>
       </c>
       <c r="AI86" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ86" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="87">
@@ -10961,7 +10961,7 @@
         <v>1.09</v>
       </c>
       <c r="K87" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="L87" t="n">
         <v>1.42</v>
@@ -10988,13 +10988,13 @@
         <v>1.78</v>
       </c>
       <c r="T87" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="U87" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="V87" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="W87" t="n">
         <v>45</v>
@@ -11006,13 +11006,13 @@
         <v>45</v>
       </c>
       <c r="Z87" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AA87" t="n">
         <v>6</v>
       </c>
       <c r="AB87" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC87" t="n">
         <v>90</v>
@@ -11021,19 +11021,19 @@
         <v>800</v>
       </c>
       <c r="AE87" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AF87" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AG87" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AH87" t="n">
         <v>21</v>
       </c>
       <c r="AI87" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AJ87" t="n">
         <v>35</v>
@@ -11074,10 +11074,10 @@
         <v>1.16</v>
       </c>
       <c r="H88" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="I88" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="J88" t="n">
         <v>1.02</v>
@@ -11104,61 +11104,61 @@
         <v>3.7</v>
       </c>
       <c r="R88" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="S88" t="n">
         <v>1.65</v>
       </c>
       <c r="T88" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="U88" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="V88" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="W88" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="X88" t="n">
         <v>10.5</v>
       </c>
-      <c r="W88" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="X88" t="n">
-        <v>10.75</v>
-      </c>
       <c r="Y88" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z88" t="n">
         <v>10</v>
       </c>
       <c r="AA88" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AB88" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC88" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AD88" t="n">
         <v>1000</v>
       </c>
       <c r="AE88" t="n">
+        <v>37</v>
+      </c>
+      <c r="AF88" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG88" t="n">
         <v>40</v>
       </c>
-      <c r="AF88" t="n">
+      <c r="AH88" t="n">
+        <v>450</v>
+      </c>
+      <c r="AI88" t="n">
+        <v>175</v>
+      </c>
+      <c r="AJ88" t="n">
         <v>120</v>
-      </c>
-      <c r="AG88" t="n">
-        <v>45</v>
-      </c>
-      <c r="AH88" t="n">
-        <v>500</v>
-      </c>
-      <c r="AI88" t="n">
-        <v>200</v>
-      </c>
-      <c r="AJ88" t="n">
-        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-04-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-11.xlsx
@@ -647,19 +647,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H2" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I2" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J2" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L2" t="n">
         <v>1.25</v>
@@ -674,10 +674,10 @@
         <v>2</v>
       </c>
       <c r="P2" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R2" t="n">
         <v>1.91</v>
@@ -719,10 +719,10 @@
         <v>251</v>
       </c>
       <c r="AE2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG2" t="n">
         <v>19</v>
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="H3" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I3" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="J3" t="n">
         <v>1.05</v>
@@ -802,10 +802,10 @@
         <v>3</v>
       </c>
       <c r="R3" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S3" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T3" t="n">
         <v>12</v>
@@ -829,10 +829,10 @@
         <v>11</v>
       </c>
       <c r="AA3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC3" t="n">
         <v>41</v>
@@ -891,46 +891,46 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K4" t="n">
+        <v>8</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M4" t="n">
         <v>3</v>
       </c>
-      <c r="I4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="N4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T4" t="n">
         <v>7</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="T4" t="n">
-        <v>6.5</v>
       </c>
       <c r="U4" t="n">
         <v>10</v>
@@ -948,34 +948,34 @@
         <v>34</v>
       </c>
       <c r="Z4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA4" t="n">
         <v>6</v>
       </c>
       <c r="AB4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC4" t="n">
         <v>51</v>
       </c>
       <c r="AD4" t="n">
-        <v>401</v>
+        <v>301</v>
       </c>
       <c r="AE4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ4" t="n">
         <v>41</v>
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="H6" t="n">
         <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J6" t="n">
         <v>1.13</v>
@@ -1216,7 +1216,7 @@
         <v>10</v>
       </c>
       <c r="AH6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI6" t="n">
         <v>23</v>
@@ -1257,13 +1257,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H7" t="n">
         <v>3.8</v>
       </c>
       <c r="I7" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="J7" t="n">
         <v>1.04</v>
@@ -1278,10 +1278,10 @@
         <v>3.75</v>
       </c>
       <c r="N7" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="O7" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="P7" t="n">
         <v>1.36</v>
@@ -1290,16 +1290,16 @@
         <v>3</v>
       </c>
       <c r="R7" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S7" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T7" t="n">
         <v>10</v>
       </c>
       <c r="U7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V7" t="n">
         <v>11</v>
@@ -1308,7 +1308,7 @@
         <v>34</v>
       </c>
       <c r="X7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y7" t="n">
         <v>29</v>
@@ -1329,16 +1329,16 @@
         <v>201</v>
       </c>
       <c r="AE7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG7" t="n">
         <v>9</v>
       </c>
       <c r="AH7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI7" t="n">
         <v>17</v>
@@ -1394,16 +1394,16 @@
         <v>17</v>
       </c>
       <c r="L8" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N8" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O8" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="P8" t="n">
         <v>1.29</v>
@@ -1418,7 +1418,7 @@
         <v>1.73</v>
       </c>
       <c r="T8" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U8" t="n">
         <v>6.5</v>
@@ -1436,7 +1436,7 @@
         <v>26</v>
       </c>
       <c r="Z8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA8" t="n">
         <v>11</v>
@@ -1501,19 +1501,19 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="H9" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>4.33</v>
+        <v>3.9</v>
       </c>
       <c r="J9" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L9" t="n">
         <v>1.2</v>
@@ -1522,10 +1522,10 @@
         <v>4.33</v>
       </c>
       <c r="N9" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O9" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="P9" t="n">
         <v>1.33</v>
@@ -1534,58 +1534,58 @@
         <v>3.25</v>
       </c>
       <c r="R9" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="S9" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="T9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U9" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="V9" t="n">
         <v>8.5</v>
       </c>
       <c r="W9" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="X9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y9" t="n">
         <v>21</v>
       </c>
       <c r="Z9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC9" t="n">
         <v>41</v>
       </c>
       <c r="AD9" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE9" t="n">
         <v>15</v>
       </c>
       <c r="AF9" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ9" t="n">
         <v>34</v>
@@ -1623,19 +1623,19 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H10" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I10" t="n">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="J10" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L10" t="n">
         <v>1.2</v>
@@ -1656,22 +1656,22 @@
         <v>3.25</v>
       </c>
       <c r="R10" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S10" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U10" t="n">
         <v>9</v>
-      </c>
-      <c r="U10" t="n">
-        <v>9.5</v>
       </c>
       <c r="V10" t="n">
         <v>8.5</v>
       </c>
       <c r="W10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X10" t="n">
         <v>13</v>
@@ -1698,13 +1698,13 @@
         <v>15</v>
       </c>
       <c r="AF10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG10" t="n">
         <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI10" t="n">
         <v>34</v>
@@ -1867,13 +1867,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.55</v>
+        <v>2.38</v>
       </c>
       <c r="H12" t="n">
         <v>3.1</v>
       </c>
       <c r="I12" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="J12" t="n">
         <v>1.08</v>
@@ -1906,10 +1906,10 @@
         <v>1.8</v>
       </c>
       <c r="T12" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V12" t="n">
         <v>10</v>
@@ -1918,7 +1918,7 @@
         <v>23</v>
       </c>
       <c r="X12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y12" t="n">
         <v>34</v>
@@ -1939,19 +1939,19 @@
         <v>351</v>
       </c>
       <c r="AE12" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI12" t="n">
         <v>29</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>26</v>
       </c>
       <c r="AJ12" t="n">
         <v>41</v>
@@ -2111,46 +2111,46 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="H14" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="I14" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="J14" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K14" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L14" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="M14" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="N14" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="O14" t="n">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="P14" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="R14" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="S14" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="T14" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U14" t="n">
         <v>11</v>
@@ -2162,16 +2162,16 @@
         <v>17</v>
       </c>
       <c r="X14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y14" t="n">
         <v>21</v>
       </c>
       <c r="Z14" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AA14" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB14" t="n">
         <v>12</v>
@@ -2180,13 +2180,13 @@
         <v>41</v>
       </c>
       <c r="AD14" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG14" t="n">
         <v>13</v>
@@ -2195,7 +2195,7 @@
         <v>41</v>
       </c>
       <c r="AI14" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ14" t="n">
         <v>29</v>
@@ -2233,13 +2233,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="H15" t="n">
         <v>4.75</v>
       </c>
       <c r="I15" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J15" t="n">
         <v>1.02</v>
@@ -2266,22 +2266,22 @@
         <v>3.75</v>
       </c>
       <c r="R15" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S15" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T15" t="n">
         <v>9.5</v>
       </c>
       <c r="U15" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V15" t="n">
         <v>8.5</v>
       </c>
       <c r="W15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X15" t="n">
         <v>11</v>
@@ -2290,13 +2290,13 @@
         <v>21</v>
       </c>
       <c r="Z15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA15" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC15" t="n">
         <v>41</v>
@@ -2605,43 +2605,43 @@
         <v>3.1</v>
       </c>
       <c r="I18" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J18" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K18" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L18" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M18" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="N18" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="O18" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P18" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S18" t="n">
         <v>1.57</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R18" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.62</v>
       </c>
       <c r="T18" t="n">
         <v>5.5</v>
       </c>
       <c r="U18" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V18" t="n">
         <v>9.5</v>
@@ -2650,19 +2650,19 @@
         <v>17</v>
       </c>
       <c r="X18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y18" t="n">
         <v>41</v>
       </c>
       <c r="Z18" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AA18" t="n">
         <v>6</v>
       </c>
       <c r="AB18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC18" t="n">
         <v>81</v>
@@ -2671,7 +2671,7 @@
         <v>101</v>
       </c>
       <c r="AE18" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF18" t="n">
         <v>21</v>
@@ -2961,13 +2961,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="H21" t="n">
         <v>3.4</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J21" t="n">
         <v>1.06</v>
@@ -2988,7 +2988,7 @@
         <v>1.8</v>
       </c>
       <c r="P21" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="Q21" t="n">
         <v>2.75</v>
@@ -3000,13 +3000,13 @@
         <v>1.91</v>
       </c>
       <c r="T21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W21" t="n">
         <v>41</v>
@@ -3015,10 +3015,10 @@
         <v>29</v>
       </c>
       <c r="Y21" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z21" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA21" t="n">
         <v>6.5</v>
@@ -3036,13 +3036,13 @@
         <v>7.5</v>
       </c>
       <c r="AF21" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG21" t="n">
         <v>9</v>
       </c>
       <c r="AH21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI21" t="n">
         <v>17</v>
@@ -3110,7 +3110,7 @@
         <v>1.6</v>
       </c>
       <c r="P22" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Q22" t="n">
         <v>2.5</v>
@@ -3232,7 +3232,7 @@
         <v>1.95</v>
       </c>
       <c r="P23" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="Q23" t="n">
         <v>2.75</v>
@@ -3336,10 +3336,10 @@
         <v>6.5</v>
       </c>
       <c r="J24" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K24" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="L24" t="n">
         <v>1.3</v>
@@ -3354,7 +3354,7 @@
         <v>1.83</v>
       </c>
       <c r="P24" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="Q24" t="n">
         <v>2.75</v>
@@ -3449,13 +3449,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H25" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I25" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="J25" t="n">
         <v>1.06</v>
@@ -3470,10 +3470,10 @@
         <v>3.25</v>
       </c>
       <c r="N25" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="O25" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="P25" t="n">
         <v>1.44</v>
@@ -3482,25 +3482,25 @@
         <v>2.63</v>
       </c>
       <c r="R25" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S25" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T25" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U25" t="n">
+        <v>8</v>
+      </c>
+      <c r="V25" t="n">
         <v>8.5</v>
-      </c>
-      <c r="V25" t="n">
-        <v>9</v>
       </c>
       <c r="W25" t="n">
         <v>15</v>
       </c>
       <c r="X25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y25" t="n">
         <v>29</v>
@@ -3518,16 +3518,16 @@
         <v>51</v>
       </c>
       <c r="AD25" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE25" t="n">
         <v>11</v>
       </c>
       <c r="AF25" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH25" t="n">
         <v>41</v>
@@ -3577,7 +3577,7 @@
         <v>2.72</v>
       </c>
       <c r="I26" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J26" t="n">
         <v>1.14</v>
@@ -3610,7 +3610,7 @@
         <v>1.62</v>
       </c>
       <c r="T26" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="U26" t="n">
         <v>9.25</v>
@@ -3619,10 +3619,10 @@
         <v>9.5</v>
       </c>
       <c r="W26" t="n">
+        <v>22</v>
+      </c>
+      <c r="X26" t="n">
         <v>23</v>
-      </c>
-      <c r="X26" t="n">
-        <v>24</v>
       </c>
       <c r="Y26" t="n">
         <v>45</v>
@@ -3643,19 +3643,19 @@
         <v>101</v>
       </c>
       <c r="AE26" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AF26" t="n">
         <v>18.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH26" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AI26" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AJ26" t="n">
         <v>65</v>
@@ -3693,10 +3693,10 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.92</v>
+        <v>2.87</v>
       </c>
       <c r="H27" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="I27" t="n">
         <v>3</v>
@@ -3714,16 +3714,16 @@
         <v>2.18</v>
       </c>
       <c r="N27" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="O27" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P27" t="n">
         <v>1.62</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="R27" t="n">
         <v>2.1</v>
@@ -3732,10 +3732,10 @@
         <v>1.65</v>
       </c>
       <c r="T27" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="U27" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="V27" t="n">
         <v>11</v>
@@ -3753,10 +3753,10 @@
         <v>4.55</v>
       </c>
       <c r="AA27" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AB27" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC27" t="n">
         <v>110</v>
@@ -3765,7 +3765,7 @@
         <v>101</v>
       </c>
       <c r="AE27" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AF27" t="n">
         <v>14</v>
@@ -3780,7 +3780,7 @@
         <v>35</v>
       </c>
       <c r="AJ27" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28">
@@ -3815,13 +3815,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H28" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I28" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J28" t="n">
         <v>1.06</v>
@@ -3848,10 +3848,10 @@
         <v>2.63</v>
       </c>
       <c r="R28" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S28" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="T28" t="n">
         <v>6</v>
@@ -3863,16 +3863,16 @@
         <v>8.5</v>
       </c>
       <c r="W28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X28" t="n">
         <v>15</v>
       </c>
       <c r="Y28" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z28" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA28" t="n">
         <v>7.5</v>
@@ -3884,7 +3884,7 @@
         <v>67</v>
       </c>
       <c r="AD28" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AE28" t="n">
         <v>12</v>
@@ -3937,13 +3937,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H29" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I29" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J29" t="n">
         <v>1.05</v>
@@ -3952,10 +3952,10 @@
         <v>11</v>
       </c>
       <c r="L29" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M29" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N29" t="n">
         <v>1.9</v>
@@ -3964,16 +3964,16 @@
         <v>1.95</v>
       </c>
       <c r="P29" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q29" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R29" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S29" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T29" t="n">
         <v>7.5</v>
@@ -4006,7 +4006,7 @@
         <v>51</v>
       </c>
       <c r="AD29" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE29" t="n">
         <v>12</v>
@@ -4059,13 +4059,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H30" t="n">
         <v>3.5</v>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="J30" t="n">
         <v>1.03</v>
@@ -4080,10 +4080,10 @@
         <v>4.33</v>
       </c>
       <c r="N30" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O30" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P30" t="n">
         <v>1.33</v>
@@ -4101,10 +4101,10 @@
         <v>12</v>
       </c>
       <c r="U30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W30" t="n">
         <v>34</v>
@@ -4113,7 +4113,7 @@
         <v>23</v>
       </c>
       <c r="Y30" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z30" t="n">
         <v>15</v>
@@ -4184,7 +4184,7 @@
         <v>3.1</v>
       </c>
       <c r="H31" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I31" t="n">
         <v>2.15</v>
@@ -4241,7 +4241,7 @@
         <v>13</v>
       </c>
       <c r="AA31" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB31" t="n">
         <v>12</v>
@@ -4306,7 +4306,7 @@
         <v>3.9</v>
       </c>
       <c r="H32" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I32" t="n">
         <v>1.8</v>
@@ -4324,10 +4324,10 @@
         <v>3.5</v>
       </c>
       <c r="N32" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O32" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P32" t="n">
         <v>1.4</v>
@@ -4342,7 +4342,7 @@
         <v>1.83</v>
       </c>
       <c r="T32" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U32" t="n">
         <v>21</v>
@@ -4360,7 +4360,7 @@
         <v>41</v>
       </c>
       <c r="Z32" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA32" t="n">
         <v>7</v>
@@ -4812,10 +4812,10 @@
         <v>4</v>
       </c>
       <c r="N36" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O36" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P36" t="n">
         <v>1.33</v>
@@ -4937,10 +4937,10 @@
         <v>2.5</v>
       </c>
       <c r="O37" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P37" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="Q37" t="n">
         <v>2.25</v>
@@ -5035,13 +5035,13 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="H38" t="n">
         <v>3</v>
       </c>
       <c r="I38" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -5070,19 +5070,19 @@
         <v>1.78</v>
       </c>
       <c r="T38" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="U38" t="n">
         <v>14</v>
       </c>
       <c r="V38" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="W38" t="n">
         <v>37</v>
       </c>
       <c r="X38" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Y38" t="n">
         <v>40</v>
@@ -5103,10 +5103,10 @@
         <v>700</v>
       </c>
       <c r="AE38" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AF38" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AG38" t="n">
         <v>9.5</v>
@@ -5115,7 +5115,7 @@
         <v>26</v>
       </c>
       <c r="AI38" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ38" t="n">
         <v>35</v>
@@ -5271,10 +5271,10 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="H40" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I40" t="n">
         <v>6.9</v>
@@ -5282,10 +5282,10 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M40" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="N40" t="n">
         <v>1.7</v>
@@ -5300,46 +5300,46 @@
         <v>2.6</v>
       </c>
       <c r="R40" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S40" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="T40" t="n">
         <v>6.6</v>
       </c>
       <c r="U40" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="V40" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="W40" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="X40" t="n">
         <v>11.75</v>
       </c>
       <c r="Y40" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z40" t="n">
         <v>11.5</v>
       </c>
       <c r="AA40" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AB40" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC40" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AD40" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AE40" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AF40" t="n">
         <v>45</v>
@@ -5348,13 +5348,13 @@
         <v>22</v>
       </c>
       <c r="AH40" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AI40" t="n">
         <v>80</v>
       </c>
       <c r="AJ40" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41">
@@ -5507,13 +5507,13 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="H42" t="n">
         <v>2.92</v>
       </c>
       <c r="I42" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -5542,7 +5542,7 @@
         <v>1.7</v>
       </c>
       <c r="T42" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="U42" t="n">
         <v>10</v>
@@ -5560,7 +5560,7 @@
         <v>37</v>
       </c>
       <c r="Z42" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AA42" t="n">
         <v>5.8</v>
@@ -5578,19 +5578,19 @@
         <v>7.8</v>
       </c>
       <c r="AF42" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AG42" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH42" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AI42" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AJ42" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43">
@@ -5625,13 +5625,13 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="I43" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -5648,67 +5648,67 @@
         <v>1.5</v>
       </c>
       <c r="P43" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="R43" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="S43" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="T43" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="U43" t="n">
-        <v>10.5</v>
+        <v>11.25</v>
       </c>
       <c r="V43" t="n">
         <v>9.75</v>
       </c>
       <c r="W43" t="n">
+        <v>28</v>
+      </c>
+      <c r="X43" t="n">
         <v>25</v>
-      </c>
-      <c r="X43" t="n">
-        <v>24</v>
       </c>
       <c r="Y43" t="n">
         <v>40</v>
       </c>
       <c r="Z43" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="AA43" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="AB43" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AC43" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AD43" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AE43" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AF43" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AG43" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AH43" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AI43" t="n">
         <v>29</v>
       </c>
       <c r="AJ43" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44">
@@ -5743,13 +5743,13 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="H44" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="I44" t="n">
-        <v>2.82</v>
+        <v>2.75</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -5778,7 +5778,7 @@
         <v>1.8</v>
       </c>
       <c r="T44" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="U44" t="n">
         <v>14</v>
@@ -5787,22 +5787,22 @@
         <v>10</v>
       </c>
       <c r="W44" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X44" t="n">
         <v>26</v>
       </c>
       <c r="Y44" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z44" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AA44" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AB44" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC44" t="n">
         <v>75</v>
@@ -5811,22 +5811,22 @@
         <v>700</v>
       </c>
       <c r="AE44" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="AF44" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG44" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AH44" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AI44" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ44" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45">
@@ -5864,28 +5864,28 @@
         <v>3.2</v>
       </c>
       <c r="H45" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I45" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J45" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="K45" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L45" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="M45" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N45" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O45" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="P45" t="n">
         <v>1.44</v>
@@ -5894,10 +5894,10 @@
         <v>2.63</v>
       </c>
       <c r="R45" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="S45" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="T45" t="n">
         <v>9.5</v>
@@ -5992,22 +5992,22 @@
         <v>3</v>
       </c>
       <c r="J46" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K46" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L46" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M46" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N46" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="O46" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P46" t="n">
         <v>1.4</v>
@@ -6126,10 +6126,10 @@
         <v>5</v>
       </c>
       <c r="N47" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O47" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="P47" t="n">
         <v>1.29</v>
@@ -6463,27 +6463,27 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.3</v>
+        <v>2.37</v>
       </c>
       <c r="H50" t="n">
-        <v>2.85</v>
+        <v>2.92</v>
       </c>
       <c r="I50" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M50" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="N50" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="O50" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="P50" t="n">
         <v>1.44</v>
@@ -6492,10 +6492,10 @@
         <v>2.42</v>
       </c>
       <c r="R50" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="S50" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="T50" t="n">
         <v>8.5</v>
@@ -6504,25 +6504,25 @@
         <v>12.5</v>
       </c>
       <c r="V50" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="W50" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="X50" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y50" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Z50" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AA50" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AB50" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AC50" t="n">
         <v>45</v>
@@ -6531,19 +6531,19 @@
         <v>300</v>
       </c>
       <c r="AE50" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="AF50" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AG50" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AH50" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AI50" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AJ50" t="n">
         <v>28</v>
@@ -6581,82 +6581,82 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="H51" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="I51" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="J51" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="K51" t="n">
+        <v>9</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R51" t="n">
+        <v>2</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="T51" t="n">
         <v>13</v>
-      </c>
-      <c r="L51" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M51" t="n">
-        <v>4</v>
-      </c>
-      <c r="N51" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="O51" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="P51" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R51" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S51" t="n">
-        <v>2</v>
-      </c>
-      <c r="T51" t="n">
-        <v>17</v>
       </c>
       <c r="U51" t="n">
         <v>29</v>
       </c>
       <c r="V51" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="W51" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="X51" t="n">
         <v>41</v>
       </c>
       <c r="Y51" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z51" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AA51" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB51" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC51" t="n">
         <v>51</v>
       </c>
       <c r="AD51" t="n">
-        <v>201</v>
+        <v>401</v>
       </c>
       <c r="AE51" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AF51" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG51" t="n">
         <v>8.5</v>
@@ -6665,10 +6665,10 @@
         <v>12</v>
       </c>
       <c r="AI51" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ51" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52">
@@ -6703,19 +6703,19 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H52" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I52" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J52" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K52" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L52" t="n">
         <v>1.44</v>
@@ -6745,13 +6745,13 @@
         <v>5</v>
       </c>
       <c r="U52" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V52" t="n">
         <v>9</v>
       </c>
       <c r="W52" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X52" t="n">
         <v>17</v>
@@ -6763,7 +6763,7 @@
         <v>7</v>
       </c>
       <c r="AA52" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB52" t="n">
         <v>21</v>
@@ -6775,16 +6775,16 @@
         <v>501</v>
       </c>
       <c r="AE52" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF52" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG52" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH52" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI52" t="n">
         <v>51</v>
@@ -6825,19 +6825,19 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H53" t="n">
         <v>3.1</v>
       </c>
       <c r="I53" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J53" t="n">
         <v>1.08</v>
       </c>
       <c r="K53" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L53" t="n">
         <v>1.44</v>
@@ -7072,43 +7072,43 @@
         <v>2.88</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I55" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J55" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K55" t="n">
+        <v>11</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N55" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="O55" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R55" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S55" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T55" t="n">
         <v>10</v>
-      </c>
-      <c r="L55" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M55" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="N55" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="O55" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="P55" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R55" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S55" t="n">
-        <v>2</v>
-      </c>
-      <c r="T55" t="n">
-        <v>9.5</v>
       </c>
       <c r="U55" t="n">
         <v>15</v>
@@ -7120,28 +7120,28 @@
         <v>29</v>
       </c>
       <c r="X55" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y55" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z55" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA55" t="n">
         <v>6</v>
       </c>
       <c r="AB55" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC55" t="n">
         <v>41</v>
       </c>
       <c r="AD55" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE55" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AF55" t="n">
         <v>13</v>
@@ -7150,13 +7150,13 @@
         <v>10</v>
       </c>
       <c r="AH55" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ55" t="n">
         <v>26</v>
-      </c>
-      <c r="AI55" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ55" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="56">
@@ -7394,7 +7394,7 @@
         <v>11.5</v>
       </c>
       <c r="AH57" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AI57" t="n">
         <v>32</v>
@@ -7566,10 +7566,10 @@
         <v>2.25</v>
       </c>
       <c r="J59" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K59" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L59" t="n">
         <v>1.44</v>
@@ -7685,7 +7685,7 @@
         <v>3.4</v>
       </c>
       <c r="I60" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="J60" t="n">
         <v>1.03</v>
@@ -7700,22 +7700,22 @@
         <v>4.5</v>
       </c>
       <c r="N60" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="O60" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="P60" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q60" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R60" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S60" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T60" t="n">
         <v>12</v>
@@ -7739,7 +7739,7 @@
         <v>15</v>
       </c>
       <c r="AA60" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB60" t="n">
         <v>11</v>
@@ -7748,7 +7748,7 @@
         <v>34</v>
       </c>
       <c r="AD60" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AE60" t="n">
         <v>12</v>
@@ -7801,10 +7801,10 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H61" t="n">
-        <v>4.05</v>
+        <v>3.85</v>
       </c>
       <c r="I61" t="n">
         <v>4.8</v>
@@ -7812,16 +7812,16 @@
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M61" t="n">
         <v>4.6</v>
       </c>
       <c r="N61" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="O61" t="n">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
@@ -7832,7 +7832,7 @@
         <v>2.1</v>
       </c>
       <c r="T61" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="U61" t="n">
         <v>9</v>
@@ -7841,22 +7841,22 @@
         <v>8</v>
       </c>
       <c r="W61" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="X61" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="Y61" t="n">
         <v>19.5</v>
       </c>
       <c r="Z61" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AA61" t="n">
-        <v>8.25</v>
+        <v>7.8</v>
       </c>
       <c r="AB61" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC61" t="n">
         <v>50</v>
@@ -7865,19 +7865,19 @@
         <v>300</v>
       </c>
       <c r="AE61" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF61" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AG61" t="n">
         <v>15.5</v>
       </c>
       <c r="AH61" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI61" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ61" t="n">
         <v>40</v>
@@ -7915,21 +7915,21 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="H62" t="n">
-        <v>4.9</v>
+        <v>4.85</v>
       </c>
       <c r="I62" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="M62" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="N62" t="n">
         <v>1.47</v>
@@ -7940,22 +7940,22 @@
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S62" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="T62" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="U62" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="V62" t="n">
         <v>8.5</v>
       </c>
       <c r="W62" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="X62" t="n">
         <v>10.5</v>
@@ -7970,16 +7970,16 @@
         <v>10</v>
       </c>
       <c r="AB62" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AC62" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AD62" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AE62" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF62" t="n">
         <v>50</v>
@@ -8029,13 +8029,13 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H63" t="n">
         <v>2.9</v>
       </c>
       <c r="I63" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J63" t="n">
         <v>1.1</v>
@@ -8053,7 +8053,7 @@
         <v>2.6</v>
       </c>
       <c r="O63" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="P63" t="n">
         <v>1.57</v>
@@ -8110,10 +8110,10 @@
         <v>11</v>
       </c>
       <c r="AH63" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI63" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ63" t="n">
         <v>41</v>
@@ -8166,16 +8166,16 @@
         <v>7</v>
       </c>
       <c r="L64" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M64" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="N64" t="n">
         <v>2.6</v>
       </c>
       <c r="O64" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="P64" t="n">
         <v>1.57</v>
@@ -8276,70 +8276,70 @@
         <v>1.75</v>
       </c>
       <c r="H65" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I65" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="J65" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K65" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="L65" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="M65" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="N65" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="O65" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="P65" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="Q65" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="R65" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="S65" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="T65" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U65" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V65" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W65" t="n">
         <v>15</v>
       </c>
       <c r="X65" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y65" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z65" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AA65" t="n">
         <v>6.5</v>
       </c>
       <c r="AB65" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC65" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD65" t="n">
         <v>1250</v>
@@ -8348,10 +8348,10 @@
         <v>10</v>
       </c>
       <c r="AF65" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG65" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH65" t="n">
         <v>51</v>
@@ -8398,22 +8398,22 @@
         <v>2.05</v>
       </c>
       <c r="H66" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I66" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="J66" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K66" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L66" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M66" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N66" t="n">
         <v>2.1</v>
@@ -8428,16 +8428,16 @@
         <v>2.63</v>
       </c>
       <c r="R66" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S66" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T66" t="n">
         <v>7</v>
       </c>
       <c r="U66" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V66" t="n">
         <v>9</v>
@@ -8452,10 +8452,10 @@
         <v>29</v>
       </c>
       <c r="Z66" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA66" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB66" t="n">
         <v>17</v>
@@ -8464,16 +8464,16 @@
         <v>51</v>
       </c>
       <c r="AD66" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE66" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF66" t="n">
         <v>17</v>
       </c>
       <c r="AG66" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH66" t="n">
         <v>41</v>
@@ -8639,13 +8639,13 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="H68" t="n">
         <v>3.3</v>
       </c>
       <c r="I68" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J68" t="n">
         <v>1.05</v>
@@ -8654,16 +8654,16 @@
         <v>11</v>
       </c>
       <c r="L68" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M68" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N68" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O68" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="P68" t="n">
         <v>1.4</v>
@@ -8678,7 +8678,7 @@
         <v>2.05</v>
       </c>
       <c r="T68" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U68" t="n">
         <v>13</v>
@@ -8761,19 +8761,19 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="H69" t="n">
         <v>3.1</v>
       </c>
       <c r="I69" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="J69" t="n">
         <v>1.07</v>
       </c>
       <c r="K69" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L69" t="n">
         <v>1.36</v>
@@ -8788,10 +8788,10 @@
         <v>1.67</v>
       </c>
       <c r="P69" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Q69" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="R69" t="n">
         <v>1.91</v>
@@ -8803,19 +8803,19 @@
         <v>7.5</v>
       </c>
       <c r="U69" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V69" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W69" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X69" t="n">
         <v>21</v>
       </c>
       <c r="Y69" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z69" t="n">
         <v>8.5</v>
@@ -8833,16 +8833,16 @@
         <v>301</v>
       </c>
       <c r="AE69" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF69" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG69" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH69" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI69" t="n">
         <v>26</v>
@@ -8883,19 +8883,19 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="H70" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I70" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="J70" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K70" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="L70" t="n">
         <v>1.44</v>
@@ -8904,49 +8904,49 @@
         <v>2.63</v>
       </c>
       <c r="N70" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O70" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P70" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q70" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="R70" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S70" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T70" t="n">
         <v>6.5</v>
       </c>
       <c r="U70" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V70" t="n">
         <v>10</v>
       </c>
       <c r="W70" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X70" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y70" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z70" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA70" t="n">
         <v>6.5</v>
       </c>
       <c r="AB70" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC70" t="n">
         <v>67</v>
@@ -8955,16 +8955,16 @@
         <v>800</v>
       </c>
       <c r="AE70" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF70" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG70" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH70" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI70" t="n">
         <v>29</v>
@@ -9005,13 +9005,13 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="H71" t="n">
         <v>3.2</v>
       </c>
       <c r="I71" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="J71" t="n">
         <v>1.08</v>
@@ -9032,10 +9032,10 @@
         <v>1.57</v>
       </c>
       <c r="P71" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="R71" t="n">
         <v>2.05</v>
@@ -9047,19 +9047,19 @@
         <v>9.5</v>
       </c>
       <c r="U71" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V71" t="n">
         <v>15</v>
       </c>
       <c r="W71" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="X71" t="n">
         <v>41</v>
       </c>
       <c r="Y71" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Z71" t="n">
         <v>7</v>
@@ -9068,7 +9068,7 @@
         <v>6</v>
       </c>
       <c r="AB71" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC71" t="n">
         <v>67</v>
@@ -9080,7 +9080,7 @@
         <v>6</v>
       </c>
       <c r="AF71" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG71" t="n">
         <v>9</v>
@@ -9154,7 +9154,7 @@
         <v>1.65</v>
       </c>
       <c r="P72" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q72" t="n">
         <v>2.5</v>
@@ -9270,13 +9270,13 @@
         <v>2.75</v>
       </c>
       <c r="N73" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O73" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P73" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Q73" t="n">
         <v>2.5</v>
@@ -9392,13 +9392,13 @@
         <v>2.5</v>
       </c>
       <c r="N74" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O74" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P74" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="Q74" t="n">
         <v>2.25</v>
@@ -9437,7 +9437,7 @@
         <v>19</v>
       </c>
       <c r="AC74" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD74" t="n">
         <v>1250</v>
@@ -9493,19 +9493,19 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="H75" t="n">
         <v>3.4</v>
       </c>
       <c r="I75" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="J75" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K75" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="L75" t="n">
         <v>1.36</v>
@@ -9514,16 +9514,16 @@
         <v>3</v>
       </c>
       <c r="N75" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O75" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P75" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q75" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R75" t="n">
         <v>1.91</v>
@@ -9535,22 +9535,22 @@
         <v>7</v>
       </c>
       <c r="U75" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V75" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W75" t="n">
         <v>21</v>
       </c>
       <c r="X75" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y75" t="n">
         <v>34</v>
       </c>
       <c r="Z75" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA75" t="n">
         <v>6.5</v>
@@ -9562,25 +9562,25 @@
         <v>51</v>
       </c>
       <c r="AD75" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AE75" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF75" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG75" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH75" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI75" t="n">
         <v>26</v>
       </c>
       <c r="AJ75" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="76">
@@ -9615,13 +9615,13 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>7</v>
+        <v>6.25</v>
       </c>
       <c r="H76" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="I76" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="J76" t="n">
         <v>19</v>
@@ -9636,10 +9636,10 @@
         <v>5</v>
       </c>
       <c r="N76" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="O76" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="P76" t="n">
         <v>1.25</v>
@@ -9654,7 +9654,7 @@
         <v>1.91</v>
       </c>
       <c r="T76" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="U76" t="n">
         <v>41</v>
@@ -9663,10 +9663,10 @@
         <v>21</v>
       </c>
       <c r="W76" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="X76" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Y76" t="n">
         <v>41</v>
@@ -9678,16 +9678,16 @@
         <v>11</v>
       </c>
       <c r="AB76" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC76" t="n">
         <v>51</v>
       </c>
       <c r="AD76" t="n">
-        <v>500</v>
+        <v>151</v>
       </c>
       <c r="AE76" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF76" t="n">
         <v>7.5</v>
@@ -9696,7 +9696,7 @@
         <v>9</v>
       </c>
       <c r="AH76" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI76" t="n">
         <v>11</v>
@@ -9740,40 +9740,40 @@
         <v>5.25</v>
       </c>
       <c r="H77" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="I77" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="J77" t="n">
-        <v>23</v>
+        <v>1.02</v>
       </c>
       <c r="K77" t="n">
-        <v>1.03</v>
+        <v>12</v>
       </c>
       <c r="L77" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="M77" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N77" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="O77" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="P77" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Q77" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="R77" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S77" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T77" t="n">
         <v>21</v>
@@ -9794,7 +9794,7 @@
         <v>34</v>
       </c>
       <c r="Z77" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA77" t="n">
         <v>11</v>
@@ -9806,13 +9806,13 @@
         <v>41</v>
       </c>
       <c r="AD77" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE77" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF77" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG77" t="n">
         <v>9</v>
@@ -9824,7 +9824,7 @@
         <v>11</v>
       </c>
       <c r="AJ77" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78">
@@ -9859,13 +9859,13 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H78" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I78" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="J78" t="n">
         <v>1.07</v>
@@ -9880,28 +9880,28 @@
         <v>2.75</v>
       </c>
       <c r="N78" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="O78" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="P78" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="Q78" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="R78" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="S78" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="T78" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U78" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V78" t="n">
         <v>13</v>
@@ -9916,22 +9916,22 @@
         <v>41</v>
       </c>
       <c r="Z78" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AA78" t="n">
         <v>6.5</v>
       </c>
       <c r="AB78" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC78" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD78" t="n">
         <v>151</v>
       </c>
       <c r="AE78" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF78" t="n">
         <v>9</v>
@@ -9943,7 +9943,7 @@
         <v>17</v>
       </c>
       <c r="AI78" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ78" t="n">
         <v>34</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H79" t="n">
         <v>3.25</v>
@@ -9996,16 +9996,16 @@
         <v>11</v>
       </c>
       <c r="L79" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M79" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N79" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="O79" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="P79" t="n">
         <v>1.4</v>
@@ -10103,13 +10103,13 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I80" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J80" t="n">
         <v>1.1</v>
@@ -10124,16 +10124,16 @@
         <v>2.63</v>
       </c>
       <c r="N80" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="O80" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P80" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q80" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R80" t="n">
         <v>2.1</v>
@@ -10145,7 +10145,7 @@
         <v>6.5</v>
       </c>
       <c r="U80" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V80" t="n">
         <v>10</v>
@@ -10154,13 +10154,13 @@
         <v>21</v>
       </c>
       <c r="X80" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y80" t="n">
         <v>41</v>
       </c>
       <c r="Z80" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA80" t="n">
         <v>6</v>
@@ -10187,7 +10187,7 @@
         <v>34</v>
       </c>
       <c r="AI80" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ80" t="n">
         <v>41</v>
@@ -10225,37 +10225,37 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="H81" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="I81" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="J81" t="n">
         <v>1.05</v>
       </c>
       <c r="K81" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="L81" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="M81" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="N81" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="O81" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="P81" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="Q81" t="n">
-        <v>2.92</v>
+        <v>2.85</v>
       </c>
       <c r="R81" t="n">
         <v>1.65</v>
@@ -10264,28 +10264,28 @@
         <v>2.12</v>
       </c>
       <c r="T81" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="U81" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V81" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="W81" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="X81" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y81" t="n">
         <v>32</v>
       </c>
       <c r="Z81" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AA81" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AB81" t="n">
         <v>13</v>
@@ -10297,16 +10297,16 @@
         <v>350</v>
       </c>
       <c r="AE81" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AF81" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AG81" t="n">
         <v>8.25</v>
       </c>
       <c r="AH81" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI81" t="n">
         <v>14.5</v>
@@ -10469,13 +10469,13 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="H83" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I83" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="J83" t="n">
         <v>1.04</v>
@@ -10484,37 +10484,37 @@
         <v>8.5</v>
       </c>
       <c r="L83" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="M83" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="N83" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="O83" t="n">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="P83" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="Q83" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="R83" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="S83" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="T83" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="U83" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V83" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="W83" t="n">
         <v>55</v>
@@ -10529,22 +10529,22 @@
         <v>8.5</v>
       </c>
       <c r="AA83" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="AB83" t="n">
         <v>12</v>
       </c>
       <c r="AC83" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AD83" t="n">
         <v>250</v>
       </c>
       <c r="AE83" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AF83" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AG83" t="n">
         <v>8.25</v>
@@ -10553,10 +10553,10 @@
         <v>17.5</v>
       </c>
       <c r="AI83" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AJ83" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="84">
@@ -10606,10 +10606,10 @@
         <v>13</v>
       </c>
       <c r="L84" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M84" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N84" t="n">
         <v>1.7</v>
@@ -10831,7 +10831,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="H86" t="n">
         <v>3.2</v>
@@ -10857,7 +10857,7 @@
         <v>1.4</v>
       </c>
       <c r="Q86" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="R86" t="n">
         <v>1.65</v>
@@ -10866,25 +10866,25 @@
         <v>2</v>
       </c>
       <c r="T86" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="U86" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="V86" t="n">
         <v>8.5</v>
       </c>
       <c r="W86" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X86" t="n">
         <v>16</v>
       </c>
       <c r="Y86" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z86" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AA86" t="n">
         <v>6.3</v>
@@ -10899,10 +10899,10 @@
         <v>400</v>
       </c>
       <c r="AE86" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AF86" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AG86" t="n">
         <v>11.5</v>
@@ -11074,70 +11074,70 @@
         <v>1.16</v>
       </c>
       <c r="H88" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="I88" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="J88" t="n">
         <v>1.02</v>
       </c>
       <c r="K88" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="L88" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="M88" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="N88" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="O88" t="n">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="P88" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Q88" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="R88" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S88" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="T88" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="U88" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="V88" t="n">
         <v>10.25</v>
       </c>
       <c r="W88" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="X88" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="Y88" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z88" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AA88" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AB88" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC88" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AD88" t="n">
         <v>1000</v>
@@ -11149,16 +11149,16 @@
         <v>110</v>
       </c>
       <c r="AG88" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AH88" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AI88" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AJ88" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-04-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-11.xlsx
@@ -647,19 +647,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H2" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I2" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J2" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L2" t="n">
         <v>1.25</v>
@@ -674,10 +674,10 @@
         <v>2</v>
       </c>
       <c r="P2" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q2" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R2" t="n">
         <v>1.91</v>
@@ -719,10 +719,10 @@
         <v>251</v>
       </c>
       <c r="AE2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG2" t="n">
         <v>19</v>
@@ -790,10 +790,10 @@
         <v>3.75</v>
       </c>
       <c r="N3" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="O3" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="P3" t="n">
         <v>1.36</v>
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H4" t="n">
         <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J4" t="n">
         <v>1.08</v>
@@ -912,10 +912,10 @@
         <v>3</v>
       </c>
       <c r="N4" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O4" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P4" t="n">
         <v>1.5</v>
@@ -924,13 +924,13 @@
         <v>2.5</v>
       </c>
       <c r="R4" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S4" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U4" t="n">
         <v>10</v>
@@ -948,7 +948,7 @@
         <v>34</v>
       </c>
       <c r="Z4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA4" t="n">
         <v>6</v>
@@ -960,19 +960,19 @@
         <v>51</v>
       </c>
       <c r="AD4" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE4" t="n">
         <v>9</v>
       </c>
       <c r="AF4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI4" t="n">
         <v>29</v>
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="H6" t="n">
         <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J6" t="n">
         <v>1.13</v>
@@ -1216,7 +1216,7 @@
         <v>10</v>
       </c>
       <c r="AH6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI6" t="n">
         <v>23</v>
@@ -1260,7 +1260,7 @@
         <v>3.2</v>
       </c>
       <c r="H7" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I7" t="n">
         <v>2.05</v>
@@ -1269,7 +1269,7 @@
         <v>1.04</v>
       </c>
       <c r="K7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L7" t="n">
         <v>1.25</v>
@@ -1278,10 +1278,10 @@
         <v>3.75</v>
       </c>
       <c r="N7" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O7" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="P7" t="n">
         <v>1.36</v>
@@ -1296,7 +1296,7 @@
         <v>2</v>
       </c>
       <c r="T7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U7" t="n">
         <v>17</v>
@@ -1314,10 +1314,10 @@
         <v>29</v>
       </c>
       <c r="Z7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB7" t="n">
         <v>15</v>
@@ -1329,7 +1329,7 @@
         <v>201</v>
       </c>
       <c r="AE7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF7" t="n">
         <v>10</v>
@@ -1341,10 +1341,10 @@
         <v>19</v>
       </c>
       <c r="AI7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.8</v>
+        <v>1.53</v>
       </c>
       <c r="H9" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="I9" t="n">
-        <v>3.9</v>
+        <v>5.25</v>
       </c>
       <c r="J9" t="n">
         <v>1.04</v>
@@ -1534,61 +1534,61 @@
         <v>3.25</v>
       </c>
       <c r="R9" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="S9" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="T9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U9" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="V9" t="n">
         <v>8.5</v>
       </c>
       <c r="W9" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="X9" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Y9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z9" t="n">
         <v>13</v>
       </c>
       <c r="AA9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC9" t="n">
         <v>41</v>
       </c>
       <c r="AD9" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF9" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AH9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI9" t="n">
         <v>41</v>
       </c>
-      <c r="AI9" t="n">
-        <v>29</v>
-      </c>
       <c r="AJ9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10">
@@ -1632,10 +1632,10 @@
         <v>4.75</v>
       </c>
       <c r="J10" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L10" t="n">
         <v>1.2</v>
@@ -1745,19 +1745,19 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="H11" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I11" t="n">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="J11" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L11" t="n">
         <v>1.4</v>
@@ -1778,22 +1778,22 @@
         <v>2.5</v>
       </c>
       <c r="R11" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="S11" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T11" t="n">
         <v>5.5</v>
       </c>
       <c r="U11" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="V11" t="n">
         <v>9</v>
       </c>
       <c r="W11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X11" t="n">
         <v>15</v>
@@ -1805,7 +1805,7 @@
         <v>8</v>
       </c>
       <c r="AA11" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB11" t="n">
         <v>23</v>
@@ -1823,7 +1823,7 @@
         <v>29</v>
       </c>
       <c r="AG11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH11" t="n">
         <v>67</v>
@@ -1867,13 +1867,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.38</v>
+        <v>2.55</v>
       </c>
       <c r="H12" t="n">
         <v>3.1</v>
       </c>
       <c r="I12" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="J12" t="n">
         <v>1.08</v>
@@ -1888,10 +1888,10 @@
         <v>2.75</v>
       </c>
       <c r="N12" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O12" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P12" t="n">
         <v>1.5</v>
@@ -1915,10 +1915,10 @@
         <v>10</v>
       </c>
       <c r="W12" t="n">
+        <v>26</v>
+      </c>
+      <c r="X12" t="n">
         <v>23</v>
-      </c>
-      <c r="X12" t="n">
-        <v>21</v>
       </c>
       <c r="Y12" t="n">
         <v>34</v>
@@ -1939,19 +1939,19 @@
         <v>351</v>
       </c>
       <c r="AE12" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI12" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ12" t="n">
         <v>41</v>
@@ -2165,7 +2165,7 @@
         <v>13</v>
       </c>
       <c r="Y14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z14" t="n">
         <v>17</v>
@@ -2177,7 +2177,7 @@
         <v>12</v>
       </c>
       <c r="AC14" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD14" t="n">
         <v>126</v>
@@ -2195,7 +2195,7 @@
         <v>41</v>
       </c>
       <c r="AI14" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ14" t="n">
         <v>29</v>
@@ -2233,13 +2233,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="H15" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I15" t="n">
-        <v>6.25</v>
+        <v>5.75</v>
       </c>
       <c r="J15" t="n">
         <v>1.02</v>
@@ -2248,16 +2248,16 @@
         <v>19</v>
       </c>
       <c r="L15" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="M15" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N15" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="O15" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="P15" t="n">
         <v>1.25</v>
@@ -2266,28 +2266,28 @@
         <v>3.75</v>
       </c>
       <c r="R15" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S15" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T15" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U15" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V15" t="n">
         <v>8.5</v>
       </c>
       <c r="W15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X15" t="n">
         <v>11</v>
       </c>
       <c r="Y15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z15" t="n">
         <v>19</v>
@@ -2302,7 +2302,7 @@
         <v>41</v>
       </c>
       <c r="AD15" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE15" t="n">
         <v>21</v>
@@ -2311,16 +2311,16 @@
         <v>34</v>
       </c>
       <c r="AG15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH15" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI15" t="n">
         <v>41</v>
       </c>
       <c r="AJ15" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16">
@@ -2602,28 +2602,28 @@
         <v>1.95</v>
       </c>
       <c r="H18" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I18" t="n">
         <v>4.75</v>
       </c>
       <c r="J18" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="K18" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L18" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="M18" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="N18" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="O18" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P18" t="n">
         <v>1.62</v>
@@ -2632,19 +2632,19 @@
         <v>2.2</v>
       </c>
       <c r="R18" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="S18" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T18" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="U18" t="n">
         <v>7.5</v>
       </c>
       <c r="V18" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W18" t="n">
         <v>17</v>
@@ -2656,7 +2656,7 @@
         <v>41</v>
       </c>
       <c r="Z18" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AA18" t="n">
         <v>6</v>
@@ -2721,13 +2721,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="H19" t="n">
         <v>2.9</v>
       </c>
       <c r="I19" t="n">
-        <v>2.27</v>
+        <v>2.35</v>
       </c>
       <c r="J19" t="n">
         <v>1.1</v>
@@ -2760,13 +2760,13 @@
         <v>1.65</v>
       </c>
       <c r="T19" t="n">
-        <v>7.8</v>
+        <v>7.3</v>
       </c>
       <c r="U19" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="V19" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="W19" t="n">
         <v>45</v>
@@ -2778,7 +2778,7 @@
         <v>50</v>
       </c>
       <c r="Z19" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AA19" t="n">
         <v>5.8</v>
@@ -2793,19 +2793,19 @@
         <v>101</v>
       </c>
       <c r="AE19" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="AF19" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="AG19" t="n">
         <v>9.75</v>
       </c>
       <c r="AH19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ19" t="n">
         <v>45</v>
@@ -2846,7 +2846,7 @@
         <v>1.65</v>
       </c>
       <c r="H20" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I20" t="n">
         <v>4.9</v>
@@ -2857,7 +2857,7 @@
         <v>1.35</v>
       </c>
       <c r="M20" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="N20" t="n">
         <v>2.02</v>
@@ -2872,10 +2872,10 @@
         <v>2.4</v>
       </c>
       <c r="R20" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="S20" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="T20" t="n">
         <v>5.7</v>
@@ -2899,25 +2899,25 @@
         <v>8.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AB20" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AD20" t="n">
         <v>101</v>
       </c>
       <c r="AE20" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AF20" t="n">
         <v>27</v>
       </c>
       <c r="AG20" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AH20" t="n">
         <v>90</v>
@@ -2926,7 +2926,7 @@
         <v>55</v>
       </c>
       <c r="AJ20" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21">
@@ -2961,13 +2961,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H21" t="n">
         <v>3.4</v>
       </c>
       <c r="I21" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J21" t="n">
         <v>1.06</v>
@@ -2988,7 +2988,7 @@
         <v>1.8</v>
       </c>
       <c r="P21" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="Q21" t="n">
         <v>2.75</v>
@@ -3009,7 +3009,7 @@
         <v>12</v>
       </c>
       <c r="W21" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X21" t="n">
         <v>29</v>
@@ -3092,10 +3092,10 @@
         <v>4.33</v>
       </c>
       <c r="J22" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L22" t="n">
         <v>1.4</v>
@@ -3104,13 +3104,13 @@
         <v>2.75</v>
       </c>
       <c r="N22" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O22" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P22" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q22" t="n">
         <v>2.5</v>
@@ -3205,13 +3205,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H23" t="n">
         <v>3.25</v>
       </c>
       <c r="I23" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
         <v>1.05</v>
@@ -3232,10 +3232,10 @@
         <v>1.95</v>
       </c>
       <c r="P23" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R23" t="n">
         <v>1.67</v>
@@ -3253,10 +3253,10 @@
         <v>9.5</v>
       </c>
       <c r="W23" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y23" t="n">
         <v>26</v>
@@ -3277,16 +3277,16 @@
         <v>151</v>
       </c>
       <c r="AE23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG23" t="n">
         <v>11</v>
       </c>
       <c r="AH23" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI23" t="n">
         <v>23</v>
@@ -3327,19 +3327,19 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.45</v>
+        <v>1.62</v>
       </c>
       <c r="H24" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="I24" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="J24" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K24" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="L24" t="n">
         <v>1.3</v>
@@ -3348,73 +3348,73 @@
         <v>3.4</v>
       </c>
       <c r="N24" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="O24" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="P24" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R24" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S24" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="T24" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U24" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="V24" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W24" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="X24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y24" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z24" t="n">
         <v>9.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC24" t="n">
         <v>67</v>
       </c>
       <c r="AD24" t="n">
-        <v>800</v>
+        <v>351</v>
       </c>
       <c r="AE24" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AF24" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AG24" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AH24" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AI24" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ24" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25">
@@ -3464,16 +3464,16 @@
         <v>10</v>
       </c>
       <c r="L25" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M25" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N25" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O25" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="P25" t="n">
         <v>1.44</v>
@@ -3571,13 +3571,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="H26" t="n">
-        <v>2.72</v>
+        <v>2.62</v>
       </c>
       <c r="I26" t="n">
-        <v>3.8</v>
+        <v>4.25</v>
       </c>
       <c r="J26" t="n">
         <v>1.14</v>
@@ -3586,73 +3586,73 @@
         <v>4.9</v>
       </c>
       <c r="L26" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="M26" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="N26" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="O26" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="P26" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.15</v>
+        <v>2.22</v>
       </c>
       <c r="R26" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S26" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="T26" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="U26" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="V26" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W26" t="n">
         <v>22</v>
       </c>
       <c r="X26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y26" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Z26" t="n">
         <v>4.9</v>
       </c>
       <c r="AA26" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="AB26" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AC26" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AD26" t="n">
         <v>101</v>
       </c>
       <c r="AE26" t="n">
-        <v>7.5</v>
+        <v>8.75</v>
       </c>
       <c r="AF26" t="n">
-        <v>18.5</v>
+        <v>23</v>
       </c>
       <c r="AG26" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AI26" t="n">
         <v>50</v>
@@ -3818,7 +3818,7 @@
         <v>1.6</v>
       </c>
       <c r="H28" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I28" t="n">
         <v>5.5</v>
@@ -3890,13 +3890,13 @@
         <v>12</v>
       </c>
       <c r="AF28" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG28" t="n">
         <v>17</v>
       </c>
       <c r="AH28" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI28" t="n">
         <v>41</v>
@@ -3943,7 +3943,7 @@
         <v>3.6</v>
       </c>
       <c r="I29" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J29" t="n">
         <v>1.05</v>
@@ -3952,16 +3952,16 @@
         <v>11</v>
       </c>
       <c r="L29" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M29" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N29" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="O29" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="P29" t="n">
         <v>1.4</v>
@@ -3970,10 +3970,10 @@
         <v>2.75</v>
       </c>
       <c r="R29" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S29" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T29" t="n">
         <v>7.5</v>
@@ -4006,10 +4006,10 @@
         <v>51</v>
       </c>
       <c r="AD29" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF29" t="n">
         <v>21</v>
@@ -4021,7 +4021,7 @@
         <v>41</v>
       </c>
       <c r="AI29" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ29" t="n">
         <v>34</v>
@@ -4119,7 +4119,7 @@
         <v>15</v>
       </c>
       <c r="AA30" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB30" t="n">
         <v>13</v>
@@ -4181,52 +4181,52 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H31" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I31" t="n">
         <v>2.15</v>
       </c>
       <c r="J31" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K31" t="n">
+        <v>15</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="O31" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S31" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T31" t="n">
         <v>13</v>
-      </c>
-      <c r="L31" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M31" t="n">
-        <v>4</v>
-      </c>
-      <c r="N31" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="O31" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="P31" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S31" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T31" t="n">
-        <v>12</v>
       </c>
       <c r="U31" t="n">
         <v>17</v>
       </c>
       <c r="V31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W31" t="n">
         <v>34</v>
@@ -4235,25 +4235,25 @@
         <v>23</v>
       </c>
       <c r="Y31" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z31" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA31" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB31" t="n">
         <v>12</v>
       </c>
       <c r="AC31" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD31" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE31" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF31" t="n">
         <v>12</v>
@@ -4265,10 +4265,10 @@
         <v>21</v>
       </c>
       <c r="AI31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32">
@@ -4303,13 +4303,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="H32" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I32" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="J32" t="n">
         <v>1.05</v>
@@ -4318,16 +4318,16 @@
         <v>11</v>
       </c>
       <c r="L32" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M32" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N32" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O32" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="P32" t="n">
         <v>1.4</v>
@@ -4342,10 +4342,10 @@
         <v>1.83</v>
       </c>
       <c r="T32" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U32" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V32" t="n">
         <v>13</v>
@@ -4354,16 +4354,16 @@
         <v>41</v>
       </c>
       <c r="X32" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y32" t="n">
         <v>41</v>
       </c>
       <c r="Z32" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA32" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB32" t="n">
         <v>15</v>
@@ -4378,19 +4378,19 @@
         <v>7</v>
       </c>
       <c r="AF32" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG32" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH32" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI32" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ32" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33">
@@ -4440,16 +4440,16 @@
         <v>15</v>
       </c>
       <c r="L33" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M33" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N33" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O33" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P33" t="n">
         <v>1.33</v>
@@ -4553,43 +4553,43 @@
         <v>3.4</v>
       </c>
       <c r="I34" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J34" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K34" t="n">
+        <v>13</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="O34" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T34" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U34" t="n">
         <v>11</v>
-      </c>
-      <c r="L34" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M34" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="N34" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="P34" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R34" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S34" t="n">
-        <v>2</v>
-      </c>
-      <c r="T34" t="n">
-        <v>8</v>
-      </c>
-      <c r="U34" t="n">
-        <v>10</v>
       </c>
       <c r="V34" t="n">
         <v>9</v>
@@ -4598,13 +4598,13 @@
         <v>19</v>
       </c>
       <c r="X34" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y34" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z34" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA34" t="n">
         <v>6.5</v>
@@ -4616,22 +4616,22 @@
         <v>41</v>
       </c>
       <c r="AD34" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE34" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF34" t="n">
         <v>19</v>
       </c>
       <c r="AG34" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH34" t="n">
         <v>41</v>
       </c>
       <c r="AI34" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ34" t="n">
         <v>34</v>
@@ -4669,13 +4669,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H35" t="n">
         <v>3.2</v>
       </c>
       <c r="I35" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="J35" t="n">
         <v>1.07</v>
@@ -4711,16 +4711,16 @@
         <v>7</v>
       </c>
       <c r="U35" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V35" t="n">
         <v>9</v>
       </c>
       <c r="W35" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X35" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y35" t="n">
         <v>29</v>
@@ -4753,7 +4753,7 @@
         <v>41</v>
       </c>
       <c r="AI35" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ35" t="n">
         <v>41</v>
@@ -4928,19 +4928,19 @@
         <v>7</v>
       </c>
       <c r="L37" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M37" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="N37" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O37" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="P37" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="Q37" t="n">
         <v>2.25</v>
@@ -5035,10 +5035,10 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="I38" t="n">
         <v>2.45</v>
@@ -5049,10 +5049,10 @@
         <v>1.38</v>
       </c>
       <c r="M38" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="N38" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="O38" t="n">
         <v>1.57</v>
@@ -5064,16 +5064,16 @@
         <v>2.27</v>
       </c>
       <c r="R38" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="S38" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="T38" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="U38" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="V38" t="n">
         <v>10.5</v>
@@ -5082,10 +5082,10 @@
         <v>37</v>
       </c>
       <c r="X38" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y38" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z38" t="n">
         <v>7.6</v>
@@ -5094,10 +5094,10 @@
         <v>5.8</v>
       </c>
       <c r="AB38" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC38" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AD38" t="n">
         <v>700</v>
@@ -5106,13 +5106,13 @@
         <v>7</v>
       </c>
       <c r="AF38" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AG38" t="n">
         <v>9.5</v>
       </c>
       <c r="AH38" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI38" t="n">
         <v>22</v>
@@ -5153,7 +5153,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="H39" t="n">
         <v>3.1</v>
@@ -5179,7 +5179,7 @@
         <v>1.44</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="R39" t="n">
         <v>1.72</v>
@@ -5188,7 +5188,7 @@
         <v>1.88</v>
       </c>
       <c r="T39" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="U39" t="n">
         <v>12.5</v>
@@ -5212,7 +5212,7 @@
         <v>6</v>
       </c>
       <c r="AB39" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC39" t="n">
         <v>65</v>
@@ -5230,7 +5230,7 @@
         <v>10</v>
       </c>
       <c r="AH39" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AI39" t="n">
         <v>23</v>
@@ -5271,21 +5271,21 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="H40" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="I40" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="M40" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="N40" t="n">
         <v>1.7</v>
@@ -5321,7 +5321,7 @@
         <v>11.75</v>
       </c>
       <c r="Y40" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z40" t="n">
         <v>11.5</v>
@@ -5336,10 +5336,10 @@
         <v>100</v>
       </c>
       <c r="AD40" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AE40" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AF40" t="n">
         <v>45</v>
@@ -5348,7 +5348,7 @@
         <v>22</v>
       </c>
       <c r="AH40" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AI40" t="n">
         <v>80</v>
@@ -5625,13 +5625,13 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="H43" t="n">
         <v>2.87</v>
       </c>
       <c r="I43" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -5660,13 +5660,13 @@
         <v>1.72</v>
       </c>
       <c r="T43" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="U43" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="V43" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="W43" t="n">
         <v>28</v>
@@ -5681,7 +5681,7 @@
         <v>6.8</v>
       </c>
       <c r="AA43" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AB43" t="n">
         <v>15.5</v>
@@ -5693,7 +5693,7 @@
         <v>900</v>
       </c>
       <c r="AE43" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AF43" t="n">
         <v>14</v>
@@ -5743,13 +5743,13 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="H44" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="I44" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -5766,40 +5766,40 @@
         <v>1.52</v>
       </c>
       <c r="P44" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="R44" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="S44" t="n">
         <v>1.8</v>
       </c>
       <c r="T44" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="U44" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="V44" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="W44" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X44" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Y44" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Z44" t="n">
         <v>6.7</v>
       </c>
       <c r="AA44" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AB44" t="n">
         <v>14</v>
@@ -5811,10 +5811,10 @@
         <v>700</v>
       </c>
       <c r="AE44" t="n">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="AF44" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AG44" t="n">
         <v>10</v>
@@ -5823,10 +5823,10 @@
         <v>35</v>
       </c>
       <c r="AI44" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ44" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45">
@@ -5876,10 +5876,10 @@
         <v>10</v>
       </c>
       <c r="L45" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M45" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N45" t="n">
         <v>2.05</v>
@@ -5992,19 +5992,19 @@
         <v>3</v>
       </c>
       <c r="J46" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K46" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L46" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M46" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N46" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O46" t="n">
         <v>2</v>
@@ -6105,13 +6105,13 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H47" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I47" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J47" t="n">
         <v>1.03</v>
@@ -6120,10 +6120,10 @@
         <v>17</v>
       </c>
       <c r="L47" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="M47" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N47" t="n">
         <v>1.53</v>
@@ -6138,16 +6138,16 @@
         <v>3.5</v>
       </c>
       <c r="R47" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S47" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="T47" t="n">
         <v>12</v>
       </c>
       <c r="U47" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V47" t="n">
         <v>9.5</v>
@@ -6156,13 +6156,13 @@
         <v>23</v>
       </c>
       <c r="X47" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y47" t="n">
         <v>21</v>
       </c>
       <c r="Z47" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA47" t="n">
         <v>7.5</v>
@@ -6463,13 +6463,13 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="H50" t="n">
-        <v>2.92</v>
+        <v>2.85</v>
       </c>
       <c r="I50" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -6480,10 +6480,10 @@
         <v>3.1</v>
       </c>
       <c r="N50" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="O50" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="P50" t="n">
         <v>1.44</v>
@@ -6498,7 +6498,7 @@
         <v>2.1</v>
       </c>
       <c r="T50" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="U50" t="n">
         <v>12.5</v>
@@ -6513,16 +6513,16 @@
         <v>19</v>
       </c>
       <c r="Y50" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z50" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA50" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="AB50" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AC50" t="n">
         <v>45</v>
@@ -6531,22 +6531,22 @@
         <v>300</v>
       </c>
       <c r="AE50" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AF50" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG50" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AH50" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AI50" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AJ50" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51">
@@ -6581,13 +6581,13 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="H51" t="n">
         <v>3.4</v>
       </c>
       <c r="I51" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="J51" t="n">
         <v>1.07</v>
@@ -6602,10 +6602,10 @@
         <v>3</v>
       </c>
       <c r="N51" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O51" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="P51" t="n">
         <v>1.44</v>
@@ -6614,10 +6614,10 @@
         <v>2.63</v>
       </c>
       <c r="R51" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S51" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="T51" t="n">
         <v>13</v>
@@ -6626,49 +6626,49 @@
         <v>29</v>
       </c>
       <c r="V51" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="W51" t="n">
         <v>67</v>
       </c>
       <c r="X51" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Y51" t="n">
         <v>51</v>
       </c>
       <c r="Z51" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AA51" t="n">
         <v>7</v>
       </c>
       <c r="AB51" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AC51" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD51" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="AE51" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AF51" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG51" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH51" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI51" t="n">
         <v>15</v>
       </c>
       <c r="AJ51" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52">
@@ -6703,7 +6703,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H52" t="n">
         <v>3.2</v>
@@ -6718,22 +6718,22 @@
         <v>7</v>
       </c>
       <c r="L52" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M52" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N52" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O52" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P52" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R52" t="n">
         <v>2.25</v>
@@ -6748,19 +6748,19 @@
         <v>7</v>
       </c>
       <c r="V52" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W52" t="n">
         <v>13</v>
       </c>
       <c r="X52" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y52" t="n">
         <v>41</v>
       </c>
       <c r="Z52" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA52" t="n">
         <v>6.5</v>
@@ -6825,19 +6825,19 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="H53" t="n">
         <v>3.1</v>
       </c>
       <c r="I53" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J53" t="n">
         <v>1.08</v>
       </c>
       <c r="K53" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L53" t="n">
         <v>1.44</v>
@@ -6903,7 +6903,7 @@
         <v>13</v>
       </c>
       <c r="AG53" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH53" t="n">
         <v>34</v>
@@ -6953,7 +6953,7 @@
         <v>4.2</v>
       </c>
       <c r="I54" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="J54" t="n">
         <v>1.05</v>
@@ -6962,16 +6962,16 @@
         <v>11</v>
       </c>
       <c r="L54" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M54" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N54" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O54" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="P54" t="n">
         <v>1.4</v>
@@ -6986,10 +6986,10 @@
         <v>1.57</v>
       </c>
       <c r="T54" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U54" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="V54" t="n">
         <v>9</v>
@@ -7004,10 +7004,10 @@
         <v>34</v>
       </c>
       <c r="Z54" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA54" t="n">
         <v>9</v>
-      </c>
-      <c r="AA54" t="n">
-        <v>8.5</v>
       </c>
       <c r="AB54" t="n">
         <v>23</v>
@@ -7025,16 +7025,16 @@
         <v>41</v>
       </c>
       <c r="AG54" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AH54" t="n">
         <v>126</v>
       </c>
       <c r="AI54" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AJ54" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55">
@@ -7078,22 +7078,22 @@
         <v>2.55</v>
       </c>
       <c r="J55" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K55" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L55" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M55" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N55" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="O55" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="P55" t="n">
         <v>1.4</v>
@@ -7194,7 +7194,7 @@
         <v>3.5</v>
       </c>
       <c r="H56" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I56" t="n">
         <v>2</v>
@@ -7313,13 +7313,13 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H57" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I57" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J57" t="n">
         <v>1.08</v>
@@ -7346,37 +7346,37 @@
         <v>2.5</v>
       </c>
       <c r="R57" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="S57" t="n">
         <v>1.85</v>
       </c>
       <c r="T57" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="U57" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="V57" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="W57" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="X57" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y57" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z57" t="n">
         <v>6.5</v>
       </c>
       <c r="AA57" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AB57" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC57" t="n">
         <v>80</v>
@@ -7385,13 +7385,13 @@
         <v>700</v>
       </c>
       <c r="AE57" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF57" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG57" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AH57" t="n">
         <v>45</v>
@@ -7400,7 +7400,7 @@
         <v>32</v>
       </c>
       <c r="AJ57" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58">
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="H58" t="n">
         <v>2.75</v>
@@ -7450,10 +7450,10 @@
         <v>5.5</v>
       </c>
       <c r="L58" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="M58" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="N58" t="n">
         <v>2.42</v>
@@ -7474,22 +7474,22 @@
         <v>1.75</v>
       </c>
       <c r="T58" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="U58" t="n">
         <v>12.5</v>
       </c>
       <c r="V58" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="W58" t="n">
         <v>32</v>
       </c>
       <c r="X58" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Y58" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Z58" t="n">
         <v>5.5</v>
@@ -7507,22 +7507,22 @@
         <v>900</v>
       </c>
       <c r="AE58" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="AF58" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG58" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AH58" t="n">
         <v>35</v>
       </c>
       <c r="AI58" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AJ58" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59">
@@ -7804,10 +7804,10 @@
         <v>1.6</v>
       </c>
       <c r="H61" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I61" t="n">
-        <v>4.8</v>
+        <v>4.75</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -7832,7 +7832,7 @@
         <v>2.1</v>
       </c>
       <c r="T61" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="U61" t="n">
         <v>9</v>
@@ -7844,16 +7844,16 @@
         <v>13</v>
       </c>
       <c r="X61" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="Y61" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Z61" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AA61" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AB61" t="n">
         <v>13.5</v>
@@ -7865,22 +7865,22 @@
         <v>300</v>
       </c>
       <c r="AE61" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF61" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AG61" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH61" t="n">
         <v>90</v>
       </c>
       <c r="AI61" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ61" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62">
@@ -7915,71 +7915,71 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="H62" t="n">
         <v>4.85</v>
       </c>
       <c r="I62" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="M62" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="N62" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="O62" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="S62" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="T62" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="U62" t="n">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="V62" t="n">
         <v>8.5</v>
       </c>
       <c r="W62" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="X62" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="Y62" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z62" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AA62" t="n">
         <v>10</v>
       </c>
       <c r="AB62" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC62" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AD62" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AE62" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF62" t="n">
         <v>50</v>
@@ -7991,10 +7991,10 @@
         <v>150</v>
       </c>
       <c r="AI62" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ62" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63">
@@ -8032,40 +8032,40 @@
         <v>2.88</v>
       </c>
       <c r="H63" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I63" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J63" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="K63" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L63" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M63" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="N63" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="O63" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="P63" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Q63" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R63" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S63" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T63" t="n">
         <v>7</v>
@@ -8086,7 +8086,7 @@
         <v>41</v>
       </c>
       <c r="Z63" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AA63" t="n">
         <v>6</v>
@@ -8095,7 +8095,7 @@
         <v>19</v>
       </c>
       <c r="AC63" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD63" t="n">
         <v>101</v>
@@ -8395,19 +8395,19 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="H66" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I66" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="J66" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K66" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L66" t="n">
         <v>1.33</v>
@@ -8428,22 +8428,22 @@
         <v>2.63</v>
       </c>
       <c r="R66" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S66" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T66" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U66" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="V66" t="n">
         <v>9</v>
       </c>
       <c r="W66" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X66" t="n">
         <v>17</v>
@@ -8464,13 +8464,13 @@
         <v>51</v>
       </c>
       <c r="AD66" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE66" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF66" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG66" t="n">
         <v>13</v>
@@ -8479,7 +8479,7 @@
         <v>41</v>
       </c>
       <c r="AI66" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ66" t="n">
         <v>41</v>
@@ -8526,10 +8526,10 @@
         <v>3</v>
       </c>
       <c r="J67" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K67" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L67" t="n">
         <v>1.29</v>
@@ -8639,13 +8639,13 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="H68" t="n">
         <v>3.3</v>
       </c>
       <c r="I68" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="J68" t="n">
         <v>1.05</v>
@@ -8654,16 +8654,16 @@
         <v>11</v>
       </c>
       <c r="L68" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M68" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N68" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="O68" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="P68" t="n">
         <v>1.4</v>
@@ -8678,7 +8678,7 @@
         <v>2.05</v>
       </c>
       <c r="T68" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U68" t="n">
         <v>13</v>
@@ -8687,13 +8687,13 @@
         <v>10</v>
       </c>
       <c r="W68" t="n">
+        <v>23</v>
+      </c>
+      <c r="X68" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y68" t="n">
         <v>26</v>
-      </c>
-      <c r="X68" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y68" t="n">
-        <v>29</v>
       </c>
       <c r="Z68" t="n">
         <v>11</v>
@@ -8708,19 +8708,19 @@
         <v>41</v>
       </c>
       <c r="AD68" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE68" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF68" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG68" t="n">
         <v>10</v>
       </c>
       <c r="AH68" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI68" t="n">
         <v>21</v>
@@ -8761,19 +8761,19 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="H69" t="n">
         <v>3.1</v>
       </c>
       <c r="I69" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="J69" t="n">
         <v>1.07</v>
       </c>
       <c r="K69" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L69" t="n">
         <v>1.36</v>
@@ -8800,16 +8800,16 @@
         <v>1.91</v>
       </c>
       <c r="T69" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U69" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V69" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W69" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X69" t="n">
         <v>21</v>
@@ -8833,22 +8833,22 @@
         <v>301</v>
       </c>
       <c r="AE69" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF69" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG69" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH69" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI69" t="n">
         <v>29</v>
       </c>
-      <c r="AI69" t="n">
-        <v>26</v>
-      </c>
       <c r="AJ69" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="70">
@@ -8883,19 +8883,19 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="H70" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I70" t="n">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="J70" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K70" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="L70" t="n">
         <v>1.44</v>
@@ -8904,34 +8904,34 @@
         <v>2.63</v>
       </c>
       <c r="N70" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="O70" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P70" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q70" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R70" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S70" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="T70" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U70" t="n">
+        <v>12</v>
+      </c>
+      <c r="V70" t="n">
         <v>11</v>
       </c>
-      <c r="V70" t="n">
-        <v>10</v>
-      </c>
       <c r="W70" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X70" t="n">
         <v>23</v>
@@ -8940,13 +8940,13 @@
         <v>41</v>
       </c>
       <c r="Z70" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA70" t="n">
         <v>6.5</v>
       </c>
       <c r="AB70" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC70" t="n">
         <v>67</v>
@@ -8958,16 +8958,16 @@
         <v>7</v>
       </c>
       <c r="AF70" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG70" t="n">
         <v>11</v>
       </c>
       <c r="AH70" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI70" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AJ70" t="n">
         <v>41</v>
@@ -9249,13 +9249,13 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H73" t="n">
         <v>3.3</v>
       </c>
       <c r="I73" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="J73" t="n">
         <v>1.07</v>
@@ -9270,13 +9270,13 @@
         <v>2.75</v>
       </c>
       <c r="N73" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O73" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P73" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q73" t="n">
         <v>2.5</v>
@@ -9300,7 +9300,7 @@
         <v>23</v>
       </c>
       <c r="X73" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y73" t="n">
         <v>34</v>
@@ -9321,7 +9321,7 @@
         <v>351</v>
       </c>
       <c r="AE73" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF73" t="n">
         <v>13</v>
@@ -9333,10 +9333,10 @@
         <v>29</v>
       </c>
       <c r="AI73" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ73" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="74">
@@ -9398,7 +9398,7 @@
         <v>1.48</v>
       </c>
       <c r="P74" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="Q74" t="n">
         <v>2.25</v>
@@ -9437,7 +9437,7 @@
         <v>19</v>
       </c>
       <c r="AC74" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD74" t="n">
         <v>1250</v>
@@ -9502,10 +9502,10 @@
         <v>3</v>
       </c>
       <c r="J75" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K75" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L75" t="n">
         <v>1.36</v>
@@ -9514,58 +9514,58 @@
         <v>3</v>
       </c>
       <c r="N75" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O75" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P75" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q75" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R75" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S75" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T75" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U75" t="n">
         <v>10</v>
       </c>
       <c r="V75" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W75" t="n">
         <v>21</v>
       </c>
       <c r="X75" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y75" t="n">
         <v>34</v>
       </c>
       <c r="Z75" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AA75" t="n">
         <v>6.5</v>
       </c>
       <c r="AB75" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC75" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD75" t="n">
         <v>900</v>
       </c>
       <c r="AE75" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF75" t="n">
         <v>15</v>
@@ -9577,7 +9577,7 @@
         <v>34</v>
       </c>
       <c r="AI75" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ75" t="n">
         <v>41</v>
@@ -9615,7 +9615,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="H76" t="n">
         <v>5</v>
@@ -9624,10 +9624,10 @@
         <v>1.33</v>
       </c>
       <c r="J76" t="n">
-        <v>19</v>
+        <v>1.02</v>
       </c>
       <c r="K76" t="n">
-        <v>1.03</v>
+        <v>11</v>
       </c>
       <c r="L76" t="n">
         <v>1.14</v>
@@ -9636,10 +9636,10 @@
         <v>5</v>
       </c>
       <c r="N76" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="O76" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="P76" t="n">
         <v>1.25</v>
@@ -9648,13 +9648,13 @@
         <v>3.75</v>
       </c>
       <c r="R76" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S76" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T76" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="U76" t="n">
         <v>41</v>
@@ -9663,7 +9663,7 @@
         <v>21</v>
       </c>
       <c r="W76" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="X76" t="n">
         <v>41</v>
@@ -9687,10 +9687,10 @@
         <v>151</v>
       </c>
       <c r="AE76" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF76" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG76" t="n">
         <v>9</v>
@@ -9702,7 +9702,7 @@
         <v>11</v>
       </c>
       <c r="AJ76" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77">
@@ -9740,40 +9740,40 @@
         <v>5.25</v>
       </c>
       <c r="H77" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I77" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="J77" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K77" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L77" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="M77" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N77" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="O77" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="P77" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Q77" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="R77" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="S77" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="T77" t="n">
         <v>21</v>
@@ -9794,7 +9794,7 @@
         <v>34</v>
       </c>
       <c r="Z77" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA77" t="n">
         <v>11</v>
@@ -9806,13 +9806,13 @@
         <v>41</v>
       </c>
       <c r="AD77" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE77" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF77" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AG77" t="n">
         <v>9</v>
@@ -9824,7 +9824,7 @@
         <v>11</v>
       </c>
       <c r="AJ77" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78">
@@ -9868,10 +9868,10 @@
         <v>2.05</v>
       </c>
       <c r="J78" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K78" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="L78" t="n">
         <v>1.4</v>
@@ -9880,10 +9880,10 @@
         <v>2.75</v>
       </c>
       <c r="N78" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="O78" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P78" t="n">
         <v>1.53</v>
@@ -9990,10 +9990,10 @@
         <v>3.3</v>
       </c>
       <c r="J79" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K79" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L79" t="n">
         <v>1.29</v>
@@ -10002,10 +10002,10 @@
         <v>3.5</v>
       </c>
       <c r="N79" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O79" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="P79" t="n">
         <v>1.4</v>
@@ -10225,94 +10225,94 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="H81" t="n">
-        <v>3.45</v>
+        <v>3.8</v>
       </c>
       <c r="I81" t="n">
-        <v>1.98</v>
+        <v>1.78</v>
       </c>
       <c r="J81" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K81" t="n">
-        <v>7.9</v>
+        <v>8.75</v>
       </c>
       <c r="L81" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="M81" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="N81" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="O81" t="n">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="P81" t="n">
-        <v>1.37</v>
+        <v>1.31</v>
       </c>
       <c r="Q81" t="n">
-        <v>2.85</v>
+        <v>3.15</v>
       </c>
       <c r="R81" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="S81" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="T81" t="n">
-        <v>11.75</v>
+        <v>14.5</v>
       </c>
       <c r="U81" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="V81" t="n">
-        <v>11.75</v>
+        <v>13</v>
       </c>
       <c r="W81" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="X81" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Y81" t="n">
         <v>32</v>
       </c>
       <c r="Z81" t="n">
-        <v>7.9</v>
+        <v>8.75</v>
       </c>
       <c r="AA81" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="AB81" t="n">
         <v>13</v>
       </c>
       <c r="AC81" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AD81" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AE81" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="AF81" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AG81" t="n">
         <v>8.25</v>
       </c>
       <c r="AH81" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AI81" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AJ81" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82">
@@ -10347,7 +10347,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="H82" t="n">
         <v>3.85</v>
@@ -10359,37 +10359,37 @@
         <v>1.04</v>
       </c>
       <c r="K82" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="L82" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M82" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="N82" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O82" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P82" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q82" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="R82" t="n">
         <v>1.65</v>
       </c>
       <c r="S82" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="T82" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="U82" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="V82" t="n">
         <v>14</v>
@@ -10401,19 +10401,19 @@
         <v>37</v>
       </c>
       <c r="Y82" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Z82" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AA82" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AB82" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC82" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AD82" t="n">
         <v>350</v>
@@ -10428,7 +10428,7 @@
         <v>8</v>
       </c>
       <c r="AH82" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AI82" t="n">
         <v>12.5</v>
@@ -10469,10 +10469,10 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="H83" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I83" t="n">
         <v>1.88</v>
@@ -10481,76 +10481,76 @@
         <v>1.04</v>
       </c>
       <c r="K83" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="L83" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="M83" t="n">
-        <v>4</v>
+        <v>4.15</v>
       </c>
       <c r="N83" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="O83" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="P83" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="Q83" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="R83" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="S83" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="T83" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="U83" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="V83" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="W83" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="X83" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y83" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Z83" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AA83" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AB83" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AC83" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AD83" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AE83" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AF83" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AG83" t="n">
         <v>8.25</v>
       </c>
       <c r="AH83" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI83" t="n">
         <v>13.5</v>
@@ -10594,31 +10594,31 @@
         <v>5</v>
       </c>
       <c r="H84" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I84" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="J84" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K84" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L84" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M84" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N84" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O84" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P84" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q84" t="n">
         <v>3.25</v>
@@ -10633,7 +10633,7 @@
         <v>15</v>
       </c>
       <c r="U84" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="V84" t="n">
         <v>15</v>
@@ -10648,10 +10648,10 @@
         <v>41</v>
       </c>
       <c r="Z84" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA84" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB84" t="n">
         <v>15</v>
@@ -10663,7 +10663,7 @@
         <v>201</v>
       </c>
       <c r="AE84" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF84" t="n">
         <v>8.5</v>
@@ -10672,13 +10672,13 @@
         <v>8.5</v>
       </c>
       <c r="AH84" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI84" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ84" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85">
@@ -10713,48 +10713,48 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="H85" t="n">
-        <v>4.15</v>
+        <v>3.85</v>
       </c>
       <c r="I85" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M85" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="N85" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O85" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="P85" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="Q85" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="R85" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="S85" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="T85" t="n">
         <v>17</v>
       </c>
       <c r="U85" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="V85" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W85" t="n">
         <v>175</v>
@@ -10763,40 +10763,40 @@
         <v>90</v>
       </c>
       <c r="Y85" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="Z85" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="AA85" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>900</v>
+      </c>
+      <c r="AE85" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AF85" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AG85" t="n">
         <v>8.25</v>
       </c>
-      <c r="AB85" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC85" t="n">
-        <v>120</v>
-      </c>
-      <c r="AD85" t="n">
-        <v>101</v>
-      </c>
-      <c r="AE85" t="n">
-        <v>6</v>
-      </c>
-      <c r="AF85" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AG85" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AH85" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="AI85" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AJ85" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86">
@@ -10831,7 +10831,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="H86" t="n">
         <v>3.2</v>
@@ -10866,25 +10866,25 @@
         <v>2</v>
       </c>
       <c r="T86" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="U86" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="V86" t="n">
         <v>8.5</v>
       </c>
       <c r="W86" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X86" t="n">
         <v>16</v>
       </c>
       <c r="Y86" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z86" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AA86" t="n">
         <v>6.3</v>
@@ -10899,10 +10899,10 @@
         <v>400</v>
       </c>
       <c r="AE86" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AF86" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AG86" t="n">
         <v>11.5</v>
@@ -10991,7 +10991,7 @@
         <v>8.25</v>
       </c>
       <c r="U87" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="V87" t="n">
         <v>11.75</v>
@@ -11080,7 +11080,7 @@
         <v>12.5</v>
       </c>
       <c r="J88" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K88" t="n">
         <v>9.75</v>
@@ -11089,43 +11089,43 @@
         <v>1.14</v>
       </c>
       <c r="M88" t="n">
-        <v>5</v>
+        <v>4.85</v>
       </c>
       <c r="N88" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="O88" t="n">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="P88" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="Q88" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="R88" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="S88" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T88" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="U88" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="V88" t="n">
         <v>10.25</v>
       </c>
       <c r="W88" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="X88" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="Y88" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z88" t="n">
         <v>9.75</v>
@@ -11137,7 +11137,7 @@
         <v>32</v>
       </c>
       <c r="AC88" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AD88" t="n">
         <v>1000</v>
@@ -11146,7 +11146,7 @@
         <v>37</v>
       </c>
       <c r="AF88" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AG88" t="n">
         <v>45</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-11.xlsx
@@ -668,13 +668,13 @@
         <v>4</v>
       </c>
       <c r="N2" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="P2" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q2" t="n">
         <v>3.25</v>
@@ -784,16 +784,16 @@
         <v>11</v>
       </c>
       <c r="L3" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M3" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N3" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="O3" t="n">
-        <v>1.99</v>
+        <v>2.03</v>
       </c>
       <c r="P3" t="n">
         <v>1.36</v>
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H4" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J4" t="n">
         <v>1.08</v>
@@ -933,7 +933,7 @@
         <v>6.5</v>
       </c>
       <c r="U4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V4" t="n">
         <v>9.5</v>
@@ -942,25 +942,25 @@
         <v>21</v>
       </c>
       <c r="X4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y4" t="n">
         <v>34</v>
       </c>
       <c r="Z4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA4" t="n">
         <v>6</v>
       </c>
       <c r="AB4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC4" t="n">
         <v>51</v>
       </c>
       <c r="AD4" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AE4" t="n">
         <v>9</v>
@@ -1070,10 +1070,10 @@
         <v>41</v>
       </c>
       <c r="Z5" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB5" t="n">
         <v>21</v>
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="H6" t="n">
         <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J6" t="n">
         <v>1.13</v>
@@ -1150,10 +1150,10 @@
         <v>6</v>
       </c>
       <c r="L6" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="M6" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="N6" t="n">
         <v>2.88</v>
@@ -1162,22 +1162,22 @@
         <v>1.4</v>
       </c>
       <c r="P6" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R6" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="S6" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T6" t="n">
         <v>7.5</v>
       </c>
       <c r="U6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V6" t="n">
         <v>15</v>
@@ -1201,16 +1201,16 @@
         <v>21</v>
       </c>
       <c r="AC6" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AD6" t="n">
         <v>501</v>
       </c>
       <c r="AE6" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG6" t="n">
         <v>10</v>
@@ -1257,34 +1257,34 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H7" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I7" t="n">
         <v>2.05</v>
       </c>
       <c r="J7" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L7" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M7" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N7" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="O7" t="n">
-        <v>2.03</v>
+        <v>1.93</v>
       </c>
       <c r="P7" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q7" t="n">
         <v>3</v>
@@ -1302,7 +1302,7 @@
         <v>17</v>
       </c>
       <c r="V7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W7" t="n">
         <v>34</v>
@@ -1311,13 +1311,13 @@
         <v>26</v>
       </c>
       <c r="Y7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB7" t="n">
         <v>15</v>
@@ -1329,7 +1329,7 @@
         <v>201</v>
       </c>
       <c r="AE7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF7" t="n">
         <v>10</v>
@@ -1341,10 +1341,10 @@
         <v>19</v>
       </c>
       <c r="AI7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
@@ -1379,13 +1379,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="H8" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="I8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="J8" t="n">
         <v>1.03</v>
@@ -1400,13 +1400,13 @@
         <v>4.5</v>
       </c>
       <c r="N8" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="O8" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="P8" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q8" t="n">
         <v>3.5</v>
@@ -1418,7 +1418,7 @@
         <v>1.73</v>
       </c>
       <c r="T8" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U8" t="n">
         <v>6.5</v>
@@ -1451,13 +1451,13 @@
         <v>351</v>
       </c>
       <c r="AE8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF8" t="n">
         <v>41</v>
       </c>
       <c r="AG8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH8" t="n">
         <v>101</v>
@@ -1501,19 +1501,19 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="H9" t="n">
         <v>3.7</v>
       </c>
       <c r="I9" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L9" t="n">
         <v>1.2</v>
@@ -1522,40 +1522,40 @@
         <v>4.33</v>
       </c>
       <c r="N9" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O9" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S9" t="n">
         <v>2.1</v>
       </c>
-      <c r="P9" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2</v>
-      </c>
       <c r="T9" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U9" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V9" t="n">
         <v>8.5</v>
       </c>
       <c r="W9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X9" t="n">
         <v>12</v>
       </c>
       <c r="Y9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z9" t="n">
         <v>13</v>
@@ -1564,13 +1564,13 @@
         <v>7.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC9" t="n">
         <v>41</v>
       </c>
       <c r="AD9" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE9" t="n">
         <v>17</v>
@@ -1623,13 +1623,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="H10" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I10" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="J10" t="n">
         <v>1.04</v>
@@ -1650,28 +1650,28 @@
         <v>2.15</v>
       </c>
       <c r="P10" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q10" t="n">
         <v>3.25</v>
       </c>
       <c r="R10" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S10" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U10" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V10" t="n">
         <v>8.5</v>
       </c>
       <c r="W10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X10" t="n">
         <v>13</v>
@@ -1698,13 +1698,13 @@
         <v>15</v>
       </c>
       <c r="AF10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG10" t="n">
         <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI10" t="n">
         <v>34</v>
@@ -1879,7 +1879,7 @@
         <v>1.08</v>
       </c>
       <c r="K12" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L12" t="n">
         <v>1.4</v>
@@ -1989,88 +1989,88 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.3</v>
+        <v>2.12</v>
       </c>
       <c r="H13" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="I13" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="J13" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="K13" t="n">
-        <v>5.7</v>
+        <v>6.1</v>
       </c>
       <c r="L13" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O13" t="n">
         <v>1.53</v>
       </c>
-      <c r="M13" t="n">
+      <c r="P13" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q13" t="n">
         <v>2.4</v>
       </c>
-      <c r="N13" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.32</v>
-      </c>
       <c r="R13" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="S13" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="T13" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="U13" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="V13" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="W13" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="X13" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Y13" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Z13" t="n">
-        <v>5.7</v>
+        <v>6.1</v>
       </c>
       <c r="AA13" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC13" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AD13" t="n">
         <v>600</v>
       </c>
       <c r="AE13" t="n">
-        <v>7.3</v>
+        <v>7.9</v>
       </c>
       <c r="AF13" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH13" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AI13" t="n">
         <v>40</v>
@@ -2602,28 +2602,28 @@
         <v>1.95</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I18" t="n">
         <v>4.75</v>
       </c>
       <c r="J18" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="K18" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="L18" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="M18" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="N18" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="O18" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P18" t="n">
         <v>1.62</v>
@@ -2656,7 +2656,7 @@
         <v>41</v>
       </c>
       <c r="Z18" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AA18" t="n">
         <v>6</v>
@@ -2857,7 +2857,7 @@
         <v>1.35</v>
       </c>
       <c r="M20" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="N20" t="n">
         <v>2.02</v>
@@ -2866,7 +2866,7 @@
         <v>1.62</v>
       </c>
       <c r="P20" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Q20" t="n">
         <v>2.4</v>
@@ -2878,16 +2878,16 @@
         <v>1.65</v>
       </c>
       <c r="T20" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="U20" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="V20" t="n">
         <v>8.5</v>
       </c>
       <c r="W20" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="X20" t="n">
         <v>14.5</v>
@@ -2896,7 +2896,7 @@
         <v>35</v>
       </c>
       <c r="Z20" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AA20" t="n">
         <v>7</v>
@@ -2911,10 +2911,10 @@
         <v>101</v>
       </c>
       <c r="AE20" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AF20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG20" t="n">
         <v>16.5</v>
@@ -2923,10 +2923,10 @@
         <v>90</v>
       </c>
       <c r="AI20" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ20" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21">
@@ -2961,19 +2961,19 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H21" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I21" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J21" t="n">
         <v>1.06</v>
       </c>
       <c r="K21" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L21" t="n">
         <v>1.3</v>
@@ -3012,13 +3012,13 @@
         <v>34</v>
       </c>
       <c r="X21" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y21" t="n">
         <v>34</v>
       </c>
       <c r="Z21" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA21" t="n">
         <v>6.5</v>
@@ -3042,10 +3042,10 @@
         <v>9</v>
       </c>
       <c r="AH21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI21" t="n">
         <v>19</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>17</v>
       </c>
       <c r="AJ21" t="n">
         <v>29</v>
@@ -3205,13 +3205,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="H23" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I23" t="n">
         <v>3.25</v>
-      </c>
-      <c r="I23" t="n">
-        <v>3</v>
       </c>
       <c r="J23" t="n">
         <v>1.05</v>
@@ -3220,16 +3220,16 @@
         <v>11</v>
       </c>
       <c r="L23" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M23" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N23" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="O23" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="P23" t="n">
         <v>1.36</v>
@@ -3244,16 +3244,16 @@
         <v>2.1</v>
       </c>
       <c r="T23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U23" t="n">
+        <v>11</v>
+      </c>
+      <c r="V23" t="n">
         <v>9</v>
       </c>
-      <c r="U23" t="n">
-        <v>12</v>
-      </c>
-      <c r="V23" t="n">
-        <v>9.5</v>
-      </c>
       <c r="W23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X23" t="n">
         <v>17</v>
@@ -3274,7 +3274,7 @@
         <v>41</v>
       </c>
       <c r="AD23" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE23" t="n">
         <v>11</v>
@@ -3283,16 +3283,16 @@
         <v>17</v>
       </c>
       <c r="AG23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH23" t="n">
         <v>34</v>
       </c>
       <c r="AI23" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ23" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24">
@@ -3327,31 +3327,31 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="H24" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I24" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J24" t="n">
         <v>1.06</v>
       </c>
       <c r="K24" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L24" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M24" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N24" t="n">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="O24" t="n">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="P24" t="n">
         <v>1.44</v>
@@ -3366,7 +3366,7 @@
         <v>1.73</v>
       </c>
       <c r="T24" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U24" t="n">
         <v>7.5</v>
@@ -3375,7 +3375,7 @@
         <v>8.5</v>
       </c>
       <c r="W24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X24" t="n">
         <v>15</v>
@@ -3384,7 +3384,7 @@
         <v>29</v>
       </c>
       <c r="Z24" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AA24" t="n">
         <v>7</v>
@@ -3402,7 +3402,7 @@
         <v>12</v>
       </c>
       <c r="AF24" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG24" t="n">
         <v>17</v>
@@ -3414,7 +3414,7 @@
         <v>41</v>
       </c>
       <c r="AJ24" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25">
@@ -3482,10 +3482,10 @@
         <v>2.63</v>
       </c>
       <c r="R25" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S25" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T25" t="n">
         <v>6.5</v>
@@ -3494,40 +3494,40 @@
         <v>8</v>
       </c>
       <c r="V25" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W25" t="n">
         <v>15</v>
       </c>
       <c r="X25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y25" t="n">
         <v>29</v>
       </c>
       <c r="Z25" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA25" t="n">
         <v>7</v>
       </c>
       <c r="AB25" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC25" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD25" t="n">
         <v>351</v>
       </c>
       <c r="AE25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF25" t="n">
         <v>21</v>
       </c>
       <c r="AG25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH25" t="n">
         <v>41</v>
@@ -3571,37 +3571,37 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H26" t="n">
-        <v>2.62</v>
+        <v>2.67</v>
       </c>
       <c r="I26" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="J26" t="n">
         <v>1.14</v>
       </c>
       <c r="K26" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="L26" t="n">
         <v>1.55</v>
       </c>
       <c r="M26" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="N26" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="O26" t="n">
         <v>1.44</v>
       </c>
       <c r="P26" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="R26" t="n">
         <v>2.1</v>
@@ -3610,28 +3610,28 @@
         <v>1.65</v>
       </c>
       <c r="T26" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="U26" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="V26" t="n">
         <v>9</v>
       </c>
       <c r="W26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y26" t="n">
         <v>40</v>
       </c>
       <c r="Z26" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AA26" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AB26" t="n">
         <v>17</v>
@@ -3643,7 +3643,7 @@
         <v>101</v>
       </c>
       <c r="AE26" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AF26" t="n">
         <v>23</v>
@@ -3693,19 +3693,19 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.87</v>
+        <v>2.42</v>
       </c>
       <c r="H27" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="I27" t="n">
-        <v>3</v>
+        <v>3.55</v>
       </c>
       <c r="J27" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="K27" t="n">
-        <v>4.55</v>
+        <v>4.7</v>
       </c>
       <c r="L27" t="n">
         <v>1.62</v>
@@ -3714,10 +3714,10 @@
         <v>2.18</v>
       </c>
       <c r="N27" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="O27" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P27" t="n">
         <v>1.62</v>
@@ -3726,61 +3726,61 @@
         <v>2.15</v>
       </c>
       <c r="R27" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S27" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="T27" t="n">
-        <v>6.3</v>
+        <v>5.6</v>
       </c>
       <c r="U27" t="n">
-        <v>13</v>
+        <v>10.25</v>
       </c>
       <c r="V27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W27" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="X27" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="Y27" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Z27" t="n">
-        <v>4.55</v>
+        <v>4.7</v>
       </c>
       <c r="AA27" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="AB27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AC27" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AD27" t="n">
         <v>101</v>
       </c>
       <c r="AE27" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="AF27" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AG27" t="n">
-        <v>11.25</v>
+        <v>13</v>
       </c>
       <c r="AH27" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI27" t="n">
         <v>45</v>
       </c>
-      <c r="AI27" t="n">
-        <v>35</v>
-      </c>
       <c r="AJ27" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28">
@@ -3815,13 +3815,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="H28" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I28" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="J28" t="n">
         <v>1.06</v>
@@ -3836,28 +3836,28 @@
         <v>3.4</v>
       </c>
       <c r="N28" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="O28" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P28" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R28" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S28" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T28" t="n">
         <v>6</v>
       </c>
       <c r="U28" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="V28" t="n">
         <v>8.5</v>
@@ -3866,7 +3866,7 @@
         <v>11</v>
       </c>
       <c r="X28" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y28" t="n">
         <v>29</v>
@@ -3887,19 +3887,19 @@
         <v>451</v>
       </c>
       <c r="AE28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF28" t="n">
         <v>29</v>
       </c>
       <c r="AG28" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH28" t="n">
         <v>67</v>
       </c>
       <c r="AI28" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ28" t="n">
         <v>51</v>
@@ -3940,43 +3940,43 @@
         <v>1.85</v>
       </c>
       <c r="H29" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I29" t="n">
         <v>3.8</v>
       </c>
       <c r="J29" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K29" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L29" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M29" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N29" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="O29" t="n">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="P29" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R29" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S29" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T29" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U29" t="n">
         <v>9</v>
@@ -3991,10 +3991,10 @@
         <v>15</v>
       </c>
       <c r="Y29" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA29" t="n">
         <v>7</v>
@@ -4006,10 +4006,10 @@
         <v>51</v>
       </c>
       <c r="AD29" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF29" t="n">
         <v>21</v>
@@ -4181,13 +4181,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H31" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I31" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J31" t="n">
         <v>1.03</v>
@@ -4196,16 +4196,16 @@
         <v>15</v>
       </c>
       <c r="L31" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M31" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N31" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="O31" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="P31" t="n">
         <v>1.3</v>
@@ -4223,10 +4223,10 @@
         <v>13</v>
       </c>
       <c r="U31" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W31" t="n">
         <v>34</v>
@@ -4244,16 +4244,16 @@
         <v>7</v>
       </c>
       <c r="AB31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC31" t="n">
         <v>34</v>
       </c>
       <c r="AD31" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AE31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF31" t="n">
         <v>12</v>
@@ -4303,31 +4303,31 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="H32" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I32" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="J32" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K32" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L32" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M32" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N32" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O32" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P32" t="n">
         <v>1.4</v>
@@ -4336,16 +4336,16 @@
         <v>2.75</v>
       </c>
       <c r="R32" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S32" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T32" t="n">
         <v>11</v>
       </c>
       <c r="U32" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="V32" t="n">
         <v>13</v>
@@ -4354,7 +4354,7 @@
         <v>41</v>
       </c>
       <c r="X32" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y32" t="n">
         <v>41</v>
@@ -4363,7 +4363,7 @@
         <v>10</v>
       </c>
       <c r="AA32" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB32" t="n">
         <v>15</v>
@@ -4381,16 +4381,16 @@
         <v>9</v>
       </c>
       <c r="AG32" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI32" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ32" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33">
@@ -4428,7 +4428,7 @@
         <v>7</v>
       </c>
       <c r="H33" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I33" t="n">
         <v>1.4</v>
@@ -4464,7 +4464,7 @@
         <v>1.8</v>
       </c>
       <c r="T33" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="U33" t="n">
         <v>41</v>
@@ -4485,7 +4485,7 @@
         <v>13</v>
       </c>
       <c r="AA33" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB33" t="n">
         <v>21</v>
@@ -4494,7 +4494,7 @@
         <v>51</v>
       </c>
       <c r="AD33" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE33" t="n">
         <v>7.5</v>
@@ -4669,13 +4669,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H35" t="n">
         <v>3.2</v>
       </c>
       <c r="I35" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="J35" t="n">
         <v>1.07</v>
@@ -4711,16 +4711,16 @@
         <v>7</v>
       </c>
       <c r="U35" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V35" t="n">
         <v>9</v>
       </c>
       <c r="W35" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X35" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y35" t="n">
         <v>29</v>
@@ -4753,7 +4753,7 @@
         <v>41</v>
       </c>
       <c r="AI35" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ35" t="n">
         <v>41</v>
@@ -4791,13 +4791,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H36" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I36" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J36" t="n">
         <v>1.04</v>
@@ -4806,10 +4806,10 @@
         <v>13</v>
       </c>
       <c r="L36" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M36" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N36" t="n">
         <v>1.7</v>
@@ -4851,7 +4851,7 @@
         <v>13</v>
       </c>
       <c r="AA36" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB36" t="n">
         <v>13</v>
@@ -4913,13 +4913,13 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H37" t="n">
         <v>3.3</v>
       </c>
       <c r="I37" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J37" t="n">
         <v>1.1</v>
@@ -4928,16 +4928,16 @@
         <v>7</v>
       </c>
       <c r="L37" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M37" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N37" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O37" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P37" t="n">
         <v>1.57</v>
@@ -4955,7 +4955,7 @@
         <v>5.5</v>
       </c>
       <c r="U37" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V37" t="n">
         <v>9.5</v>
@@ -4970,7 +4970,7 @@
         <v>41</v>
       </c>
       <c r="Z37" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA37" t="n">
         <v>6.5</v>
@@ -4985,13 +4985,13 @@
         <v>101</v>
       </c>
       <c r="AE37" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF37" t="n">
         <v>21</v>
       </c>
       <c r="AG37" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH37" t="n">
         <v>51</v>
@@ -5153,7 +5153,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="H39" t="n">
         <v>3.1</v>
@@ -5167,7 +5167,7 @@
         <v>1.33</v>
       </c>
       <c r="M39" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="N39" t="n">
         <v>1.98</v>
@@ -5179,7 +5179,7 @@
         <v>1.44</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="R39" t="n">
         <v>1.72</v>
@@ -5188,19 +5188,19 @@
         <v>1.88</v>
       </c>
       <c r="T39" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="U39" t="n">
         <v>12.5</v>
       </c>
       <c r="V39" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="W39" t="n">
         <v>28</v>
       </c>
       <c r="X39" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y39" t="n">
         <v>32</v>
@@ -5212,7 +5212,7 @@
         <v>6</v>
       </c>
       <c r="AB39" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC39" t="n">
         <v>65</v>
@@ -5221,19 +5221,19 @@
         <v>500</v>
       </c>
       <c r="AE39" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AF39" t="n">
         <v>13.5</v>
       </c>
       <c r="AG39" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AH39" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AI39" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ39" t="n">
         <v>32</v>
@@ -5354,7 +5354,7 @@
         <v>80</v>
       </c>
       <c r="AJ40" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41">
@@ -5660,22 +5660,22 @@
         <v>1.72</v>
       </c>
       <c r="T43" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="U43" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="V43" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="W43" t="n">
         <v>28</v>
       </c>
       <c r="X43" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y43" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z43" t="n">
         <v>6.8</v>
@@ -5693,22 +5693,22 @@
         <v>900</v>
       </c>
       <c r="AE43" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AF43" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG43" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AH43" t="n">
         <v>37</v>
       </c>
       <c r="AI43" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AJ43" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44">
@@ -5743,13 +5743,13 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="H44" t="n">
-        <v>2.72</v>
+        <v>2.65</v>
       </c>
       <c r="I44" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -5757,52 +5757,52 @@
         <v>1.42</v>
       </c>
       <c r="M44" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="N44" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O44" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="P44" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="R44" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="S44" t="n">
         <v>1.8</v>
       </c>
       <c r="T44" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="U44" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="V44" t="n">
         <v>10.25</v>
       </c>
       <c r="W44" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X44" t="n">
         <v>27</v>
       </c>
       <c r="Y44" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z44" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="AA44" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="AB44" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC44" t="n">
         <v>75</v>
@@ -5811,7 +5811,7 @@
         <v>700</v>
       </c>
       <c r="AE44" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AF44" t="n">
         <v>13.5</v>
@@ -5820,10 +5820,10 @@
         <v>10</v>
       </c>
       <c r="AH44" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AI44" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ44" t="n">
         <v>37</v>
@@ -5861,31 +5861,31 @@
         </is>
       </c>
       <c r="G45" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H45" t="n">
         <v>3.2</v>
       </c>
-      <c r="H45" t="n">
-        <v>3.25</v>
-      </c>
       <c r="I45" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J45" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K45" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L45" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="M45" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N45" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O45" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="P45" t="n">
         <v>1.44</v>
@@ -5894,16 +5894,16 @@
         <v>2.63</v>
       </c>
       <c r="R45" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S45" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T45" t="n">
         <v>9.5</v>
       </c>
       <c r="U45" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V45" t="n">
         <v>12</v>
@@ -5918,10 +5918,10 @@
         <v>34</v>
       </c>
       <c r="Z45" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA45" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB45" t="n">
         <v>15</v>
@@ -5930,7 +5930,7 @@
         <v>51</v>
       </c>
       <c r="AD45" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE45" t="n">
         <v>7.5</v>
@@ -5939,7 +5939,7 @@
         <v>10</v>
       </c>
       <c r="AG45" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH45" t="n">
         <v>21</v>
@@ -5983,31 +5983,31 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="H46" t="n">
         <v>3.2</v>
       </c>
       <c r="I46" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="J46" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K46" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L46" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M46" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N46" t="n">
+        <v>2</v>
+      </c>
+      <c r="O46" t="n">
         <v>1.85</v>
-      </c>
-      <c r="O46" t="n">
-        <v>2</v>
       </c>
       <c r="P46" t="n">
         <v>1.4</v>
@@ -6016,22 +6016,22 @@
         <v>2.75</v>
       </c>
       <c r="R46" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S46" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T46" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U46" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V46" t="n">
         <v>9.5</v>
       </c>
       <c r="W46" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X46" t="n">
         <v>19</v>
@@ -6040,37 +6040,37 @@
         <v>26</v>
       </c>
       <c r="Z46" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA46" t="n">
         <v>6</v>
       </c>
       <c r="AB46" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC46" t="n">
         <v>41</v>
       </c>
       <c r="AD46" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE46" t="n">
         <v>11</v>
       </c>
       <c r="AF46" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG46" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH46" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI46" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ46" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47">
@@ -6581,31 +6581,31 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="H51" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I51" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="J51" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K51" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L51" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M51" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N51" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="O51" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="P51" t="n">
         <v>1.44</v>
@@ -6620,16 +6620,16 @@
         <v>1.67</v>
       </c>
       <c r="T51" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="U51" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="V51" t="n">
         <v>21</v>
       </c>
       <c r="W51" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="X51" t="n">
         <v>51</v>
@@ -6647,7 +6647,7 @@
         <v>21</v>
       </c>
       <c r="AC51" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD51" t="n">
         <v>501</v>
@@ -6659,7 +6659,7 @@
         <v>6.5</v>
       </c>
       <c r="AG51" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH51" t="n">
         <v>11</v>
@@ -6703,13 +6703,13 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H52" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I52" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J52" t="n">
         <v>1.1</v>
@@ -6775,7 +6775,7 @@
         <v>501</v>
       </c>
       <c r="AE52" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF52" t="n">
         <v>23</v>
@@ -6825,19 +6825,19 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="H53" t="n">
         <v>3.1</v>
       </c>
       <c r="I53" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="J53" t="n">
         <v>1.08</v>
       </c>
       <c r="K53" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L53" t="n">
         <v>1.44</v>
@@ -6867,19 +6867,19 @@
         <v>6.5</v>
       </c>
       <c r="U53" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V53" t="n">
         <v>10</v>
       </c>
       <c r="W53" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X53" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y53" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z53" t="n">
         <v>7.5</v>
@@ -6897,10 +6897,10 @@
         <v>451</v>
       </c>
       <c r="AE53" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF53" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG53" t="n">
         <v>12</v>
@@ -6947,94 +6947,94 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="H54" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="I54" t="n">
         <v>8.5</v>
       </c>
       <c r="J54" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K54" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L54" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M54" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N54" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O54" t="n">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="P54" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R54" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="S54" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="T54" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U54" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="V54" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W54" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X54" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z54" t="n">
         <v>8</v>
       </c>
-      <c r="X54" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y54" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z54" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AA54" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB54" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC54" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AD54" t="n">
         <v>501</v>
       </c>
       <c r="AE54" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF54" t="n">
         <v>41</v>
       </c>
       <c r="AG54" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH54" t="n">
         <v>126</v>
       </c>
       <c r="AI54" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AJ54" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55">
@@ -7090,10 +7090,10 @@
         <v>3.5</v>
       </c>
       <c r="N55" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="O55" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="P55" t="n">
         <v>1.4</v>
@@ -7102,10 +7102,10 @@
         <v>2.75</v>
       </c>
       <c r="R55" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S55" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T55" t="n">
         <v>10</v>
@@ -7120,7 +7120,7 @@
         <v>29</v>
       </c>
       <c r="X55" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y55" t="n">
         <v>29</v>
@@ -7138,10 +7138,10 @@
         <v>41</v>
       </c>
       <c r="AD55" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE55" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF55" t="n">
         <v>13</v>
@@ -7153,10 +7153,10 @@
         <v>23</v>
       </c>
       <c r="AI55" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ55" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56">
@@ -7191,19 +7191,19 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H56" t="n">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="I56" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="J56" t="n">
         <v>1.1</v>
       </c>
       <c r="K56" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="L56" t="n">
         <v>1.45</v>
@@ -7218,16 +7218,16 @@
         <v>1.53</v>
       </c>
       <c r="P56" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="R56" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S56" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="T56" t="n">
         <v>8.25</v>
@@ -7236,49 +7236,49 @@
         <v>17</v>
       </c>
       <c r="V56" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="W56" t="n">
         <v>50</v>
       </c>
       <c r="X56" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y56" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Z56" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AA56" t="n">
-        <v>6.3</v>
+        <v>5.9</v>
       </c>
       <c r="AB56" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC56" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AD56" t="n">
         <v>101</v>
       </c>
       <c r="AE56" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AF56" t="n">
-        <v>8.25</v>
+        <v>9.25</v>
       </c>
       <c r="AG56" t="n">
         <v>9.25</v>
       </c>
       <c r="AH56" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AI56" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AJ56" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57">
@@ -7349,13 +7349,13 @@
         <v>1.87</v>
       </c>
       <c r="S57" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="T57" t="n">
         <v>6.8</v>
       </c>
       <c r="U57" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="V57" t="n">
         <v>8.75</v>
@@ -7385,10 +7385,10 @@
         <v>700</v>
       </c>
       <c r="AE57" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AF57" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AG57" t="n">
         <v>11.75</v>
@@ -7435,25 +7435,25 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="H58" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="I58" t="n">
         <v>2.77</v>
       </c>
       <c r="J58" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="K58" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="L58" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="M58" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="N58" t="n">
         <v>2.42</v>
@@ -7465,22 +7465,22 @@
         <v>1.6</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R58" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S58" t="n">
         <v>1.75</v>
       </c>
       <c r="T58" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="U58" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="V58" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="W58" t="n">
         <v>32</v>
@@ -7492,10 +7492,10 @@
         <v>40</v>
       </c>
       <c r="Z58" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AA58" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AB58" t="n">
         <v>15.5</v>
@@ -7519,7 +7519,7 @@
         <v>35</v>
       </c>
       <c r="AI58" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AJ58" t="n">
         <v>45</v>
@@ -7700,22 +7700,22 @@
         <v>4.5</v>
       </c>
       <c r="N60" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O60" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="P60" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q60" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R60" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S60" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T60" t="n">
         <v>12</v>
@@ -7739,7 +7739,7 @@
         <v>15</v>
       </c>
       <c r="AA60" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB60" t="n">
         <v>11</v>
@@ -7748,7 +7748,7 @@
         <v>34</v>
       </c>
       <c r="AD60" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AE60" t="n">
         <v>12</v>
@@ -7801,13 +7801,13 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H61" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="I61" t="n">
-        <v>4.75</v>
+        <v>4.6</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -7829,10 +7829,10 @@
         <v>1.57</v>
       </c>
       <c r="S61" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="T61" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="U61" t="n">
         <v>9</v>
@@ -7841,7 +7841,7 @@
         <v>8</v>
       </c>
       <c r="W61" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="X61" t="n">
         <v>11.75</v>
@@ -7853,7 +7853,7 @@
         <v>14.5</v>
       </c>
       <c r="AA61" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AB61" t="n">
         <v>13.5</v>
@@ -7865,16 +7865,16 @@
         <v>300</v>
       </c>
       <c r="AE61" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AF61" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AG61" t="n">
         <v>15</v>
       </c>
       <c r="AH61" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI61" t="n">
         <v>40</v>
@@ -7915,86 +7915,86 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="H62" t="n">
-        <v>4.85</v>
+        <v>4.55</v>
       </c>
       <c r="I62" t="n">
-        <v>6.9</v>
+        <v>6</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="M62" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="N62" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="O62" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S62" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="T62" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="U62" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="V62" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="W62" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="X62" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="Y62" t="n">
         <v>21</v>
       </c>
       <c r="Z62" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AA62" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB62" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AC62" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AD62" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AE62" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF62" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>120</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ62" t="n">
         <v>50</v>
-      </c>
-      <c r="AG62" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH62" t="n">
-        <v>150</v>
-      </c>
-      <c r="AI62" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ62" t="n">
-        <v>55</v>
       </c>
     </row>
     <row r="63">
@@ -8029,19 +8029,19 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="H63" t="n">
         <v>2.88</v>
       </c>
       <c r="I63" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="J63" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K63" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L63" t="n">
         <v>1.53</v>
@@ -8068,19 +8068,19 @@
         <v>1.62</v>
       </c>
       <c r="T63" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U63" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="V63" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W63" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="X63" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y63" t="n">
         <v>41</v>
@@ -8104,16 +8104,16 @@
         <v>6.5</v>
       </c>
       <c r="AF63" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG63" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH63" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI63" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ63" t="n">
         <v>41</v>
@@ -8395,25 +8395,25 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H66" t="n">
         <v>3.5</v>
       </c>
       <c r="I66" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J66" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K66" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L66" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M66" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N66" t="n">
         <v>2.1</v>
@@ -8437,7 +8437,7 @@
         <v>6.5</v>
       </c>
       <c r="U66" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V66" t="n">
         <v>9</v>
@@ -8467,7 +8467,7 @@
         <v>351</v>
       </c>
       <c r="AE66" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF66" t="n">
         <v>19</v>
@@ -8639,13 +8639,13 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H68" t="n">
         <v>3.3</v>
       </c>
       <c r="I68" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J68" t="n">
         <v>1.05</v>
@@ -8654,16 +8654,16 @@
         <v>11</v>
       </c>
       <c r="L68" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M68" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N68" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="O68" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="P68" t="n">
         <v>1.4</v>
@@ -8672,10 +8672,10 @@
         <v>2.75</v>
       </c>
       <c r="R68" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S68" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T68" t="n">
         <v>9</v>
@@ -8684,7 +8684,7 @@
         <v>13</v>
       </c>
       <c r="V68" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W68" t="n">
         <v>23</v>
@@ -8717,7 +8717,7 @@
         <v>15</v>
       </c>
       <c r="AG68" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH68" t="n">
         <v>29</v>
@@ -8761,31 +8761,31 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H69" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I69" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J69" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K69" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L69" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M69" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N69" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="O69" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="P69" t="n">
         <v>1.44</v>
@@ -8794,31 +8794,31 @@
         <v>2.63</v>
       </c>
       <c r="R69" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="S69" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T69" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U69" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V69" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W69" t="n">
         <v>21</v>
       </c>
       <c r="X69" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y69" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z69" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AA69" t="n">
         <v>6</v>
@@ -8830,13 +8830,13 @@
         <v>51</v>
       </c>
       <c r="AD69" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE69" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF69" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG69" t="n">
         <v>12</v>
@@ -8845,10 +8845,10 @@
         <v>34</v>
       </c>
       <c r="AI69" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ69" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70">
@@ -9005,13 +9005,13 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="H71" t="n">
         <v>3.2</v>
       </c>
       <c r="I71" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="J71" t="n">
         <v>1.08</v>
@@ -9047,19 +9047,19 @@
         <v>9.5</v>
       </c>
       <c r="U71" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="V71" t="n">
         <v>15</v>
       </c>
       <c r="W71" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="X71" t="n">
         <v>41</v>
       </c>
       <c r="Y71" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z71" t="n">
         <v>7</v>
@@ -9068,7 +9068,7 @@
         <v>6</v>
       </c>
       <c r="AB71" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC71" t="n">
         <v>67</v>
@@ -9080,7 +9080,7 @@
         <v>6</v>
       </c>
       <c r="AF71" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG71" t="n">
         <v>9</v>
@@ -9127,19 +9127,19 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="H72" t="n">
         <v>3</v>
       </c>
       <c r="I72" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J72" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K72" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L72" t="n">
         <v>1.36</v>
@@ -9148,10 +9148,10 @@
         <v>3</v>
       </c>
       <c r="N72" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O72" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P72" t="n">
         <v>1.5</v>
@@ -9160,10 +9160,10 @@
         <v>2.5</v>
       </c>
       <c r="R72" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S72" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T72" t="n">
         <v>8</v>
@@ -9175,16 +9175,16 @@
         <v>11</v>
       </c>
       <c r="W72" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X72" t="n">
         <v>23</v>
       </c>
       <c r="Y72" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z72" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA72" t="n">
         <v>6</v>
@@ -9196,10 +9196,10 @@
         <v>51</v>
       </c>
       <c r="AD72" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE72" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF72" t="n">
         <v>12</v>
@@ -9380,10 +9380,10 @@
         <v>3.9</v>
       </c>
       <c r="J74" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K74" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L74" t="n">
         <v>1.5</v>
@@ -9493,37 +9493,37 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="H75" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="I75" t="n">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="J75" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K75" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L75" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M75" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N75" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="O75" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P75" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q75" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R75" t="n">
         <v>2</v>
@@ -9535,25 +9535,25 @@
         <v>6.5</v>
       </c>
       <c r="U75" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="V75" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W75" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="X75" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="Y75" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z75" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AA75" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AB75" t="n">
         <v>19</v>
@@ -9562,22 +9562,22 @@
         <v>67</v>
       </c>
       <c r="AD75" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AE75" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AF75" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG75" t="n">
         <v>15</v>
       </c>
-      <c r="AG75" t="n">
-        <v>12</v>
-      </c>
       <c r="AH75" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AI75" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AJ75" t="n">
         <v>41</v>
@@ -9615,13 +9615,13 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H76" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I76" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="J76" t="n">
         <v>1.02</v>
@@ -9630,16 +9630,16 @@
         <v>11</v>
       </c>
       <c r="L76" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="M76" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N76" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="O76" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="P76" t="n">
         <v>1.25</v>
@@ -9648,13 +9648,13 @@
         <v>3.75</v>
       </c>
       <c r="R76" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="S76" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="T76" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="U76" t="n">
         <v>41</v>
@@ -9666,19 +9666,19 @@
         <v>81</v>
       </c>
       <c r="X76" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Y76" t="n">
         <v>41</v>
       </c>
       <c r="Z76" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA76" t="n">
         <v>11</v>
       </c>
       <c r="AB76" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC76" t="n">
         <v>51</v>
@@ -9687,22 +9687,22 @@
         <v>151</v>
       </c>
       <c r="AE76" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG76" t="n">
         <v>9.5</v>
       </c>
-      <c r="AF76" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG76" t="n">
-        <v>9</v>
-      </c>
       <c r="AH76" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI76" t="n">
         <v>11</v>
       </c>
       <c r="AJ76" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77">
@@ -9758,10 +9758,10 @@
         <v>6</v>
       </c>
       <c r="N77" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="O77" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="P77" t="n">
         <v>1.22</v>
@@ -9862,7 +9862,7 @@
         <v>3.5</v>
       </c>
       <c r="H78" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I78" t="n">
         <v>2.05</v>
@@ -9880,10 +9880,10 @@
         <v>2.75</v>
       </c>
       <c r="N78" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O78" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P78" t="n">
         <v>1.53</v>
@@ -9940,7 +9940,7 @@
         <v>9.5</v>
       </c>
       <c r="AH78" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI78" t="n">
         <v>19</v>
@@ -9981,31 +9981,31 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="H79" t="n">
         <v>3.25</v>
       </c>
       <c r="I79" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J79" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="K79" t="n">
         <v>10</v>
       </c>
       <c r="L79" t="n">
-        <v>1.29</v>
+        <v>1.19</v>
       </c>
       <c r="M79" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N79" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="O79" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="P79" t="n">
         <v>1.4</v>
@@ -10014,10 +10014,10 @@
         <v>2.75</v>
       </c>
       <c r="R79" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S79" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T79" t="n">
         <v>8.5</v>
@@ -10026,7 +10026,7 @@
         <v>11</v>
       </c>
       <c r="V79" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W79" t="n">
         <v>21</v>
@@ -10041,7 +10041,7 @@
         <v>10</v>
       </c>
       <c r="AA79" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB79" t="n">
         <v>13</v>
@@ -10065,7 +10065,7 @@
         <v>34</v>
       </c>
       <c r="AI79" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ79" t="n">
         <v>34</v>
@@ -10103,25 +10103,25 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="H80" t="n">
         <v>2.9</v>
       </c>
       <c r="I80" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="J80" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="K80" t="n">
         <v>6.5</v>
       </c>
       <c r="L80" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="M80" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="N80" t="n">
         <v>2.5</v>
@@ -10145,13 +10145,13 @@
         <v>6.5</v>
       </c>
       <c r="U80" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V80" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W80" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X80" t="n">
         <v>23</v>
@@ -10175,16 +10175,16 @@
         <v>800</v>
       </c>
       <c r="AE80" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF80" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG80" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH80" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI80" t="n">
         <v>29</v>
@@ -10225,13 +10225,13 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="H81" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I81" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="J81" t="n">
         <v>1.04</v>
@@ -10240,7 +10240,7 @@
         <v>8.75</v>
       </c>
       <c r="L81" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="M81" t="n">
         <v>4.1</v>
@@ -10249,7 +10249,7 @@
         <v>1.6</v>
       </c>
       <c r="O81" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="P81" t="n">
         <v>1.31</v>
@@ -10258,34 +10258,34 @@
         <v>3.15</v>
       </c>
       <c r="R81" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S81" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="T81" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="U81" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V81" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="W81" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="X81" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Y81" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z81" t="n">
         <v>8.75</v>
       </c>
       <c r="AA81" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AB81" t="n">
         <v>13</v>
@@ -10297,16 +10297,16 @@
         <v>300</v>
       </c>
       <c r="AE81" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AF81" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AG81" t="n">
         <v>8.25</v>
       </c>
       <c r="AH81" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AI81" t="n">
         <v>13</v>
@@ -10347,10 +10347,10 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="H82" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="I82" t="n">
         <v>1.7</v>
@@ -10362,7 +10362,7 @@
         <v>8.5</v>
       </c>
       <c r="L82" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="M82" t="n">
         <v>4</v>
@@ -10374,19 +10374,19 @@
         <v>2.15</v>
       </c>
       <c r="P82" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="Q82" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="R82" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="S82" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="T82" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="U82" t="n">
         <v>28</v>
@@ -10395,46 +10395,46 @@
         <v>14</v>
       </c>
       <c r="W82" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="X82" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y82" t="n">
         <v>37</v>
-      </c>
-      <c r="Y82" t="n">
-        <v>35</v>
       </c>
       <c r="Z82" t="n">
         <v>8.5</v>
       </c>
       <c r="AA82" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="AB82" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC82" t="n">
         <v>50</v>
       </c>
       <c r="AD82" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AE82" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AF82" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AG82" t="n">
         <v>8</v>
       </c>
       <c r="AH82" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AI82" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AJ82" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83">
@@ -10469,13 +10469,13 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="H83" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I83" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="J83" t="n">
         <v>1.04</v>
@@ -10487,7 +10487,7 @@
         <v>1.19</v>
       </c>
       <c r="M83" t="n">
-        <v>4.15</v>
+        <v>4.25</v>
       </c>
       <c r="N83" t="n">
         <v>1.57</v>
@@ -10496,31 +10496,31 @@
         <v>2.25</v>
       </c>
       <c r="P83" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="Q83" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="R83" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S83" t="n">
         <v>2.35</v>
       </c>
       <c r="T83" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="U83" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V83" t="n">
         <v>12.5</v>
       </c>
       <c r="W83" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="X83" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Y83" t="n">
         <v>27</v>
@@ -10529,7 +10529,7 @@
         <v>8.75</v>
       </c>
       <c r="AA83" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AB83" t="n">
         <v>11.75</v>
@@ -10538,13 +10538,13 @@
         <v>40</v>
       </c>
       <c r="AD83" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AE83" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AF83" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AG83" t="n">
         <v>8.25</v>
@@ -10556,7 +10556,7 @@
         <v>13.5</v>
       </c>
       <c r="AJ83" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84">
@@ -10591,13 +10591,13 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="H84" t="n">
         <v>4.1</v>
       </c>
       <c r="I84" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="J84" t="n">
         <v>1.03</v>
@@ -10606,37 +10606,37 @@
         <v>15</v>
       </c>
       <c r="L84" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M84" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N84" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="O84" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="P84" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R84" t="n">
         <v>1.67</v>
       </c>
-      <c r="O84" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="P84" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q84" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R84" t="n">
-        <v>1.73</v>
-      </c>
       <c r="S84" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T84" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="U84" t="n">
         <v>29</v>
       </c>
       <c r="V84" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="W84" t="n">
         <v>51</v>
@@ -10660,7 +10660,7 @@
         <v>41</v>
       </c>
       <c r="AD84" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE84" t="n">
         <v>8.5</v>
@@ -11077,7 +11077,7 @@
         <v>6.3</v>
       </c>
       <c r="I88" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="J88" t="n">
         <v>1.03</v>
@@ -11104,37 +11104,37 @@
         <v>3.5</v>
       </c>
       <c r="R88" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S88" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="T88" t="n">
         <v>8.25</v>
       </c>
       <c r="U88" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="V88" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="W88" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="X88" t="n">
         <v>11</v>
       </c>
       <c r="Y88" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z88" t="n">
         <v>9.75</v>
       </c>
       <c r="AA88" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AB88" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC88" t="n">
         <v>175</v>
@@ -11152,13 +11152,13 @@
         <v>45</v>
       </c>
       <c r="AH88" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AI88" t="n">
         <v>200</v>
       </c>
       <c r="AJ88" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-04-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-11.xlsx
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="H2" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="I2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="J2" t="n">
         <v>1.04</v>
@@ -662,10 +662,10 @@
         <v>13</v>
       </c>
       <c r="L2" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N2" t="n">
         <v>1.73</v>
@@ -674,19 +674,19 @@
         <v>2.1</v>
       </c>
       <c r="P2" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R2" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="S2" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U2" t="n">
         <v>7.5</v>
@@ -695,22 +695,22 @@
         <v>8.5</v>
       </c>
       <c r="W2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z2" t="n">
         <v>12</v>
       </c>
       <c r="AA2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC2" t="n">
         <v>51</v>
@@ -719,16 +719,16 @@
         <v>251</v>
       </c>
       <c r="AE2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG2" t="n">
         <v>17</v>
       </c>
-      <c r="AF2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>19</v>
-      </c>
       <c r="AH2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI2" t="n">
         <v>41</v>
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="H3" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="J3" t="n">
         <v>1.05</v>
@@ -784,16 +784,16 @@
         <v>11</v>
       </c>
       <c r="L3" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N3" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="O3" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="P3" t="n">
         <v>1.36</v>
@@ -808,31 +808,31 @@
         <v>2</v>
       </c>
       <c r="T3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U3" t="n">
         <v>21</v>
       </c>
       <c r="V3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="W3" t="n">
         <v>41</v>
       </c>
       <c r="X3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z3" t="n">
         <v>11</v>
       </c>
       <c r="AA3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC3" t="n">
         <v>41</v>
@@ -844,13 +844,13 @@
         <v>8</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AG3" t="n">
         <v>8.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI3" t="n">
         <v>15</v>
@@ -891,64 +891,64 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="H4" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="J4" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L4" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M4" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N4" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="O4" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P4" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R4" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S4" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T4" t="n">
         <v>6.5</v>
       </c>
       <c r="U4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W4" t="n">
+        <v>23</v>
+      </c>
+      <c r="X4" t="n">
         <v>21</v>
-      </c>
-      <c r="X4" t="n">
-        <v>19</v>
       </c>
       <c r="Y4" t="n">
         <v>34</v>
       </c>
       <c r="Z4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA4" t="n">
         <v>6</v>
@@ -957,22 +957,22 @@
         <v>17</v>
       </c>
       <c r="AC4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD4" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AE4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI4" t="n">
         <v>29</v>
@@ -1013,31 +1013,31 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H5" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="I5" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J5" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="K5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="M5" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="N5" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="O5" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P5" t="n">
         <v>1.67</v>
@@ -1046,10 +1046,10 @@
         <v>2.1</v>
       </c>
       <c r="R5" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="S5" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T5" t="n">
         <v>5.5</v>
@@ -1091,7 +1091,7 @@
         <v>15</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH5" t="n">
         <v>41</v>
@@ -1141,7 +1141,7 @@
         <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J6" t="n">
         <v>1.13</v>
@@ -1257,19 +1257,19 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.25</v>
+        <v>4.33</v>
       </c>
       <c r="H7" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="I7" t="n">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="J7" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K7" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L7" t="n">
         <v>1.29</v>
@@ -1278,70 +1278,70 @@
         <v>3.5</v>
       </c>
       <c r="N7" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O7" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="P7" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q7" t="n">
         <v>3</v>
       </c>
       <c r="R7" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="S7" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="T7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U7" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="V7" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="W7" t="n">
+        <v>51</v>
+      </c>
+      <c r="X7" t="n">
         <v>34</v>
       </c>
-      <c r="X7" t="n">
-        <v>26</v>
-      </c>
       <c r="Y7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z7" t="n">
         <v>12</v>
       </c>
       <c r="AA7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>301</v>
+      </c>
+      <c r="AE7" t="n">
         <v>7</v>
       </c>
-      <c r="AB7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>201</v>
-      </c>
-      <c r="AE7" t="n">
+      <c r="AF7" t="n">
         <v>8</v>
       </c>
-      <c r="AF7" t="n">
-        <v>10</v>
-      </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AI7" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AJ7" t="n">
         <v>26</v>
@@ -1379,13 +1379,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="H8" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="I8" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J8" t="n">
         <v>1.03</v>
@@ -1406,19 +1406,19 @@
         <v>2.3</v>
       </c>
       <c r="P8" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R8" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S8" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T8" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U8" t="n">
         <v>6.5</v>
@@ -1433,7 +1433,7 @@
         <v>11</v>
       </c>
       <c r="Y8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z8" t="n">
         <v>15</v>
@@ -1457,13 +1457,13 @@
         <v>41</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH8" t="n">
         <v>101</v>
       </c>
       <c r="AI8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AJ8" t="n">
         <v>51</v>
@@ -1501,19 +1501,19 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H9" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J9" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L9" t="n">
         <v>1.2</v>
@@ -1528,10 +1528,10 @@
         <v>2.15</v>
       </c>
       <c r="P9" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R9" t="n">
         <v>1.67</v>
@@ -1552,7 +1552,7 @@
         <v>13</v>
       </c>
       <c r="X9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y9" t="n">
         <v>21</v>
@@ -1576,7 +1576,7 @@
         <v>17</v>
       </c>
       <c r="AF9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG9" t="n">
         <v>17</v>
@@ -1623,13 +1623,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="H10" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I10" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
         <v>1.04</v>
@@ -1644,13 +1644,13 @@
         <v>4.33</v>
       </c>
       <c r="N10" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O10" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="P10" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q10" t="n">
         <v>3.25</v>
@@ -1665,7 +1665,7 @@
         <v>9</v>
       </c>
       <c r="U10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V10" t="n">
         <v>8.5</v>
@@ -1707,7 +1707,7 @@
         <v>41</v>
       </c>
       <c r="AI10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ10" t="n">
         <v>34</v>
@@ -2483,13 +2483,13 @@
         <v>2.9</v>
       </c>
       <c r="I17" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J17" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K17" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L17" t="n">
         <v>1.44</v>
@@ -2510,16 +2510,16 @@
         <v>2.25</v>
       </c>
       <c r="R17" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S17" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T17" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U17" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V17" t="n">
         <v>10</v>
@@ -2549,16 +2549,16 @@
         <v>101</v>
       </c>
       <c r="AE17" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG17" t="n">
         <v>13</v>
       </c>
       <c r="AH17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI17" t="n">
         <v>34</v>
@@ -2599,13 +2599,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H18" t="n">
         <v>3.1</v>
       </c>
       <c r="I18" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J18" t="n">
         <v>1.13</v>
@@ -2614,16 +2614,16 @@
         <v>6</v>
       </c>
       <c r="L18" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="M18" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="N18" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="O18" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P18" t="n">
         <v>1.62</v>
@@ -2647,7 +2647,7 @@
         <v>10</v>
       </c>
       <c r="W18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X18" t="n">
         <v>21</v>
@@ -2656,16 +2656,16 @@
         <v>41</v>
       </c>
       <c r="Z18" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB18" t="n">
         <v>21</v>
       </c>
       <c r="AC18" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AD18" t="n">
         <v>101</v>
@@ -2721,13 +2721,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="H19" t="n">
         <v>2.9</v>
       </c>
       <c r="I19" t="n">
-        <v>2.35</v>
+        <v>2.27</v>
       </c>
       <c r="J19" t="n">
         <v>1.1</v>
@@ -2760,22 +2760,22 @@
         <v>1.65</v>
       </c>
       <c r="T19" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="U19" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="V19" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="W19" t="n">
         <v>45</v>
       </c>
       <c r="X19" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y19" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Z19" t="n">
         <v>6.4</v>
@@ -2793,22 +2793,22 @@
         <v>101</v>
       </c>
       <c r="AE19" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AF19" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AG19" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI19" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AJ19" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20">
@@ -2843,51 +2843,51 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H20" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I20" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M20" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="N20" t="n">
+        <v>2</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R20" t="n">
         <v>2.02</v>
       </c>
-      <c r="O20" t="n">
+      <c r="S20" t="n">
         <v>1.62</v>
       </c>
-      <c r="P20" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R20" t="n">
-        <v>2</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.65</v>
-      </c>
       <c r="T20" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="U20" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="V20" t="n">
         <v>8.5</v>
       </c>
       <c r="W20" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="X20" t="n">
         <v>14.5</v>
@@ -2896,28 +2896,28 @@
         <v>35</v>
       </c>
       <c r="Z20" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AA20" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AB20" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AC20" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AD20" t="n">
         <v>101</v>
       </c>
       <c r="AE20" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AF20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG20" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AH20" t="n">
         <v>90</v>
@@ -2961,19 +2961,19 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H21" t="n">
         <v>3.3</v>
       </c>
       <c r="I21" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="J21" t="n">
         <v>1.06</v>
       </c>
       <c r="K21" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L21" t="n">
         <v>1.3</v>
@@ -3000,10 +3000,10 @@
         <v>1.91</v>
       </c>
       <c r="T21" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V21" t="n">
         <v>12</v>
@@ -3018,7 +3018,7 @@
         <v>34</v>
       </c>
       <c r="Z21" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA21" t="n">
         <v>6.5</v>
@@ -3033,13 +3033,13 @@
         <v>251</v>
       </c>
       <c r="AE21" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG21" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH21" t="n">
         <v>21</v>
@@ -3476,10 +3476,10 @@
         <v>1.7</v>
       </c>
       <c r="P25" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="R25" t="n">
         <v>2</v>
@@ -3815,13 +3815,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H28" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I28" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="J28" t="n">
         <v>1.06</v>
@@ -3836,16 +3836,16 @@
         <v>3.4</v>
       </c>
       <c r="N28" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O28" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P28" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R28" t="n">
         <v>2.1</v>
@@ -3866,10 +3866,10 @@
         <v>11</v>
       </c>
       <c r="X28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y28" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z28" t="n">
         <v>9.5</v>
@@ -3884,22 +3884,22 @@
         <v>67</v>
       </c>
       <c r="AD28" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AE28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF28" t="n">
         <v>29</v>
       </c>
       <c r="AG28" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH28" t="n">
         <v>67</v>
       </c>
       <c r="AI28" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ28" t="n">
         <v>51</v>
@@ -3943,7 +3943,7 @@
         <v>3.7</v>
       </c>
       <c r="I29" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J29" t="n">
         <v>1.04</v>
@@ -3952,16 +3952,16 @@
         <v>13</v>
       </c>
       <c r="L29" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M29" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N29" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="O29" t="n">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="P29" t="n">
         <v>1.36</v>
@@ -3970,22 +3970,22 @@
         <v>3</v>
       </c>
       <c r="R29" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S29" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T29" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U29" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V29" t="n">
         <v>8.5</v>
       </c>
       <c r="W29" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X29" t="n">
         <v>15</v>
@@ -3994,19 +3994,19 @@
         <v>23</v>
       </c>
       <c r="Z29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA29" t="n">
         <v>7</v>
       </c>
       <c r="AB29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC29" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD29" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE29" t="n">
         <v>12</v>
@@ -4303,10 +4303,10 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="H32" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I32" t="n">
         <v>1.83</v>
@@ -4318,79 +4318,79 @@
         <v>10</v>
       </c>
       <c r="L32" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="M32" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N32" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="O32" t="n">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="P32" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R32" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S32" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="T32" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U32" t="n">
         <v>21</v>
       </c>
       <c r="V32" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="W32" t="n">
         <v>41</v>
       </c>
       <c r="X32" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Y32" t="n">
         <v>41</v>
       </c>
       <c r="Z32" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB32" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC32" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD32" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE32" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF32" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG32" t="n">
         <v>9</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>8.5</v>
       </c>
       <c r="AH32" t="n">
         <v>15</v>
       </c>
       <c r="AI32" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ32" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33">
@@ -4425,37 +4425,37 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>7</v>
+        <v>6.25</v>
       </c>
       <c r="H33" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I33" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="J33" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K33" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L33" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="M33" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="N33" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="O33" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="P33" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q33" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R33" t="n">
         <v>1.91</v>
@@ -4464,16 +4464,16 @@
         <v>1.8</v>
       </c>
       <c r="T33" t="n">
+        <v>15</v>
+      </c>
+      <c r="U33" t="n">
+        <v>34</v>
+      </c>
+      <c r="V33" t="n">
         <v>19</v>
       </c>
-      <c r="U33" t="n">
-        <v>41</v>
-      </c>
-      <c r="V33" t="n">
-        <v>21</v>
-      </c>
       <c r="W33" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="X33" t="n">
         <v>51</v>
@@ -4482,22 +4482,22 @@
         <v>51</v>
       </c>
       <c r="Z33" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA33" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB33" t="n">
         <v>21</v>
       </c>
       <c r="AC33" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD33" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE33" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF33" t="n">
         <v>7</v>
@@ -4506,7 +4506,7 @@
         <v>8.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI33" t="n">
         <v>12</v>
@@ -4547,13 +4547,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H34" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I34" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J34" t="n">
         <v>1.04</v>
@@ -4574,28 +4574,28 @@
         <v>2.08</v>
       </c>
       <c r="P34" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q34" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R34" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S34" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T34" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U34" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V34" t="n">
         <v>9</v>
       </c>
       <c r="W34" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X34" t="n">
         <v>15</v>
@@ -4604,10 +4604,10 @@
         <v>23</v>
       </c>
       <c r="Z34" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA34" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB34" t="n">
         <v>13</v>
@@ -4619,13 +4619,13 @@
         <v>151</v>
       </c>
       <c r="AE34" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF34" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG34" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH34" t="n">
         <v>41</v>
@@ -4669,31 +4669,31 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H35" t="n">
         <v>3.2</v>
       </c>
       <c r="I35" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J35" t="n">
         <v>1.07</v>
       </c>
       <c r="K35" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L35" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M35" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N35" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O35" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P35" t="n">
         <v>1.44</v>
@@ -4702,16 +4702,16 @@
         <v>2.63</v>
       </c>
       <c r="R35" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S35" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T35" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U35" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V35" t="n">
         <v>9</v>
@@ -4726,7 +4726,7 @@
         <v>29</v>
       </c>
       <c r="Z35" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA35" t="n">
         <v>6</v>
@@ -4738,7 +4738,7 @@
         <v>51</v>
       </c>
       <c r="AD35" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE35" t="n">
         <v>10</v>
@@ -4747,7 +4747,7 @@
         <v>19</v>
       </c>
       <c r="AG35" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH35" t="n">
         <v>41</v>
@@ -4806,16 +4806,16 @@
         <v>13</v>
       </c>
       <c r="L36" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M36" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N36" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="O36" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="P36" t="n">
         <v>1.33</v>
@@ -4916,7 +4916,7 @@
         <v>1.8</v>
       </c>
       <c r="H37" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I37" t="n">
         <v>4.75</v>
@@ -4928,22 +4928,22 @@
         <v>7</v>
       </c>
       <c r="L37" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M37" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="N37" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O37" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P37" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="R37" t="n">
         <v>2.25</v>
@@ -4961,7 +4961,7 @@
         <v>9.5</v>
       </c>
       <c r="W37" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X37" t="n">
         <v>19</v>
@@ -4970,7 +4970,7 @@
         <v>41</v>
       </c>
       <c r="Z37" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA37" t="n">
         <v>6.5</v>
@@ -4988,7 +4988,7 @@
         <v>9.5</v>
       </c>
       <c r="AF37" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG37" t="n">
         <v>17</v>
@@ -5035,13 +5035,13 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.92</v>
+        <v>2.82</v>
       </c>
       <c r="H38" t="n">
-        <v>2.95</v>
+        <v>2.85</v>
       </c>
       <c r="I38" t="n">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -5061,25 +5061,25 @@
         <v>1.5</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="R38" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="S38" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T38" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U38" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="V38" t="n">
         <v>10.5</v>
       </c>
       <c r="W38" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X38" t="n">
         <v>28</v>
@@ -5088,37 +5088,37 @@
         <v>37</v>
       </c>
       <c r="Z38" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>70</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>600</v>
+      </c>
+      <c r="AE38" t="n">
         <v>7.6</v>
       </c>
-      <c r="AA38" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>75</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>700</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>7</v>
-      </c>
       <c r="AF38" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AG38" t="n">
         <v>9.5</v>
       </c>
       <c r="AH38" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AI38" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ38" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39">
@@ -5153,13 +5153,13 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="H39" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I39" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -5176,7 +5176,7 @@
         <v>1.65</v>
       </c>
       <c r="P39" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Q39" t="n">
         <v>2.4</v>
@@ -5188,28 +5188,28 @@
         <v>1.88</v>
       </c>
       <c r="T39" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="U39" t="n">
         <v>12.5</v>
       </c>
       <c r="V39" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="W39" t="n">
         <v>28</v>
       </c>
       <c r="X39" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y39" t="n">
         <v>32</v>
       </c>
       <c r="Z39" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AA39" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AB39" t="n">
         <v>13.5</v>
@@ -5221,19 +5221,19 @@
         <v>500</v>
       </c>
       <c r="AE39" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AF39" t="n">
         <v>13.5</v>
       </c>
       <c r="AG39" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AH39" t="n">
         <v>32</v>
       </c>
       <c r="AI39" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AJ39" t="n">
         <v>32</v>
@@ -5271,39 +5271,39 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="H40" t="n">
         <v>4.25</v>
       </c>
       <c r="I40" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="M40" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="N40" t="n">
         <v>1.7</v>
       </c>
       <c r="O40" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="P40" t="n">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.6</v>
+        <v>2.85</v>
       </c>
       <c r="R40" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S40" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="T40" t="n">
         <v>6.6</v>
@@ -5312,34 +5312,34 @@
         <v>6.4</v>
       </c>
       <c r="V40" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="W40" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="X40" t="n">
         <v>11.75</v>
       </c>
       <c r="Y40" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Z40" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AA40" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AB40" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC40" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AD40" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AE40" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AF40" t="n">
         <v>45</v>
@@ -5354,7 +5354,7 @@
         <v>80</v>
       </c>
       <c r="AJ40" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41">
@@ -5389,7 +5389,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="H41" t="n">
         <v>2.87</v>
@@ -5421,13 +5421,13 @@
         <v>1.78</v>
       </c>
       <c r="S41" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="T41" t="n">
         <v>8.25</v>
       </c>
       <c r="U41" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="V41" t="n">
         <v>10.25</v>
@@ -5436,13 +5436,13 @@
         <v>37</v>
       </c>
       <c r="X41" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y41" t="n">
         <v>35</v>
       </c>
       <c r="Z41" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AA41" t="n">
         <v>5.6</v>
@@ -5460,7 +5460,7 @@
         <v>7</v>
       </c>
       <c r="AF41" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AG41" t="n">
         <v>9.75</v>
@@ -5472,7 +5472,7 @@
         <v>24</v>
       </c>
       <c r="AJ41" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42">
@@ -5625,10 +5625,10 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="H43" t="n">
-        <v>2.87</v>
+        <v>2.95</v>
       </c>
       <c r="I43" t="n">
         <v>2.9</v>
@@ -5651,61 +5651,61 @@
         <v>1.53</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R43" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="S43" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="T43" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="U43" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="V43" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="W43" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="X43" t="n">
         <v>24</v>
       </c>
       <c r="Y43" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Z43" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AA43" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="AB43" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC43" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AD43" t="n">
         <v>900</v>
       </c>
       <c r="AE43" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AF43" t="n">
         <v>13.5</v>
       </c>
       <c r="AG43" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AH43" t="n">
         <v>37</v>
       </c>
       <c r="AI43" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ43" t="n">
         <v>45</v>
@@ -5743,13 +5743,13 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="H44" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="I44" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -5772,10 +5772,10 @@
         <v>2.15</v>
       </c>
       <c r="R44" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S44" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="T44" t="n">
         <v>7.4</v>
@@ -5790,37 +5790,37 @@
         <v>37</v>
       </c>
       <c r="X44" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y44" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Z44" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AA44" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AB44" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC44" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AD44" t="n">
         <v>700</v>
       </c>
       <c r="AE44" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="AF44" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG44" t="n">
         <v>10</v>
       </c>
       <c r="AH44" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AI44" t="n">
         <v>27</v>
@@ -5861,13 +5861,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H45" t="n">
         <v>3.2</v>
       </c>
       <c r="I45" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J45" t="n">
         <v>1.07</v>
@@ -5900,7 +5900,7 @@
         <v>1.83</v>
       </c>
       <c r="T45" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U45" t="n">
         <v>15</v>
@@ -5915,13 +5915,13 @@
         <v>26</v>
       </c>
       <c r="Y45" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z45" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA45" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB45" t="n">
         <v>15</v>
@@ -5933,10 +5933,10 @@
         <v>301</v>
       </c>
       <c r="AE45" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF45" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG45" t="n">
         <v>9.5</v>
@@ -5945,10 +5945,10 @@
         <v>21</v>
       </c>
       <c r="AI45" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ45" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46">
@@ -6120,10 +6120,10 @@
         <v>17</v>
       </c>
       <c r="L47" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="M47" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N47" t="n">
         <v>1.53</v>
@@ -6590,22 +6590,22 @@
         <v>1.5</v>
       </c>
       <c r="J51" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K51" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L51" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M51" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N51" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O51" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="P51" t="n">
         <v>1.44</v>
@@ -6614,10 +6614,10 @@
         <v>2.63</v>
       </c>
       <c r="R51" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S51" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T51" t="n">
         <v>15</v>
@@ -6635,13 +6635,13 @@
         <v>51</v>
       </c>
       <c r="Y51" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="Z51" t="n">
         <v>8</v>
       </c>
       <c r="AA51" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB51" t="n">
         <v>21</v>
@@ -6656,13 +6656,13 @@
         <v>5.5</v>
       </c>
       <c r="AF51" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG51" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH51" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI51" t="n">
         <v>15</v>
@@ -6703,13 +6703,13 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="H52" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I52" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J52" t="n">
         <v>1.1</v>
@@ -6730,10 +6730,10 @@
         <v>1.5</v>
       </c>
       <c r="P52" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="R52" t="n">
         <v>2.25</v>
@@ -6745,28 +6745,28 @@
         <v>5</v>
       </c>
       <c r="U52" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="V52" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W52" t="n">
         <v>13</v>
       </c>
       <c r="X52" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y52" t="n">
         <v>41</v>
       </c>
       <c r="Z52" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA52" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB52" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC52" t="n">
         <v>81</v>
@@ -6775,16 +6775,16 @@
         <v>501</v>
       </c>
       <c r="AE52" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF52" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG52" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH52" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI52" t="n">
         <v>51</v>
@@ -6825,13 +6825,13 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H53" t="n">
         <v>3.1</v>
       </c>
       <c r="I53" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J53" t="n">
         <v>1.08</v>
@@ -6947,31 +6947,31 @@
         </is>
       </c>
       <c r="G54" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H54" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I54" t="n">
+        <v>8</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K54" t="n">
+        <v>9</v>
+      </c>
+      <c r="L54" t="n">
         <v>1.36</v>
       </c>
-      <c r="H54" t="n">
-        <v>4</v>
-      </c>
-      <c r="I54" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="K54" t="n">
-        <v>10</v>
-      </c>
-      <c r="L54" t="n">
-        <v>1.33</v>
-      </c>
       <c r="M54" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N54" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O54" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P54" t="n">
         <v>1.44</v>
@@ -6980,10 +6980,10 @@
         <v>2.63</v>
       </c>
       <c r="R54" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="S54" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T54" t="n">
         <v>5</v>
@@ -6992,10 +6992,10 @@
         <v>5.5</v>
       </c>
       <c r="V54" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W54" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X54" t="n">
         <v>15</v>
@@ -7007,7 +7007,7 @@
         <v>8</v>
       </c>
       <c r="AA54" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB54" t="n">
         <v>26</v>
@@ -7025,13 +7025,13 @@
         <v>41</v>
       </c>
       <c r="AG54" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AH54" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AI54" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AJ54" t="n">
         <v>81</v>
@@ -7069,7 +7069,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="H55" t="n">
         <v>3.1</v>
@@ -7090,10 +7090,10 @@
         <v>3.5</v>
       </c>
       <c r="N55" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="O55" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="P55" t="n">
         <v>1.4</v>
@@ -7108,7 +7108,7 @@
         <v>2.05</v>
       </c>
       <c r="T55" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U55" t="n">
         <v>15</v>
@@ -7120,7 +7120,7 @@
         <v>29</v>
       </c>
       <c r="X55" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y55" t="n">
         <v>29</v>
@@ -7150,7 +7150,7 @@
         <v>10</v>
       </c>
       <c r="AH55" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI55" t="n">
         <v>21</v>
@@ -7191,19 +7191,19 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="H56" t="n">
-        <v>2.95</v>
+        <v>3.15</v>
       </c>
       <c r="I56" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="J56" t="n">
         <v>1.1</v>
       </c>
       <c r="K56" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="L56" t="n">
         <v>1.45</v>
@@ -7212,73 +7212,73 @@
         <v>2.55</v>
       </c>
       <c r="N56" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="O56" t="n">
         <v>1.53</v>
       </c>
       <c r="P56" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R56" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S56" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="T56" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="U56" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="V56" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="W56" t="n">
         <v>50</v>
       </c>
       <c r="X56" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Y56" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Z56" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AA56" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="AB56" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AC56" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AD56" t="n">
         <v>101</v>
       </c>
       <c r="AE56" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AF56" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="AG56" t="n">
         <v>9.25</v>
       </c>
       <c r="AH56" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AI56" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AJ56" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57">
@@ -7316,16 +7316,16 @@
         <v>2.1</v>
       </c>
       <c r="H57" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I57" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J57" t="n">
         <v>1.08</v>
       </c>
       <c r="K57" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="L57" t="n">
         <v>1.37</v>
@@ -7346,34 +7346,34 @@
         <v>2.5</v>
       </c>
       <c r="R57" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="S57" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="T57" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="U57" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="V57" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="W57" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="X57" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Y57" t="n">
         <v>32</v>
       </c>
       <c r="Z57" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AA57" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AB57" t="n">
         <v>15.5</v>
@@ -7385,7 +7385,7 @@
         <v>700</v>
       </c>
       <c r="AE57" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AF57" t="n">
         <v>16.5</v>
@@ -7397,10 +7397,10 @@
         <v>45</v>
       </c>
       <c r="AI57" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ57" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58">
@@ -7435,19 +7435,19 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="H58" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="I58" t="n">
         <v>2.72</v>
       </c>
-      <c r="I58" t="n">
-        <v>2.77</v>
-      </c>
       <c r="J58" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="K58" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="L58" t="n">
         <v>1.5</v>
@@ -7465,22 +7465,22 @@
         <v>1.6</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R58" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="S58" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="T58" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="U58" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="V58" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="W58" t="n">
         <v>32</v>
@@ -7492,25 +7492,25 @@
         <v>40</v>
       </c>
       <c r="Z58" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AA58" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="AB58" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC58" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AD58" t="n">
         <v>900</v>
       </c>
       <c r="AE58" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AF58" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG58" t="n">
         <v>10.75</v>
@@ -7929,7 +7929,7 @@
         <v>1.16</v>
       </c>
       <c r="M62" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="N62" t="n">
         <v>1.47</v>
@@ -8166,10 +8166,10 @@
         <v>7</v>
       </c>
       <c r="L64" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="M64" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="N64" t="n">
         <v>2.6</v>
@@ -8300,10 +8300,10 @@
         <v>1.5</v>
       </c>
       <c r="P65" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Q65" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="R65" t="n">
         <v>2.25</v>
@@ -8312,7 +8312,7 @@
         <v>1.57</v>
       </c>
       <c r="T65" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="U65" t="n">
         <v>7</v>
@@ -8321,7 +8321,7 @@
         <v>9.5</v>
       </c>
       <c r="W65" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X65" t="n">
         <v>19</v>
@@ -8395,31 +8395,31 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H66" t="n">
         <v>3.5</v>
       </c>
       <c r="I66" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="J66" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K66" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L66" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M66" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N66" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="O66" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="P66" t="n">
         <v>1.44</v>
@@ -8428,22 +8428,22 @@
         <v>2.63</v>
       </c>
       <c r="R66" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="S66" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="T66" t="n">
         <v>6.5</v>
       </c>
       <c r="U66" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V66" t="n">
         <v>9</v>
       </c>
       <c r="W66" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X66" t="n">
         <v>17</v>
@@ -8467,13 +8467,13 @@
         <v>351</v>
       </c>
       <c r="AE66" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AF66" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG66" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH66" t="n">
         <v>41</v>
@@ -8526,10 +8526,10 @@
         <v>3</v>
       </c>
       <c r="J67" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K67" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L67" t="n">
         <v>1.29</v>
@@ -8538,10 +8538,10 @@
         <v>3.5</v>
       </c>
       <c r="N67" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O67" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P67" t="n">
         <v>1.4</v>
@@ -8776,10 +8776,10 @@
         <v>10</v>
       </c>
       <c r="L69" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M69" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N69" t="n">
         <v>2.05</v>
@@ -8883,13 +8883,13 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="H70" t="n">
         <v>3.2</v>
       </c>
       <c r="I70" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J70" t="n">
         <v>1.08</v>
@@ -8910,10 +8910,10 @@
         <v>1.57</v>
       </c>
       <c r="P70" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q70" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R70" t="n">
         <v>2</v>
@@ -8931,10 +8931,10 @@
         <v>11</v>
       </c>
       <c r="W70" t="n">
+        <v>29</v>
+      </c>
+      <c r="X70" t="n">
         <v>26</v>
-      </c>
-      <c r="X70" t="n">
-        <v>23</v>
       </c>
       <c r="Y70" t="n">
         <v>41</v>
@@ -8946,22 +8946,22 @@
         <v>6.5</v>
       </c>
       <c r="AB70" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC70" t="n">
         <v>67</v>
       </c>
       <c r="AD70" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AE70" t="n">
         <v>7</v>
       </c>
       <c r="AF70" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG70" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH70" t="n">
         <v>26</v>
@@ -9005,13 +9005,13 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>4.33</v>
+        <v>3.3</v>
       </c>
       <c r="H71" t="n">
         <v>3.2</v>
       </c>
       <c r="I71" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="J71" t="n">
         <v>1.08</v>
@@ -9020,10 +9020,10 @@
         <v>8</v>
       </c>
       <c r="L71" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M71" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N71" t="n">
         <v>2.35</v>
@@ -9038,58 +9038,58 @@
         <v>2.38</v>
       </c>
       <c r="R71" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S71" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T71" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="U71" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="V71" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="W71" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="X71" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y71" t="n">
         <v>41</v>
       </c>
-      <c r="Y71" t="n">
-        <v>51</v>
-      </c>
       <c r="Z71" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA71" t="n">
         <v>6</v>
       </c>
       <c r="AB71" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC71" t="n">
         <v>67</v>
       </c>
       <c r="AD71" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AE71" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AF71" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AG71" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH71" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AI71" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ71" t="n">
         <v>34</v>
@@ -9737,7 +9737,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="H77" t="n">
         <v>5.25</v>
@@ -9746,10 +9746,10 @@
         <v>1.4</v>
       </c>
       <c r="J77" t="n">
-        <v>1.01</v>
+        <v>23</v>
       </c>
       <c r="K77" t="n">
-        <v>13</v>
+        <v>1.03</v>
       </c>
       <c r="L77" t="n">
         <v>1.11</v>
@@ -9758,10 +9758,10 @@
         <v>6</v>
       </c>
       <c r="N77" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="O77" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="P77" t="n">
         <v>1.22</v>
@@ -9770,10 +9770,10 @@
         <v>4</v>
       </c>
       <c r="R77" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S77" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T77" t="n">
         <v>21</v>
@@ -9782,10 +9782,10 @@
         <v>34</v>
       </c>
       <c r="V77" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="W77" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="X77" t="n">
         <v>41</v>
@@ -9812,7 +9812,7 @@
         <v>11</v>
       </c>
       <c r="AF77" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AG77" t="n">
         <v>9</v>
@@ -9859,13 +9859,13 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="H78" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I78" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="J78" t="n">
         <v>1.08</v>
@@ -9880,31 +9880,31 @@
         <v>2.75</v>
       </c>
       <c r="N78" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O78" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P78" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q78" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R78" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S78" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="T78" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U78" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V78" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="W78" t="n">
         <v>41</v>
@@ -9922,7 +9922,7 @@
         <v>6.5</v>
       </c>
       <c r="AB78" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC78" t="n">
         <v>67</v>
@@ -9934,13 +9934,13 @@
         <v>6</v>
       </c>
       <c r="AF78" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG78" t="n">
         <v>9.5</v>
       </c>
       <c r="AH78" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI78" t="n">
         <v>19</v>
@@ -9987,25 +9987,25 @@
         <v>3.25</v>
       </c>
       <c r="I79" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J79" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K79" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L79" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="M79" t="n">
         <v>3.75</v>
       </c>
       <c r="N79" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O79" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="P79" t="n">
         <v>1.4</v>
@@ -10023,7 +10023,7 @@
         <v>8.5</v>
       </c>
       <c r="U79" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V79" t="n">
         <v>9.5</v>
@@ -10032,7 +10032,7 @@
         <v>21</v>
       </c>
       <c r="X79" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y79" t="n">
         <v>26</v>
@@ -10053,22 +10053,22 @@
         <v>201</v>
       </c>
       <c r="AE79" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG79" t="n">
         <v>11</v>
       </c>
-      <c r="AF79" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG79" t="n">
-        <v>12</v>
-      </c>
       <c r="AH79" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI79" t="n">
         <v>23</v>
       </c>
       <c r="AJ79" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80">
@@ -10106,22 +10106,22 @@
         <v>2.45</v>
       </c>
       <c r="H80" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="I80" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="J80" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="K80" t="n">
         <v>6.5</v>
       </c>
       <c r="L80" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="M80" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="N80" t="n">
         <v>2.5</v>
@@ -10136,10 +10136,10 @@
         <v>2.25</v>
       </c>
       <c r="R80" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S80" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T80" t="n">
         <v>6.5</v>
@@ -10154,13 +10154,13 @@
         <v>23</v>
       </c>
       <c r="X80" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y80" t="n">
         <v>41</v>
       </c>
       <c r="Z80" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AA80" t="n">
         <v>6</v>
@@ -10172,10 +10172,10 @@
         <v>67</v>
       </c>
       <c r="AD80" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AE80" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF80" t="n">
         <v>13</v>
@@ -10225,13 +10225,13 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H81" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="I81" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="J81" t="n">
         <v>1.04</v>
@@ -10249,55 +10249,55 @@
         <v>1.6</v>
       </c>
       <c r="O81" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="P81" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="Q81" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="R81" t="n">
         <v>1.57</v>
       </c>
       <c r="S81" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="T81" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="U81" t="n">
         <v>23</v>
       </c>
       <c r="V81" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="W81" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="X81" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y81" t="n">
         <v>29</v>
-      </c>
-      <c r="Y81" t="n">
-        <v>30</v>
       </c>
       <c r="Z81" t="n">
         <v>8.75</v>
       </c>
       <c r="AA81" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AB81" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC81" t="n">
         <v>45</v>
       </c>
       <c r="AD81" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AE81" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AF81" t="n">
         <v>10.25</v>
@@ -10306,10 +10306,10 @@
         <v>8.25</v>
       </c>
       <c r="AH81" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI81" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AJ81" t="n">
         <v>20</v>
@@ -10469,52 +10469,52 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H83" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="I83" t="n">
         <v>1.87</v>
       </c>
       <c r="J83" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K83" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="L83" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="M83" t="n">
-        <v>4.25</v>
+        <v>4.45</v>
       </c>
       <c r="N83" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="O83" t="n">
-        <v>2.25</v>
+        <v>2.37</v>
       </c>
       <c r="P83" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="Q83" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="R83" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="S83" t="n">
-        <v>2.35</v>
+        <v>2.42</v>
       </c>
       <c r="T83" t="n">
         <v>15</v>
       </c>
       <c r="U83" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V83" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="W83" t="n">
         <v>55</v>
@@ -10526,37 +10526,37 @@
         <v>27</v>
       </c>
       <c r="Z83" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AA83" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AB83" t="n">
         <v>11.75</v>
       </c>
       <c r="AC83" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AD83" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AE83" t="n">
-        <v>9.75</v>
+        <v>10.75</v>
       </c>
       <c r="AF83" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="AG83" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AH83" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI83" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AJ83" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84">
@@ -10831,27 +10831,27 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H86" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I86" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M86" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="N86" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="O86" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="P86" t="n">
         <v>1.4</v>
@@ -10863,46 +10863,46 @@
         <v>1.65</v>
       </c>
       <c r="S86" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="T86" t="n">
-        <v>8.25</v>
+        <v>7.8</v>
       </c>
       <c r="U86" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="V86" t="n">
         <v>8.5</v>
       </c>
       <c r="W86" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="X86" t="n">
         <v>16</v>
       </c>
       <c r="Y86" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z86" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AA86" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AB86" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC86" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AD86" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AE86" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AF86" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AG86" t="n">
         <v>11.5</v>
@@ -10949,94 +10949,94 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H87" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I87" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="J87" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="K87" t="n">
-        <v>6.1</v>
+        <v>5.7</v>
       </c>
       <c r="L87" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="M87" t="n">
-        <v>2.67</v>
+        <v>2.5</v>
       </c>
       <c r="N87" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="O87" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="P87" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q87" t="n">
-        <v>2.52</v>
+        <v>2.4</v>
       </c>
       <c r="R87" t="n">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="S87" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="T87" t="n">
-        <v>8.25</v>
+        <v>7.8</v>
       </c>
       <c r="U87" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="V87" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="W87" t="n">
         <v>45</v>
       </c>
       <c r="X87" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Y87" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Z87" t="n">
-        <v>6.1</v>
+        <v>5.7</v>
       </c>
       <c r="AA87" t="n">
         <v>6</v>
       </c>
       <c r="AB87" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AC87" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AD87" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="AE87" t="n">
-        <v>6.6</v>
+        <v>5.9</v>
       </c>
       <c r="AF87" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="AG87" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH87" t="n">
         <v>21</v>
       </c>
       <c r="AI87" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AJ87" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="88">
@@ -11071,79 +11071,79 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="H88" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="I88" t="n">
         <v>13</v>
       </c>
       <c r="J88" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K88" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="L88" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="M88" t="n">
-        <v>4.85</v>
+        <v>5.1</v>
       </c>
       <c r="N88" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="O88" t="n">
-        <v>2.55</v>
+        <v>2.67</v>
       </c>
       <c r="P88" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="Q88" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="R88" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="S88" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="T88" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="U88" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="V88" t="n">
         <v>10.5</v>
       </c>
       <c r="W88" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="X88" t="n">
         <v>11</v>
       </c>
       <c r="Y88" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Z88" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AA88" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AB88" t="n">
         <v>35</v>
       </c>
       <c r="AC88" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AD88" t="n">
         <v>1000</v>
       </c>
       <c r="AE88" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AF88" t="n">
         <v>120</v>
@@ -11158,7 +11158,7 @@
         <v>200</v>
       </c>
       <c r="AJ88" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-04-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-11.xlsx
@@ -906,16 +906,16 @@
         <v>7</v>
       </c>
       <c r="L4" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M4" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N4" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P4" t="n">
         <v>1.53</v>
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H6" t="n">
         <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="J6" t="n">
         <v>1.13</v>
@@ -1174,25 +1174,25 @@
         <v>1.57</v>
       </c>
       <c r="T6" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U6" t="n">
         <v>15</v>
       </c>
       <c r="V6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="W6" t="n">
         <v>41</v>
       </c>
       <c r="X6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Y6" t="n">
         <v>51</v>
       </c>
       <c r="Z6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AA6" t="n">
         <v>6</v>
@@ -1210,13 +1210,13 @@
         <v>5.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI6" t="n">
         <v>23</v>
@@ -1623,13 +1623,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H10" t="n">
         <v>3.5</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J10" t="n">
         <v>1.04</v>
@@ -1656,16 +1656,16 @@
         <v>3.25</v>
       </c>
       <c r="R10" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S10" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U10" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V10" t="n">
         <v>8.5</v>
@@ -1677,7 +1677,7 @@
         <v>13</v>
       </c>
       <c r="Y10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z10" t="n">
         <v>13</v>
@@ -1707,7 +1707,7 @@
         <v>41</v>
       </c>
       <c r="AI10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ10" t="n">
         <v>34</v>
@@ -1989,19 +1989,19 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H13" t="n">
         <v>3.2</v>
       </c>
       <c r="I13" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="J13" t="n">
         <v>1.1</v>
       </c>
       <c r="K13" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="L13" t="n">
         <v>1.47</v>
@@ -2031,7 +2031,7 @@
         <v>5.9</v>
       </c>
       <c r="U13" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="V13" t="n">
         <v>10</v>
@@ -2046,10 +2046,10 @@
         <v>45</v>
       </c>
       <c r="Z13" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AA13" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AB13" t="n">
         <v>20</v>
@@ -2061,10 +2061,10 @@
         <v>600</v>
       </c>
       <c r="AE13" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AF13" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AG13" t="n">
         <v>14</v>
@@ -2073,7 +2073,7 @@
         <v>55</v>
       </c>
       <c r="AI13" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ13" t="n">
         <v>65</v>
@@ -2477,13 +2477,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="H17" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I17" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="J17" t="n">
         <v>1.11</v>
@@ -2492,10 +2492,10 @@
         <v>6.5</v>
       </c>
       <c r="L17" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M17" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N17" t="n">
         <v>2.5</v>
@@ -2516,19 +2516,19 @@
         <v>1.67</v>
       </c>
       <c r="T17" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U17" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="V17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W17" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="X17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y17" t="n">
         <v>41</v>
@@ -2549,19 +2549,19 @@
         <v>101</v>
       </c>
       <c r="AE17" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AF17" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH17" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI17" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ17" t="n">
         <v>41</v>
@@ -2721,13 +2721,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="H19" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="I19" t="n">
-        <v>2.27</v>
+        <v>2.62</v>
       </c>
       <c r="J19" t="n">
         <v>1.1</v>
@@ -2742,49 +2742,49 @@
         <v>2.32</v>
       </c>
       <c r="N19" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="O19" t="n">
         <v>1.45</v>
       </c>
       <c r="P19" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="R19" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S19" t="n">
         <v>1.65</v>
       </c>
       <c r="T19" t="n">
-        <v>7.4</v>
+        <v>6.9</v>
       </c>
       <c r="U19" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="V19" t="n">
-        <v>12</v>
+        <v>10.75</v>
       </c>
       <c r="W19" t="n">
+        <v>35</v>
+      </c>
+      <c r="X19" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y19" t="n">
         <v>45</v>
       </c>
-      <c r="X19" t="n">
-        <v>37</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>55</v>
-      </c>
       <c r="Z19" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AA19" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AB19" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC19" t="n">
         <v>110</v>
@@ -2793,22 +2793,22 @@
         <v>101</v>
       </c>
       <c r="AE19" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="AF19" t="n">
-        <v>9.75</v>
+        <v>11.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AI19" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AJ19" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20">
@@ -2843,66 +2843,66 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="H20" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="I20" t="n">
-        <v>5</v>
+        <v>5.7</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M20" t="n">
-        <v>2.72</v>
+        <v>2.77</v>
       </c>
       <c r="N20" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O20" t="n">
         <v>1.65</v>
       </c>
       <c r="P20" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="R20" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="S20" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="T20" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="U20" t="n">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="V20" t="n">
         <v>8.5</v>
       </c>
       <c r="W20" t="n">
-        <v>11.5</v>
+        <v>10.25</v>
       </c>
       <c r="X20" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y20" t="n">
         <v>35</v>
       </c>
       <c r="Z20" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AA20" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AB20" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AC20" t="n">
         <v>120</v>
@@ -2911,22 +2911,22 @@
         <v>101</v>
       </c>
       <c r="AE20" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AF20" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AG20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH20" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AI20" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AJ20" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21">
@@ -2964,34 +2964,34 @@
         <v>3.1</v>
       </c>
       <c r="H21" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I21" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J21" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L21" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M21" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N21" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O21" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="P21" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R21" t="n">
         <v>1.8</v>
@@ -3018,10 +3018,10 @@
         <v>34</v>
       </c>
       <c r="Z21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA21" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB21" t="n">
         <v>15</v>
@@ -3033,7 +3033,7 @@
         <v>251</v>
       </c>
       <c r="AE21" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF21" t="n">
         <v>11</v>
@@ -3083,19 +3083,19 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H22" t="n">
         <v>3.3</v>
       </c>
       <c r="I22" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J22" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L22" t="n">
         <v>1.4</v>
@@ -3116,16 +3116,16 @@
         <v>2.5</v>
       </c>
       <c r="R22" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S22" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="T22" t="n">
         <v>6</v>
       </c>
       <c r="U22" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V22" t="n">
         <v>9</v>
@@ -3140,7 +3140,7 @@
         <v>34</v>
       </c>
       <c r="Z22" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA22" t="n">
         <v>6.5</v>
@@ -3155,7 +3155,7 @@
         <v>900</v>
       </c>
       <c r="AE22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF22" t="n">
         <v>21</v>
@@ -3170,7 +3170,7 @@
         <v>41</v>
       </c>
       <c r="AJ22" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23">
@@ -3476,10 +3476,10 @@
         <v>1.7</v>
       </c>
       <c r="P25" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="R25" t="n">
         <v>2</v>
@@ -7694,16 +7694,16 @@
         <v>15</v>
       </c>
       <c r="L60" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M60" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N60" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="O60" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="P60" t="n">
         <v>1.3</v>
@@ -7712,7 +7712,7 @@
         <v>3.4</v>
       </c>
       <c r="R60" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S60" t="n">
         <v>2.5</v>
@@ -7801,18 +7801,18 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H61" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I61" t="n">
-        <v>4.6</v>
+        <v>4.45</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M61" t="n">
         <v>4.6</v>
@@ -7835,7 +7835,7 @@
         <v>9</v>
       </c>
       <c r="U61" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="V61" t="n">
         <v>8</v>
@@ -7847,13 +7847,13 @@
         <v>11.75</v>
       </c>
       <c r="Y61" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Z61" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AA61" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AB61" t="n">
         <v>13.5</v>
@@ -7865,16 +7865,16 @@
         <v>300</v>
       </c>
       <c r="AE61" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AF61" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG61" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH61" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AI61" t="n">
         <v>40</v>
@@ -8541,7 +8541,7 @@
         <v>1.95</v>
       </c>
       <c r="O67" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="P67" t="n">
         <v>1.4</v>
@@ -10831,13 +10831,13 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="H86" t="n">
         <v>3.25</v>
       </c>
       <c r="I86" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -10857,7 +10857,7 @@
         <v>1.4</v>
       </c>
       <c r="Q86" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="R86" t="n">
         <v>1.65</v>
@@ -10866,16 +10866,16 @@
         <v>1.98</v>
       </c>
       <c r="T86" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="U86" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="V86" t="n">
         <v>8.5</v>
       </c>
       <c r="W86" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="X86" t="n">
         <v>16</v>
@@ -10884,10 +10884,10 @@
         <v>25</v>
       </c>
       <c r="Z86" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AA86" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AB86" t="n">
         <v>13.5</v>
@@ -10899,19 +10899,19 @@
         <v>450</v>
       </c>
       <c r="AE86" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AF86" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AG86" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AH86" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AI86" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ86" t="n">
         <v>35</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-11.xlsx
@@ -1013,31 +1013,31 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="H5" t="n">
         <v>2.82</v>
       </c>
       <c r="I5" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="J5" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="K5" t="n">
         <v>6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="M5" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="N5" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="O5" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="P5" t="n">
         <v>1.67</v>
@@ -1052,16 +1052,16 @@
         <v>1.57</v>
       </c>
       <c r="T5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V5" t="n">
         <v>11</v>
       </c>
       <c r="W5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X5" t="n">
         <v>26</v>
@@ -1088,16 +1088,16 @@
         <v>7</v>
       </c>
       <c r="AF5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG5" t="n">
         <v>13</v>
       </c>
       <c r="AH5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ5" t="n">
         <v>51</v>
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="H6" t="n">
         <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="J6" t="n">
         <v>1.13</v>
@@ -1174,19 +1174,19 @@
         <v>1.57</v>
       </c>
       <c r="T6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U6" t="n">
+        <v>17</v>
+      </c>
+      <c r="V6" t="n">
         <v>15</v>
-      </c>
-      <c r="V6" t="n">
-        <v>13</v>
       </c>
       <c r="W6" t="n">
         <v>41</v>
       </c>
       <c r="X6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Y6" t="n">
         <v>51</v>
@@ -1210,13 +1210,13 @@
         <v>5.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH6" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AI6" t="n">
         <v>23</v>
@@ -1623,13 +1623,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H10" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I10" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J10" t="n">
         <v>1.04</v>
@@ -1644,10 +1644,10 @@
         <v>4.33</v>
       </c>
       <c r="N10" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O10" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P10" t="n">
         <v>1.33</v>
@@ -1665,25 +1665,25 @@
         <v>8.5</v>
       </c>
       <c r="U10" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V10" t="n">
         <v>8.5</v>
       </c>
       <c r="W10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X10" t="n">
         <v>13</v>
       </c>
       <c r="Y10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z10" t="n">
         <v>13</v>
       </c>
       <c r="AA10" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB10" t="n">
         <v>13</v>
@@ -1698,13 +1698,13 @@
         <v>15</v>
       </c>
       <c r="AF10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG10" t="n">
         <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI10" t="n">
         <v>34</v>
@@ -2477,13 +2477,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="H17" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I17" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="J17" t="n">
         <v>1.11</v>
@@ -2516,19 +2516,19 @@
         <v>1.67</v>
       </c>
       <c r="T17" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V17" t="n">
         <v>11</v>
       </c>
       <c r="W17" t="n">
+        <v>29</v>
+      </c>
+      <c r="X17" t="n">
         <v>26</v>
-      </c>
-      <c r="X17" t="n">
-        <v>23</v>
       </c>
       <c r="Y17" t="n">
         <v>41</v>
@@ -2549,19 +2549,19 @@
         <v>101</v>
       </c>
       <c r="AE17" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH17" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI17" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ17" t="n">
         <v>41</v>
@@ -2599,13 +2599,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="H18" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J18" t="n">
         <v>1.13</v>
@@ -2614,22 +2614,22 @@
         <v>6</v>
       </c>
       <c r="L18" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P18" t="n">
         <v>1.57</v>
       </c>
-      <c r="M18" t="n">
+      <c r="Q18" t="n">
         <v>2.25</v>
-      </c>
-      <c r="N18" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.2</v>
       </c>
       <c r="R18" t="n">
         <v>2.38</v>
@@ -2644,7 +2644,7 @@
         <v>7.5</v>
       </c>
       <c r="V18" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="W18" t="n">
         <v>15</v>
@@ -2656,16 +2656,16 @@
         <v>41</v>
       </c>
       <c r="Z18" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AA18" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB18" t="n">
         <v>21</v>
       </c>
       <c r="AC18" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AD18" t="n">
         <v>101</v>
@@ -2854,34 +2854,34 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M20" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="N20" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O20" t="n">
         <v>1.65</v>
       </c>
       <c r="P20" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="R20" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="S20" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="T20" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="U20" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="V20" t="n">
         <v>8.5</v>
@@ -2893,10 +2893,10 @@
         <v>14</v>
       </c>
       <c r="Y20" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z20" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AA20" t="n">
         <v>7.6</v>
@@ -2905,7 +2905,7 @@
         <v>22</v>
       </c>
       <c r="AC20" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AD20" t="n">
         <v>101</v>
@@ -2917,13 +2917,13 @@
         <v>32</v>
       </c>
       <c r="AG20" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AH20" t="n">
         <v>120</v>
       </c>
       <c r="AI20" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ20" t="n">
         <v>80</v>
@@ -3092,10 +3092,10 @@
         <v>4.5</v>
       </c>
       <c r="J22" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L22" t="n">
         <v>1.4</v>
@@ -3449,13 +3449,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="H25" t="n">
         <v>3.6</v>
       </c>
       <c r="I25" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="J25" t="n">
         <v>1.06</v>
@@ -3464,16 +3464,16 @@
         <v>10</v>
       </c>
       <c r="L25" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M25" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N25" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="O25" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="P25" t="n">
         <v>1.44</v>
@@ -3488,19 +3488,19 @@
         <v>1.73</v>
       </c>
       <c r="T25" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U25" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V25" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W25" t="n">
+        <v>13</v>
+      </c>
+      <c r="X25" t="n">
         <v>15</v>
-      </c>
-      <c r="X25" t="n">
-        <v>17</v>
       </c>
       <c r="Y25" t="n">
         <v>29</v>
@@ -3521,19 +3521,19 @@
         <v>351</v>
       </c>
       <c r="AE25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI25" t="n">
         <v>41</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>34</v>
       </c>
       <c r="AJ25" t="n">
         <v>41</v>
@@ -7694,16 +7694,16 @@
         <v>15</v>
       </c>
       <c r="L60" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M60" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N60" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="O60" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="P60" t="n">
         <v>1.3</v>
@@ -7712,7 +7712,7 @@
         <v>3.4</v>
       </c>
       <c r="R60" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S60" t="n">
         <v>2.5</v>
@@ -7801,21 +7801,21 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H61" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="I61" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M61" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="N61" t="n">
         <v>1.55</v>
@@ -7826,61 +7826,61 @@
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S61" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="T61" t="n">
         <v>9</v>
       </c>
       <c r="U61" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="V61" t="n">
         <v>8</v>
       </c>
       <c r="W61" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="X61" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z61" t="n">
         <v>13.5</v>
       </c>
-      <c r="X61" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="Y61" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="Z61" t="n">
+      <c r="AA61" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>45</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>250</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG61" t="n">
         <v>14</v>
       </c>
-      <c r="AA61" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AB61" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC61" t="n">
-        <v>50</v>
-      </c>
-      <c r="AD61" t="n">
-        <v>300</v>
-      </c>
-      <c r="AE61" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AF61" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG61" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AH61" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AI61" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AJ61" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62">
@@ -8273,22 +8273,22 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="H65" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I65" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="J65" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="K65" t="n">
         <v>7</v>
       </c>
       <c r="L65" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="M65" t="n">
         <v>2.5</v>
@@ -8300,28 +8300,28 @@
         <v>1.5</v>
       </c>
       <c r="P65" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q65" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R65" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S65" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T65" t="n">
         <v>5.5</v>
       </c>
       <c r="U65" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V65" t="n">
         <v>9.5</v>
       </c>
       <c r="W65" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X65" t="n">
         <v>19</v>
@@ -8345,10 +8345,10 @@
         <v>1250</v>
       </c>
       <c r="AE65" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF65" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG65" t="n">
         <v>17</v>
@@ -10831,90 +10831,90 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.02</v>
+        <v>1.65</v>
       </c>
       <c r="H86" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="I86" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="M86" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="N86" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="O86" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="P86" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Q86" t="n">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="R86" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="S86" t="n">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="T86" t="n">
-        <v>7.7</v>
+        <v>7.1</v>
       </c>
       <c r="U86" t="n">
+        <v>8</v>
+      </c>
+      <c r="V86" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="W86" t="n">
+        <v>13</v>
+      </c>
+      <c r="X86" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z86" t="n">
         <v>10</v>
       </c>
-      <c r="V86" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W86" t="n">
-        <v>19</v>
-      </c>
-      <c r="X86" t="n">
+      <c r="AA86" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AB86" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC86" t="n">
+        <v>70</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>600</v>
+      </c>
+      <c r="AE86" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF86" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG86" t="n">
         <v>16</v>
       </c>
-      <c r="Y86" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z86" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AA86" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AB86" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC86" t="n">
-        <v>60</v>
-      </c>
-      <c r="AD86" t="n">
-        <v>450</v>
-      </c>
-      <c r="AE86" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AF86" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG86" t="n">
-        <v>11.75</v>
-      </c>
       <c r="AH86" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AI86" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AJ86" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="87">
